--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="229">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -508,7 +508,19 @@
     <t>['4', '19', '36', '77']</t>
   </si>
   <si>
-    <t>['21', '44', '73']</t>
+    <t>['20', '44', '73']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['35', '37']</t>
+  </si>
+  <si>
+    <t>['68']</t>
   </si>
   <si>
     <t>['2', '45+4']</t>
@@ -530,9 +542,6 @@
   </si>
   <si>
     <t>['37', '45+3', '55', '65', '79']</t>
-  </si>
-  <si>
-    <t>['68']</t>
   </si>
   <si>
     <t>['36', '77']</t>
@@ -587,9 +596,6 @@
   </si>
   <si>
     <t>['54']</t>
-  </si>
-  <si>
-    <t>['35']</t>
   </si>
   <si>
     <t>['75', '90+1', '90+3']</t>
@@ -655,9 +661,6 @@
     <t>['11', '25', '85', '90+1']</t>
   </si>
   <si>
-    <t>['41']</t>
-  </si>
-  <si>
     <t>['2', '52']</t>
   </si>
   <si>
@@ -680,6 +683,24 @@
   </si>
   <si>
     <t>['73']</t>
+  </si>
+  <si>
+    <t>['32', '59']</t>
+  </si>
+  <si>
+    <t>['14', '90']</t>
+  </si>
+  <si>
+    <t>['51', '68', '76']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['45+2', '88', '90+2']</t>
+  </si>
+  <si>
+    <t>['60', '73']</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1062,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK114"/>
+  <dimension ref="A1:BK122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1285,7 +1306,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1375,7 +1396,7 @@
         <v>2.5</v>
       </c>
       <c r="AT2">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1476,7 +1497,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1566,7 +1587,7 @@
         <v>0.33</v>
       </c>
       <c r="AT3">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1667,7 +1688,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1858,7 +1879,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -1945,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT5">
         <v>1.5</v>
@@ -2049,7 +2070,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q6">
         <v>11</v>
@@ -2240,7 +2261,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2327,10 +2348,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT7">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2521,7 +2542,7 @@
         <v>1.67</v>
       </c>
       <c r="AT8">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2709,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT9">
         <v>1</v>
@@ -2813,7 +2834,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2900,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT10">
         <v>2.67</v>
@@ -3282,10 +3303,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT12">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3473,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT13">
         <v>2.2</v>
@@ -3858,7 +3879,7 @@
         <v>1.67</v>
       </c>
       <c r="AT15">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4046,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT16">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4341,7 +4362,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4431,7 +4452,7 @@
         <v>1.83</v>
       </c>
       <c r="AT18">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -5105,7 +5126,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5192,10 +5213,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT22">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU22">
         <v>1.61</v>
@@ -5296,7 +5317,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -5383,7 +5404,7 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT23">
         <v>1.5</v>
@@ -5577,7 +5598,7 @@
         <v>2.33</v>
       </c>
       <c r="AT24">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU24">
         <v>1.57</v>
@@ -5678,7 +5699,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5765,7 +5786,7 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AT25">
         <v>1.5</v>
@@ -5959,7 +5980,7 @@
         <v>2.5</v>
       </c>
       <c r="AT26">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AU26">
         <v>1.74</v>
@@ -6060,7 +6081,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6147,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT27">
         <v>0.83</v>
@@ -6251,7 +6272,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6338,10 +6359,10 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT28">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU28">
         <v>0.91</v>
@@ -6633,7 +6654,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7105,7 +7126,7 @@
         <v>1.67</v>
       </c>
       <c r="AT32">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU32">
         <v>1.42</v>
@@ -7675,10 +7696,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT35">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU35">
         <v>1.64</v>
@@ -8057,7 +8078,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT37">
         <v>0.33</v>
@@ -8161,7 +8182,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8251,7 +8272,7 @@
         <v>2.67</v>
       </c>
       <c r="AT38">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU38">
         <v>2.3</v>
@@ -8543,7 +8564,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -8633,7 +8654,7 @@
         <v>1.5</v>
       </c>
       <c r="AT40">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU40">
         <v>1.94</v>
@@ -8734,7 +8755,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -8925,7 +8946,7 @@
         <v>97</v>
       </c>
       <c r="P42" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -9116,7 +9137,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9307,7 +9328,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9394,7 +9415,7 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT44">
         <v>2.67</v>
@@ -9585,7 +9606,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AT45">
         <v>0.83</v>
@@ -9689,7 +9710,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9776,10 +9797,10 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT46">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AU46">
         <v>1.12</v>
@@ -9967,7 +9988,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT47">
         <v>0.67</v>
@@ -10158,10 +10179,10 @@
         <v>2</v>
       </c>
       <c r="AS48">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT48">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU48">
         <v>1.45</v>
@@ -10262,7 +10283,7 @@
         <v>86</v>
       </c>
       <c r="P49" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10349,10 +10370,10 @@
         <v>3</v>
       </c>
       <c r="AS49">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT49">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU49">
         <v>1.56</v>
@@ -10453,7 +10474,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10731,10 +10752,10 @@
         <v>0.5</v>
       </c>
       <c r="AS51">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT51">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU51">
         <v>1.16</v>
@@ -11217,7 +11238,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -11307,7 +11328,7 @@
         <v>0.33</v>
       </c>
       <c r="AT54">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU54">
         <v>1.28</v>
@@ -11408,7 +11429,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11599,7 +11620,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11689,7 +11710,7 @@
         <v>1.5</v>
       </c>
       <c r="AT56">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU56">
         <v>1.65</v>
@@ -11790,7 +11811,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -11981,7 +12002,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12071,7 +12092,7 @@
         <v>1.67</v>
       </c>
       <c r="AT58">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU58">
         <v>1.19</v>
@@ -12259,7 +12280,7 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT59">
         <v>0.33</v>
@@ -12363,7 +12384,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -12453,7 +12474,7 @@
         <v>2.33</v>
       </c>
       <c r="AT60">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU60">
         <v>1.64</v>
@@ -12554,7 +12575,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12641,10 +12662,10 @@
         <v>1.33</v>
       </c>
       <c r="AS61">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT61">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU61">
         <v>1.25</v>
@@ -12745,7 +12766,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12835,7 +12856,7 @@
         <v>1.67</v>
       </c>
       <c r="AT62">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU62">
         <v>1.66</v>
@@ -12936,7 +12957,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13214,7 +13235,7 @@
         <v>0</v>
       </c>
       <c r="AS64">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT64">
         <v>0.67</v>
@@ -13318,7 +13339,7 @@
         <v>86</v>
       </c>
       <c r="P65" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13405,7 +13426,7 @@
         <v>0.67</v>
       </c>
       <c r="AS65">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT65">
         <v>0.83</v>
@@ -13509,7 +13530,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13596,7 +13617,7 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT66">
         <v>1.5</v>
@@ -13978,7 +13999,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT68">
         <v>1.33</v>
@@ -14082,7 +14103,7 @@
         <v>86</v>
       </c>
       <c r="P69" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14169,7 +14190,7 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AT69">
         <v>2.2</v>
@@ -14273,7 +14294,7 @@
         <v>86</v>
       </c>
       <c r="P70" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14363,7 +14384,7 @@
         <v>1.8</v>
       </c>
       <c r="AT70">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU70">
         <v>2.3</v>
@@ -14464,7 +14485,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -14655,7 +14676,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14846,7 +14867,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -14936,7 +14957,7 @@
         <v>2.5</v>
       </c>
       <c r="AT73">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU73">
         <v>2.04</v>
@@ -15037,7 +15058,7 @@
         <v>111</v>
       </c>
       <c r="P74" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15124,10 +15145,10 @@
         <v>1.67</v>
       </c>
       <c r="AS74">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT74">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU74">
         <v>1.52</v>
@@ -15315,7 +15336,7 @@
         <v>0</v>
       </c>
       <c r="AS75">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT75">
         <v>0</v>
@@ -15610,7 +15631,7 @@
         <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15891,7 +15912,7 @@
         <v>1.67</v>
       </c>
       <c r="AT78">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU78">
         <v>1.04</v>
@@ -16082,7 +16103,7 @@
         <v>1.83</v>
       </c>
       <c r="AT79">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU79">
         <v>1.56</v>
@@ -16273,7 +16294,7 @@
         <v>2.33</v>
       </c>
       <c r="AT80">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AU80">
         <v>1.82</v>
@@ -16374,7 +16395,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16461,10 +16482,10 @@
         <v>2</v>
       </c>
       <c r="AS81">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT81">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU81">
         <v>1.47</v>
@@ -16565,7 +16586,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -16947,7 +16968,7 @@
         <v>100</v>
       </c>
       <c r="P84" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17138,7 +17159,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17225,7 +17246,7 @@
         <v>1.25</v>
       </c>
       <c r="AS85">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT85">
         <v>1</v>
@@ -17329,7 +17350,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17416,10 +17437,10 @@
         <v>3</v>
       </c>
       <c r="AS86">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT86">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU86">
         <v>1.64</v>
@@ -17520,7 +17541,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17798,7 +17819,7 @@
         <v>0</v>
       </c>
       <c r="AS88">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT88">
         <v>0</v>
@@ -17902,7 +17923,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -17989,7 +18010,7 @@
         <v>2.5</v>
       </c>
       <c r="AS89">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AT89">
         <v>2.67</v>
@@ -18183,7 +18204,7 @@
         <v>1.8</v>
       </c>
       <c r="AT90">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU90">
         <v>2.23</v>
@@ -18284,7 +18305,7 @@
         <v>86</v>
       </c>
       <c r="P91" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18562,7 +18583,7 @@
         <v>1</v>
       </c>
       <c r="AS92">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT92">
         <v>0.67</v>
@@ -18753,7 +18774,7 @@
         <v>0.5</v>
       </c>
       <c r="AS93">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT93">
         <v>1.33</v>
@@ -18857,7 +18878,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19138,7 +19159,7 @@
         <v>2.5</v>
       </c>
       <c r="AT95">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU95">
         <v>1.95</v>
@@ -19239,7 +19260,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19326,7 +19347,7 @@
         <v>0.4</v>
       </c>
       <c r="AS96">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT96">
         <v>0.5</v>
@@ -19517,10 +19538,10 @@
         <v>2.25</v>
       </c>
       <c r="AS97">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT97">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU97">
         <v>1.53</v>
@@ -19621,7 +19642,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -19711,7 +19732,7 @@
         <v>2.67</v>
       </c>
       <c r="AT98">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AU98">
         <v>2.36</v>
@@ -19812,7 +19833,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q99">
         <v>9</v>
@@ -19899,10 +19920,10 @@
         <v>2</v>
       </c>
       <c r="AS99">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT99">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU99">
         <v>1.33</v>
@@ -20003,7 +20024,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20093,7 +20114,7 @@
         <v>0.33</v>
       </c>
       <c r="AT100">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU100">
         <v>1.2</v>
@@ -20284,7 +20305,7 @@
         <v>0.67</v>
       </c>
       <c r="AT101">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU101">
         <v>1.33</v>
@@ -20767,7 +20788,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q104">
         <v>2</v>
@@ -20958,7 +20979,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21149,7 +21170,7 @@
         <v>112</v>
       </c>
       <c r="P106" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21236,7 +21257,7 @@
         <v>1.2</v>
       </c>
       <c r="AS106">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT106">
         <v>1.5</v>
@@ -21430,7 +21451,7 @@
         <v>1.5</v>
       </c>
       <c r="AT107">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU107">
         <v>1.57</v>
@@ -21531,7 +21552,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -21913,7 +21934,7 @@
         <v>86</v>
       </c>
       <c r="P110" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22000,7 +22021,7 @@
         <v>0.25</v>
       </c>
       <c r="AS110">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AT110">
         <v>0.67</v>
@@ -22486,7 +22507,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q113">
         <v>7</v>
@@ -22819,6 +22840,1534 @@
       </c>
       <c r="BK114">
         <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:63">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>2638111</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="2">
+        <v>44864.35416666666</v>
+      </c>
+      <c r="F115">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>79</v>
+      </c>
+      <c r="H115" t="s">
+        <v>81</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>2</v>
+      </c>
+      <c r="N115">
+        <v>2</v>
+      </c>
+      <c r="O115" t="s">
+        <v>86</v>
+      </c>
+      <c r="P115" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q115">
+        <v>7</v>
+      </c>
+      <c r="R115">
+        <v>2</v>
+      </c>
+      <c r="S115">
+        <v>9</v>
+      </c>
+      <c r="T115">
+        <v>4.5</v>
+      </c>
+      <c r="U115">
+        <v>2.3</v>
+      </c>
+      <c r="V115">
+        <v>2.38</v>
+      </c>
+      <c r="W115">
+        <v>1.33</v>
+      </c>
+      <c r="X115">
+        <v>3.25</v>
+      </c>
+      <c r="Y115">
+        <v>2.63</v>
+      </c>
+      <c r="Z115">
+        <v>1.44</v>
+      </c>
+      <c r="AA115">
+        <v>6.5</v>
+      </c>
+      <c r="AB115">
+        <v>1.11</v>
+      </c>
+      <c r="AC115">
+        <v>4.4</v>
+      </c>
+      <c r="AD115">
+        <v>3.75</v>
+      </c>
+      <c r="AE115">
+        <v>1.78</v>
+      </c>
+      <c r="AF115">
+        <v>1.03</v>
+      </c>
+      <c r="AG115">
+        <v>13</v>
+      </c>
+      <c r="AH115">
+        <v>1.25</v>
+      </c>
+      <c r="AI115">
+        <v>4</v>
+      </c>
+      <c r="AJ115">
+        <v>1.75</v>
+      </c>
+      <c r="AK115">
+        <v>2.08</v>
+      </c>
+      <c r="AL115">
+        <v>1.7</v>
+      </c>
+      <c r="AM115">
+        <v>2.05</v>
+      </c>
+      <c r="AN115">
+        <v>1.98</v>
+      </c>
+      <c r="AO115">
+        <v>1.25</v>
+      </c>
+      <c r="AP115">
+        <v>1.22</v>
+      </c>
+      <c r="AQ115">
+        <v>1</v>
+      </c>
+      <c r="AR115">
+        <v>2.6</v>
+      </c>
+      <c r="AS115">
+        <v>0.83</v>
+      </c>
+      <c r="AT115">
+        <v>2.67</v>
+      </c>
+      <c r="AU115">
+        <v>1.57</v>
+      </c>
+      <c r="AV115">
+        <v>1.36</v>
+      </c>
+      <c r="AW115">
+        <v>2.93</v>
+      </c>
+      <c r="AX115">
+        <v>3.08</v>
+      </c>
+      <c r="AY115">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ115">
+        <v>1.56</v>
+      </c>
+      <c r="BA115">
+        <v>1.2</v>
+      </c>
+      <c r="BB115">
+        <v>1.41</v>
+      </c>
+      <c r="BC115">
+        <v>1.78</v>
+      </c>
+      <c r="BD115">
+        <v>2.2</v>
+      </c>
+      <c r="BE115">
+        <v>2.93</v>
+      </c>
+      <c r="BF115">
+        <v>5</v>
+      </c>
+      <c r="BG115">
+        <v>8</v>
+      </c>
+      <c r="BH115">
+        <v>10</v>
+      </c>
+      <c r="BI115">
+        <v>13</v>
+      </c>
+      <c r="BJ115">
+        <v>15</v>
+      </c>
+      <c r="BK115">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" spans="1:63">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>2638113</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="2">
+        <v>44864.45833333334</v>
+      </c>
+      <c r="F116">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>72</v>
+      </c>
+      <c r="H116" t="s">
+        <v>69</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>2</v>
+      </c>
+      <c r="N116">
+        <v>3</v>
+      </c>
+      <c r="O116" t="s">
+        <v>165</v>
+      </c>
+      <c r="P116" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q116">
+        <v>5</v>
+      </c>
+      <c r="R116">
+        <v>5</v>
+      </c>
+      <c r="S116">
+        <v>10</v>
+      </c>
+      <c r="T116">
+        <v>4.5</v>
+      </c>
+      <c r="U116">
+        <v>2.2</v>
+      </c>
+      <c r="V116">
+        <v>2.5</v>
+      </c>
+      <c r="W116">
+        <v>1.4</v>
+      </c>
+      <c r="X116">
+        <v>2.75</v>
+      </c>
+      <c r="Y116">
+        <v>2.75</v>
+      </c>
+      <c r="Z116">
+        <v>1.4</v>
+      </c>
+      <c r="AA116">
+        <v>8</v>
+      </c>
+      <c r="AB116">
+        <v>1.08</v>
+      </c>
+      <c r="AC116">
+        <v>4.3</v>
+      </c>
+      <c r="AD116">
+        <v>3.55</v>
+      </c>
+      <c r="AE116">
+        <v>1.86</v>
+      </c>
+      <c r="AF116">
+        <v>1.05</v>
+      </c>
+      <c r="AG116">
+        <v>11</v>
+      </c>
+      <c r="AH116">
+        <v>1.3</v>
+      </c>
+      <c r="AI116">
+        <v>3.6</v>
+      </c>
+      <c r="AJ116">
+        <v>1.85</v>
+      </c>
+      <c r="AK116">
+        <v>1.95</v>
+      </c>
+      <c r="AL116">
+        <v>1.8</v>
+      </c>
+      <c r="AM116">
+        <v>1.95</v>
+      </c>
+      <c r="AN116">
+        <v>1.93</v>
+      </c>
+      <c r="AO116">
+        <v>1.27</v>
+      </c>
+      <c r="AP116">
+        <v>1.22</v>
+      </c>
+      <c r="AQ116">
+        <v>1.8</v>
+      </c>
+      <c r="AR116">
+        <v>0.4</v>
+      </c>
+      <c r="AS116">
+        <v>1.5</v>
+      </c>
+      <c r="AT116">
+        <v>0.83</v>
+      </c>
+      <c r="AU116">
+        <v>1.56</v>
+      </c>
+      <c r="AV116">
+        <v>1.77</v>
+      </c>
+      <c r="AW116">
+        <v>3.33</v>
+      </c>
+      <c r="AX116">
+        <v>3.58</v>
+      </c>
+      <c r="AY116">
+        <v>8.4</v>
+      </c>
+      <c r="AZ116">
+        <v>1.45</v>
+      </c>
+      <c r="BA116">
+        <v>1.26</v>
+      </c>
+      <c r="BB116">
+        <v>1.57</v>
+      </c>
+      <c r="BC116">
+        <v>1.93</v>
+      </c>
+      <c r="BD116">
+        <v>2.42</v>
+      </c>
+      <c r="BE116">
+        <v>3.34</v>
+      </c>
+      <c r="BF116">
+        <v>7</v>
+      </c>
+      <c r="BG116">
+        <v>5</v>
+      </c>
+      <c r="BH116">
+        <v>4</v>
+      </c>
+      <c r="BI116">
+        <v>19</v>
+      </c>
+      <c r="BJ116">
+        <v>11</v>
+      </c>
+      <c r="BK116">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>2638106</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>44864.45833333334</v>
+      </c>
+      <c r="F117">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>84</v>
+      </c>
+      <c r="H117" t="s">
+        <v>75</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117" t="s">
+        <v>86</v>
+      </c>
+      <c r="P117" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q117">
+        <v>7</v>
+      </c>
+      <c r="R117">
+        <v>4</v>
+      </c>
+      <c r="S117">
+        <v>11</v>
+      </c>
+      <c r="T117">
+        <v>4.33</v>
+      </c>
+      <c r="U117">
+        <v>2.3</v>
+      </c>
+      <c r="V117">
+        <v>2.4</v>
+      </c>
+      <c r="W117">
+        <v>1.33</v>
+      </c>
+      <c r="X117">
+        <v>3.25</v>
+      </c>
+      <c r="Y117">
+        <v>2.63</v>
+      </c>
+      <c r="Z117">
+        <v>1.44</v>
+      </c>
+      <c r="AA117">
+        <v>6.5</v>
+      </c>
+      <c r="AB117">
+        <v>1.11</v>
+      </c>
+      <c r="AC117">
+        <v>4.25</v>
+      </c>
+      <c r="AD117">
+        <v>3.65</v>
+      </c>
+      <c r="AE117">
+        <v>1.84</v>
+      </c>
+      <c r="AF117">
+        <v>1.04</v>
+      </c>
+      <c r="AG117">
+        <v>13</v>
+      </c>
+      <c r="AH117">
+        <v>1.26</v>
+      </c>
+      <c r="AI117">
+        <v>4</v>
+      </c>
+      <c r="AJ117">
+        <v>1.85</v>
+      </c>
+      <c r="AK117">
+        <v>1.95</v>
+      </c>
+      <c r="AL117">
+        <v>1.67</v>
+      </c>
+      <c r="AM117">
+        <v>2.1</v>
+      </c>
+      <c r="AN117">
+        <v>1.88</v>
+      </c>
+      <c r="AO117">
+        <v>1.26</v>
+      </c>
+      <c r="AP117">
+        <v>1.26</v>
+      </c>
+      <c r="AQ117">
+        <v>0.2</v>
+      </c>
+      <c r="AR117">
+        <v>2</v>
+      </c>
+      <c r="AS117">
+        <v>0.33</v>
+      </c>
+      <c r="AT117">
+        <v>1.83</v>
+      </c>
+      <c r="AU117">
+        <v>1.68</v>
+      </c>
+      <c r="AV117">
+        <v>1.77</v>
+      </c>
+      <c r="AW117">
+        <v>3.45</v>
+      </c>
+      <c r="AX117">
+        <v>2.84</v>
+      </c>
+      <c r="AY117">
+        <v>8</v>
+      </c>
+      <c r="AZ117">
+        <v>1.64</v>
+      </c>
+      <c r="BA117">
+        <v>1.24</v>
+      </c>
+      <c r="BB117">
+        <v>1.53</v>
+      </c>
+      <c r="BC117">
+        <v>1.88</v>
+      </c>
+      <c r="BD117">
+        <v>2.35</v>
+      </c>
+      <c r="BE117">
+        <v>3.18</v>
+      </c>
+      <c r="BF117">
+        <v>3</v>
+      </c>
+      <c r="BG117">
+        <v>4</v>
+      </c>
+      <c r="BH117">
+        <v>12</v>
+      </c>
+      <c r="BI117">
+        <v>9</v>
+      </c>
+      <c r="BJ117">
+        <v>15</v>
+      </c>
+      <c r="BK117">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>2638109</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>44864.58333333334</v>
+      </c>
+      <c r="F118">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>70</v>
+      </c>
+      <c r="H118" t="s">
+        <v>71</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>3</v>
+      </c>
+      <c r="N118">
+        <v>4</v>
+      </c>
+      <c r="O118" t="s">
+        <v>166</v>
+      </c>
+      <c r="P118" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q118">
+        <v>4</v>
+      </c>
+      <c r="R118">
+        <v>5</v>
+      </c>
+      <c r="S118">
+        <v>9</v>
+      </c>
+      <c r="T118">
+        <v>2</v>
+      </c>
+      <c r="U118">
+        <v>2.5</v>
+      </c>
+      <c r="V118">
+        <v>5.5</v>
+      </c>
+      <c r="W118">
+        <v>1.29</v>
+      </c>
+      <c r="X118">
+        <v>3.5</v>
+      </c>
+      <c r="Y118">
+        <v>2.38</v>
+      </c>
+      <c r="Z118">
+        <v>1.53</v>
+      </c>
+      <c r="AA118">
+        <v>5.5</v>
+      </c>
+      <c r="AB118">
+        <v>1.14</v>
+      </c>
+      <c r="AC118">
+        <v>1.5</v>
+      </c>
+      <c r="AD118">
+        <v>4.7</v>
+      </c>
+      <c r="AE118">
+        <v>6.1</v>
+      </c>
+      <c r="AF118">
+        <v>1.02</v>
+      </c>
+      <c r="AG118">
+        <v>17</v>
+      </c>
+      <c r="AH118">
+        <v>1.19</v>
+      </c>
+      <c r="AI118">
+        <v>4.75</v>
+      </c>
+      <c r="AJ118">
+        <v>1.56</v>
+      </c>
+      <c r="AK118">
+        <v>2.33</v>
+      </c>
+      <c r="AL118">
+        <v>1.75</v>
+      </c>
+      <c r="AM118">
+        <v>2</v>
+      </c>
+      <c r="AN118">
+        <v>1.13</v>
+      </c>
+      <c r="AO118">
+        <v>1.19</v>
+      </c>
+      <c r="AP118">
+        <v>2.55</v>
+      </c>
+      <c r="AQ118">
+        <v>2.17</v>
+      </c>
+      <c r="AR118">
+        <v>0.6</v>
+      </c>
+      <c r="AS118">
+        <v>1.86</v>
+      </c>
+      <c r="AT118">
+        <v>1</v>
+      </c>
+      <c r="AU118">
+        <v>1.46</v>
+      </c>
+      <c r="AV118">
+        <v>1.42</v>
+      </c>
+      <c r="AW118">
+        <v>2.88</v>
+      </c>
+      <c r="AX118">
+        <v>1.32</v>
+      </c>
+      <c r="AY118">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ118">
+        <v>4.5</v>
+      </c>
+      <c r="BA118">
+        <v>1.25</v>
+      </c>
+      <c r="BB118">
+        <v>1.54</v>
+      </c>
+      <c r="BC118">
+        <v>1.88</v>
+      </c>
+      <c r="BD118">
+        <v>2.34</v>
+      </c>
+      <c r="BE118">
+        <v>3.28</v>
+      </c>
+      <c r="BF118">
+        <v>6</v>
+      </c>
+      <c r="BG118">
+        <v>6</v>
+      </c>
+      <c r="BH118">
+        <v>10</v>
+      </c>
+      <c r="BI118">
+        <v>6</v>
+      </c>
+      <c r="BJ118">
+        <v>16</v>
+      </c>
+      <c r="BK118">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:63">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>2638115</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="2">
+        <v>44864.69791666666</v>
+      </c>
+      <c r="F119">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>76</v>
+      </c>
+      <c r="H119" t="s">
+        <v>65</v>
+      </c>
+      <c r="I119">
+        <v>2</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>2</v>
+      </c>
+      <c r="L119">
+        <v>2</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>3</v>
+      </c>
+      <c r="O119" t="s">
+        <v>167</v>
+      </c>
+      <c r="P119" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q119">
+        <v>6</v>
+      </c>
+      <c r="R119">
+        <v>1</v>
+      </c>
+      <c r="S119">
+        <v>7</v>
+      </c>
+      <c r="T119">
+        <v>4</v>
+      </c>
+      <c r="U119">
+        <v>2.1</v>
+      </c>
+      <c r="V119">
+        <v>2.75</v>
+      </c>
+      <c r="W119">
+        <v>1.44</v>
+      </c>
+      <c r="X119">
+        <v>2.63</v>
+      </c>
+      <c r="Y119">
+        <v>3.25</v>
+      </c>
+      <c r="Z119">
+        <v>1.33</v>
+      </c>
+      <c r="AA119">
+        <v>9</v>
+      </c>
+      <c r="AB119">
+        <v>1.07</v>
+      </c>
+      <c r="AC119">
+        <v>3.7</v>
+      </c>
+      <c r="AD119">
+        <v>3.4</v>
+      </c>
+      <c r="AE119">
+        <v>2.13</v>
+      </c>
+      <c r="AF119">
+        <v>1.07</v>
+      </c>
+      <c r="AG119">
+        <v>9.5</v>
+      </c>
+      <c r="AH119">
+        <v>1.38</v>
+      </c>
+      <c r="AI119">
+        <v>3.1</v>
+      </c>
+      <c r="AJ119">
+        <v>2.11</v>
+      </c>
+      <c r="AK119">
+        <v>1.68</v>
+      </c>
+      <c r="AL119">
+        <v>1.91</v>
+      </c>
+      <c r="AM119">
+        <v>1.91</v>
+      </c>
+      <c r="AN119">
+        <v>1.68</v>
+      </c>
+      <c r="AO119">
+        <v>1.32</v>
+      </c>
+      <c r="AP119">
+        <v>1.29</v>
+      </c>
+      <c r="AQ119">
+        <v>1</v>
+      </c>
+      <c r="AR119">
+        <v>2.2</v>
+      </c>
+      <c r="AS119">
+        <v>1.33</v>
+      </c>
+      <c r="AT119">
+        <v>1.83</v>
+      </c>
+      <c r="AU119">
+        <v>1.52</v>
+      </c>
+      <c r="AV119">
+        <v>1.84</v>
+      </c>
+      <c r="AW119">
+        <v>3.36</v>
+      </c>
+      <c r="AX119">
+        <v>2.36</v>
+      </c>
+      <c r="AY119">
+        <v>7.6</v>
+      </c>
+      <c r="AZ119">
+        <v>1.88</v>
+      </c>
+      <c r="BA119">
+        <v>1.31</v>
+      </c>
+      <c r="BB119">
+        <v>1.65</v>
+      </c>
+      <c r="BC119">
+        <v>2.06</v>
+      </c>
+      <c r="BD119">
+        <v>2.51</v>
+      </c>
+      <c r="BE119">
+        <v>3.64</v>
+      </c>
+      <c r="BF119">
+        <v>5</v>
+      </c>
+      <c r="BG119">
+        <v>2</v>
+      </c>
+      <c r="BH119">
+        <v>3</v>
+      </c>
+      <c r="BI119">
+        <v>11</v>
+      </c>
+      <c r="BJ119">
+        <v>8</v>
+      </c>
+      <c r="BK119">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>2638107</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>44865.60416666666</v>
+      </c>
+      <c r="F120">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>73</v>
+      </c>
+      <c r="H120" t="s">
+        <v>83</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>2</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>3</v>
+      </c>
+      <c r="N120">
+        <v>4</v>
+      </c>
+      <c r="O120" t="s">
+        <v>112</v>
+      </c>
+      <c r="P120" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q120">
+        <v>2</v>
+      </c>
+      <c r="R120">
+        <v>4</v>
+      </c>
+      <c r="S120">
+        <v>6</v>
+      </c>
+      <c r="T120">
+        <v>4.5</v>
+      </c>
+      <c r="U120">
+        <v>2.2</v>
+      </c>
+      <c r="V120">
+        <v>2.5</v>
+      </c>
+      <c r="W120">
+        <v>1.4</v>
+      </c>
+      <c r="X120">
+        <v>2.75</v>
+      </c>
+      <c r="Y120">
+        <v>2.75</v>
+      </c>
+      <c r="Z120">
+        <v>1.4</v>
+      </c>
+      <c r="AA120">
+        <v>8</v>
+      </c>
+      <c r="AB120">
+        <v>1.08</v>
+      </c>
+      <c r="AC120">
+        <v>4.2</v>
+      </c>
+      <c r="AD120">
+        <v>3.7</v>
+      </c>
+      <c r="AE120">
+        <v>1.85</v>
+      </c>
+      <c r="AF120">
+        <v>1.05</v>
+      </c>
+      <c r="AG120">
+        <v>11</v>
+      </c>
+      <c r="AH120">
+        <v>1.3</v>
+      </c>
+      <c r="AI120">
+        <v>3.6</v>
+      </c>
+      <c r="AJ120">
+        <v>1.94</v>
+      </c>
+      <c r="AK120">
+        <v>1.96</v>
+      </c>
+      <c r="AL120">
+        <v>1.8</v>
+      </c>
+      <c r="AM120">
+        <v>1.95</v>
+      </c>
+      <c r="AN120">
+        <v>2</v>
+      </c>
+      <c r="AO120">
+        <v>1.27</v>
+      </c>
+      <c r="AP120">
+        <v>1.2</v>
+      </c>
+      <c r="AQ120">
+        <v>0.6</v>
+      </c>
+      <c r="AR120">
+        <v>2.17</v>
+      </c>
+      <c r="AS120">
+        <v>0.5</v>
+      </c>
+      <c r="AT120">
+        <v>2.29</v>
+      </c>
+      <c r="AU120">
+        <v>1.44</v>
+      </c>
+      <c r="AV120">
+        <v>1.47</v>
+      </c>
+      <c r="AW120">
+        <v>2.91</v>
+      </c>
+      <c r="AX120">
+        <v>2.8</v>
+      </c>
+      <c r="AY120">
+        <v>6</v>
+      </c>
+      <c r="AZ120">
+        <v>1.54</v>
+      </c>
+      <c r="BA120">
+        <v>1.21</v>
+      </c>
+      <c r="BB120">
+        <v>1.42</v>
+      </c>
+      <c r="BC120">
+        <v>1.76</v>
+      </c>
+      <c r="BD120">
+        <v>2.22</v>
+      </c>
+      <c r="BE120">
+        <v>2.93</v>
+      </c>
+      <c r="BF120">
+        <v>4</v>
+      </c>
+      <c r="BG120">
+        <v>7</v>
+      </c>
+      <c r="BH120">
+        <v>4</v>
+      </c>
+      <c r="BI120">
+        <v>7</v>
+      </c>
+      <c r="BJ120">
+        <v>8</v>
+      </c>
+      <c r="BK120">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>2638112</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>44865.69791666666</v>
+      </c>
+      <c r="F121">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>68</v>
+      </c>
+      <c r="H121" t="s">
+        <v>82</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>2</v>
+      </c>
+      <c r="N121">
+        <v>3</v>
+      </c>
+      <c r="O121" t="s">
+        <v>124</v>
+      </c>
+      <c r="P121" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q121">
+        <v>4</v>
+      </c>
+      <c r="R121">
+        <v>5</v>
+      </c>
+      <c r="S121">
+        <v>9</v>
+      </c>
+      <c r="T121">
+        <v>2.88</v>
+      </c>
+      <c r="U121">
+        <v>2.2</v>
+      </c>
+      <c r="V121">
+        <v>3.75</v>
+      </c>
+      <c r="W121">
+        <v>1.4</v>
+      </c>
+      <c r="X121">
+        <v>2.75</v>
+      </c>
+      <c r="Y121">
+        <v>2.75</v>
+      </c>
+      <c r="Z121">
+        <v>1.4</v>
+      </c>
+      <c r="AA121">
+        <v>8</v>
+      </c>
+      <c r="AB121">
+        <v>1.08</v>
+      </c>
+      <c r="AC121">
+        <v>2.21</v>
+      </c>
+      <c r="AD121">
+        <v>3.11</v>
+      </c>
+      <c r="AE121">
+        <v>2.82</v>
+      </c>
+      <c r="AF121">
+        <v>1.06</v>
+      </c>
+      <c r="AG121">
+        <v>10</v>
+      </c>
+      <c r="AH121">
+        <v>1.3</v>
+      </c>
+      <c r="AI121">
+        <v>3.6</v>
+      </c>
+      <c r="AJ121">
+        <v>1.99</v>
+      </c>
+      <c r="AK121">
+        <v>1.89</v>
+      </c>
+      <c r="AL121">
+        <v>1.7</v>
+      </c>
+      <c r="AM121">
+        <v>2.05</v>
+      </c>
+      <c r="AN121">
+        <v>1.35</v>
+      </c>
+      <c r="AO121">
+        <v>1.31</v>
+      </c>
+      <c r="AP121">
+        <v>1.62</v>
+      </c>
+      <c r="AQ121">
+        <v>1.2</v>
+      </c>
+      <c r="AR121">
+        <v>0.2</v>
+      </c>
+      <c r="AS121">
+        <v>1</v>
+      </c>
+      <c r="AT121">
+        <v>0.67</v>
+      </c>
+      <c r="AU121">
+        <v>1.47</v>
+      </c>
+      <c r="AV121">
+        <v>1.19</v>
+      </c>
+      <c r="AW121">
+        <v>2.66</v>
+      </c>
+      <c r="AX121">
+        <v>1.58</v>
+      </c>
+      <c r="AY121">
+        <v>5.75</v>
+      </c>
+      <c r="AZ121">
+        <v>2.75</v>
+      </c>
+      <c r="BA121">
+        <v>1.22</v>
+      </c>
+      <c r="BB121">
+        <v>1.44</v>
+      </c>
+      <c r="BC121">
+        <v>1.81</v>
+      </c>
+      <c r="BD121">
+        <v>2.28</v>
+      </c>
+      <c r="BE121">
+        <v>3.04</v>
+      </c>
+      <c r="BF121">
+        <v>4</v>
+      </c>
+      <c r="BG121">
+        <v>6</v>
+      </c>
+      <c r="BH121">
+        <v>6</v>
+      </c>
+      <c r="BI121">
+        <v>6</v>
+      </c>
+      <c r="BJ121">
+        <v>10</v>
+      </c>
+      <c r="BK121">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>2638125</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>44869.69791666666</v>
+      </c>
+      <c r="F122">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s">
+        <v>75</v>
+      </c>
+      <c r="H122" t="s">
+        <v>67</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>2</v>
+      </c>
+      <c r="O122" t="s">
+        <v>168</v>
+      </c>
+      <c r="P122" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q122">
+        <v>3</v>
+      </c>
+      <c r="R122">
+        <v>2</v>
+      </c>
+      <c r="S122">
+        <v>5</v>
+      </c>
+      <c r="T122">
+        <v>2.1</v>
+      </c>
+      <c r="U122">
+        <v>2.25</v>
+      </c>
+      <c r="V122">
+        <v>6</v>
+      </c>
+      <c r="W122">
+        <v>1.36</v>
+      </c>
+      <c r="X122">
+        <v>3</v>
+      </c>
+      <c r="Y122">
+        <v>2.75</v>
+      </c>
+      <c r="Z122">
+        <v>1.4</v>
+      </c>
+      <c r="AA122">
+        <v>7</v>
+      </c>
+      <c r="AB122">
+        <v>1.1</v>
+      </c>
+      <c r="AC122">
+        <v>1.53</v>
+      </c>
+      <c r="AD122">
+        <v>4</v>
+      </c>
+      <c r="AE122">
+        <v>6</v>
+      </c>
+      <c r="AF122">
+        <v>1.04</v>
+      </c>
+      <c r="AG122">
+        <v>12</v>
+      </c>
+      <c r="AH122">
+        <v>1.3</v>
+      </c>
+      <c r="AI122">
+        <v>3.6</v>
+      </c>
+      <c r="AJ122">
+        <v>1.88</v>
+      </c>
+      <c r="AK122">
+        <v>1.88</v>
+      </c>
+      <c r="AL122">
+        <v>1.95</v>
+      </c>
+      <c r="AM122">
+        <v>1.8</v>
+      </c>
+      <c r="AN122">
+        <v>1.15</v>
+      </c>
+      <c r="AO122">
+        <v>1.23</v>
+      </c>
+      <c r="AP122">
+        <v>2.3</v>
+      </c>
+      <c r="AQ122">
+        <v>1.83</v>
+      </c>
+      <c r="AR122">
+        <v>0.67</v>
+      </c>
+      <c r="AS122">
+        <v>1.71</v>
+      </c>
+      <c r="AT122">
+        <v>0.71</v>
+      </c>
+      <c r="AU122">
+        <v>1.61</v>
+      </c>
+      <c r="AV122">
+        <v>1.1</v>
+      </c>
+      <c r="AW122">
+        <v>2.71</v>
+      </c>
+      <c r="AX122">
+        <v>1.28</v>
+      </c>
+      <c r="AY122">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ122">
+        <v>4.9</v>
+      </c>
+      <c r="BA122">
+        <v>1.17</v>
+      </c>
+      <c r="BB122">
+        <v>1.34</v>
+      </c>
+      <c r="BC122">
+        <v>1.64</v>
+      </c>
+      <c r="BD122">
+        <v>2.07</v>
+      </c>
+      <c r="BE122">
+        <v>2.73</v>
+      </c>
+      <c r="BF122">
+        <v>7</v>
+      </c>
+      <c r="BG122">
+        <v>2</v>
+      </c>
+      <c r="BH122">
+        <v>12</v>
+      </c>
+      <c r="BI122">
+        <v>7</v>
+      </c>
+      <c r="BJ122">
+        <v>19</v>
+      </c>
+      <c r="BK122">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="256">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -523,6 +523,63 @@
     <t>['68']</t>
   </si>
   <si>
+    <t>['3', '38']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['21', '89']</t>
+  </si>
+  <si>
+    <t>['64', '73']</t>
+  </si>
+  <si>
+    <t>['68', '90']</t>
+  </si>
+  <si>
+    <t>['52', '84']</t>
+  </si>
+  <si>
+    <t>['69', '88']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['28', '30']</t>
+  </si>
+  <si>
+    <t>['29', '59']</t>
+  </si>
+  <si>
+    <t>['26', '36', '42', '48', '59', '76']</t>
+  </si>
+  <si>
+    <t>['15', '81']</t>
+  </si>
+  <si>
+    <t>['46', '88']</t>
+  </si>
+  <si>
+    <t>['15', '31', '58']</t>
+  </si>
+  <si>
+    <t>['30', '50', '78']</t>
+  </si>
+  <si>
+    <t>['25', '77']</t>
+  </si>
+  <si>
+    <t>['24', '35', '75']</t>
+  </si>
+  <si>
+    <t>['2', '90+1']</t>
+  </si>
+  <si>
+    <t>['43', '54', '89']</t>
+  </si>
+  <si>
     <t>['2', '45+4']</t>
   </si>
   <si>
@@ -701,6 +758,30 @@
   </si>
   <si>
     <t>['60', '73']</t>
+  </si>
+  <si>
+    <t>['12', '89']</t>
+  </si>
+  <si>
+    <t>['23', '35']</t>
+  </si>
+  <si>
+    <t>['4', '58']</t>
+  </si>
+  <si>
+    <t>['79', '82']</t>
+  </si>
+  <si>
+    <t>['45+1', '83']</t>
+  </si>
+  <si>
+    <t>['36', '56', '61']</t>
+  </si>
+  <si>
+    <t>['53', '69']</t>
+  </si>
+  <si>
+    <t>['28']</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK122"/>
+  <dimension ref="A1:BK151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1306,7 +1387,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1393,10 +1474,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AT2">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1497,7 +1578,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1584,10 +1665,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT3">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1688,7 +1769,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1775,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT4">
         <v>1.5</v>
@@ -1879,7 +1960,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -1966,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT5">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2070,7 +2151,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="Q6">
         <v>11</v>
@@ -2157,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT6">
         <v>0.5</v>
@@ -2261,7 +2342,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2348,10 +2429,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT7">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2539,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT8">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2730,10 +2811,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2834,7 +2915,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2921,10 +3002,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="AT10">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3112,10 +3193,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT11">
-        <v>0.83</v>
+        <v>0.63</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3306,7 +3387,7 @@
         <v>1.71</v>
       </c>
       <c r="AT12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3494,10 +3575,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT13">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3685,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3876,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT15">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4067,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.83</v>
+        <v>1.38</v>
       </c>
       <c r="AT16">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4258,10 +4339,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="AT17">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4449,10 +4530,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="AT18">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4640,10 +4721,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="AT19">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4831,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.8</v>
+        <v>1.43</v>
       </c>
       <c r="AT20">
         <v>0.5</v>
@@ -5022,10 +5103,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT21">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU21">
         <v>1.41</v>
@@ -5126,7 +5207,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5213,10 +5294,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT22">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AU22">
         <v>1.61</v>
@@ -5317,7 +5398,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -5404,7 +5485,7 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT23">
         <v>1.5</v>
@@ -5595,10 +5676,10 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT24">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU24">
         <v>1.57</v>
@@ -5699,7 +5780,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5786,10 +5867,10 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AT25">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -5977,10 +6058,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AT26">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU26">
         <v>1.74</v>
@@ -6081,7 +6162,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6168,10 +6249,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT27">
-        <v>0.83</v>
+        <v>0.63</v>
       </c>
       <c r="AU27">
         <v>1.17</v>
@@ -6272,7 +6353,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6359,10 +6440,10 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="AT28">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AU28">
         <v>0.91</v>
@@ -6550,10 +6631,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT29">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU29">
         <v>1.46</v>
@@ -6654,7 +6735,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6741,10 +6822,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT30">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU30">
         <v>1.21</v>
@@ -6932,10 +7013,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT31">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU31">
         <v>3.06</v>
@@ -7123,10 +7204,10 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT32">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU32">
         <v>1.42</v>
@@ -7314,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT33">
         <v>0.5</v>
@@ -7505,10 +7586,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.8</v>
+        <v>1.43</v>
       </c>
       <c r="AT34">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU34">
         <v>2.92</v>
@@ -7699,7 +7780,7 @@
         <v>1.71</v>
       </c>
       <c r="AT35">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU35">
         <v>1.64</v>
@@ -7887,10 +7968,10 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT36">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU36">
         <v>1.22</v>
@@ -8078,10 +8159,10 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>0.83</v>
+        <v>1.38</v>
       </c>
       <c r="AT37">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU37">
         <v>0.67</v>
@@ -8182,7 +8263,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8269,10 +8350,10 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="AT38">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU38">
         <v>2.3</v>
@@ -8460,10 +8541,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT39">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AU39">
         <v>1.67</v>
@@ -8564,7 +8645,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -8651,10 +8732,10 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="AT40">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU40">
         <v>1.94</v>
@@ -8755,7 +8836,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -8842,10 +8923,10 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="AT41">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AU41">
         <v>1.16</v>
@@ -8946,7 +9027,7 @@
         <v>97</v>
       </c>
       <c r="P42" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -9033,10 +9114,10 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT42">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU42">
         <v>2.22</v>
@@ -9137,7 +9218,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9224,7 +9305,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AT43">
         <v>1.5</v>
@@ -9328,7 +9409,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9415,10 +9496,10 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT44">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU44">
         <v>1.63</v>
@@ -9606,10 +9687,10 @@
         <v>0.5</v>
       </c>
       <c r="AS45">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AT45">
-        <v>0.83</v>
+        <v>0.63</v>
       </c>
       <c r="AU45">
         <v>2</v>
@@ -9710,7 +9791,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9797,10 +9878,10 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT46">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU46">
         <v>1.12</v>
@@ -9988,10 +10069,10 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="AT47">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU47">
         <v>1.14</v>
@@ -10182,7 +10263,7 @@
         <v>1.71</v>
       </c>
       <c r="AT48">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU48">
         <v>1.45</v>
@@ -10283,7 +10364,7 @@
         <v>86</v>
       </c>
       <c r="P49" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10370,10 +10451,10 @@
         <v>3</v>
       </c>
       <c r="AS49">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT49">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AU49">
         <v>1.56</v>
@@ -10474,7 +10555,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10561,10 +10642,10 @@
         <v>0.5</v>
       </c>
       <c r="AS50">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT50">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU50">
         <v>1.55</v>
@@ -10752,10 +10833,10 @@
         <v>0.5</v>
       </c>
       <c r="AS51">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT51">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU51">
         <v>1.16</v>
@@ -10943,10 +11024,10 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="AT52">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AU52">
         <v>2.28</v>
@@ -11134,10 +11215,10 @@
         <v>2</v>
       </c>
       <c r="AS53">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT53">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AU53">
         <v>2.16</v>
@@ -11238,7 +11319,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -11325,10 +11406,10 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT54">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU54">
         <v>1.28</v>
@@ -11429,7 +11510,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11516,7 +11597,7 @@
         <v>0</v>
       </c>
       <c r="AS55">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="AT55">
         <v>0.5</v>
@@ -11620,7 +11701,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11707,10 +11788,10 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="AT56">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU56">
         <v>1.65</v>
@@ -11898,10 +11979,10 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT57">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU57">
         <v>1.54</v>
@@ -12002,7 +12083,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12089,10 +12170,10 @@
         <v>1.5</v>
       </c>
       <c r="AS58">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT58">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AU58">
         <v>1.19</v>
@@ -12280,10 +12361,10 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT59">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU59">
         <v>1.41</v>
@@ -12384,7 +12465,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -12471,10 +12552,10 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU60">
         <v>1.64</v>
@@ -12575,7 +12656,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12662,10 +12743,10 @@
         <v>1.33</v>
       </c>
       <c r="AS61">
-        <v>0.83</v>
+        <v>1.38</v>
       </c>
       <c r="AT61">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU61">
         <v>1.25</v>
@@ -12766,7 +12847,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12853,10 +12934,10 @@
         <v>0.33</v>
       </c>
       <c r="AS62">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT62">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU62">
         <v>1.66</v>
@@ -12957,7 +13038,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13044,10 +13125,10 @@
         <v>0.67</v>
       </c>
       <c r="AS63">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="AT63">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU63">
         <v>1.55</v>
@@ -13235,10 +13316,10 @@
         <v>0</v>
       </c>
       <c r="AS64">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT64">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU64">
         <v>1.4</v>
@@ -13339,7 +13420,7 @@
         <v>86</v>
       </c>
       <c r="P65" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13426,10 +13507,10 @@
         <v>0.67</v>
       </c>
       <c r="AS65">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT65">
-        <v>0.83</v>
+        <v>0.63</v>
       </c>
       <c r="AU65">
         <v>1.18</v>
@@ -13530,7 +13611,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13808,10 +13889,10 @@
         <v>0.67</v>
       </c>
       <c r="AS67">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT67">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU67">
         <v>2.32</v>
@@ -13999,10 +14080,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT68">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU68">
         <v>1.45</v>
@@ -14103,7 +14184,7 @@
         <v>86</v>
       </c>
       <c r="P69" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14190,10 +14271,10 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AT69">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU69">
         <v>1.53</v>
@@ -14381,10 +14462,10 @@
         <v>3</v>
       </c>
       <c r="AS70">
-        <v>1.8</v>
+        <v>1.43</v>
       </c>
       <c r="AT70">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AU70">
         <v>2.3</v>
@@ -14485,7 +14566,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -14572,10 +14653,10 @@
         <v>2.33</v>
       </c>
       <c r="AS71">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AT71">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU71">
         <v>2.01</v>
@@ -14676,7 +14757,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14763,10 +14844,10 @@
         <v>1.5</v>
       </c>
       <c r="AS72">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="AT72">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AU72">
         <v>2.53</v>
@@ -14867,7 +14948,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -14954,10 +15035,10 @@
         <v>1.75</v>
       </c>
       <c r="AS73">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT73">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU73">
         <v>2.04</v>
@@ -15058,7 +15139,7 @@
         <v>111</v>
       </c>
       <c r="P74" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15145,10 +15226,10 @@
         <v>1.67</v>
       </c>
       <c r="AS74">
-        <v>0.83</v>
+        <v>1.38</v>
       </c>
       <c r="AT74">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU74">
         <v>1.52</v>
@@ -15336,10 +15417,10 @@
         <v>0</v>
       </c>
       <c r="AS75">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT75">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AU75">
         <v>1.52</v>
@@ -15527,7 +15608,7 @@
         <v>0.25</v>
       </c>
       <c r="AS76">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT76">
         <v>0.5</v>
@@ -15631,7 +15712,7 @@
         <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15718,10 +15799,10 @@
         <v>0.33</v>
       </c>
       <c r="AS77">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT77">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU77">
         <v>1.29</v>
@@ -15909,10 +15990,10 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT78">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU78">
         <v>1.04</v>
@@ -16100,10 +16181,10 @@
         <v>0.33</v>
       </c>
       <c r="AS79">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="AT79">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU79">
         <v>1.56</v>
@@ -16291,10 +16372,10 @@
         <v>0.33</v>
       </c>
       <c r="AS80">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT80">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU80">
         <v>1.82</v>
@@ -16395,7 +16476,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16482,10 +16563,10 @@
         <v>2</v>
       </c>
       <c r="AS81">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="AT81">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AU81">
         <v>1.47</v>
@@ -16586,7 +16667,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -16673,7 +16754,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT82">
         <v>1.5</v>
@@ -16864,10 +16945,10 @@
         <v>0.67</v>
       </c>
       <c r="AS83">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AT83">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU83">
         <v>2.05</v>
@@ -16968,7 +17049,7 @@
         <v>100</v>
       </c>
       <c r="P84" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17055,10 +17136,10 @@
         <v>0</v>
       </c>
       <c r="AS84">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="AT84">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU84">
         <v>1.67</v>
@@ -17159,7 +17240,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17246,10 +17327,10 @@
         <v>1.25</v>
       </c>
       <c r="AS85">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT85">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU85">
         <v>1.05</v>
@@ -17350,7 +17431,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17440,7 +17521,7 @@
         <v>1.71</v>
       </c>
       <c r="AT86">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AU86">
         <v>1.64</v>
@@ -17541,7 +17622,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17628,10 +17709,10 @@
         <v>0.5</v>
       </c>
       <c r="AS87">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT87">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU87">
         <v>1.68</v>
@@ -17819,10 +17900,10 @@
         <v>0</v>
       </c>
       <c r="AS88">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT88">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AU88">
         <v>1.57</v>
@@ -17923,7 +18004,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18010,10 +18091,10 @@
         <v>2.5</v>
       </c>
       <c r="AS89">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AT89">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU89">
         <v>1.62</v>
@@ -18201,10 +18282,10 @@
         <v>1</v>
       </c>
       <c r="AS90">
-        <v>1.8</v>
+        <v>1.43</v>
       </c>
       <c r="AT90">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU90">
         <v>2.23</v>
@@ -18305,7 +18386,7 @@
         <v>86</v>
       </c>
       <c r="P91" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18392,10 +18473,10 @@
         <v>1.67</v>
       </c>
       <c r="AS91">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT91">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU91">
         <v>2.24</v>
@@ -18583,10 +18664,10 @@
         <v>1</v>
       </c>
       <c r="AS92">
-        <v>0.83</v>
+        <v>1.38</v>
       </c>
       <c r="AT92">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU92">
         <v>1.56</v>
@@ -18774,10 +18855,10 @@
         <v>0.5</v>
       </c>
       <c r="AS93">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT93">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU93">
         <v>1.49</v>
@@ -18965,10 +19046,10 @@
         <v>1.25</v>
       </c>
       <c r="AS94">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="AT94">
-        <v>0.83</v>
+        <v>0.63</v>
       </c>
       <c r="AU94">
         <v>1.55</v>
@@ -19156,10 +19237,10 @@
         <v>0.75</v>
       </c>
       <c r="AS95">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT95">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU95">
         <v>1.95</v>
@@ -19260,7 +19341,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19347,7 +19428,7 @@
         <v>0.4</v>
       </c>
       <c r="AS96">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT96">
         <v>0.5</v>
@@ -19538,10 +19619,10 @@
         <v>2.25</v>
       </c>
       <c r="AS97">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT97">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AU97">
         <v>1.53</v>
@@ -19642,7 +19723,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -19729,10 +19810,10 @@
         <v>0.25</v>
       </c>
       <c r="AS98">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="AT98">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU98">
         <v>2.36</v>
@@ -19833,7 +19914,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="Q99">
         <v>9</v>
@@ -19920,10 +20001,10 @@
         <v>2</v>
       </c>
       <c r="AS99">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="AT99">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU99">
         <v>1.33</v>
@@ -20024,7 +20105,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20111,10 +20192,10 @@
         <v>2</v>
       </c>
       <c r="AS100">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT100">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU100">
         <v>1.2</v>
@@ -20302,10 +20383,10 @@
         <v>0.25</v>
       </c>
       <c r="AS101">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT101">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU101">
         <v>1.33</v>
@@ -20493,10 +20574,10 @@
         <v>1.2</v>
       </c>
       <c r="AS102">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT102">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU102">
         <v>1.87</v>
@@ -20684,10 +20765,10 @@
         <v>0</v>
       </c>
       <c r="AS103">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT103">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AU103">
         <v>1.63</v>
@@ -20788,7 +20869,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="Q104">
         <v>2</v>
@@ -20875,10 +20956,10 @@
         <v>0.8</v>
       </c>
       <c r="AS104">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AT104">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU104">
         <v>2.04</v>
@@ -20979,7 +21060,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21066,7 +21147,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT105">
         <v>1.5</v>
@@ -21170,7 +21251,7 @@
         <v>112</v>
       </c>
       <c r="P106" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21260,7 +21341,7 @@
         <v>1.71</v>
       </c>
       <c r="AT106">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AU106">
         <v>1.57</v>
@@ -21448,10 +21529,10 @@
         <v>0.8</v>
       </c>
       <c r="AS107">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="AT107">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU107">
         <v>1.57</v>
@@ -21552,7 +21633,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -21639,10 +21720,10 @@
         <v>2</v>
       </c>
       <c r="AS108">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="AT108">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU108">
         <v>1.62</v>
@@ -21830,10 +21911,10 @@
         <v>2.6</v>
       </c>
       <c r="AS109">
-        <v>1.8</v>
+        <v>1.43</v>
       </c>
       <c r="AT109">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU109">
         <v>2.3</v>
@@ -21934,7 +22015,7 @@
         <v>86</v>
       </c>
       <c r="P110" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22021,10 +22102,10 @@
         <v>0.25</v>
       </c>
       <c r="AS110">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AT110">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU110">
         <v>1.57</v>
@@ -22212,10 +22293,10 @@
         <v>0.4</v>
       </c>
       <c r="AS111">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT111">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU111">
         <v>1.38</v>
@@ -22403,10 +22484,10 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="AT112">
-        <v>0.83</v>
+        <v>0.63</v>
       </c>
       <c r="AU112">
         <v>2.54</v>
@@ -22507,7 +22588,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="Q113">
         <v>7</v>
@@ -22594,10 +22675,10 @@
         <v>1</v>
       </c>
       <c r="AS113">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT113">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU113">
         <v>1.25</v>
@@ -22785,10 +22866,10 @@
         <v>0.8</v>
       </c>
       <c r="AS114">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT114">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU114">
         <v>1.95</v>
@@ -22889,7 +22970,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -22976,10 +23057,10 @@
         <v>2.6</v>
       </c>
       <c r="AS115">
-        <v>0.83</v>
+        <v>1.38</v>
       </c>
       <c r="AT115">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AU115">
         <v>1.57</v>
@@ -23080,7 +23161,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -23167,10 +23248,10 @@
         <v>0.4</v>
       </c>
       <c r="AS116">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT116">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU116">
         <v>1.56</v>
@@ -23358,10 +23439,10 @@
         <v>2</v>
       </c>
       <c r="AS117">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AT117">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AU117">
         <v>1.68</v>
@@ -23462,7 +23543,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23549,10 +23630,10 @@
         <v>0.6</v>
       </c>
       <c r="AS118">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT118">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU118">
         <v>1.46</v>
@@ -23653,7 +23734,7 @@
         <v>167</v>
       </c>
       <c r="P119" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -23740,10 +23821,10 @@
         <v>2.2</v>
       </c>
       <c r="AS119">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT119">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU119">
         <v>1.52</v>
@@ -23844,7 +23925,7 @@
         <v>112</v>
       </c>
       <c r="P120" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -23931,10 +24012,10 @@
         <v>2.17</v>
       </c>
       <c r="AS120">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="AT120">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU120">
         <v>1.44</v>
@@ -24035,7 +24116,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24122,10 +24203,10 @@
         <v>0.2</v>
       </c>
       <c r="AS121">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT121">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU121">
         <v>1.47</v>
@@ -24316,7 +24397,7 @@
         <v>1.71</v>
       </c>
       <c r="AT122">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU122">
         <v>1.61</v>
@@ -24368,6 +24449,5545 @@
       </c>
       <c r="BK122">
         <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>2638120</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>44870.45833333334</v>
+      </c>
+      <c r="F123">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
+        <v>71</v>
+      </c>
+      <c r="H123" t="s">
+        <v>84</v>
+      </c>
+      <c r="I123">
+        <v>2</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>3</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>2</v>
+      </c>
+      <c r="N123">
+        <v>4</v>
+      </c>
+      <c r="O123" t="s">
+        <v>169</v>
+      </c>
+      <c r="P123" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q123">
+        <v>2</v>
+      </c>
+      <c r="R123">
+        <v>2</v>
+      </c>
+      <c r="S123">
+        <v>4</v>
+      </c>
+      <c r="T123">
+        <v>2.75</v>
+      </c>
+      <c r="U123">
+        <v>2.2</v>
+      </c>
+      <c r="V123">
+        <v>4</v>
+      </c>
+      <c r="W123">
+        <v>1.36</v>
+      </c>
+      <c r="X123">
+        <v>3</v>
+      </c>
+      <c r="Y123">
+        <v>2.75</v>
+      </c>
+      <c r="Z123">
+        <v>1.4</v>
+      </c>
+      <c r="AA123">
+        <v>8</v>
+      </c>
+      <c r="AB123">
+        <v>1.08</v>
+      </c>
+      <c r="AC123">
+        <v>2.03</v>
+      </c>
+      <c r="AD123">
+        <v>3.5</v>
+      </c>
+      <c r="AE123">
+        <v>3.4</v>
+      </c>
+      <c r="AF123">
+        <v>1.05</v>
+      </c>
+      <c r="AG123">
+        <v>11</v>
+      </c>
+      <c r="AH123">
+        <v>1.3</v>
+      </c>
+      <c r="AI123">
+        <v>3.6</v>
+      </c>
+      <c r="AJ123">
+        <v>1.93</v>
+      </c>
+      <c r="AK123">
+        <v>1.97</v>
+      </c>
+      <c r="AL123">
+        <v>1.7</v>
+      </c>
+      <c r="AM123">
+        <v>2.05</v>
+      </c>
+      <c r="AN123">
+        <v>1.3</v>
+      </c>
+      <c r="AO123">
+        <v>1.3</v>
+      </c>
+      <c r="AP123">
+        <v>1.7</v>
+      </c>
+      <c r="AQ123">
+        <v>1.67</v>
+      </c>
+      <c r="AR123">
+        <v>0.5</v>
+      </c>
+      <c r="AS123">
+        <v>1.57</v>
+      </c>
+      <c r="AT123">
+        <v>0.5</v>
+      </c>
+      <c r="AU123">
+        <v>1.63</v>
+      </c>
+      <c r="AV123">
+        <v>1.6</v>
+      </c>
+      <c r="AW123">
+        <v>3.23</v>
+      </c>
+      <c r="AX123">
+        <v>1.71</v>
+      </c>
+      <c r="AY123">
+        <v>7.8</v>
+      </c>
+      <c r="AZ123">
+        <v>2.67</v>
+      </c>
+      <c r="BA123">
+        <v>1.23</v>
+      </c>
+      <c r="BB123">
+        <v>1.46</v>
+      </c>
+      <c r="BC123">
+        <v>1.83</v>
+      </c>
+      <c r="BD123">
+        <v>2.32</v>
+      </c>
+      <c r="BE123">
+        <v>3.14</v>
+      </c>
+      <c r="BF123">
+        <v>3</v>
+      </c>
+      <c r="BG123">
+        <v>8</v>
+      </c>
+      <c r="BH123">
+        <v>10</v>
+      </c>
+      <c r="BI123">
+        <v>8</v>
+      </c>
+      <c r="BJ123">
+        <v>13</v>
+      </c>
+      <c r="BK123">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>2638118</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>44870.45833333334</v>
+      </c>
+      <c r="F124">
+        <v>13</v>
+      </c>
+      <c r="G124" t="s">
+        <v>79</v>
+      </c>
+      <c r="H124" t="s">
+        <v>78</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>1</v>
+      </c>
+      <c r="O124" t="s">
+        <v>170</v>
+      </c>
+      <c r="P124" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q124">
+        <v>3</v>
+      </c>
+      <c r="R124">
+        <v>6</v>
+      </c>
+      <c r="S124">
+        <v>9</v>
+      </c>
+      <c r="T124">
+        <v>3.2</v>
+      </c>
+      <c r="U124">
+        <v>2.3</v>
+      </c>
+      <c r="V124">
+        <v>3</v>
+      </c>
+      <c r="W124">
+        <v>1.33</v>
+      </c>
+      <c r="X124">
+        <v>3.25</v>
+      </c>
+      <c r="Y124">
+        <v>2.5</v>
+      </c>
+      <c r="Z124">
+        <v>1.5</v>
+      </c>
+      <c r="AA124">
+        <v>6</v>
+      </c>
+      <c r="AB124">
+        <v>1.13</v>
+      </c>
+      <c r="AC124">
+        <v>2.85</v>
+      </c>
+      <c r="AD124">
+        <v>3.35</v>
+      </c>
+      <c r="AE124">
+        <v>2.37</v>
+      </c>
+      <c r="AF124">
+        <v>1.04</v>
+      </c>
+      <c r="AG124">
+        <v>13</v>
+      </c>
+      <c r="AH124">
+        <v>1.22</v>
+      </c>
+      <c r="AI124">
+        <v>4.33</v>
+      </c>
+      <c r="AJ124">
+        <v>1.67</v>
+      </c>
+      <c r="AK124">
+        <v>2.15</v>
+      </c>
+      <c r="AL124">
+        <v>1.53</v>
+      </c>
+      <c r="AM124">
+        <v>2.38</v>
+      </c>
+      <c r="AN124">
+        <v>1.53</v>
+      </c>
+      <c r="AO124">
+        <v>1.29</v>
+      </c>
+      <c r="AP124">
+        <v>1.44</v>
+      </c>
+      <c r="AQ124">
+        <v>0.83</v>
+      </c>
+      <c r="AR124">
+        <v>0.83</v>
+      </c>
+      <c r="AS124">
+        <v>1.38</v>
+      </c>
+      <c r="AT124">
+        <v>0.63</v>
+      </c>
+      <c r="AU124">
+        <v>1.58</v>
+      </c>
+      <c r="AV124">
+        <v>1.78</v>
+      </c>
+      <c r="AW124">
+        <v>3.36</v>
+      </c>
+      <c r="AX124">
+        <v>2.17</v>
+      </c>
+      <c r="AY124">
+        <v>7.8</v>
+      </c>
+      <c r="AZ124">
+        <v>2.01</v>
+      </c>
+      <c r="BA124">
+        <v>1.17</v>
+      </c>
+      <c r="BB124">
+        <v>1.34</v>
+      </c>
+      <c r="BC124">
+        <v>1.65</v>
+      </c>
+      <c r="BD124">
+        <v>2.09</v>
+      </c>
+      <c r="BE124">
+        <v>2.77</v>
+      </c>
+      <c r="BF124">
+        <v>4</v>
+      </c>
+      <c r="BG124">
+        <v>4</v>
+      </c>
+      <c r="BH124">
+        <v>14</v>
+      </c>
+      <c r="BI124">
+        <v>7</v>
+      </c>
+      <c r="BJ124">
+        <v>18</v>
+      </c>
+      <c r="BK124">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>2638116</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>44870.58333333334</v>
+      </c>
+      <c r="F125">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>81</v>
+      </c>
+      <c r="H125" t="s">
+        <v>80</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>2</v>
+      </c>
+      <c r="K125">
+        <v>3</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>2</v>
+      </c>
+      <c r="N125">
+        <v>3</v>
+      </c>
+      <c r="O125" t="s">
+        <v>157</v>
+      </c>
+      <c r="P125" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q125">
+        <v>5</v>
+      </c>
+      <c r="R125">
+        <v>2</v>
+      </c>
+      <c r="S125">
+        <v>7</v>
+      </c>
+      <c r="T125">
+        <v>3.75</v>
+      </c>
+      <c r="U125">
+        <v>2.3</v>
+      </c>
+      <c r="V125">
+        <v>2.6</v>
+      </c>
+      <c r="W125">
+        <v>1.33</v>
+      </c>
+      <c r="X125">
+        <v>3.25</v>
+      </c>
+      <c r="Y125">
+        <v>2.5</v>
+      </c>
+      <c r="Z125">
+        <v>1.5</v>
+      </c>
+      <c r="AA125">
+        <v>6.5</v>
+      </c>
+      <c r="AB125">
+        <v>1.11</v>
+      </c>
+      <c r="AC125">
+        <v>2.85</v>
+      </c>
+      <c r="AD125">
+        <v>3.55</v>
+      </c>
+      <c r="AE125">
+        <v>2.29</v>
+      </c>
+      <c r="AF125">
+        <v>1.03</v>
+      </c>
+      <c r="AG125">
+        <v>15</v>
+      </c>
+      <c r="AH125">
+        <v>1.22</v>
+      </c>
+      <c r="AI125">
+        <v>4.33</v>
+      </c>
+      <c r="AJ125">
+        <v>1.7</v>
+      </c>
+      <c r="AK125">
+        <v>2.1</v>
+      </c>
+      <c r="AL125">
+        <v>1.62</v>
+      </c>
+      <c r="AM125">
+        <v>2.2</v>
+      </c>
+      <c r="AN125">
+        <v>1.72</v>
+      </c>
+      <c r="AO125">
+        <v>1.28</v>
+      </c>
+      <c r="AP125">
+        <v>1.31</v>
+      </c>
+      <c r="AQ125">
+        <v>1.83</v>
+      </c>
+      <c r="AR125">
+        <v>2.67</v>
+      </c>
+      <c r="AS125">
+        <v>1.38</v>
+      </c>
+      <c r="AT125">
+        <v>2.71</v>
+      </c>
+      <c r="AU125">
+        <v>1.51</v>
+      </c>
+      <c r="AV125">
+        <v>1.98</v>
+      </c>
+      <c r="AW125">
+        <v>3.49</v>
+      </c>
+      <c r="AX125">
+        <v>2.53</v>
+      </c>
+      <c r="AY125">
+        <v>7.7</v>
+      </c>
+      <c r="AZ125">
+        <v>1.78</v>
+      </c>
+      <c r="BA125">
+        <v>1.26</v>
+      </c>
+      <c r="BB125">
+        <v>1.51</v>
+      </c>
+      <c r="BC125">
+        <v>1.91</v>
+      </c>
+      <c r="BD125">
+        <v>2.47</v>
+      </c>
+      <c r="BE125">
+        <v>3.34</v>
+      </c>
+      <c r="BF125">
+        <v>5</v>
+      </c>
+      <c r="BG125">
+        <v>6</v>
+      </c>
+      <c r="BH125">
+        <v>16</v>
+      </c>
+      <c r="BI125">
+        <v>3</v>
+      </c>
+      <c r="BJ125">
+        <v>21</v>
+      </c>
+      <c r="BK125">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>2638119</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>44870.69791666666</v>
+      </c>
+      <c r="F126">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s">
+        <v>65</v>
+      </c>
+      <c r="H126" t="s">
+        <v>72</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126" t="s">
+        <v>171</v>
+      </c>
+      <c r="P126" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q126">
+        <v>3</v>
+      </c>
+      <c r="R126">
+        <v>6</v>
+      </c>
+      <c r="S126">
+        <v>9</v>
+      </c>
+      <c r="T126">
+        <v>1.67</v>
+      </c>
+      <c r="U126">
+        <v>2.75</v>
+      </c>
+      <c r="V126">
+        <v>9.5</v>
+      </c>
+      <c r="W126">
+        <v>1.29</v>
+      </c>
+      <c r="X126">
+        <v>3.5</v>
+      </c>
+      <c r="Y126">
+        <v>2.25</v>
+      </c>
+      <c r="Z126">
+        <v>1.57</v>
+      </c>
+      <c r="AA126">
+        <v>5.5</v>
+      </c>
+      <c r="AB126">
+        <v>1.14</v>
+      </c>
+      <c r="AC126">
+        <v>1.2</v>
+      </c>
+      <c r="AD126">
+        <v>6.75</v>
+      </c>
+      <c r="AE126">
+        <v>14</v>
+      </c>
+      <c r="AF126">
+        <v>1.02</v>
+      </c>
+      <c r="AG126">
+        <v>19</v>
+      </c>
+      <c r="AH126">
+        <v>1.18</v>
+      </c>
+      <c r="AI126">
+        <v>5</v>
+      </c>
+      <c r="AJ126">
+        <v>1.55</v>
+      </c>
+      <c r="AK126">
+        <v>2.45</v>
+      </c>
+      <c r="AL126">
+        <v>2.1</v>
+      </c>
+      <c r="AM126">
+        <v>1.67</v>
+      </c>
+      <c r="AN126">
+        <v>1.04</v>
+      </c>
+      <c r="AO126">
+        <v>1.12</v>
+      </c>
+      <c r="AP126">
+        <v>4</v>
+      </c>
+      <c r="AQ126">
+        <v>2.5</v>
+      </c>
+      <c r="AR126">
+        <v>0</v>
+      </c>
+      <c r="AS126">
+        <v>2.63</v>
+      </c>
+      <c r="AT126">
+        <v>0.38</v>
+      </c>
+      <c r="AU126">
+        <v>1.98</v>
+      </c>
+      <c r="AV126">
+        <v>1.14</v>
+      </c>
+      <c r="AW126">
+        <v>3.12</v>
+      </c>
+      <c r="AX126">
+        <v>1.11</v>
+      </c>
+      <c r="AY126">
+        <v>13.5</v>
+      </c>
+      <c r="AZ126">
+        <v>9.1</v>
+      </c>
+      <c r="BA126">
+        <v>1.22</v>
+      </c>
+      <c r="BB126">
+        <v>1.45</v>
+      </c>
+      <c r="BC126">
+        <v>1.82</v>
+      </c>
+      <c r="BD126">
+        <v>2.32</v>
+      </c>
+      <c r="BE126">
+        <v>3.08</v>
+      </c>
+      <c r="BF126">
+        <v>11</v>
+      </c>
+      <c r="BG126">
+        <v>6</v>
+      </c>
+      <c r="BH126">
+        <v>15</v>
+      </c>
+      <c r="BI126">
+        <v>8</v>
+      </c>
+      <c r="BJ126">
+        <v>26</v>
+      </c>
+      <c r="BK126">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>2638117</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>44871.35416666666</v>
+      </c>
+      <c r="F127">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s">
+        <v>82</v>
+      </c>
+      <c r="H127" t="s">
+        <v>76</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>3</v>
+      </c>
+      <c r="O127" t="s">
+        <v>172</v>
+      </c>
+      <c r="P127" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q127">
+        <v>3</v>
+      </c>
+      <c r="R127">
+        <v>1</v>
+      </c>
+      <c r="S127">
+        <v>4</v>
+      </c>
+      <c r="T127">
+        <v>3.6</v>
+      </c>
+      <c r="U127">
+        <v>2.05</v>
+      </c>
+      <c r="V127">
+        <v>3.2</v>
+      </c>
+      <c r="W127">
+        <v>1.44</v>
+      </c>
+      <c r="X127">
+        <v>2.63</v>
+      </c>
+      <c r="Y127">
+        <v>3.4</v>
+      </c>
+      <c r="Z127">
+        <v>1.3</v>
+      </c>
+      <c r="AA127">
+        <v>10</v>
+      </c>
+      <c r="AB127">
+        <v>1.06</v>
+      </c>
+      <c r="AC127">
+        <v>2.85</v>
+      </c>
+      <c r="AD127">
+        <v>3.11</v>
+      </c>
+      <c r="AE127">
+        <v>2.53</v>
+      </c>
+      <c r="AF127">
+        <v>1.08</v>
+      </c>
+      <c r="AG127">
+        <v>8.5</v>
+      </c>
+      <c r="AH127">
+        <v>1.4</v>
+      </c>
+      <c r="AI127">
+        <v>3</v>
+      </c>
+      <c r="AJ127">
+        <v>2.1</v>
+      </c>
+      <c r="AK127">
+        <v>1.7</v>
+      </c>
+      <c r="AL127">
+        <v>1.91</v>
+      </c>
+      <c r="AM127">
+        <v>1.91</v>
+      </c>
+      <c r="AN127">
+        <v>1.51</v>
+      </c>
+      <c r="AO127">
+        <v>1.34</v>
+      </c>
+      <c r="AP127">
+        <v>1.4</v>
+      </c>
+      <c r="AQ127">
+        <v>1.5</v>
+      </c>
+      <c r="AR127">
+        <v>1.5</v>
+      </c>
+      <c r="AS127">
+        <v>1.88</v>
+      </c>
+      <c r="AT127">
+        <v>1.25</v>
+      </c>
+      <c r="AU127">
+        <v>1.55</v>
+      </c>
+      <c r="AV127">
+        <v>1.54</v>
+      </c>
+      <c r="AW127">
+        <v>3.09</v>
+      </c>
+      <c r="AX127">
+        <v>2.25</v>
+      </c>
+      <c r="AY127">
+        <v>7.5</v>
+      </c>
+      <c r="AZ127">
+        <v>1.96</v>
+      </c>
+      <c r="BA127">
+        <v>1.26</v>
+      </c>
+      <c r="BB127">
+        <v>1.52</v>
+      </c>
+      <c r="BC127">
+        <v>1.92</v>
+      </c>
+      <c r="BD127">
+        <v>2.47</v>
+      </c>
+      <c r="BE127">
+        <v>3.34</v>
+      </c>
+      <c r="BF127">
+        <v>4</v>
+      </c>
+      <c r="BG127">
+        <v>3</v>
+      </c>
+      <c r="BH127">
+        <v>2</v>
+      </c>
+      <c r="BI127">
+        <v>5</v>
+      </c>
+      <c r="BJ127">
+        <v>6</v>
+      </c>
+      <c r="BK127">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>2638121</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>44871.45833333334</v>
+      </c>
+      <c r="F128">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s">
+        <v>66</v>
+      </c>
+      <c r="H128" t="s">
+        <v>69</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>2</v>
+      </c>
+      <c r="N128">
+        <v>2</v>
+      </c>
+      <c r="O128" t="s">
+        <v>86</v>
+      </c>
+      <c r="P128" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q128">
+        <v>4</v>
+      </c>
+      <c r="R128">
+        <v>4</v>
+      </c>
+      <c r="S128">
+        <v>8</v>
+      </c>
+      <c r="T128">
+        <v>4.5</v>
+      </c>
+      <c r="U128">
+        <v>2.1</v>
+      </c>
+      <c r="V128">
+        <v>2.6</v>
+      </c>
+      <c r="W128">
+        <v>1.4</v>
+      </c>
+      <c r="X128">
+        <v>2.75</v>
+      </c>
+      <c r="Y128">
+        <v>3</v>
+      </c>
+      <c r="Z128">
+        <v>1.36</v>
+      </c>
+      <c r="AA128">
+        <v>9</v>
+      </c>
+      <c r="AB128">
+        <v>1.07</v>
+      </c>
+      <c r="AC128">
+        <v>4.03</v>
+      </c>
+      <c r="AD128">
+        <v>3.37</v>
+      </c>
+      <c r="AE128">
+        <v>1.91</v>
+      </c>
+      <c r="AF128">
+        <v>1.06</v>
+      </c>
+      <c r="AG128">
+        <v>10</v>
+      </c>
+      <c r="AH128">
+        <v>1.33</v>
+      </c>
+      <c r="AI128">
+        <v>3.3</v>
+      </c>
+      <c r="AJ128">
+        <v>2</v>
+      </c>
+      <c r="AK128">
+        <v>1.75</v>
+      </c>
+      <c r="AL128">
+        <v>1.91</v>
+      </c>
+      <c r="AM128">
+        <v>1.91</v>
+      </c>
+      <c r="AN128">
+        <v>1.82</v>
+      </c>
+      <c r="AO128">
+        <v>1.3</v>
+      </c>
+      <c r="AP128">
+        <v>1.25</v>
+      </c>
+      <c r="AQ128">
+        <v>0.33</v>
+      </c>
+      <c r="AR128">
+        <v>0.83</v>
+      </c>
+      <c r="AS128">
+        <v>0.25</v>
+      </c>
+      <c r="AT128">
+        <v>1</v>
+      </c>
+      <c r="AU128">
+        <v>1.14</v>
+      </c>
+      <c r="AV128">
+        <v>1.83</v>
+      </c>
+      <c r="AW128">
+        <v>2.97</v>
+      </c>
+      <c r="AX128">
+        <v>2.75</v>
+      </c>
+      <c r="AY128">
+        <v>7.5</v>
+      </c>
+      <c r="AZ128">
+        <v>1.66</v>
+      </c>
+      <c r="BA128">
+        <v>1.2</v>
+      </c>
+      <c r="BB128">
+        <v>1.38</v>
+      </c>
+      <c r="BC128">
+        <v>1.67</v>
+      </c>
+      <c r="BD128">
+        <v>2.12</v>
+      </c>
+      <c r="BE128">
+        <v>2.85</v>
+      </c>
+      <c r="BF128">
+        <v>2</v>
+      </c>
+      <c r="BG128">
+        <v>3</v>
+      </c>
+      <c r="BH128">
+        <v>11</v>
+      </c>
+      <c r="BI128">
+        <v>4</v>
+      </c>
+      <c r="BJ128">
+        <v>13</v>
+      </c>
+      <c r="BK128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>2638122</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>44871.45833333334</v>
+      </c>
+      <c r="F129">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s">
+        <v>68</v>
+      </c>
+      <c r="H129" t="s">
+        <v>73</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>2</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>173</v>
+      </c>
+      <c r="P129" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q129">
+        <v>5</v>
+      </c>
+      <c r="R129">
+        <v>2</v>
+      </c>
+      <c r="S129">
+        <v>7</v>
+      </c>
+      <c r="T129">
+        <v>2.75</v>
+      </c>
+      <c r="U129">
+        <v>2.2</v>
+      </c>
+      <c r="V129">
+        <v>3.75</v>
+      </c>
+      <c r="W129">
+        <v>1.36</v>
+      </c>
+      <c r="X129">
+        <v>3</v>
+      </c>
+      <c r="Y129">
+        <v>2.75</v>
+      </c>
+      <c r="Z129">
+        <v>1.4</v>
+      </c>
+      <c r="AA129">
+        <v>8</v>
+      </c>
+      <c r="AB129">
+        <v>1.08</v>
+      </c>
+      <c r="AC129">
+        <v>2.15</v>
+      </c>
+      <c r="AD129">
+        <v>3.39</v>
+      </c>
+      <c r="AE129">
+        <v>3.25</v>
+      </c>
+      <c r="AF129">
+        <v>1.05</v>
+      </c>
+      <c r="AG129">
+        <v>11</v>
+      </c>
+      <c r="AH129">
+        <v>1.3</v>
+      </c>
+      <c r="AI129">
+        <v>3.6</v>
+      </c>
+      <c r="AJ129">
+        <v>1.86</v>
+      </c>
+      <c r="AK129">
+        <v>1.88</v>
+      </c>
+      <c r="AL129">
+        <v>1.7</v>
+      </c>
+      <c r="AM129">
+        <v>2.05</v>
+      </c>
+      <c r="AN129">
+        <v>1.33</v>
+      </c>
+      <c r="AO129">
+        <v>1.29</v>
+      </c>
+      <c r="AP129">
+        <v>1.68</v>
+      </c>
+      <c r="AQ129">
+        <v>1</v>
+      </c>
+      <c r="AR129">
+        <v>0.33</v>
+      </c>
+      <c r="AS129">
+        <v>1.5</v>
+      </c>
+      <c r="AT129">
+        <v>0.29</v>
+      </c>
+      <c r="AU129">
+        <v>1.43</v>
+      </c>
+      <c r="AV129">
+        <v>1.46</v>
+      </c>
+      <c r="AW129">
+        <v>2.89</v>
+      </c>
+      <c r="AX129">
+        <v>1.82</v>
+      </c>
+      <c r="AY129">
+        <v>7.8</v>
+      </c>
+      <c r="AZ129">
+        <v>2.44</v>
+      </c>
+      <c r="BA129">
+        <v>1.21</v>
+      </c>
+      <c r="BB129">
+        <v>1.43</v>
+      </c>
+      <c r="BC129">
+        <v>1.78</v>
+      </c>
+      <c r="BD129">
+        <v>2.26</v>
+      </c>
+      <c r="BE129">
+        <v>2.98</v>
+      </c>
+      <c r="BF129">
+        <v>4</v>
+      </c>
+      <c r="BG129">
+        <v>3</v>
+      </c>
+      <c r="BH129">
+        <v>8</v>
+      </c>
+      <c r="BI129">
+        <v>4</v>
+      </c>
+      <c r="BJ129">
+        <v>12</v>
+      </c>
+      <c r="BK129">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>2638124</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>44871.58333333334</v>
+      </c>
+      <c r="F130">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s">
+        <v>83</v>
+      </c>
+      <c r="H130" t="s">
+        <v>70</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130" t="s">
+        <v>86</v>
+      </c>
+      <c r="P130" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q130">
+        <v>4</v>
+      </c>
+      <c r="R130">
+        <v>2</v>
+      </c>
+      <c r="S130">
+        <v>6</v>
+      </c>
+      <c r="T130">
+        <v>2.6</v>
+      </c>
+      <c r="U130">
+        <v>2.2</v>
+      </c>
+      <c r="V130">
+        <v>4</v>
+      </c>
+      <c r="W130">
+        <v>1.36</v>
+      </c>
+      <c r="X130">
+        <v>3</v>
+      </c>
+      <c r="Y130">
+        <v>2.75</v>
+      </c>
+      <c r="Z130">
+        <v>1.4</v>
+      </c>
+      <c r="AA130">
+        <v>7</v>
+      </c>
+      <c r="AB130">
+        <v>1.1</v>
+      </c>
+      <c r="AC130">
+        <v>2.1</v>
+      </c>
+      <c r="AD130">
+        <v>3.5</v>
+      </c>
+      <c r="AE130">
+        <v>3.25</v>
+      </c>
+      <c r="AF130">
+        <v>1.04</v>
+      </c>
+      <c r="AG130">
+        <v>12</v>
+      </c>
+      <c r="AH130">
+        <v>1.28</v>
+      </c>
+      <c r="AI130">
+        <v>3.75</v>
+      </c>
+      <c r="AJ130">
+        <v>1.95</v>
+      </c>
+      <c r="AK130">
+        <v>1.87</v>
+      </c>
+      <c r="AL130">
+        <v>1.7</v>
+      </c>
+      <c r="AM130">
+        <v>2.05</v>
+      </c>
+      <c r="AN130">
+        <v>1.28</v>
+      </c>
+      <c r="AO130">
+        <v>1.28</v>
+      </c>
+      <c r="AP130">
+        <v>1.78</v>
+      </c>
+      <c r="AQ130">
+        <v>1.8</v>
+      </c>
+      <c r="AR130">
+        <v>2.2</v>
+      </c>
+      <c r="AS130">
+        <v>1.43</v>
+      </c>
+      <c r="AT130">
+        <v>2</v>
+      </c>
+      <c r="AU130">
+        <v>1.97</v>
+      </c>
+      <c r="AV130">
+        <v>1.43</v>
+      </c>
+      <c r="AW130">
+        <v>3.4</v>
+      </c>
+      <c r="AX130">
+        <v>1.56</v>
+      </c>
+      <c r="AY130">
+        <v>8.1</v>
+      </c>
+      <c r="AZ130">
+        <v>3.1</v>
+      </c>
+      <c r="BA130">
+        <v>1.28</v>
+      </c>
+      <c r="BB130">
+        <v>1.55</v>
+      </c>
+      <c r="BC130">
+        <v>1.98</v>
+      </c>
+      <c r="BD130">
+        <v>2.59</v>
+      </c>
+      <c r="BE130">
+        <v>3.48</v>
+      </c>
+      <c r="BF130">
+        <v>3</v>
+      </c>
+      <c r="BG130">
+        <v>4</v>
+      </c>
+      <c r="BH130">
+        <v>6</v>
+      </c>
+      <c r="BI130">
+        <v>2</v>
+      </c>
+      <c r="BJ130">
+        <v>9</v>
+      </c>
+      <c r="BK130">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>2638123</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>44871.69791666666</v>
+      </c>
+      <c r="F131">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s">
+        <v>74</v>
+      </c>
+      <c r="H131" t="s">
+        <v>77</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>2</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>2</v>
+      </c>
+      <c r="O131" t="s">
+        <v>174</v>
+      </c>
+      <c r="P131" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q131">
+        <v>2</v>
+      </c>
+      <c r="R131">
+        <v>8</v>
+      </c>
+      <c r="S131">
+        <v>10</v>
+      </c>
+      <c r="T131">
+        <v>3.75</v>
+      </c>
+      <c r="U131">
+        <v>2.2</v>
+      </c>
+      <c r="V131">
+        <v>2.88</v>
+      </c>
+      <c r="W131">
+        <v>1.4</v>
+      </c>
+      <c r="X131">
+        <v>2.75</v>
+      </c>
+      <c r="Y131">
+        <v>2.75</v>
+      </c>
+      <c r="Z131">
+        <v>1.4</v>
+      </c>
+      <c r="AA131">
+        <v>8</v>
+      </c>
+      <c r="AB131">
+        <v>1.08</v>
+      </c>
+      <c r="AC131">
+        <v>2.48</v>
+      </c>
+      <c r="AD131">
+        <v>3.4</v>
+      </c>
+      <c r="AE131">
+        <v>2.65</v>
+      </c>
+      <c r="AF131">
+        <v>1.06</v>
+      </c>
+      <c r="AG131">
+        <v>10</v>
+      </c>
+      <c r="AH131">
+        <v>1.33</v>
+      </c>
+      <c r="AI131">
+        <v>3.4</v>
+      </c>
+      <c r="AJ131">
+        <v>2</v>
+      </c>
+      <c r="AK131">
+        <v>1.83</v>
+      </c>
+      <c r="AL131">
+        <v>1.75</v>
+      </c>
+      <c r="AM131">
+        <v>2</v>
+      </c>
+      <c r="AN131">
+        <v>1.6</v>
+      </c>
+      <c r="AO131">
+        <v>1.31</v>
+      </c>
+      <c r="AP131">
+        <v>1.36</v>
+      </c>
+      <c r="AQ131">
+        <v>2.33</v>
+      </c>
+      <c r="AR131">
+        <v>1.5</v>
+      </c>
+      <c r="AS131">
+        <v>2.5</v>
+      </c>
+      <c r="AT131">
+        <v>1.5</v>
+      </c>
+      <c r="AU131">
+        <v>1.98</v>
+      </c>
+      <c r="AV131">
+        <v>1.87</v>
+      </c>
+      <c r="AW131">
+        <v>3.85</v>
+      </c>
+      <c r="AX131">
+        <v>2.5</v>
+      </c>
+      <c r="AY131">
+        <v>7.8</v>
+      </c>
+      <c r="AZ131">
+        <v>1.79</v>
+      </c>
+      <c r="BA131">
+        <v>1.23</v>
+      </c>
+      <c r="BB131">
+        <v>1.46</v>
+      </c>
+      <c r="BC131">
+        <v>1.83</v>
+      </c>
+      <c r="BD131">
+        <v>2.32</v>
+      </c>
+      <c r="BE131">
+        <v>3.08</v>
+      </c>
+      <c r="BF131">
+        <v>6</v>
+      </c>
+      <c r="BG131">
+        <v>5</v>
+      </c>
+      <c r="BH131">
+        <v>5</v>
+      </c>
+      <c r="BI131">
+        <v>11</v>
+      </c>
+      <c r="BJ131">
+        <v>11</v>
+      </c>
+      <c r="BK131">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>2638134</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>44873.60416666666</v>
+      </c>
+      <c r="F132">
+        <v>14</v>
+      </c>
+      <c r="G132" t="s">
+        <v>72</v>
+      </c>
+      <c r="H132" t="s">
+        <v>75</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>2</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>2</v>
+      </c>
+      <c r="O132" t="s">
+        <v>127</v>
+      </c>
+      <c r="P132" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q132">
+        <v>9</v>
+      </c>
+      <c r="R132">
+        <v>0</v>
+      </c>
+      <c r="S132">
+        <v>9</v>
+      </c>
+      <c r="T132">
+        <v>4.75</v>
+      </c>
+      <c r="U132">
+        <v>2.2</v>
+      </c>
+      <c r="V132">
+        <v>2.4</v>
+      </c>
+      <c r="W132">
+        <v>1.36</v>
+      </c>
+      <c r="X132">
+        <v>3</v>
+      </c>
+      <c r="Y132">
+        <v>2.75</v>
+      </c>
+      <c r="Z132">
+        <v>1.4</v>
+      </c>
+      <c r="AA132">
+        <v>7</v>
+      </c>
+      <c r="AB132">
+        <v>1.1</v>
+      </c>
+      <c r="AC132">
+        <v>3.7</v>
+      </c>
+      <c r="AD132">
+        <v>3.68</v>
+      </c>
+      <c r="AE132">
+        <v>2.08</v>
+      </c>
+      <c r="AF132">
+        <v>1.04</v>
+      </c>
+      <c r="AG132">
+        <v>12</v>
+      </c>
+      <c r="AH132">
+        <v>1.28</v>
+      </c>
+      <c r="AI132">
+        <v>3.75</v>
+      </c>
+      <c r="AJ132">
+        <v>1.83</v>
+      </c>
+      <c r="AK132">
+        <v>1.87</v>
+      </c>
+      <c r="AL132">
+        <v>1.8</v>
+      </c>
+      <c r="AM132">
+        <v>1.95</v>
+      </c>
+      <c r="AN132">
+        <v>1.95</v>
+      </c>
+      <c r="AO132">
+        <v>1.26</v>
+      </c>
+      <c r="AP132">
+        <v>1.22</v>
+      </c>
+      <c r="AQ132">
+        <v>1.5</v>
+      </c>
+      <c r="AR132">
+        <v>1.83</v>
+      </c>
+      <c r="AS132">
+        <v>1.43</v>
+      </c>
+      <c r="AT132">
+        <v>1.5</v>
+      </c>
+      <c r="AU132">
+        <v>1.55</v>
+      </c>
+      <c r="AV132">
+        <v>1.73</v>
+      </c>
+      <c r="AW132">
+        <v>3.28</v>
+      </c>
+      <c r="AX132">
+        <v>2.84</v>
+      </c>
+      <c r="AY132">
+        <v>8</v>
+      </c>
+      <c r="AZ132">
+        <v>1.64</v>
+      </c>
+      <c r="BA132">
+        <v>1.23</v>
+      </c>
+      <c r="BB132">
+        <v>1.46</v>
+      </c>
+      <c r="BC132">
+        <v>1.83</v>
+      </c>
+      <c r="BD132">
+        <v>2.35</v>
+      </c>
+      <c r="BE132">
+        <v>3.14</v>
+      </c>
+      <c r="BF132">
+        <v>6</v>
+      </c>
+      <c r="BG132">
+        <v>4</v>
+      </c>
+      <c r="BH132">
+        <v>16</v>
+      </c>
+      <c r="BI132">
+        <v>8</v>
+      </c>
+      <c r="BJ132">
+        <v>22</v>
+      </c>
+      <c r="BK132">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>2638132</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>44873.60416666666</v>
+      </c>
+      <c r="F133">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
+        <v>80</v>
+      </c>
+      <c r="H133" t="s">
+        <v>79</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>2</v>
+      </c>
+      <c r="O133" t="s">
+        <v>175</v>
+      </c>
+      <c r="P133" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q133">
+        <v>5</v>
+      </c>
+      <c r="R133">
+        <v>0</v>
+      </c>
+      <c r="S133">
+        <v>5</v>
+      </c>
+      <c r="T133">
+        <v>1.53</v>
+      </c>
+      <c r="U133">
+        <v>3.1</v>
+      </c>
+      <c r="V133">
+        <v>9.5</v>
+      </c>
+      <c r="W133">
+        <v>1.2</v>
+      </c>
+      <c r="X133">
+        <v>4.33</v>
+      </c>
+      <c r="Y133">
+        <v>1.91</v>
+      </c>
+      <c r="Z133">
+        <v>1.8</v>
+      </c>
+      <c r="AA133">
+        <v>4</v>
+      </c>
+      <c r="AB133">
+        <v>1.22</v>
+      </c>
+      <c r="AC133">
+        <v>1.26</v>
+      </c>
+      <c r="AD133">
+        <v>6.67</v>
+      </c>
+      <c r="AE133">
+        <v>12.63</v>
+      </c>
+      <c r="AF133">
+        <v>1.02</v>
+      </c>
+      <c r="AG133">
+        <v>26</v>
+      </c>
+      <c r="AH133">
+        <v>1.1</v>
+      </c>
+      <c r="AI133">
+        <v>7</v>
+      </c>
+      <c r="AJ133">
+        <v>1.36</v>
+      </c>
+      <c r="AK133">
+        <v>3.1</v>
+      </c>
+      <c r="AL133">
+        <v>1.91</v>
+      </c>
+      <c r="AM133">
+        <v>1.91</v>
+      </c>
+      <c r="AN133">
+        <v>1.03</v>
+      </c>
+      <c r="AO133">
+        <v>1.08</v>
+      </c>
+      <c r="AP133">
+        <v>5</v>
+      </c>
+      <c r="AQ133">
+        <v>2.67</v>
+      </c>
+      <c r="AR133">
+        <v>1</v>
+      </c>
+      <c r="AS133">
+        <v>2.75</v>
+      </c>
+      <c r="AT133">
+        <v>0.86</v>
+      </c>
+      <c r="AU133">
+        <v>2.45</v>
+      </c>
+      <c r="AV133">
+        <v>1.47</v>
+      </c>
+      <c r="AW133">
+        <v>3.92</v>
+      </c>
+      <c r="AX133">
+        <v>1.14</v>
+      </c>
+      <c r="AY133">
+        <v>15.5</v>
+      </c>
+      <c r="AZ133">
+        <v>6.95</v>
+      </c>
+      <c r="BA133">
+        <v>1.2</v>
+      </c>
+      <c r="BB133">
+        <v>1.41</v>
+      </c>
+      <c r="BC133">
+        <v>1.74</v>
+      </c>
+      <c r="BD133">
+        <v>2.19</v>
+      </c>
+      <c r="BE133">
+        <v>2.88</v>
+      </c>
+      <c r="BF133">
+        <v>5</v>
+      </c>
+      <c r="BG133">
+        <v>2</v>
+      </c>
+      <c r="BH133">
+        <v>15</v>
+      </c>
+      <c r="BI133">
+        <v>4</v>
+      </c>
+      <c r="BJ133">
+        <v>20</v>
+      </c>
+      <c r="BK133">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>2638126</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>44873.69791666666</v>
+      </c>
+      <c r="F134">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s">
+        <v>84</v>
+      </c>
+      <c r="H134" t="s">
+        <v>65</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134" t="s">
+        <v>86</v>
+      </c>
+      <c r="P134" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q134">
+        <v>2</v>
+      </c>
+      <c r="R134">
+        <v>4</v>
+      </c>
+      <c r="S134">
+        <v>6</v>
+      </c>
+      <c r="T134">
+        <v>6</v>
+      </c>
+      <c r="U134">
+        <v>2.4</v>
+      </c>
+      <c r="V134">
+        <v>2.05</v>
+      </c>
+      <c r="W134">
+        <v>1.33</v>
+      </c>
+      <c r="X134">
+        <v>3.25</v>
+      </c>
+      <c r="Y134">
+        <v>2.5</v>
+      </c>
+      <c r="Z134">
+        <v>1.5</v>
+      </c>
+      <c r="AA134">
+        <v>6.5</v>
+      </c>
+      <c r="AB134">
+        <v>1.11</v>
+      </c>
+      <c r="AC134">
+        <v>5.96</v>
+      </c>
+      <c r="AD134">
+        <v>4.19</v>
+      </c>
+      <c r="AE134">
+        <v>1.62</v>
+      </c>
+      <c r="AF134">
+        <v>1.03</v>
+      </c>
+      <c r="AG134">
+        <v>15</v>
+      </c>
+      <c r="AH134">
+        <v>1.22</v>
+      </c>
+      <c r="AI134">
+        <v>4.33</v>
+      </c>
+      <c r="AJ134">
+        <v>1.62</v>
+      </c>
+      <c r="AK134">
+        <v>2.16</v>
+      </c>
+      <c r="AL134">
+        <v>1.8</v>
+      </c>
+      <c r="AM134">
+        <v>1.95</v>
+      </c>
+      <c r="AN134">
+        <v>2.45</v>
+      </c>
+      <c r="AO134">
+        <v>1.21</v>
+      </c>
+      <c r="AP134">
+        <v>1.13</v>
+      </c>
+      <c r="AQ134">
+        <v>0.33</v>
+      </c>
+      <c r="AR134">
+        <v>1.83</v>
+      </c>
+      <c r="AS134">
+        <v>0.43</v>
+      </c>
+      <c r="AT134">
+        <v>1.71</v>
+      </c>
+      <c r="AU134">
+        <v>1.66</v>
+      </c>
+      <c r="AV134">
+        <v>1.72</v>
+      </c>
+      <c r="AW134">
+        <v>3.38</v>
+      </c>
+      <c r="AX134">
+        <v>3.54</v>
+      </c>
+      <c r="AY134">
+        <v>11</v>
+      </c>
+      <c r="AZ134">
+        <v>1.4</v>
+      </c>
+      <c r="BA134">
+        <v>1.28</v>
+      </c>
+      <c r="BB134">
+        <v>1.55</v>
+      </c>
+      <c r="BC134">
+        <v>1.98</v>
+      </c>
+      <c r="BD134">
+        <v>2.59</v>
+      </c>
+      <c r="BE134">
+        <v>3.48</v>
+      </c>
+      <c r="BF134">
+        <v>2</v>
+      </c>
+      <c r="BG134">
+        <v>6</v>
+      </c>
+      <c r="BH134">
+        <v>5</v>
+      </c>
+      <c r="BI134">
+        <v>10</v>
+      </c>
+      <c r="BJ134">
+        <v>7</v>
+      </c>
+      <c r="BK134">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>2638133</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>44874.60416666666</v>
+      </c>
+      <c r="F135">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s">
+        <v>78</v>
+      </c>
+      <c r="H135" t="s">
+        <v>83</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135">
+        <v>2</v>
+      </c>
+      <c r="O135" t="s">
+        <v>176</v>
+      </c>
+      <c r="P135" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q135">
+        <v>3</v>
+      </c>
+      <c r="R135">
+        <v>2</v>
+      </c>
+      <c r="S135">
+        <v>5</v>
+      </c>
+      <c r="T135">
+        <v>3.75</v>
+      </c>
+      <c r="U135">
+        <v>2.3</v>
+      </c>
+      <c r="V135">
+        <v>2.6</v>
+      </c>
+      <c r="W135">
+        <v>1.3</v>
+      </c>
+      <c r="X135">
+        <v>3.4</v>
+      </c>
+      <c r="Y135">
+        <v>2.5</v>
+      </c>
+      <c r="Z135">
+        <v>1.5</v>
+      </c>
+      <c r="AA135">
+        <v>6</v>
+      </c>
+      <c r="AB135">
+        <v>1.13</v>
+      </c>
+      <c r="AC135">
+        <v>3.2</v>
+      </c>
+      <c r="AD135">
+        <v>3.7</v>
+      </c>
+      <c r="AE135">
+        <v>2.14</v>
+      </c>
+      <c r="AF135">
+        <v>1.01</v>
+      </c>
+      <c r="AG135">
+        <v>10.75</v>
+      </c>
+      <c r="AH135">
+        <v>1.19</v>
+      </c>
+      <c r="AI135">
+        <v>4.3</v>
+      </c>
+      <c r="AJ135">
+        <v>1.7</v>
+      </c>
+      <c r="AK135">
+        <v>2.14</v>
+      </c>
+      <c r="AL135">
+        <v>1.57</v>
+      </c>
+      <c r="AM135">
+        <v>2.25</v>
+      </c>
+      <c r="AN135">
+        <v>1.86</v>
+      </c>
+      <c r="AO135">
+        <v>1.27</v>
+      </c>
+      <c r="AP135">
+        <v>1.3</v>
+      </c>
+      <c r="AQ135">
+        <v>1.67</v>
+      </c>
+      <c r="AR135">
+        <v>2.29</v>
+      </c>
+      <c r="AS135">
+        <v>1.57</v>
+      </c>
+      <c r="AT135">
+        <v>2.13</v>
+      </c>
+      <c r="AU135">
+        <v>1.41</v>
+      </c>
+      <c r="AV135">
+        <v>1.5</v>
+      </c>
+      <c r="AW135">
+        <v>2.91</v>
+      </c>
+      <c r="AX135">
+        <v>2.56</v>
+      </c>
+      <c r="AY135">
+        <v>7.8</v>
+      </c>
+      <c r="AZ135">
+        <v>1.76</v>
+      </c>
+      <c r="BA135">
+        <v>1.22</v>
+      </c>
+      <c r="BB135">
+        <v>1.44</v>
+      </c>
+      <c r="BC135">
+        <v>1.81</v>
+      </c>
+      <c r="BD135">
+        <v>2.3</v>
+      </c>
+      <c r="BE135">
+        <v>3.08</v>
+      </c>
+      <c r="BF135">
+        <v>7</v>
+      </c>
+      <c r="BG135">
+        <v>5</v>
+      </c>
+      <c r="BH135">
+        <v>9</v>
+      </c>
+      <c r="BI135">
+        <v>5</v>
+      </c>
+      <c r="BJ135">
+        <v>16</v>
+      </c>
+      <c r="BK135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>2638131</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>44874.60416666666</v>
+      </c>
+      <c r="F136">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s">
+        <v>67</v>
+      </c>
+      <c r="H136" t="s">
+        <v>81</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>3</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>3</v>
+      </c>
+      <c r="O136" t="s">
+        <v>177</v>
+      </c>
+      <c r="P136" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q136">
+        <v>4</v>
+      </c>
+      <c r="R136">
+        <v>3</v>
+      </c>
+      <c r="S136">
+        <v>7</v>
+      </c>
+      <c r="T136">
+        <v>4.5</v>
+      </c>
+      <c r="U136">
+        <v>2.2</v>
+      </c>
+      <c r="V136">
+        <v>2.5</v>
+      </c>
+      <c r="W136">
+        <v>1.4</v>
+      </c>
+      <c r="X136">
+        <v>2.75</v>
+      </c>
+      <c r="Y136">
+        <v>2.75</v>
+      </c>
+      <c r="Z136">
+        <v>1.4</v>
+      </c>
+      <c r="AA136">
+        <v>8</v>
+      </c>
+      <c r="AB136">
+        <v>1.08</v>
+      </c>
+      <c r="AC136">
+        <v>4.7</v>
+      </c>
+      <c r="AD136">
+        <v>3.6</v>
+      </c>
+      <c r="AE136">
+        <v>1.8</v>
+      </c>
+      <c r="AF136">
+        <v>1.04</v>
+      </c>
+      <c r="AG136">
+        <v>10</v>
+      </c>
+      <c r="AH136">
+        <v>1.3</v>
+      </c>
+      <c r="AI136">
+        <v>3.4</v>
+      </c>
+      <c r="AJ136">
+        <v>1.9</v>
+      </c>
+      <c r="AK136">
+        <v>1.96</v>
+      </c>
+      <c r="AL136">
+        <v>1.8</v>
+      </c>
+      <c r="AM136">
+        <v>1.95</v>
+      </c>
+      <c r="AN136">
+        <v>1.9</v>
+      </c>
+      <c r="AO136">
+        <v>1.29</v>
+      </c>
+      <c r="AP136">
+        <v>1.21</v>
+      </c>
+      <c r="AQ136">
+        <v>0.67</v>
+      </c>
+      <c r="AR136">
+        <v>2.67</v>
+      </c>
+      <c r="AS136">
+        <v>1</v>
+      </c>
+      <c r="AT136">
+        <v>2.29</v>
+      </c>
+      <c r="AU136">
+        <v>1.16</v>
+      </c>
+      <c r="AV136">
+        <v>1.51</v>
+      </c>
+      <c r="AW136">
+        <v>2.67</v>
+      </c>
+      <c r="AX136">
+        <v>3.04</v>
+      </c>
+      <c r="AY136">
+        <v>8</v>
+      </c>
+      <c r="AZ136">
+        <v>1.58</v>
+      </c>
+      <c r="BA136">
+        <v>1.26</v>
+      </c>
+      <c r="BB136">
+        <v>1.5</v>
+      </c>
+      <c r="BC136">
+        <v>1.9</v>
+      </c>
+      <c r="BD136">
+        <v>2.45</v>
+      </c>
+      <c r="BE136">
+        <v>3.34</v>
+      </c>
+      <c r="BF136">
+        <v>5</v>
+      </c>
+      <c r="BG136">
+        <v>7</v>
+      </c>
+      <c r="BH136">
+        <v>12</v>
+      </c>
+      <c r="BI136">
+        <v>7</v>
+      </c>
+      <c r="BJ136">
+        <v>17</v>
+      </c>
+      <c r="BK136">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:63">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>2638135</v>
+      </c>
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2">
+        <v>44874.69791666666</v>
+      </c>
+      <c r="F137">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s">
+        <v>76</v>
+      </c>
+      <c r="H137" t="s">
+        <v>66</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137" t="s">
+        <v>178</v>
+      </c>
+      <c r="P137" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q137">
+        <v>4</v>
+      </c>
+      <c r="R137">
+        <v>3</v>
+      </c>
+      <c r="S137">
+        <v>7</v>
+      </c>
+      <c r="T137">
+        <v>2.2</v>
+      </c>
+      <c r="U137">
+        <v>2.2</v>
+      </c>
+      <c r="V137">
+        <v>6</v>
+      </c>
+      <c r="W137">
+        <v>1.4</v>
+      </c>
+      <c r="X137">
+        <v>2.75</v>
+      </c>
+      <c r="Y137">
+        <v>3</v>
+      </c>
+      <c r="Z137">
+        <v>1.36</v>
+      </c>
+      <c r="AA137">
+        <v>8</v>
+      </c>
+      <c r="AB137">
+        <v>1.08</v>
+      </c>
+      <c r="AC137">
+        <v>1.61</v>
+      </c>
+      <c r="AD137">
+        <v>3.9</v>
+      </c>
+      <c r="AE137">
+        <v>5.8</v>
+      </c>
+      <c r="AF137">
+        <v>1.06</v>
+      </c>
+      <c r="AG137">
+        <v>8.5</v>
+      </c>
+      <c r="AH137">
+        <v>1.35</v>
+      </c>
+      <c r="AI137">
+        <v>3.1</v>
+      </c>
+      <c r="AJ137">
+        <v>2.04</v>
+      </c>
+      <c r="AK137">
+        <v>1.82</v>
+      </c>
+      <c r="AL137">
+        <v>2.05</v>
+      </c>
+      <c r="AM137">
+        <v>1.7</v>
+      </c>
+      <c r="AN137">
+        <v>1.14</v>
+      </c>
+      <c r="AO137">
+        <v>1.25</v>
+      </c>
+      <c r="AP137">
+        <v>2.25</v>
+      </c>
+      <c r="AQ137">
+        <v>1.33</v>
+      </c>
+      <c r="AR137">
+        <v>0.67</v>
+      </c>
+      <c r="AS137">
+        <v>1.57</v>
+      </c>
+      <c r="AT137">
+        <v>0.57</v>
+      </c>
+      <c r="AU137">
+        <v>1.46</v>
+      </c>
+      <c r="AV137">
+        <v>1.44</v>
+      </c>
+      <c r="AW137">
+        <v>2.9</v>
+      </c>
+      <c r="AX137">
+        <v>1.25</v>
+      </c>
+      <c r="AY137">
+        <v>12.25</v>
+      </c>
+      <c r="AZ137">
+        <v>4.85</v>
+      </c>
+      <c r="BA137">
+        <v>1.28</v>
+      </c>
+      <c r="BB137">
+        <v>1.55</v>
+      </c>
+      <c r="BC137">
+        <v>1.98</v>
+      </c>
+      <c r="BD137">
+        <v>2.59</v>
+      </c>
+      <c r="BE137">
+        <v>3.48</v>
+      </c>
+      <c r="BF137">
+        <v>6</v>
+      </c>
+      <c r="BG137">
+        <v>2</v>
+      </c>
+      <c r="BH137">
+        <v>3</v>
+      </c>
+      <c r="BI137">
+        <v>10</v>
+      </c>
+      <c r="BJ137">
+        <v>9</v>
+      </c>
+      <c r="BK137">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>2638129</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>44874.69791666666</v>
+      </c>
+      <c r="F138">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s">
+        <v>77</v>
+      </c>
+      <c r="H138" t="s">
+        <v>82</v>
+      </c>
+      <c r="I138">
+        <v>3</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>4</v>
+      </c>
+      <c r="L138">
+        <v>6</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>7</v>
+      </c>
+      <c r="O138" t="s">
+        <v>179</v>
+      </c>
+      <c r="P138" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q138">
+        <v>4</v>
+      </c>
+      <c r="R138">
+        <v>4</v>
+      </c>
+      <c r="S138">
+        <v>8</v>
+      </c>
+      <c r="T138">
+        <v>1.73</v>
+      </c>
+      <c r="U138">
+        <v>2.63</v>
+      </c>
+      <c r="V138">
+        <v>7.5</v>
+      </c>
+      <c r="W138">
+        <v>1.25</v>
+      </c>
+      <c r="X138">
+        <v>3.75</v>
+      </c>
+      <c r="Y138">
+        <v>2.25</v>
+      </c>
+      <c r="Z138">
+        <v>1.57</v>
+      </c>
+      <c r="AA138">
+        <v>5.5</v>
+      </c>
+      <c r="AB138">
+        <v>1.14</v>
+      </c>
+      <c r="AC138">
+        <v>1.29</v>
+      </c>
+      <c r="AD138">
+        <v>5.8</v>
+      </c>
+      <c r="AE138">
+        <v>9.4</v>
+      </c>
+      <c r="AF138">
+        <v>1.02</v>
+      </c>
+      <c r="AG138">
+        <v>13</v>
+      </c>
+      <c r="AH138">
+        <v>1.17</v>
+      </c>
+      <c r="AI138">
+        <v>5</v>
+      </c>
+      <c r="AJ138">
+        <v>1.52</v>
+      </c>
+      <c r="AK138">
+        <v>2.43</v>
+      </c>
+      <c r="AL138">
+        <v>1.95</v>
+      </c>
+      <c r="AM138">
+        <v>1.8</v>
+      </c>
+      <c r="AN138">
+        <v>1.06</v>
+      </c>
+      <c r="AO138">
+        <v>1.15</v>
+      </c>
+      <c r="AP138">
+        <v>3.4</v>
+      </c>
+      <c r="AQ138">
+        <v>2.5</v>
+      </c>
+      <c r="AR138">
+        <v>0.67</v>
+      </c>
+      <c r="AS138">
+        <v>2.57</v>
+      </c>
+      <c r="AT138">
+        <v>0.57</v>
+      </c>
+      <c r="AU138">
+        <v>1.94</v>
+      </c>
+      <c r="AV138">
+        <v>1.22</v>
+      </c>
+      <c r="AW138">
+        <v>3.16</v>
+      </c>
+      <c r="AX138">
+        <v>1.19</v>
+      </c>
+      <c r="AY138">
+        <v>14</v>
+      </c>
+      <c r="AZ138">
+        <v>5.8</v>
+      </c>
+      <c r="BA138">
+        <v>1.23</v>
+      </c>
+      <c r="BB138">
+        <v>1.47</v>
+      </c>
+      <c r="BC138">
+        <v>1.83</v>
+      </c>
+      <c r="BD138">
+        <v>2.35</v>
+      </c>
+      <c r="BE138">
+        <v>3.14</v>
+      </c>
+      <c r="BF138">
+        <v>9</v>
+      </c>
+      <c r="BG138">
+        <v>5</v>
+      </c>
+      <c r="BH138">
+        <v>5</v>
+      </c>
+      <c r="BI138">
+        <v>6</v>
+      </c>
+      <c r="BJ138">
+        <v>14</v>
+      </c>
+      <c r="BK138">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>2638127</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>44874.69791666666</v>
+      </c>
+      <c r="F139">
+        <v>14</v>
+      </c>
+      <c r="G139" t="s">
+        <v>69</v>
+      </c>
+      <c r="H139" t="s">
+        <v>71</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>2</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>3</v>
+      </c>
+      <c r="O139" t="s">
+        <v>180</v>
+      </c>
+      <c r="P139" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q139">
+        <v>4</v>
+      </c>
+      <c r="R139">
+        <v>3</v>
+      </c>
+      <c r="S139">
+        <v>7</v>
+      </c>
+      <c r="T139">
+        <v>2.05</v>
+      </c>
+      <c r="U139">
+        <v>2.38</v>
+      </c>
+      <c r="V139">
+        <v>6</v>
+      </c>
+      <c r="W139">
+        <v>1.33</v>
+      </c>
+      <c r="X139">
+        <v>3.25</v>
+      </c>
+      <c r="Y139">
+        <v>2.63</v>
+      </c>
+      <c r="Z139">
+        <v>1.44</v>
+      </c>
+      <c r="AA139">
+        <v>6.5</v>
+      </c>
+      <c r="AB139">
+        <v>1.11</v>
+      </c>
+      <c r="AC139">
+        <v>1.53</v>
+      </c>
+      <c r="AD139">
+        <v>4.4</v>
+      </c>
+      <c r="AE139">
+        <v>5.9</v>
+      </c>
+      <c r="AF139">
+        <v>1</v>
+      </c>
+      <c r="AG139">
+        <v>10.5</v>
+      </c>
+      <c r="AH139">
+        <v>1.22</v>
+      </c>
+      <c r="AI139">
+        <v>3.9</v>
+      </c>
+      <c r="AJ139">
+        <v>1.72</v>
+      </c>
+      <c r="AK139">
+        <v>2.05</v>
+      </c>
+      <c r="AL139">
+        <v>1.91</v>
+      </c>
+      <c r="AM139">
+        <v>1.91</v>
+      </c>
+      <c r="AN139">
+        <v>1.12</v>
+      </c>
+      <c r="AO139">
+        <v>1.22</v>
+      </c>
+      <c r="AP139">
+        <v>2.45</v>
+      </c>
+      <c r="AQ139">
+        <v>1.33</v>
+      </c>
+      <c r="AR139">
+        <v>1</v>
+      </c>
+      <c r="AS139">
+        <v>1.57</v>
+      </c>
+      <c r="AT139">
+        <v>0.75</v>
+      </c>
+      <c r="AU139">
+        <v>2.15</v>
+      </c>
+      <c r="AV139">
+        <v>1.41</v>
+      </c>
+      <c r="AW139">
+        <v>3.56</v>
+      </c>
+      <c r="AX139">
+        <v>1.22</v>
+      </c>
+      <c r="AY139">
+        <v>13</v>
+      </c>
+      <c r="AZ139">
+        <v>5.25</v>
+      </c>
+      <c r="BA139">
+        <v>1.27</v>
+      </c>
+      <c r="BB139">
+        <v>1.53</v>
+      </c>
+      <c r="BC139">
+        <v>1.95</v>
+      </c>
+      <c r="BD139">
+        <v>2.53</v>
+      </c>
+      <c r="BE139">
+        <v>3.42</v>
+      </c>
+      <c r="BF139">
+        <v>8</v>
+      </c>
+      <c r="BG139">
+        <v>2</v>
+      </c>
+      <c r="BH139">
+        <v>11</v>
+      </c>
+      <c r="BI139">
+        <v>3</v>
+      </c>
+      <c r="BJ139">
+        <v>19</v>
+      </c>
+      <c r="BK139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>2638128</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>44875.60416666666</v>
+      </c>
+      <c r="F140">
+        <v>14</v>
+      </c>
+      <c r="G140" t="s">
+        <v>73</v>
+      </c>
+      <c r="H140" t="s">
+        <v>74</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="O140" t="s">
+        <v>86</v>
+      </c>
+      <c r="P140" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q140">
+        <v>5</v>
+      </c>
+      <c r="R140">
+        <v>4</v>
+      </c>
+      <c r="S140">
+        <v>9</v>
+      </c>
+      <c r="T140">
+        <v>4.5</v>
+      </c>
+      <c r="U140">
+        <v>2.2</v>
+      </c>
+      <c r="V140">
+        <v>2.5</v>
+      </c>
+      <c r="W140">
+        <v>1.4</v>
+      </c>
+      <c r="X140">
+        <v>2.75</v>
+      </c>
+      <c r="Y140">
+        <v>2.75</v>
+      </c>
+      <c r="Z140">
+        <v>1.4</v>
+      </c>
+      <c r="AA140">
+        <v>8</v>
+      </c>
+      <c r="AB140">
+        <v>1.08</v>
+      </c>
+      <c r="AC140">
+        <v>8.41</v>
+      </c>
+      <c r="AD140">
+        <v>10.24</v>
+      </c>
+      <c r="AE140">
+        <v>1.08</v>
+      </c>
+      <c r="AF140">
+        <v>1.05</v>
+      </c>
+      <c r="AG140">
+        <v>11</v>
+      </c>
+      <c r="AH140">
+        <v>1.3</v>
+      </c>
+      <c r="AI140">
+        <v>3.6</v>
+      </c>
+      <c r="AJ140">
+        <v>1.94</v>
+      </c>
+      <c r="AK140">
+        <v>1.77</v>
+      </c>
+      <c r="AL140">
+        <v>1.8</v>
+      </c>
+      <c r="AM140">
+        <v>1.95</v>
+      </c>
+      <c r="AN140">
+        <v>1.95</v>
+      </c>
+      <c r="AO140">
+        <v>1.28</v>
+      </c>
+      <c r="AP140">
+        <v>1.21</v>
+      </c>
+      <c r="AQ140">
+        <v>0.5</v>
+      </c>
+      <c r="AR140">
+        <v>1.33</v>
+      </c>
+      <c r="AS140">
+        <v>0.38</v>
+      </c>
+      <c r="AT140">
+        <v>1.57</v>
+      </c>
+      <c r="AU140">
+        <v>1.37</v>
+      </c>
+      <c r="AV140">
+        <v>1.3</v>
+      </c>
+      <c r="AW140">
+        <v>2.67</v>
+      </c>
+      <c r="AX140">
+        <v>2.24</v>
+      </c>
+      <c r="AY140">
+        <v>7.5</v>
+      </c>
+      <c r="AZ140">
+        <v>1.97</v>
+      </c>
+      <c r="BA140">
+        <v>1.27</v>
+      </c>
+      <c r="BB140">
+        <v>1.52</v>
+      </c>
+      <c r="BC140">
+        <v>1.93</v>
+      </c>
+      <c r="BD140">
+        <v>2.5</v>
+      </c>
+      <c r="BE140">
+        <v>3.42</v>
+      </c>
+      <c r="BF140">
+        <v>3</v>
+      </c>
+      <c r="BG140">
+        <v>4</v>
+      </c>
+      <c r="BH140">
+        <v>13</v>
+      </c>
+      <c r="BI140">
+        <v>7</v>
+      </c>
+      <c r="BJ140">
+        <v>16</v>
+      </c>
+      <c r="BK140">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>2638130</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>44875.69791666666</v>
+      </c>
+      <c r="F141">
+        <v>14</v>
+      </c>
+      <c r="G141" t="s">
+        <v>70</v>
+      </c>
+      <c r="H141" t="s">
+        <v>68</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>1</v>
+      </c>
+      <c r="O141" t="s">
+        <v>135</v>
+      </c>
+      <c r="P141" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q141">
+        <v>4</v>
+      </c>
+      <c r="R141">
+        <v>3</v>
+      </c>
+      <c r="S141">
+        <v>7</v>
+      </c>
+      <c r="T141">
+        <v>2.25</v>
+      </c>
+      <c r="U141">
+        <v>2.38</v>
+      </c>
+      <c r="V141">
+        <v>4.75</v>
+      </c>
+      <c r="W141">
+        <v>1.3</v>
+      </c>
+      <c r="X141">
+        <v>3.4</v>
+      </c>
+      <c r="Y141">
+        <v>2.5</v>
+      </c>
+      <c r="Z141">
+        <v>1.5</v>
+      </c>
+      <c r="AA141">
+        <v>6</v>
+      </c>
+      <c r="AB141">
+        <v>1.13</v>
+      </c>
+      <c r="AC141">
+        <v>1.7</v>
+      </c>
+      <c r="AD141">
+        <v>3.8</v>
+      </c>
+      <c r="AE141">
+        <v>4.75</v>
+      </c>
+      <c r="AF141">
+        <v>1.03</v>
+      </c>
+      <c r="AG141">
+        <v>15</v>
+      </c>
+      <c r="AH141">
+        <v>1.2</v>
+      </c>
+      <c r="AI141">
+        <v>4.5</v>
+      </c>
+      <c r="AJ141">
+        <v>1.74</v>
+      </c>
+      <c r="AK141">
+        <v>1.98</v>
+      </c>
+      <c r="AL141">
+        <v>1.67</v>
+      </c>
+      <c r="AM141">
+        <v>2.1</v>
+      </c>
+      <c r="AN141">
+        <v>1.18</v>
+      </c>
+      <c r="AO141">
+        <v>1.24</v>
+      </c>
+      <c r="AP141">
+        <v>2.15</v>
+      </c>
+      <c r="AQ141">
+        <v>1.86</v>
+      </c>
+      <c r="AR141">
+        <v>0.67</v>
+      </c>
+      <c r="AS141">
+        <v>2</v>
+      </c>
+      <c r="AT141">
+        <v>0.57</v>
+      </c>
+      <c r="AU141">
+        <v>1.51</v>
+      </c>
+      <c r="AV141">
+        <v>1.39</v>
+      </c>
+      <c r="AW141">
+        <v>2.9</v>
+      </c>
+      <c r="AX141">
+        <v>1.49</v>
+      </c>
+      <c r="AY141">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ141">
+        <v>3.4</v>
+      </c>
+      <c r="BA141">
+        <v>1.27</v>
+      </c>
+      <c r="BB141">
+        <v>1.53</v>
+      </c>
+      <c r="BC141">
+        <v>1.95</v>
+      </c>
+      <c r="BD141">
+        <v>2.53</v>
+      </c>
+      <c r="BE141">
+        <v>3.42</v>
+      </c>
+      <c r="BF141">
+        <v>4</v>
+      </c>
+      <c r="BG141">
+        <v>4</v>
+      </c>
+      <c r="BH141">
+        <v>8</v>
+      </c>
+      <c r="BI141">
+        <v>6</v>
+      </c>
+      <c r="BJ141">
+        <v>12</v>
+      </c>
+      <c r="BK141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>2638138</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>44876.69791666666</v>
+      </c>
+      <c r="F142">
+        <v>15</v>
+      </c>
+      <c r="G142" t="s">
+        <v>79</v>
+      </c>
+      <c r="H142" t="s">
+        <v>84</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>2</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>181</v>
+      </c>
+      <c r="P142" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q142">
+        <v>4</v>
+      </c>
+      <c r="R142">
+        <v>9</v>
+      </c>
+      <c r="S142">
+        <v>13</v>
+      </c>
+      <c r="T142">
+        <v>2.88</v>
+      </c>
+      <c r="U142">
+        <v>2.25</v>
+      </c>
+      <c r="V142">
+        <v>3.4</v>
+      </c>
+      <c r="W142">
+        <v>1.33</v>
+      </c>
+      <c r="X142">
+        <v>3.25</v>
+      </c>
+      <c r="Y142">
+        <v>2.63</v>
+      </c>
+      <c r="Z142">
+        <v>1.44</v>
+      </c>
+      <c r="AA142">
+        <v>6.5</v>
+      </c>
+      <c r="AB142">
+        <v>1.11</v>
+      </c>
+      <c r="AC142">
+        <v>2.29</v>
+      </c>
+      <c r="AD142">
+        <v>3.5</v>
+      </c>
+      <c r="AE142">
+        <v>3.1</v>
+      </c>
+      <c r="AF142">
+        <v>1.04</v>
+      </c>
+      <c r="AG142">
+        <v>13</v>
+      </c>
+      <c r="AH142">
+        <v>1.24</v>
+      </c>
+      <c r="AI142">
+        <v>4.2</v>
+      </c>
+      <c r="AJ142">
+        <v>1.84</v>
+      </c>
+      <c r="AK142">
+        <v>1.87</v>
+      </c>
+      <c r="AL142">
+        <v>1.57</v>
+      </c>
+      <c r="AM142">
+        <v>2.25</v>
+      </c>
+      <c r="AN142">
+        <v>1.39</v>
+      </c>
+      <c r="AO142">
+        <v>1.29</v>
+      </c>
+      <c r="AP142">
+        <v>1.6</v>
+      </c>
+      <c r="AQ142">
+        <v>1.14</v>
+      </c>
+      <c r="AR142">
+        <v>0.57</v>
+      </c>
+      <c r="AS142">
+        <v>1.38</v>
+      </c>
+      <c r="AT142">
+        <v>0.5</v>
+      </c>
+      <c r="AU142">
+        <v>1.6</v>
+      </c>
+      <c r="AV142">
+        <v>1.64</v>
+      </c>
+      <c r="AW142">
+        <v>3.24</v>
+      </c>
+      <c r="AX142">
+        <v>1.95</v>
+      </c>
+      <c r="AY142">
+        <v>7.7</v>
+      </c>
+      <c r="AZ142">
+        <v>2.25</v>
+      </c>
+      <c r="BA142">
+        <v>1.22</v>
+      </c>
+      <c r="BB142">
+        <v>1.49</v>
+      </c>
+      <c r="BC142">
+        <v>1.81</v>
+      </c>
+      <c r="BD142">
+        <v>2.26</v>
+      </c>
+      <c r="BE142">
+        <v>3.04</v>
+      </c>
+      <c r="BF142">
+        <v>7</v>
+      </c>
+      <c r="BG142">
+        <v>5</v>
+      </c>
+      <c r="BH142">
+        <v>6</v>
+      </c>
+      <c r="BI142">
+        <v>17</v>
+      </c>
+      <c r="BJ142">
+        <v>13</v>
+      </c>
+      <c r="BK142">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>2638143</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>44877.45833333334</v>
+      </c>
+      <c r="F143">
+        <v>15</v>
+      </c>
+      <c r="G143" t="s">
+        <v>80</v>
+      </c>
+      <c r="H143" t="s">
+        <v>75</v>
+      </c>
+      <c r="I143">
+        <v>2</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+      <c r="L143">
+        <v>3</v>
+      </c>
+      <c r="M143">
+        <v>2</v>
+      </c>
+      <c r="N143">
+        <v>5</v>
+      </c>
+      <c r="O143" t="s">
+        <v>182</v>
+      </c>
+      <c r="P143" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q143">
+        <v>5</v>
+      </c>
+      <c r="R143">
+        <v>3</v>
+      </c>
+      <c r="S143">
+        <v>8</v>
+      </c>
+      <c r="T143">
+        <v>2</v>
+      </c>
+      <c r="U143">
+        <v>2.5</v>
+      </c>
+      <c r="V143">
+        <v>5.5</v>
+      </c>
+      <c r="W143">
+        <v>1.29</v>
+      </c>
+      <c r="X143">
+        <v>3.5</v>
+      </c>
+      <c r="Y143">
+        <v>2.25</v>
+      </c>
+      <c r="Z143">
+        <v>1.57</v>
+      </c>
+      <c r="AA143">
+        <v>5.5</v>
+      </c>
+      <c r="AB143">
+        <v>1.14</v>
+      </c>
+      <c r="AC143">
+        <v>1.3</v>
+      </c>
+      <c r="AD143">
+        <v>5.6</v>
+      </c>
+      <c r="AE143">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AF143">
+        <v>1.02</v>
+      </c>
+      <c r="AG143">
+        <v>17</v>
+      </c>
+      <c r="AH143">
+        <v>1.18</v>
+      </c>
+      <c r="AI143">
+        <v>5</v>
+      </c>
+      <c r="AJ143">
+        <v>1.57</v>
+      </c>
+      <c r="AK143">
+        <v>2.35</v>
+      </c>
+      <c r="AL143">
+        <v>1.67</v>
+      </c>
+      <c r="AM143">
+        <v>2.1</v>
+      </c>
+      <c r="AN143">
+        <v>1.13</v>
+      </c>
+      <c r="AO143">
+        <v>1.19</v>
+      </c>
+      <c r="AP143">
+        <v>2.55</v>
+      </c>
+      <c r="AQ143">
+        <v>2.71</v>
+      </c>
+      <c r="AR143">
+        <v>1.71</v>
+      </c>
+      <c r="AS143">
+        <v>2.75</v>
+      </c>
+      <c r="AT143">
+        <v>1.5</v>
+      </c>
+      <c r="AU143">
+        <v>2.45</v>
+      </c>
+      <c r="AV143">
+        <v>1.68</v>
+      </c>
+      <c r="AW143">
+        <v>4.13</v>
+      </c>
+      <c r="AX143">
+        <v>1.36</v>
+      </c>
+      <c r="AY143">
+        <v>11.75</v>
+      </c>
+      <c r="AZ143">
+        <v>3.75</v>
+      </c>
+      <c r="BA143">
+        <v>1.19</v>
+      </c>
+      <c r="BB143">
+        <v>1.39</v>
+      </c>
+      <c r="BC143">
+        <v>1.76</v>
+      </c>
+      <c r="BD143">
+        <v>2.18</v>
+      </c>
+      <c r="BE143">
+        <v>2.84</v>
+      </c>
+      <c r="BF143">
+        <v>6</v>
+      </c>
+      <c r="BG143">
+        <v>5</v>
+      </c>
+      <c r="BH143">
+        <v>9</v>
+      </c>
+      <c r="BI143">
+        <v>6</v>
+      </c>
+      <c r="BJ143">
+        <v>15</v>
+      </c>
+      <c r="BK143">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>2638145</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>44877.58333333334</v>
+      </c>
+      <c r="F144">
+        <v>15</v>
+      </c>
+      <c r="G144" t="s">
+        <v>66</v>
+      </c>
+      <c r="H144" t="s">
+        <v>67</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>2</v>
+      </c>
+      <c r="N144">
+        <v>2</v>
+      </c>
+      <c r="O144" t="s">
+        <v>86</v>
+      </c>
+      <c r="P144" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q144">
+        <v>9</v>
+      </c>
+      <c r="R144">
+        <v>0</v>
+      </c>
+      <c r="S144">
+        <v>9</v>
+      </c>
+      <c r="T144">
+        <v>3.25</v>
+      </c>
+      <c r="U144">
+        <v>2</v>
+      </c>
+      <c r="V144">
+        <v>3.6</v>
+      </c>
+      <c r="W144">
+        <v>1.5</v>
+      </c>
+      <c r="X144">
+        <v>2.5</v>
+      </c>
+      <c r="Y144">
+        <v>3.4</v>
+      </c>
+      <c r="Z144">
+        <v>1.3</v>
+      </c>
+      <c r="AA144">
+        <v>10</v>
+      </c>
+      <c r="AB144">
+        <v>1.06</v>
+      </c>
+      <c r="AC144">
+        <v>2.7</v>
+      </c>
+      <c r="AD144">
+        <v>2.75</v>
+      </c>
+      <c r="AE144">
+        <v>2.75</v>
+      </c>
+      <c r="AF144">
+        <v>1.09</v>
+      </c>
+      <c r="AG144">
+        <v>8</v>
+      </c>
+      <c r="AH144">
+        <v>1.5</v>
+      </c>
+      <c r="AI144">
+        <v>2.6</v>
+      </c>
+      <c r="AJ144">
+        <v>2.2</v>
+      </c>
+      <c r="AK144">
+        <v>1.65</v>
+      </c>
+      <c r="AL144">
+        <v>1.95</v>
+      </c>
+      <c r="AM144">
+        <v>1.8</v>
+      </c>
+      <c r="AN144">
+        <v>1.4</v>
+      </c>
+      <c r="AO144">
+        <v>1.35</v>
+      </c>
+      <c r="AP144">
+        <v>1.49</v>
+      </c>
+      <c r="AQ144">
+        <v>0.29</v>
+      </c>
+      <c r="AR144">
+        <v>0.71</v>
+      </c>
+      <c r="AS144">
+        <v>0.25</v>
+      </c>
+      <c r="AT144">
+        <v>1</v>
+      </c>
+      <c r="AU144">
+        <v>1.17</v>
+      </c>
+      <c r="AV144">
+        <v>1.08</v>
+      </c>
+      <c r="AW144">
+        <v>2.25</v>
+      </c>
+      <c r="AX144">
+        <v>1.83</v>
+      </c>
+      <c r="AY144">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ144">
+        <v>2.28</v>
+      </c>
+      <c r="BA144">
+        <v>1.28</v>
+      </c>
+      <c r="BB144">
+        <v>1.61</v>
+      </c>
+      <c r="BC144">
+        <v>2.01</v>
+      </c>
+      <c r="BD144">
+        <v>2.51</v>
+      </c>
+      <c r="BE144">
+        <v>3.48</v>
+      </c>
+      <c r="BF144">
+        <v>4</v>
+      </c>
+      <c r="BG144">
+        <v>5</v>
+      </c>
+      <c r="BH144">
+        <v>10</v>
+      </c>
+      <c r="BI144">
+        <v>11</v>
+      </c>
+      <c r="BJ144">
+        <v>14</v>
+      </c>
+      <c r="BK144">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>2638137</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>44877.69791666666</v>
+      </c>
+      <c r="F145">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s">
+        <v>82</v>
+      </c>
+      <c r="H145" t="s">
+        <v>78</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>3</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>3</v>
+      </c>
+      <c r="O145" t="s">
+        <v>183</v>
+      </c>
+      <c r="P145" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q145">
+        <v>4</v>
+      </c>
+      <c r="R145">
+        <v>6</v>
+      </c>
+      <c r="S145">
+        <v>10</v>
+      </c>
+      <c r="T145">
+        <v>3</v>
+      </c>
+      <c r="U145">
+        <v>2.2</v>
+      </c>
+      <c r="V145">
+        <v>3.4</v>
+      </c>
+      <c r="W145">
+        <v>1.36</v>
+      </c>
+      <c r="X145">
+        <v>3</v>
+      </c>
+      <c r="Y145">
+        <v>2.63</v>
+      </c>
+      <c r="Z145">
+        <v>1.44</v>
+      </c>
+      <c r="AA145">
+        <v>7</v>
+      </c>
+      <c r="AB145">
+        <v>1.1</v>
+      </c>
+      <c r="AC145">
+        <v>2.25</v>
+      </c>
+      <c r="AD145">
+        <v>3.1</v>
+      </c>
+      <c r="AE145">
+        <v>3</v>
+      </c>
+      <c r="AF145">
+        <v>1.04</v>
+      </c>
+      <c r="AG145">
+        <v>12</v>
+      </c>
+      <c r="AH145">
+        <v>1.28</v>
+      </c>
+      <c r="AI145">
+        <v>3.75</v>
+      </c>
+      <c r="AJ145">
+        <v>1.91</v>
+      </c>
+      <c r="AK145">
+        <v>1.9</v>
+      </c>
+      <c r="AL145">
+        <v>1.67</v>
+      </c>
+      <c r="AM145">
+        <v>2.1</v>
+      </c>
+      <c r="AN145">
+        <v>1.4</v>
+      </c>
+      <c r="AO145">
+        <v>1.28</v>
+      </c>
+      <c r="AP145">
+        <v>1.6</v>
+      </c>
+      <c r="AQ145">
+        <v>1.71</v>
+      </c>
+      <c r="AR145">
+        <v>0.71</v>
+      </c>
+      <c r="AS145">
+        <v>1.88</v>
+      </c>
+      <c r="AT145">
+        <v>0.63</v>
+      </c>
+      <c r="AU145">
+        <v>1.45</v>
+      </c>
+      <c r="AV145">
+        <v>1.73</v>
+      </c>
+      <c r="AW145">
+        <v>3.18</v>
+      </c>
+      <c r="AX145">
+        <v>2.04</v>
+      </c>
+      <c r="AY145">
+        <v>7.7</v>
+      </c>
+      <c r="AZ145">
+        <v>2.14</v>
+      </c>
+      <c r="BA145">
+        <v>1.21</v>
+      </c>
+      <c r="BB145">
+        <v>1.43</v>
+      </c>
+      <c r="BC145">
+        <v>1.8</v>
+      </c>
+      <c r="BD145">
+        <v>2.24</v>
+      </c>
+      <c r="BE145">
+        <v>2.98</v>
+      </c>
+      <c r="BF145">
+        <v>5</v>
+      </c>
+      <c r="BG145">
+        <v>4</v>
+      </c>
+      <c r="BH145">
+        <v>3</v>
+      </c>
+      <c r="BI145">
+        <v>7</v>
+      </c>
+      <c r="BJ145">
+        <v>8</v>
+      </c>
+      <c r="BK145">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>2638136</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>44878.35416666666</v>
+      </c>
+      <c r="F146">
+        <v>15</v>
+      </c>
+      <c r="G146" t="s">
+        <v>81</v>
+      </c>
+      <c r="H146" t="s">
+        <v>77</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>2</v>
+      </c>
+      <c r="L146">
+        <v>2</v>
+      </c>
+      <c r="M146">
+        <v>3</v>
+      </c>
+      <c r="N146">
+        <v>5</v>
+      </c>
+      <c r="O146" t="s">
+        <v>184</v>
+      </c>
+      <c r="P146" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q146">
+        <v>5</v>
+      </c>
+      <c r="R146">
+        <v>4</v>
+      </c>
+      <c r="S146">
+        <v>9</v>
+      </c>
+      <c r="T146">
+        <v>3.4</v>
+      </c>
+      <c r="U146">
+        <v>2.3</v>
+      </c>
+      <c r="V146">
+        <v>2.88</v>
+      </c>
+      <c r="W146">
+        <v>1.33</v>
+      </c>
+      <c r="X146">
+        <v>3.25</v>
+      </c>
+      <c r="Y146">
+        <v>2.5</v>
+      </c>
+      <c r="Z146">
+        <v>1.5</v>
+      </c>
+      <c r="AA146">
+        <v>6</v>
+      </c>
+      <c r="AB146">
+        <v>1.13</v>
+      </c>
+      <c r="AC146">
+        <v>2.8</v>
+      </c>
+      <c r="AD146">
+        <v>3.5</v>
+      </c>
+      <c r="AE146">
+        <v>2.3</v>
+      </c>
+      <c r="AF146">
+        <v>1.03</v>
+      </c>
+      <c r="AG146">
+        <v>15</v>
+      </c>
+      <c r="AH146">
+        <v>1.22</v>
+      </c>
+      <c r="AI146">
+        <v>4.33</v>
+      </c>
+      <c r="AJ146">
+        <v>1.58</v>
+      </c>
+      <c r="AK146">
+        <v>2.19</v>
+      </c>
+      <c r="AL146">
+        <v>1.57</v>
+      </c>
+      <c r="AM146">
+        <v>2.25</v>
+      </c>
+      <c r="AN146">
+        <v>1.65</v>
+      </c>
+      <c r="AO146">
+        <v>1.25</v>
+      </c>
+      <c r="AP146">
+        <v>1.36</v>
+      </c>
+      <c r="AQ146">
+        <v>1.57</v>
+      </c>
+      <c r="AR146">
+        <v>1.29</v>
+      </c>
+      <c r="AS146">
+        <v>1.38</v>
+      </c>
+      <c r="AT146">
+        <v>1.5</v>
+      </c>
+      <c r="AU146">
+        <v>1.59</v>
+      </c>
+      <c r="AV146">
+        <v>1.85</v>
+      </c>
+      <c r="AW146">
+        <v>3.44</v>
+      </c>
+      <c r="AX146">
+        <v>2.38</v>
+      </c>
+      <c r="AY146">
+        <v>7.7</v>
+      </c>
+      <c r="AZ146">
+        <v>1.86</v>
+      </c>
+      <c r="BA146">
+        <v>1.24</v>
+      </c>
+      <c r="BB146">
+        <v>1.54</v>
+      </c>
+      <c r="BC146">
+        <v>1.9</v>
+      </c>
+      <c r="BD146">
+        <v>2.36</v>
+      </c>
+      <c r="BE146">
+        <v>3.2</v>
+      </c>
+      <c r="BF146">
+        <v>8</v>
+      </c>
+      <c r="BG146">
+        <v>5</v>
+      </c>
+      <c r="BH146">
+        <v>11</v>
+      </c>
+      <c r="BI146">
+        <v>11</v>
+      </c>
+      <c r="BJ146">
+        <v>19</v>
+      </c>
+      <c r="BK146">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>2638139</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>44878.45833333334</v>
+      </c>
+      <c r="F147">
+        <v>15</v>
+      </c>
+      <c r="G147" t="s">
+        <v>73</v>
+      </c>
+      <c r="H147" t="s">
+        <v>72</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+      <c r="N147">
+        <v>3</v>
+      </c>
+      <c r="O147" t="s">
+        <v>137</v>
+      </c>
+      <c r="P147" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q147">
+        <v>2</v>
+      </c>
+      <c r="R147">
+        <v>10</v>
+      </c>
+      <c r="S147">
+        <v>12</v>
+      </c>
+      <c r="T147">
+        <v>2.63</v>
+      </c>
+      <c r="U147">
+        <v>2.2</v>
+      </c>
+      <c r="V147">
+        <v>4</v>
+      </c>
+      <c r="W147">
+        <v>1.36</v>
+      </c>
+      <c r="X147">
+        <v>3</v>
+      </c>
+      <c r="Y147">
+        <v>2.75</v>
+      </c>
+      <c r="Z147">
+        <v>1.4</v>
+      </c>
+      <c r="AA147">
+        <v>8</v>
+      </c>
+      <c r="AB147">
+        <v>1.08</v>
+      </c>
+      <c r="AC147">
+        <v>1.91</v>
+      </c>
+      <c r="AD147">
+        <v>3.5</v>
+      </c>
+      <c r="AE147">
+        <v>3.75</v>
+      </c>
+      <c r="AF147">
+        <v>1.05</v>
+      </c>
+      <c r="AG147">
+        <v>9</v>
+      </c>
+      <c r="AH147">
+        <v>1.29</v>
+      </c>
+      <c r="AI147">
+        <v>3.5</v>
+      </c>
+      <c r="AJ147">
+        <v>1.88</v>
+      </c>
+      <c r="AK147">
+        <v>2.02</v>
+      </c>
+      <c r="AL147">
+        <v>1.75</v>
+      </c>
+      <c r="AM147">
+        <v>2</v>
+      </c>
+      <c r="AN147">
+        <v>1.25</v>
+      </c>
+      <c r="AO147">
+        <v>1.29</v>
+      </c>
+      <c r="AP147">
+        <v>1.75</v>
+      </c>
+      <c r="AQ147">
+        <v>0.43</v>
+      </c>
+      <c r="AR147">
+        <v>0</v>
+      </c>
+      <c r="AS147">
+        <v>0.38</v>
+      </c>
+      <c r="AT147">
+        <v>0.38</v>
+      </c>
+      <c r="AU147">
+        <v>1.41</v>
+      </c>
+      <c r="AV147">
+        <v>1.2</v>
+      </c>
+      <c r="AW147">
+        <v>2.61</v>
+      </c>
+      <c r="AX147">
+        <v>1.7</v>
+      </c>
+      <c r="AY147">
+        <v>10.25</v>
+      </c>
+      <c r="AZ147">
+        <v>2.49</v>
+      </c>
+      <c r="BA147">
+        <v>1.23</v>
+      </c>
+      <c r="BB147">
+        <v>1.53</v>
+      </c>
+      <c r="BC147">
+        <v>1.87</v>
+      </c>
+      <c r="BD147">
+        <v>2.32</v>
+      </c>
+      <c r="BE147">
+        <v>3.14</v>
+      </c>
+      <c r="BF147">
+        <v>6</v>
+      </c>
+      <c r="BG147">
+        <v>11</v>
+      </c>
+      <c r="BH147">
+        <v>14</v>
+      </c>
+      <c r="BI147">
+        <v>8</v>
+      </c>
+      <c r="BJ147">
+        <v>20</v>
+      </c>
+      <c r="BK147">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>2638142</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>44878.45833333334</v>
+      </c>
+      <c r="F148">
+        <v>15</v>
+      </c>
+      <c r="G148" t="s">
+        <v>68</v>
+      </c>
+      <c r="H148" t="s">
+        <v>71</v>
+      </c>
+      <c r="I148">
+        <v>2</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>2</v>
+      </c>
+      <c r="L148">
+        <v>3</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>3</v>
+      </c>
+      <c r="O148" t="s">
+        <v>185</v>
+      </c>
+      <c r="P148" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q148">
+        <v>6</v>
+      </c>
+      <c r="R148">
+        <v>1</v>
+      </c>
+      <c r="S148">
+        <v>7</v>
+      </c>
+      <c r="T148">
+        <v>2.63</v>
+      </c>
+      <c r="U148">
+        <v>2.2</v>
+      </c>
+      <c r="V148">
+        <v>4</v>
+      </c>
+      <c r="W148">
+        <v>1.36</v>
+      </c>
+      <c r="X148">
+        <v>3</v>
+      </c>
+      <c r="Y148">
+        <v>2.75</v>
+      </c>
+      <c r="Z148">
+        <v>1.4</v>
+      </c>
+      <c r="AA148">
+        <v>8</v>
+      </c>
+      <c r="AB148">
+        <v>1.08</v>
+      </c>
+      <c r="AC148">
+        <v>2.05</v>
+      </c>
+      <c r="AD148">
+        <v>3.1</v>
+      </c>
+      <c r="AE148">
+        <v>3.8</v>
+      </c>
+      <c r="AF148">
+        <v>1.05</v>
+      </c>
+      <c r="AG148">
+        <v>11.75</v>
+      </c>
+      <c r="AH148">
+        <v>1.28</v>
+      </c>
+      <c r="AI148">
+        <v>3.75</v>
+      </c>
+      <c r="AJ148">
+        <v>1.91</v>
+      </c>
+      <c r="AK148">
+        <v>1.99</v>
+      </c>
+      <c r="AL148">
+        <v>1.7</v>
+      </c>
+      <c r="AM148">
+        <v>2.05</v>
+      </c>
+      <c r="AN148">
+        <v>1.3</v>
+      </c>
+      <c r="AO148">
+        <v>1.29</v>
+      </c>
+      <c r="AP148">
+        <v>1.73</v>
+      </c>
+      <c r="AQ148">
+        <v>1.29</v>
+      </c>
+      <c r="AR148">
+        <v>0.86</v>
+      </c>
+      <c r="AS148">
+        <v>1.5</v>
+      </c>
+      <c r="AT148">
+        <v>0.75</v>
+      </c>
+      <c r="AU148">
+        <v>1.43</v>
+      </c>
+      <c r="AV148">
+        <v>1.29</v>
+      </c>
+      <c r="AW148">
+        <v>2.72</v>
+      </c>
+      <c r="AX148">
+        <v>1.71</v>
+      </c>
+      <c r="AY148">
+        <v>10</v>
+      </c>
+      <c r="AZ148">
+        <v>2.48</v>
+      </c>
+      <c r="BA148">
+        <v>1.22</v>
+      </c>
+      <c r="BB148">
+        <v>1.52</v>
+      </c>
+      <c r="BC148">
+        <v>1.86</v>
+      </c>
+      <c r="BD148">
+        <v>2.32</v>
+      </c>
+      <c r="BE148">
+        <v>3.08</v>
+      </c>
+      <c r="BF148">
+        <v>9</v>
+      </c>
+      <c r="BG148">
+        <v>0</v>
+      </c>
+      <c r="BH148">
+        <v>13</v>
+      </c>
+      <c r="BI148">
+        <v>6</v>
+      </c>
+      <c r="BJ148">
+        <v>22</v>
+      </c>
+      <c r="BK148">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>2638144</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>44878.45833333334</v>
+      </c>
+      <c r="F149">
+        <v>15</v>
+      </c>
+      <c r="G149" t="s">
+        <v>83</v>
+      </c>
+      <c r="H149" t="s">
+        <v>76</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149">
+        <v>2</v>
+      </c>
+      <c r="O149" t="s">
+        <v>88</v>
+      </c>
+      <c r="P149" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q149">
+        <v>7</v>
+      </c>
+      <c r="R149">
+        <v>0</v>
+      </c>
+      <c r="S149">
+        <v>7</v>
+      </c>
+      <c r="T149">
+        <v>2.5</v>
+      </c>
+      <c r="U149">
+        <v>2.1</v>
+      </c>
+      <c r="V149">
+        <v>5</v>
+      </c>
+      <c r="W149">
+        <v>1.44</v>
+      </c>
+      <c r="X149">
+        <v>2.63</v>
+      </c>
+      <c r="Y149">
+        <v>3.25</v>
+      </c>
+      <c r="Z149">
+        <v>1.33</v>
+      </c>
+      <c r="AA149">
+        <v>9</v>
+      </c>
+      <c r="AB149">
+        <v>1.07</v>
+      </c>
+      <c r="AC149">
+        <v>1.8</v>
+      </c>
+      <c r="AD149">
+        <v>3.5</v>
+      </c>
+      <c r="AE149">
+        <v>4.2</v>
+      </c>
+      <c r="AF149">
+        <v>1.07</v>
+      </c>
+      <c r="AG149">
+        <v>7.5</v>
+      </c>
+      <c r="AH149">
+        <v>1.36</v>
+      </c>
+      <c r="AI149">
+        <v>3</v>
+      </c>
+      <c r="AJ149">
+        <v>1.89</v>
+      </c>
+      <c r="AK149">
+        <v>1.84</v>
+      </c>
+      <c r="AL149">
+        <v>1.95</v>
+      </c>
+      <c r="AM149">
+        <v>1.8</v>
+      </c>
+      <c r="AN149">
+        <v>1.18</v>
+      </c>
+      <c r="AO149">
+        <v>1.29</v>
+      </c>
+      <c r="AP149">
+        <v>2</v>
+      </c>
+      <c r="AQ149">
+        <v>1.5</v>
+      </c>
+      <c r="AR149">
+        <v>1.29</v>
+      </c>
+      <c r="AS149">
+        <v>1.43</v>
+      </c>
+      <c r="AT149">
+        <v>1.25</v>
+      </c>
+      <c r="AU149">
+        <v>1.86</v>
+      </c>
+      <c r="AV149">
+        <v>1.45</v>
+      </c>
+      <c r="AW149">
+        <v>3.31</v>
+      </c>
+      <c r="AX149">
+        <v>1.62</v>
+      </c>
+      <c r="AY149">
+        <v>10.25</v>
+      </c>
+      <c r="AZ149">
+        <v>2.69</v>
+      </c>
+      <c r="BA149">
+        <v>1.3</v>
+      </c>
+      <c r="BB149">
+        <v>1.63</v>
+      </c>
+      <c r="BC149">
+        <v>2.05</v>
+      </c>
+      <c r="BD149">
+        <v>2.42</v>
+      </c>
+      <c r="BE149">
+        <v>3.64</v>
+      </c>
+      <c r="BF149">
+        <v>5</v>
+      </c>
+      <c r="BG149">
+        <v>3</v>
+      </c>
+      <c r="BH149">
+        <v>7</v>
+      </c>
+      <c r="BI149">
+        <v>8</v>
+      </c>
+      <c r="BJ149">
+        <v>12</v>
+      </c>
+      <c r="BK149">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>2638141</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>44878.58333333334</v>
+      </c>
+      <c r="F150">
+        <v>15</v>
+      </c>
+      <c r="G150" t="s">
+        <v>65</v>
+      </c>
+      <c r="H150" t="s">
+        <v>69</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>2</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>3</v>
+      </c>
+      <c r="O150" t="s">
+        <v>186</v>
+      </c>
+      <c r="P150" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q150">
+        <v>5</v>
+      </c>
+      <c r="R150">
+        <v>7</v>
+      </c>
+      <c r="S150">
+        <v>12</v>
+      </c>
+      <c r="T150">
+        <v>2.3</v>
+      </c>
+      <c r="U150">
+        <v>2.25</v>
+      </c>
+      <c r="V150">
+        <v>5</v>
+      </c>
+      <c r="W150">
+        <v>1.36</v>
+      </c>
+      <c r="X150">
+        <v>3</v>
+      </c>
+      <c r="Y150">
+        <v>2.75</v>
+      </c>
+      <c r="Z150">
+        <v>1.4</v>
+      </c>
+      <c r="AA150">
+        <v>7</v>
+      </c>
+      <c r="AB150">
+        <v>1.1</v>
+      </c>
+      <c r="AC150">
+        <v>1.81</v>
+      </c>
+      <c r="AD150">
+        <v>3.96</v>
+      </c>
+      <c r="AE150">
+        <v>4.74</v>
+      </c>
+      <c r="AF150">
+        <v>1.05</v>
+      </c>
+      <c r="AG150">
+        <v>9</v>
+      </c>
+      <c r="AH150">
+        <v>1.29</v>
+      </c>
+      <c r="AI150">
+        <v>3.5</v>
+      </c>
+      <c r="AJ150">
+        <v>1.81</v>
+      </c>
+      <c r="AK150">
+        <v>1.99</v>
+      </c>
+      <c r="AL150">
+        <v>1.8</v>
+      </c>
+      <c r="AM150">
+        <v>1.95</v>
+      </c>
+      <c r="AN150">
+        <v>1.18</v>
+      </c>
+      <c r="AO150">
+        <v>1.29</v>
+      </c>
+      <c r="AP150">
+        <v>2</v>
+      </c>
+      <c r="AQ150">
+        <v>2.57</v>
+      </c>
+      <c r="AR150">
+        <v>1.14</v>
+      </c>
+      <c r="AS150">
+        <v>2.63</v>
+      </c>
+      <c r="AT150">
+        <v>1</v>
+      </c>
+      <c r="AU150">
+        <v>2.09</v>
+      </c>
+      <c r="AV150">
+        <v>1.71</v>
+      </c>
+      <c r="AW150">
+        <v>3.8</v>
+      </c>
+      <c r="AX150">
+        <v>1.74</v>
+      </c>
+      <c r="AY150">
+        <v>9.9</v>
+      </c>
+      <c r="AZ150">
+        <v>2.43</v>
+      </c>
+      <c r="BA150">
+        <v>1.33</v>
+      </c>
+      <c r="BB150">
+        <v>1.72</v>
+      </c>
+      <c r="BC150">
+        <v>2.14</v>
+      </c>
+      <c r="BD150">
+        <v>2.81</v>
+      </c>
+      <c r="BE150">
+        <v>3.88</v>
+      </c>
+      <c r="BF150">
+        <v>5</v>
+      </c>
+      <c r="BG150">
+        <v>5</v>
+      </c>
+      <c r="BH150">
+        <v>9</v>
+      </c>
+      <c r="BI150">
+        <v>8</v>
+      </c>
+      <c r="BJ150">
+        <v>14</v>
+      </c>
+      <c r="BK150">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>2638140</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>44878.69791666666</v>
+      </c>
+      <c r="F151">
+        <v>15</v>
+      </c>
+      <c r="G151" t="s">
+        <v>74</v>
+      </c>
+      <c r="H151" t="s">
+        <v>70</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>3</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>3</v>
+      </c>
+      <c r="O151" t="s">
+        <v>187</v>
+      </c>
+      <c r="P151" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q151">
+        <v>2</v>
+      </c>
+      <c r="R151">
+        <v>6</v>
+      </c>
+      <c r="S151">
+        <v>8</v>
+      </c>
+      <c r="T151">
+        <v>2.5</v>
+      </c>
+      <c r="U151">
+        <v>2.2</v>
+      </c>
+      <c r="V151">
+        <v>4.33</v>
+      </c>
+      <c r="W151">
+        <v>1.36</v>
+      </c>
+      <c r="X151">
+        <v>3</v>
+      </c>
+      <c r="Y151">
+        <v>2.75</v>
+      </c>
+      <c r="Z151">
+        <v>1.4</v>
+      </c>
+      <c r="AA151">
+        <v>7</v>
+      </c>
+      <c r="AB151">
+        <v>1.1</v>
+      </c>
+      <c r="AC151">
+        <v>2</v>
+      </c>
+      <c r="AD151">
+        <v>3.82</v>
+      </c>
+      <c r="AE151">
+        <v>3.92</v>
+      </c>
+      <c r="AF151">
+        <v>1.05</v>
+      </c>
+      <c r="AG151">
+        <v>9</v>
+      </c>
+      <c r="AH151">
+        <v>1.29</v>
+      </c>
+      <c r="AI151">
+        <v>3.5</v>
+      </c>
+      <c r="AJ151">
+        <v>1.88</v>
+      </c>
+      <c r="AK151">
+        <v>1.92</v>
+      </c>
+      <c r="AL151">
+        <v>1.75</v>
+      </c>
+      <c r="AM151">
+        <v>2</v>
+      </c>
+      <c r="AN151">
+        <v>1.22</v>
+      </c>
+      <c r="AO151">
+        <v>1.29</v>
+      </c>
+      <c r="AP151">
+        <v>1.83</v>
+      </c>
+      <c r="AQ151">
+        <v>2.43</v>
+      </c>
+      <c r="AR151">
+        <v>2.33</v>
+      </c>
+      <c r="AS151">
+        <v>2.5</v>
+      </c>
+      <c r="AT151">
+        <v>2</v>
+      </c>
+      <c r="AU151">
+        <v>1.89</v>
+      </c>
+      <c r="AV151">
+        <v>1.32</v>
+      </c>
+      <c r="AW151">
+        <v>3.21</v>
+      </c>
+      <c r="AX151">
+        <v>1.71</v>
+      </c>
+      <c r="AY151">
+        <v>9.9</v>
+      </c>
+      <c r="AZ151">
+        <v>2.49</v>
+      </c>
+      <c r="BA151">
+        <v>1.3</v>
+      </c>
+      <c r="BB151">
+        <v>1.67</v>
+      </c>
+      <c r="BC151">
+        <v>2.07</v>
+      </c>
+      <c r="BD151">
+        <v>2.69</v>
+      </c>
+      <c r="BE151">
+        <v>3.65</v>
+      </c>
+      <c r="BF151">
+        <v>4</v>
+      </c>
+      <c r="BG151">
+        <v>0</v>
+      </c>
+      <c r="BH151">
+        <v>0</v>
+      </c>
+      <c r="BI151">
+        <v>0</v>
+      </c>
+      <c r="BJ151">
+        <v>4</v>
+      </c>
+      <c r="BK151">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK151"/>
+  <dimension ref="A1:BK155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>0.25</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT8" t="n">
         <v>2.13</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT9" t="n">
         <v>0.86</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT13" t="n">
         <v>2</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT15" t="n">
         <v>1</v>
@@ -4151,7 +4151,7 @@
         <v>1.38</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.88</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT27" t="n">
         <v>0.63</v>
@@ -6181,7 +6181,7 @@
         <v>0.38</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU28" t="n">
         <v>0.91</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU29" t="n">
         <v>1.46</v>
@@ -6990,10 +6990,10 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU32" t="n">
         <v>1.42</v>
@@ -8008,7 +8008,7 @@
         <v>1.38</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU37" t="n">
         <v>0.67</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT46" t="n">
         <v>0.57</v>
@@ -10038,7 +10038,7 @@
         <v>0.38</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU47" t="n">
         <v>1.14</v>
@@ -10444,7 +10444,7 @@
         <v>1.5</v>
       </c>
       <c r="AT49" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU49" t="n">
         <v>1.56</v>
@@ -10644,7 +10644,7 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT50" t="n">
         <v>0.86</v>
@@ -10847,7 +10847,7 @@
         <v>0.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT51" t="n">
         <v>1</v>
@@ -11459,7 +11459,7 @@
         <v>0.25</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU54" t="n">
         <v>1.28</v>
@@ -12268,7 +12268,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT58" t="n">
         <v>1.5</v>
@@ -12474,7 +12474,7 @@
         <v>2</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU59" t="n">
         <v>1.41</v>
@@ -13080,7 +13080,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT62" t="n">
         <v>1</v>
@@ -13486,10 +13486,10 @@
         <v>0</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU64" t="n">
         <v>1.4</v>
@@ -13689,7 +13689,7 @@
         <v>0.67</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT65" t="n">
         <v>0.63</v>
@@ -14098,7 +14098,7 @@
         <v>1.57</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU67" t="n">
         <v>2.32</v>
@@ -14707,7 +14707,7 @@
         <v>1.43</v>
       </c>
       <c r="AT70" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU70" t="n">
         <v>2.3</v>
@@ -15519,7 +15519,7 @@
         <v>1.38</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU74" t="n">
         <v>1.52</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT78" t="n">
         <v>0.75</v>
@@ -17140,7 +17140,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT82" t="n">
         <v>1.5</v>
@@ -17549,7 +17549,7 @@
         <v>1.88</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU84" t="n">
         <v>1.67</v>
@@ -17749,7 +17749,7 @@
         <v>1.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT85" t="n">
         <v>0.86</v>
@@ -17955,7 +17955,7 @@
         <v>1.71</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU86" t="n">
         <v>1.64</v>
@@ -18155,10 +18155,10 @@
         <v>0.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU87" t="n">
         <v>1.68</v>
@@ -19373,7 +19373,7 @@
         <v>0.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT93" t="n">
         <v>1.57</v>
@@ -19982,7 +19982,7 @@
         <v>0.4</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT96" t="n">
         <v>0.5</v>
@@ -20594,7 +20594,7 @@
         <v>0.38</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU99" t="n">
         <v>1.33</v>
@@ -21403,7 +21403,7 @@
         <v>0</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT103" t="n">
         <v>0.38</v>
@@ -22827,7 +22827,7 @@
         <v>0.43</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU110" t="n">
         <v>1.57</v>
@@ -23027,10 +23027,10 @@
         <v>0.4</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU111" t="n">
         <v>1.38</v>
@@ -23639,7 +23639,7 @@
         <v>2.57</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU114" t="n">
         <v>1.95</v>
@@ -23842,7 +23842,7 @@
         <v>1.38</v>
       </c>
       <c r="AT115" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU115" t="n">
         <v>1.57</v>
@@ -24042,7 +24042,7 @@
         <v>0.4</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT116" t="n">
         <v>1</v>
@@ -24651,10 +24651,10 @@
         <v>2.2</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU119" t="n">
         <v>1.52</v>
@@ -25463,7 +25463,7 @@
         <v>0.5</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT123" t="n">
         <v>0.5</v>
@@ -26684,7 +26684,7 @@
         <v>1.5</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU129" t="n">
         <v>1.43</v>
@@ -27290,7 +27290,7 @@
         <v>1.83</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT132" t="n">
         <v>1.5</v>
@@ -27699,7 +27699,7 @@
         <v>0.43</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU134" t="n">
         <v>1.66</v>
@@ -27899,7 +27899,7 @@
         <v>2.29</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT135" t="n">
         <v>2.13</v>
@@ -28105,7 +28105,7 @@
         <v>1</v>
       </c>
       <c r="AT136" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU136" t="n">
         <v>1.16</v>
@@ -28305,10 +28305,10 @@
         <v>0.67</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU137" t="n">
         <v>1.46</v>
@@ -31202,6 +31202,818 @@
       </c>
       <c r="BK151" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2638154</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>44930.35416666666</v>
+      </c>
+      <c r="F152" t="n">
+        <v>16</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>2</v>
+      </c>
+      <c r="K152" t="n">
+        <v>2</v>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="n">
+        <v>2</v>
+      </c>
+      <c r="N152" t="n">
+        <v>3</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>['10', '15']</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>6</v>
+      </c>
+      <c r="R152" t="n">
+        <v>2</v>
+      </c>
+      <c r="S152" t="n">
+        <v>8</v>
+      </c>
+      <c r="T152" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U152" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V152" t="n">
+        <v>2</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X152" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>13</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2638155</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>44930.35416666666</v>
+      </c>
+      <c r="F153" t="n">
+        <v>16</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>2</v>
+      </c>
+      <c r="K153" t="n">
+        <v>2</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="n">
+        <v>2</v>
+      </c>
+      <c r="N153" t="n">
+        <v>3</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>['25', '28']</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>9</v>
+      </c>
+      <c r="R153" t="n">
+        <v>1</v>
+      </c>
+      <c r="S153" t="n">
+        <v>10</v>
+      </c>
+      <c r="T153" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V153" t="n">
+        <v>5</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X153" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2638149</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>44930.4375</v>
+      </c>
+      <c r="F154" t="n">
+        <v>16</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>2</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>2</v>
+      </c>
+      <c r="L154" t="n">
+        <v>2</v>
+      </c>
+      <c r="M154" t="n">
+        <v>2</v>
+      </c>
+      <c r="N154" t="n">
+        <v>4</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['8', '31']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>['77', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>3</v>
+      </c>
+      <c r="R154" t="n">
+        <v>8</v>
+      </c>
+      <c r="S154" t="n">
+        <v>11</v>
+      </c>
+      <c r="T154" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V154" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X154" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2638152</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>44930.4375</v>
+      </c>
+      <c r="F155" t="n">
+        <v>16</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="n">
+        <v>2</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>6</v>
+      </c>
+      <c r="R155" t="n">
+        <v>3</v>
+      </c>
+      <c r="S155" t="n">
+        <v>9</v>
+      </c>
+      <c r="T155" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V155" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X155" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK155"/>
+  <dimension ref="A1:BK161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT4" t="n">
         <v>1.5</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT6" t="n">
         <v>0.5</v>
@@ -1918,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.38</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0.38</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT12" t="n">
         <v>0.75</v>
@@ -3136,7 +3136,7 @@
         <v>1.5</v>
       </c>
       <c r="AT13" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT14" t="n">
         <v>0.38</v>
@@ -3948,7 +3948,7 @@
         <v>2.75</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT20" t="n">
         <v>0.5</v>
@@ -4760,7 +4760,7 @@
         <v>0.25</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU21" t="n">
         <v>1.41</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT25" t="n">
         <v>1.25</v>
@@ -5775,7 +5775,7 @@
         <v>2.63</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU26" t="n">
         <v>1.74</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU30" t="n">
         <v>1.21</v>
@@ -6787,10 +6787,10 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AU31" t="n">
         <v>3.06</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT33" t="n">
         <v>0.5</v>
@@ -7396,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU34" t="n">
         <v>2.92</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT35" t="n">
         <v>1</v>
@@ -7805,7 +7805,7 @@
         <v>0.25</v>
       </c>
       <c r="AT36" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU36" t="n">
         <v>1.22</v>
@@ -9020,10 +9020,10 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU42" t="n">
         <v>2.22</v>
@@ -9429,7 +9429,7 @@
         <v>2</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AU44" t="n">
         <v>1.63</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT45" t="n">
         <v>0.63</v>
@@ -9835,7 +9835,7 @@
         <v>1.38</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU46" t="n">
         <v>1.12</v>
@@ -10238,7 +10238,7 @@
         <v>2</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT48" t="n">
         <v>2.13</v>
@@ -10647,7 +10647,7 @@
         <v>1.38</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU50" t="n">
         <v>1.55</v>
@@ -11253,7 +11253,7 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT53" t="n">
         <v>1.25</v>
@@ -12065,10 +12065,10 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU57" t="n">
         <v>1.54</v>
@@ -13286,7 +13286,7 @@
         <v>1.88</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU63" t="n">
         <v>1.55</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT66" t="n">
         <v>1.5</v>
@@ -14095,7 +14095,7 @@
         <v>0.67</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT67" t="n">
         <v>0.38</v>
@@ -14301,7 +14301,7 @@
         <v>1.5</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU68" t="n">
         <v>1.45</v>
@@ -14501,10 +14501,10 @@
         <v>1</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT69" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU69" t="n">
         <v>1.53</v>
@@ -14704,7 +14704,7 @@
         <v>3</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT70" t="n">
         <v>2.13</v>
@@ -14910,7 +14910,7 @@
         <v>2.63</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AU71" t="n">
         <v>2.01</v>
@@ -15313,7 +15313,7 @@
         <v>1.75</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT73" t="n">
         <v>2.13</v>
@@ -15922,7 +15922,7 @@
         <v>0.25</v>
       </c>
       <c r="AS76" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT76" t="n">
         <v>0.5</v>
@@ -16128,7 +16128,7 @@
         <v>0.25</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU77" t="n">
         <v>1.29</v>
@@ -16737,7 +16737,7 @@
         <v>2.5</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU80" t="n">
         <v>1.82</v>
@@ -17346,7 +17346,7 @@
         <v>2.63</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU83" t="n">
         <v>2.05</v>
@@ -17752,7 +17752,7 @@
         <v>1.5</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU85" t="n">
         <v>1.05</v>
@@ -17952,7 +17952,7 @@
         <v>3</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT86" t="n">
         <v>2.13</v>
@@ -18561,10 +18561,10 @@
         <v>2.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AU89" t="n">
         <v>1.62</v>
@@ -18764,7 +18764,7 @@
         <v>1</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT90" t="n">
         <v>1</v>
@@ -18967,10 +18967,10 @@
         <v>1.67</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT91" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU91" t="n">
         <v>2.24</v>
@@ -19173,7 +19173,7 @@
         <v>1.38</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU92" t="n">
         <v>1.56</v>
@@ -19376,7 +19376,7 @@
         <v>1.5</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU93" t="n">
         <v>1.49</v>
@@ -19779,7 +19779,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT95" t="n">
         <v>0.75</v>
@@ -20391,7 +20391,7 @@
         <v>2.75</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU98" t="n">
         <v>2.36</v>
@@ -20997,7 +20997,7 @@
         <v>0.25</v>
       </c>
       <c r="AS101" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT101" t="n">
         <v>1</v>
@@ -21203,7 +21203,7 @@
         <v>2.5</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU102" t="n">
         <v>1.87</v>
@@ -21609,7 +21609,7 @@
         <v>2.63</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU104" t="n">
         <v>2.04</v>
@@ -21809,7 +21809,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT105" t="n">
         <v>1.5</v>
@@ -22012,7 +22012,7 @@
         <v>1.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT106" t="n">
         <v>1.25</v>
@@ -22421,7 +22421,7 @@
         <v>1.38</v>
       </c>
       <c r="AT108" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU108" t="n">
         <v>1.62</v>
@@ -22621,10 +22621,10 @@
         <v>2.6</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT109" t="n">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AU109" t="n">
         <v>2.3</v>
@@ -22824,7 +22824,7 @@
         <v>0.25</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT110" t="n">
         <v>0.88</v>
@@ -23433,10 +23433,10 @@
         <v>1</v>
       </c>
       <c r="AS113" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU113" t="n">
         <v>1.25</v>
@@ -23636,7 +23636,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT114" t="n">
         <v>0.88</v>
@@ -24245,7 +24245,7 @@
         <v>2</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT117" t="n">
         <v>1.5</v>
@@ -25060,7 +25060,7 @@
         <v>1.5</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU121" t="n">
         <v>1.47</v>
@@ -25260,7 +25260,7 @@
         <v>0.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT122" t="n">
         <v>1</v>
@@ -25872,7 +25872,7 @@
         <v>1.38</v>
       </c>
       <c r="AT125" t="n">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AU125" t="n">
         <v>1.51</v>
@@ -26884,10 +26884,10 @@
         <v>2.2</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT130" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU130" t="n">
         <v>1.97</v>
@@ -27496,7 +27496,7 @@
         <v>2.75</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU133" t="n">
         <v>2.45</v>
@@ -27696,7 +27696,7 @@
         <v>1.83</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT134" t="n">
         <v>1.88</v>
@@ -28102,7 +28102,7 @@
         <v>2.67</v>
       </c>
       <c r="AS136" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT136" t="n">
         <v>2.13</v>
@@ -28508,10 +28508,10 @@
         <v>0.67</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU138" t="n">
         <v>1.94</v>
@@ -28711,7 +28711,7 @@
         <v>1</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT139" t="n">
         <v>0.75</v>
@@ -28917,7 +28917,7 @@
         <v>0.38</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU140" t="n">
         <v>1.37</v>
@@ -29120,7 +29120,7 @@
         <v>2</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU141" t="n">
         <v>1.51</v>
@@ -30741,7 +30741,7 @@
         <v>1.29</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT149" t="n">
         <v>1.25</v>
@@ -31150,7 +31150,7 @@
         <v>2.5</v>
       </c>
       <c r="AT151" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU151" t="n">
         <v>1.89</v>
@@ -32014,6 +32014,1224 @@
       </c>
       <c r="BK155" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2638153</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>44930.52083333334</v>
+      </c>
+      <c r="F156" t="n">
+        <v>16</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>2</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="n">
+        <v>3</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['57', '71']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>4</v>
+      </c>
+      <c r="R156" t="n">
+        <v>3</v>
+      </c>
+      <c r="S156" t="n">
+        <v>7</v>
+      </c>
+      <c r="T156" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V156" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X156" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2638150</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>44930.52083333334</v>
+      </c>
+      <c r="F157" t="n">
+        <v>16</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>3</v>
+      </c>
+      <c r="R157" t="n">
+        <v>3</v>
+      </c>
+      <c r="S157" t="n">
+        <v>6</v>
+      </c>
+      <c r="T157" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V157" t="n">
+        <v>6</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X157" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2638146</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>44930.60416666666</v>
+      </c>
+      <c r="F158" t="n">
+        <v>16</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>3</v>
+      </c>
+      <c r="R158" t="n">
+        <v>8</v>
+      </c>
+      <c r="S158" t="n">
+        <v>11</v>
+      </c>
+      <c r="T158" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V158" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X158" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2638147</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>44930.60416666666</v>
+      </c>
+      <c r="F159" t="n">
+        <v>16</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="n">
+        <v>2</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>9</v>
+      </c>
+      <c r="R159" t="n">
+        <v>1</v>
+      </c>
+      <c r="S159" t="n">
+        <v>10</v>
+      </c>
+      <c r="T159" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V159" t="n">
+        <v>5</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X159" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2638148</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>44930.69791666666</v>
+      </c>
+      <c r="F160" t="n">
+        <v>16</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>5</v>
+      </c>
+      <c r="R160" t="n">
+        <v>4</v>
+      </c>
+      <c r="S160" t="n">
+        <v>9</v>
+      </c>
+      <c r="T160" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V160" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X160" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2638151</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>44930.69791666666</v>
+      </c>
+      <c r="F161" t="n">
+        <v>16</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="n">
+        <v>2</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>8</v>
+      </c>
+      <c r="R161" t="n">
+        <v>1</v>
+      </c>
+      <c r="S161" t="n">
+        <v>9</v>
+      </c>
+      <c r="T161" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U161" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V161" t="n">
+        <v>5</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X161" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>19</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK161"/>
+  <dimension ref="A1:BK162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT6" t="n">
         <v>0.5</v>
@@ -2730,7 +2730,7 @@
         <v>2.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>1.38</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU27" t="n">
         <v>1.17</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT31" t="n">
         <v>2.38</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT42" t="n">
         <v>1.75</v>
@@ -9632,7 +9632,7 @@
         <v>0.38</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU45" t="n">
         <v>2</v>
@@ -13692,7 +13692,7 @@
         <v>1.5</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU65" t="n">
         <v>1.18</v>
@@ -14095,7 +14095,7 @@
         <v>0.67</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT67" t="n">
         <v>0.38</v>
@@ -18967,7 +18967,7 @@
         <v>1.67</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT91" t="n">
         <v>1.75</v>
@@ -19579,7 +19579,7 @@
         <v>1.38</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU94" t="n">
         <v>1.55</v>
@@ -21809,7 +21809,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT105" t="n">
         <v>1.5</v>
@@ -23233,7 +23233,7 @@
         <v>2.75</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU112" t="n">
         <v>2.54</v>
@@ -25669,7 +25669,7 @@
         <v>1.38</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU124" t="n">
         <v>1.58</v>
@@ -28711,7 +28711,7 @@
         <v>1</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT139" t="n">
         <v>0.75</v>
@@ -29932,7 +29932,7 @@
         <v>1.88</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU145" t="n">
         <v>1.45</v>
@@ -32771,7 +32771,7 @@
         <v>0.57</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT159" t="n">
         <v>0.63</v>
@@ -33232,6 +33232,209 @@
       </c>
       <c r="BK161" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2638157</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>44933.45833333334</v>
+      </c>
+      <c r="F162" t="n">
+        <v>17</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>2</v>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="n">
+        <v>3</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['48', '90+1']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>4</v>
+      </c>
+      <c r="R162" t="n">
+        <v>3</v>
+      </c>
+      <c r="S162" t="n">
+        <v>7</v>
+      </c>
+      <c r="T162" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V162" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X162" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK162"/>
+  <dimension ref="A1:BK164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.63</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.25</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT5" t="n">
         <v>1.25</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT11" t="n">
         <v>0.5600000000000001</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU22" t="n">
         <v>1.61</v>
@@ -5166,7 +5166,7 @@
         <v>2</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU23" t="n">
         <v>1.73</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT24" t="n">
         <v>2.13</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT39" t="n">
         <v>0.38</v>
@@ -9226,7 +9226,7 @@
         <v>2.63</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU43" t="n">
         <v>2.01</v>
@@ -10441,7 +10441,7 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT49" t="n">
         <v>2.13</v>
@@ -12271,7 +12271,7 @@
         <v>1.38</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU58" t="n">
         <v>1.19</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT60" t="n">
         <v>0.75</v>
@@ -13895,7 +13895,7 @@
         <v>1.63</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU66" t="n">
         <v>1.45</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT68" t="n">
         <v>1.75</v>
@@ -16734,7 +16734,7 @@
         <v>0.33</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT80" t="n">
         <v>0.5</v>
@@ -16940,7 +16940,7 @@
         <v>0.38</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU81" t="n">
         <v>1.47</v>
@@ -17143,7 +17143,7 @@
         <v>1.38</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU82" t="n">
         <v>1.31</v>
@@ -18358,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT88" t="n">
         <v>0.38</v>
@@ -20188,7 +20188,7 @@
         <v>2</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU97" t="n">
         <v>1.53</v>
@@ -21200,7 +21200,7 @@
         <v>1.2</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT102" t="n">
         <v>0.88</v>
@@ -21812,7 +21812,7 @@
         <v>1.67</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU105" t="n">
         <v>2.27</v>
@@ -24248,7 +24248,7 @@
         <v>0.38</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU117" t="n">
         <v>1.68</v>
@@ -25057,7 +25057,7 @@
         <v>0.2</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT121" t="n">
         <v>0.5</v>
@@ -26681,7 +26681,7 @@
         <v>0.33</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT129" t="n">
         <v>0.38</v>
@@ -27087,10 +27087,10 @@
         <v>1.5</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU131" t="n">
         <v>1.98</v>
@@ -27293,7 +27293,7 @@
         <v>1.38</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU132" t="n">
         <v>1.55</v>
@@ -29526,7 +29526,7 @@
         <v>2.75</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU143" t="n">
         <v>2.45</v>
@@ -30135,7 +30135,7 @@
         <v>1.38</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU146" t="n">
         <v>1.59</v>
@@ -30538,7 +30538,7 @@
         <v>0.86</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT148" t="n">
         <v>0.75</v>
@@ -31147,7 +31147,7 @@
         <v>2.33</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT151" t="n">
         <v>1.75</v>
@@ -33296,13 +33296,13 @@
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R162" t="n">
         <v>3</v>
       </c>
       <c r="S162" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T162" t="n">
         <v>2.3</v>
@@ -33419,22 +33419,428 @@
         <v>3.4</v>
       </c>
       <c r="BF162" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BG162" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2638159</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>44933.58333333334</v>
+      </c>
+      <c r="F163" t="n">
+        <v>17</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>6</v>
+      </c>
+      <c r="R163" t="n">
         <v>4</v>
       </c>
-      <c r="BH162" t="n">
+      <c r="S163" t="n">
+        <v>10</v>
+      </c>
+      <c r="T163" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V163" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X163" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2638162</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>44933.69791666666</v>
+      </c>
+      <c r="F164" t="n">
+        <v>17</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>2</v>
+      </c>
+      <c r="K164" t="n">
+        <v>3</v>
+      </c>
+      <c r="L164" t="n">
+        <v>2</v>
+      </c>
+      <c r="M164" t="n">
+        <v>2</v>
+      </c>
+      <c r="N164" t="n">
+        <v>4</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['11', '90+3']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['10', '22']</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>3</v>
+      </c>
+      <c r="R164" t="n">
         <v>5</v>
       </c>
-      <c r="BI162" t="n">
+      <c r="S164" t="n">
+        <v>8</v>
+      </c>
+      <c r="T164" t="n">
+        <v>5</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V164" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X164" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF164" t="n">
         <v>7</v>
       </c>
-      <c r="BJ162" t="n">
+      <c r="BG164" t="n">
         <v>5</v>
       </c>
-      <c r="BK162" t="n">
-        <v>11</v>
+      <c r="BH164" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK164"/>
+  <dimension ref="A1:BK171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AT2" t="n">
         <v>1.33</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.44</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.67</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT7" t="n">
         <v>0.5</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT19" t="n">
         <v>0.38</v>
@@ -4557,7 +4557,7 @@
         <v>1.63</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AT21" t="n">
         <v>1.75</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT23" t="n">
         <v>1.44</v>
@@ -5369,7 +5369,7 @@
         <v>2.56</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU24" t="n">
         <v>1.57</v>
@@ -5572,7 +5572,7 @@
         <v>0.38</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AT26" t="n">
         <v>0.5</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT27" t="n">
         <v>0.5600000000000001</v>
@@ -6178,10 +6178,10 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU28" t="n">
         <v>0.91</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT29" t="n">
         <v>0.88</v>
@@ -6587,7 +6587,7 @@
         <v>1.25</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU30" t="n">
         <v>1.21</v>
@@ -6790,7 +6790,7 @@
         <v>1.67</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU31" t="n">
         <v>3.06</v>
@@ -7196,7 +7196,7 @@
         <v>2.63</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU33" t="n">
         <v>2.44</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AT36" t="n">
         <v>1.75</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT40" t="n">
         <v>0.75</v>
@@ -8820,7 +8820,7 @@
         <v>1.38</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU41" t="n">
         <v>1.16</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AT43" t="n">
         <v>1.44</v>
@@ -9426,10 +9426,10 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU44" t="n">
         <v>1.63</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT46" t="n">
         <v>0.5</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AT47" t="n">
         <v>0.88</v>
@@ -10241,7 +10241,7 @@
         <v>1.63</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU48" t="n">
         <v>1.45</v>
@@ -10444,7 +10444,7 @@
         <v>1.44</v>
       </c>
       <c r="AT49" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU49" t="n">
         <v>1.56</v>
@@ -10644,10 +10644,10 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU50" t="n">
         <v>1.55</v>
@@ -11256,7 +11256,7 @@
         <v>2.63</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU53" t="n">
         <v>2.16</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AT54" t="n">
         <v>1.88</v>
@@ -11662,7 +11662,7 @@
         <v>1.38</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU55" t="n">
         <v>1.36</v>
@@ -11862,7 +11862,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT56" t="n">
         <v>1</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT59" t="n">
         <v>0.38</v>
@@ -12880,7 +12880,7 @@
         <v>1.38</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU61" t="n">
         <v>1.25</v>
@@ -13080,7 +13080,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT62" t="n">
         <v>1</v>
@@ -13283,10 +13283,10 @@
         <v>0.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU63" t="n">
         <v>1.55</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT64" t="n">
         <v>0.88</v>
@@ -14707,7 +14707,7 @@
         <v>1.63</v>
       </c>
       <c r="AT70" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU70" t="n">
         <v>2.3</v>
@@ -14907,10 +14907,10 @@
         <v>2.33</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU71" t="n">
         <v>2.01</v>
@@ -15113,7 +15113,7 @@
         <v>2.75</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU72" t="n">
         <v>2.53</v>
@@ -15316,7 +15316,7 @@
         <v>2.63</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU73" t="n">
         <v>2.04</v>
@@ -15719,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="AS75" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT75" t="n">
         <v>0.38</v>
@@ -15925,7 +15925,7 @@
         <v>1.25</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU76" t="n">
         <v>1.45</v>
@@ -16125,7 +16125,7 @@
         <v>0.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AT77" t="n">
         <v>0.63</v>
@@ -16937,7 +16937,7 @@
         <v>2</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AT81" t="n">
         <v>1.33</v>
@@ -17343,7 +17343,7 @@
         <v>0.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AT83" t="n">
         <v>1.75</v>
@@ -17546,7 +17546,7 @@
         <v>0</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT84" t="n">
         <v>0.88</v>
@@ -17752,7 +17752,7 @@
         <v>1.5</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU85" t="n">
         <v>1.05</v>
@@ -17955,7 +17955,7 @@
         <v>1.63</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU86" t="n">
         <v>1.64</v>
@@ -18155,7 +18155,7 @@
         <v>0.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT87" t="n">
         <v>0.38</v>
@@ -18564,7 +18564,7 @@
         <v>0.38</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU89" t="n">
         <v>1.62</v>
@@ -19982,10 +19982,10 @@
         <v>0.4</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU96" t="n">
         <v>1.39</v>
@@ -20185,7 +20185,7 @@
         <v>2.25</v>
       </c>
       <c r="AS97" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT97" t="n">
         <v>1.33</v>
@@ -20591,7 +20591,7 @@
         <v>2</v>
       </c>
       <c r="AS99" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AT99" t="n">
         <v>1.88</v>
@@ -20794,10 +20794,10 @@
         <v>2</v>
       </c>
       <c r="AS100" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AT100" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU100" t="n">
         <v>1.2</v>
@@ -21203,7 +21203,7 @@
         <v>2.56</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU102" t="n">
         <v>1.87</v>
@@ -21403,7 +21403,7 @@
         <v>0</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT103" t="n">
         <v>0.38</v>
@@ -21606,7 +21606,7 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AT104" t="n">
         <v>0.63</v>
@@ -22015,7 +22015,7 @@
         <v>1.63</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU106" t="n">
         <v>1.57</v>
@@ -22215,7 +22215,7 @@
         <v>0.8</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT107" t="n">
         <v>1</v>
@@ -22624,7 +22624,7 @@
         <v>1.63</v>
       </c>
       <c r="AT109" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU109" t="n">
         <v>2.3</v>
@@ -23842,7 +23842,7 @@
         <v>1.38</v>
       </c>
       <c r="AT115" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU115" t="n">
         <v>1.57</v>
@@ -24042,7 +24042,7 @@
         <v>0.4</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT116" t="n">
         <v>1</v>
@@ -24448,7 +24448,7 @@
         <v>0.6</v>
       </c>
       <c r="AS118" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT118" t="n">
         <v>0.75</v>
@@ -24854,10 +24854,10 @@
         <v>2.17</v>
       </c>
       <c r="AS120" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AT120" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU120" t="n">
         <v>1.44</v>
@@ -25463,10 +25463,10 @@
         <v>0.5</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU123" t="n">
         <v>1.63</v>
@@ -25872,7 +25872,7 @@
         <v>1.38</v>
       </c>
       <c r="AT125" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU125" t="n">
         <v>1.51</v>
@@ -26072,7 +26072,7 @@
         <v>0</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AT126" t="n">
         <v>0.38</v>
@@ -26275,10 +26275,10 @@
         <v>1.5</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU127" t="n">
         <v>1.55</v>
@@ -26478,7 +26478,7 @@
         <v>0.83</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AT128" t="n">
         <v>1</v>
@@ -27290,7 +27290,7 @@
         <v>1.83</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT132" t="n">
         <v>1.33</v>
@@ -27496,7 +27496,7 @@
         <v>2.75</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU133" t="n">
         <v>2.45</v>
@@ -27902,7 +27902,7 @@
         <v>1.38</v>
       </c>
       <c r="AT135" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU135" t="n">
         <v>1.41</v>
@@ -28105,7 +28105,7 @@
         <v>1.25</v>
       </c>
       <c r="AT136" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU136" t="n">
         <v>1.16</v>
@@ -28914,7 +28914,7 @@
         <v>1.33</v>
       </c>
       <c r="AS140" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AT140" t="n">
         <v>1.75</v>
@@ -29117,7 +29117,7 @@
         <v>0.67</v>
       </c>
       <c r="AS141" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT141" t="n">
         <v>0.63</v>
@@ -29323,7 +29323,7 @@
         <v>1.38</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU142" t="n">
         <v>1.6</v>
@@ -29726,7 +29726,7 @@
         <v>0.71</v>
       </c>
       <c r="AS144" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AT144" t="n">
         <v>1</v>
@@ -29929,7 +29929,7 @@
         <v>0.71</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT145" t="n">
         <v>0.5600000000000001</v>
@@ -30335,7 +30335,7 @@
         <v>0</v>
       </c>
       <c r="AS147" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AT147" t="n">
         <v>0.38</v>
@@ -30744,7 +30744,7 @@
         <v>1.63</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU149" t="n">
         <v>1.86</v>
@@ -30944,7 +30944,7 @@
         <v>1.14</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AT150" t="n">
         <v>1</v>
@@ -31350,7 +31350,7 @@
         <v>1.71</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT152" t="n">
         <v>1.88</v>
@@ -31756,10 +31756,10 @@
         <v>2.29</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT154" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU154" t="n">
         <v>1.64</v>
@@ -32977,7 +32977,7 @@
         <v>2.63</v>
       </c>
       <c r="AT160" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU160" t="n">
         <v>1.92</v>
@@ -33180,7 +33180,7 @@
         <v>1.63</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU161" t="n">
         <v>1.67</v>
@@ -33841,6 +33841,1427 @@
       </c>
       <c r="BK164" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2638163</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>44934.35416666666</v>
+      </c>
+      <c r="F165" t="n">
+        <v>17</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="n">
+        <v>2</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>6</v>
+      </c>
+      <c r="R165" t="n">
+        <v>7</v>
+      </c>
+      <c r="S165" t="n">
+        <v>13</v>
+      </c>
+      <c r="T165" t="n">
+        <v>4</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V165" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X165" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2638165</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>44934.45833333334</v>
+      </c>
+      <c r="F166" t="n">
+        <v>17</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>5</v>
+      </c>
+      <c r="R166" t="n">
+        <v>7</v>
+      </c>
+      <c r="S166" t="n">
+        <v>12</v>
+      </c>
+      <c r="T166" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U166" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V166" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X166" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2638160</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>44934.45833333334</v>
+      </c>
+      <c r="F167" t="n">
+        <v>17</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="n">
+        <v>2</v>
+      </c>
+      <c r="M167" t="n">
+        <v>2</v>
+      </c>
+      <c r="N167" t="n">
+        <v>4</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['2', '54']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['83', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>10</v>
+      </c>
+      <c r="R167" t="n">
+        <v>3</v>
+      </c>
+      <c r="S167" t="n">
+        <v>13</v>
+      </c>
+      <c r="T167" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V167" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X167" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2638164</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>44934.58333333334</v>
+      </c>
+      <c r="F168" t="n">
+        <v>17</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>2</v>
+      </c>
+      <c r="N168" t="n">
+        <v>2</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>['19', '82']</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>2</v>
+      </c>
+      <c r="R168" t="n">
+        <v>5</v>
+      </c>
+      <c r="S168" t="n">
+        <v>7</v>
+      </c>
+      <c r="T168" t="n">
+        <v>7</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V168" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X168" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2638161</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>44934.69791666666</v>
+      </c>
+      <c r="F169" t="n">
+        <v>17</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>2</v>
+      </c>
+      <c r="M169" t="n">
+        <v>2</v>
+      </c>
+      <c r="N169" t="n">
+        <v>4</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['30', '77']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>['87', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>3</v>
+      </c>
+      <c r="R169" t="n">
+        <v>4</v>
+      </c>
+      <c r="S169" t="n">
+        <v>7</v>
+      </c>
+      <c r="T169" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U169" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V169" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X169" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2638158</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>44935.60416666666</v>
+      </c>
+      <c r="F170" t="n">
+        <v>17</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>2</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>2</v>
+      </c>
+      <c r="L170" t="n">
+        <v>2</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>2</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['9', '26']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>3</v>
+      </c>
+      <c r="R170" t="n">
+        <v>5</v>
+      </c>
+      <c r="S170" t="n">
+        <v>8</v>
+      </c>
+      <c r="T170" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V170" t="n">
+        <v>4</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X170" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2638156</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>44935.69791666666</v>
+      </c>
+      <c r="F171" t="n">
+        <v>17</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="n">
+        <v>2</v>
+      </c>
+      <c r="N171" t="n">
+        <v>3</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['47', '58']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>4</v>
+      </c>
+      <c r="R171" t="n">
+        <v>0</v>
+      </c>
+      <c r="S171" t="n">
+        <v>4</v>
+      </c>
+      <c r="T171" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V171" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X171" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK171"/>
+  <dimension ref="A1:BK173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>0.22</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU21" t="n">
         <v>1.41</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AT25" t="n">
         <v>1.22</v>
@@ -7399,7 +7399,7 @@
         <v>1.63</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU34" t="n">
         <v>2.92</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT38" t="n">
         <v>1</v>
@@ -9023,7 +9023,7 @@
         <v>1.67</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU42" t="n">
         <v>2.22</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AT45" t="n">
         <v>0.5600000000000001</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT52" t="n">
         <v>0.38</v>
@@ -12068,7 +12068,7 @@
         <v>1.25</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU57" t="n">
         <v>1.54</v>
@@ -14301,7 +14301,7 @@
         <v>1.44</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU68" t="n">
         <v>1.45</v>
@@ -14501,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AT69" t="n">
         <v>1.75</v>
@@ -15110,7 +15110,7 @@
         <v>1.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT72" t="n">
         <v>1.22</v>
@@ -16128,7 +16128,7 @@
         <v>0.22</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU77" t="n">
         <v>1.29</v>
@@ -17346,7 +17346,7 @@
         <v>2.44</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU83" t="n">
         <v>2.05</v>
@@ -18561,7 +18561,7 @@
         <v>2.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AT89" t="n">
         <v>2.44</v>
@@ -19173,7 +19173,7 @@
         <v>1.38</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU92" t="n">
         <v>1.56</v>
@@ -19376,7 +19376,7 @@
         <v>1.5</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU93" t="n">
         <v>1.49</v>
@@ -20388,7 +20388,7 @@
         <v>0.25</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT98" t="n">
         <v>0.5</v>
@@ -21609,7 +21609,7 @@
         <v>2.44</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU104" t="n">
         <v>2.04</v>
@@ -22824,7 +22824,7 @@
         <v>0.25</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AT110" t="n">
         <v>0.88</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT112" t="n">
         <v>0.5600000000000001</v>
@@ -23436,7 +23436,7 @@
         <v>1.25</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU113" t="n">
         <v>1.25</v>
@@ -24245,7 +24245,7 @@
         <v>2</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AT117" t="n">
         <v>1.33</v>
@@ -27493,7 +27493,7 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT133" t="n">
         <v>0.89</v>
@@ -27696,7 +27696,7 @@
         <v>1.83</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AT134" t="n">
         <v>1.88</v>
@@ -28917,7 +28917,7 @@
         <v>0.67</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU140" t="n">
         <v>1.37</v>
@@ -29120,7 +29120,7 @@
         <v>1.89</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU141" t="n">
         <v>1.51</v>
@@ -29523,7 +29523,7 @@
         <v>1.71</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT143" t="n">
         <v>1.33</v>
@@ -32568,10 +32568,10 @@
         <v>1.57</v>
       </c>
       <c r="AS158" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU158" t="n">
         <v>1.54</v>
@@ -32774,7 +32774,7 @@
         <v>1.67</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU159" t="n">
         <v>2.17</v>
@@ -35262,6 +35262,412 @@
       </c>
       <c r="BK171" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2638171</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>44939.69791666666</v>
+      </c>
+      <c r="F172" t="n">
+        <v>18</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>2</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
+      <c r="K172" t="n">
+        <v>3</v>
+      </c>
+      <c r="L172" t="n">
+        <v>5</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="n">
+        <v>6</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['14', '39', '55', '65', '72']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>2</v>
+      </c>
+      <c r="R172" t="n">
+        <v>5</v>
+      </c>
+      <c r="S172" t="n">
+        <v>7</v>
+      </c>
+      <c r="T172" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U172" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V172" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X172" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2638167</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>44940.45833333334</v>
+      </c>
+      <c r="F173" t="n">
+        <v>18</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>2</v>
+      </c>
+      <c r="K173" t="n">
+        <v>2</v>
+      </c>
+      <c r="L173" t="n">
+        <v>2</v>
+      </c>
+      <c r="M173" t="n">
+        <v>3</v>
+      </c>
+      <c r="N173" t="n">
+        <v>5</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['67', '83']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>['8', '19', '55']</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>4</v>
+      </c>
+      <c r="R173" t="n">
+        <v>2</v>
+      </c>
+      <c r="S173" t="n">
+        <v>6</v>
+      </c>
+      <c r="T173" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U173" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V173" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X173" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK173"/>
+  <dimension ref="A1:BK176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT4" t="n">
         <v>1.44</v>
@@ -3136,7 +3136,7 @@
         <v>1.5</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT14" t="n">
         <v>0.38</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT15" t="n">
         <v>1</v>
@@ -4151,7 +4151,7 @@
         <v>1.38</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.67</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT30" t="n">
         <v>0.89</v>
@@ -6990,10 +6990,10 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU32" t="n">
         <v>1.42</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT33" t="n">
         <v>0.44</v>
@@ -7805,7 +7805,7 @@
         <v>0.22</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU36" t="n">
         <v>1.22</v>
@@ -8008,7 +8008,7 @@
         <v>1.38</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU37" t="n">
         <v>0.67</v>
@@ -11253,7 +11253,7 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT53" t="n">
         <v>1.22</v>
@@ -11459,7 +11459,7 @@
         <v>0.22</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU54" t="n">
         <v>1.28</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT57" t="n">
         <v>0.89</v>
@@ -12268,7 +12268,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT58" t="n">
         <v>1.33</v>
@@ -12474,7 +12474,7 @@
         <v>1.89</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU59" t="n">
         <v>1.41</v>
@@ -14098,7 +14098,7 @@
         <v>1.67</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU67" t="n">
         <v>2.32</v>
@@ -14504,7 +14504,7 @@
         <v>0.33</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU69" t="n">
         <v>1.53</v>
@@ -15313,7 +15313,7 @@
         <v>1.75</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT73" t="n">
         <v>2</v>
@@ -15519,7 +15519,7 @@
         <v>1.38</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU74" t="n">
         <v>1.52</v>
@@ -15922,7 +15922,7 @@
         <v>0.25</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT76" t="n">
         <v>0.44</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT78" t="n">
         <v>0.75</v>
@@ -17140,7 +17140,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT82" t="n">
         <v>1.44</v>
@@ -18158,7 +18158,7 @@
         <v>1.33</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU87" t="n">
         <v>1.68</v>
@@ -18970,7 +18970,7 @@
         <v>1.67</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU91" t="n">
         <v>2.24</v>
@@ -19779,7 +19779,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT95" t="n">
         <v>0.75</v>
@@ -20594,7 +20594,7 @@
         <v>0.67</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU99" t="n">
         <v>1.33</v>
@@ -20997,7 +20997,7 @@
         <v>0.25</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT101" t="n">
         <v>1</v>
@@ -22421,7 +22421,7 @@
         <v>1.38</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU108" t="n">
         <v>1.62</v>
@@ -23027,10 +23027,10 @@
         <v>0.4</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU111" t="n">
         <v>1.38</v>
@@ -23433,7 +23433,7 @@
         <v>1</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT113" t="n">
         <v>1.56</v>
@@ -23636,7 +23636,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT114" t="n">
         <v>0.88</v>
@@ -24654,7 +24654,7 @@
         <v>1.5</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU119" t="n">
         <v>1.52</v>
@@ -26684,7 +26684,7 @@
         <v>1.44</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU129" t="n">
         <v>1.43</v>
@@ -26887,7 +26887,7 @@
         <v>1.63</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU130" t="n">
         <v>1.97</v>
@@ -27699,7 +27699,7 @@
         <v>0.33</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU134" t="n">
         <v>1.66</v>
@@ -27899,7 +27899,7 @@
         <v>2.29</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT135" t="n">
         <v>2</v>
@@ -28102,7 +28102,7 @@
         <v>2.67</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT136" t="n">
         <v>2.22</v>
@@ -28508,7 +28508,7 @@
         <v>0.67</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT138" t="n">
         <v>0.5</v>
@@ -31150,7 +31150,7 @@
         <v>2.56</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU151" t="n">
         <v>1.89</v>
@@ -31353,7 +31353,7 @@
         <v>1.33</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU152" t="n">
         <v>1.58</v>
@@ -31553,7 +31553,7 @@
         <v>0.57</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT153" t="n">
         <v>0.88</v>
@@ -31962,7 +31962,7 @@
         <v>1.5</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU155" t="n">
         <v>1.43</v>
@@ -32162,10 +32162,10 @@
         <v>2</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU156" t="n">
         <v>1.24</v>
@@ -32974,7 +32974,7 @@
         <v>2.71</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT160" t="n">
         <v>2.44</v>
@@ -35652,22 +35652,631 @@
         <v>3.2</v>
       </c>
       <c r="BF173" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>2638170</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>44940.58333333334</v>
+      </c>
+      <c r="F174" t="n">
+        <v>18</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>2</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>2</v>
+      </c>
+      <c r="L174" t="n">
+        <v>2</v>
+      </c>
+      <c r="M174" t="n">
+        <v>2</v>
+      </c>
+      <c r="N174" t="n">
+        <v>4</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>['3', '23']</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>['58', '70']</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>8</v>
+      </c>
+      <c r="R174" t="n">
+        <v>4</v>
+      </c>
+      <c r="S174" t="n">
+        <v>12</v>
+      </c>
+      <c r="T174" t="n">
+        <v>6</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V174" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X174" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2638169</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>44940.69791666666</v>
+      </c>
+      <c r="F175" t="n">
+        <v>18</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>1</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>3</v>
+      </c>
+      <c r="R175" t="n">
+        <v>4</v>
+      </c>
+      <c r="S175" t="n">
         <v>7</v>
       </c>
-      <c r="BG173" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH173" t="n">
+      <c r="T175" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U175" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V175" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X175" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2638173</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>44941.35416666666</v>
+      </c>
+      <c r="F176" t="n">
+        <v>18</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>2</v>
+      </c>
+      <c r="N176" t="n">
+        <v>2</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>['45+3', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>5</v>
+      </c>
+      <c r="R176" t="n">
+        <v>1</v>
+      </c>
+      <c r="S176" t="n">
+        <v>6</v>
+      </c>
+      <c r="T176" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U176" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V176" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X176" t="n">
         <v>3</v>
       </c>
-      <c r="BI173" t="n">
+      <c r="Y176" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BF176" t="n">
         <v>4</v>
       </c>
-      <c r="BJ173" t="n">
-        <v>10</v>
-      </c>
-      <c r="BK173" t="n">
+      <c r="BG176" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI176" t="n">
         <v>4</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK176"/>
+  <dimension ref="A1:BK180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>1.89</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT13" t="n">
         <v>1.89</v>
@@ -3339,7 +3339,7 @@
         <v>2.67</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.38</v>
       </c>
       <c r="AT16" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT18" t="n">
         <v>1.78</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT20" t="n">
         <v>0.44</v>
@@ -5775,7 +5775,7 @@
         <v>2.44</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU26" t="n">
         <v>1.74</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT34" t="n">
         <v>0.89</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT35" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU35" t="n">
         <v>1.64</v>
@@ -8414,7 +8414,7 @@
         <v>2.56</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU39" t="n">
         <v>1.67</v>
@@ -8617,7 +8617,7 @@
         <v>1.67</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU40" t="n">
         <v>1.94</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT41" t="n">
         <v>1.22</v>
@@ -9835,7 +9835,7 @@
         <v>1.33</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU46" t="n">
         <v>1.12</v>
@@ -10238,7 +10238,7 @@
         <v>2</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT48" t="n">
         <v>2</v>
@@ -10847,7 +10847,7 @@
         <v>0.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT51" t="n">
         <v>1</v>
@@ -11053,7 +11053,7 @@
         <v>2.78</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU52" t="n">
         <v>2.28</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT55" t="n">
         <v>0.44</v>
@@ -11865,7 +11865,7 @@
         <v>1.67</v>
       </c>
       <c r="AT56" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU56" t="n">
         <v>1.65</v>
@@ -12677,7 +12677,7 @@
         <v>2.56</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU60" t="n">
         <v>1.64</v>
@@ -13689,7 +13689,7 @@
         <v>0.67</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT65" t="n">
         <v>0.5600000000000001</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT66" t="n">
         <v>1.44</v>
@@ -14704,7 +14704,7 @@
         <v>3</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT70" t="n">
         <v>2.22</v>
@@ -15722,7 +15722,7 @@
         <v>1.89</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU75" t="n">
         <v>1.52</v>
@@ -16331,7 +16331,7 @@
         <v>1.22</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU78" t="n">
         <v>1.04</v>
@@ -16531,10 +16531,10 @@
         <v>0.33</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT79" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU79" t="n">
         <v>1.56</v>
@@ -16737,7 +16737,7 @@
         <v>2.56</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU80" t="n">
         <v>1.82</v>
@@ -17749,7 +17749,7 @@
         <v>1.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT85" t="n">
         <v>0.89</v>
@@ -17952,7 +17952,7 @@
         <v>3</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT86" t="n">
         <v>2.22</v>
@@ -18361,7 +18361,7 @@
         <v>1.44</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU88" t="n">
         <v>1.57</v>
@@ -18764,7 +18764,7 @@
         <v>1</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT90" t="n">
         <v>1</v>
@@ -19373,7 +19373,7 @@
         <v>0.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT93" t="n">
         <v>1.56</v>
@@ -19576,7 +19576,7 @@
         <v>1.25</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT94" t="n">
         <v>0.5600000000000001</v>
@@ -19782,7 +19782,7 @@
         <v>2.67</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU95" t="n">
         <v>1.95</v>
@@ -20391,7 +20391,7 @@
         <v>2.78</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU98" t="n">
         <v>2.36</v>
@@ -21000,7 +21000,7 @@
         <v>1.22</v>
       </c>
       <c r="AT101" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU101" t="n">
         <v>1.33</v>
@@ -21406,7 +21406,7 @@
         <v>1.33</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU103" t="n">
         <v>1.63</v>
@@ -22012,7 +22012,7 @@
         <v>1.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT106" t="n">
         <v>1.22</v>
@@ -22418,7 +22418,7 @@
         <v>2</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT108" t="n">
         <v>1.89</v>
@@ -22621,7 +22621,7 @@
         <v>2.6</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT109" t="n">
         <v>2.44</v>
@@ -24045,7 +24045,7 @@
         <v>1.33</v>
       </c>
       <c r="AT116" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU116" t="n">
         <v>1.56</v>
@@ -24451,7 +24451,7 @@
         <v>1.89</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU118" t="n">
         <v>1.46</v>
@@ -24651,7 +24651,7 @@
         <v>2.2</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT119" t="n">
         <v>1.78</v>
@@ -25060,7 +25060,7 @@
         <v>1.44</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU121" t="n">
         <v>1.47</v>
@@ -25260,7 +25260,7 @@
         <v>0.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT122" t="n">
         <v>1</v>
@@ -25869,7 +25869,7 @@
         <v>2.67</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT125" t="n">
         <v>2.44</v>
@@ -26075,7 +26075,7 @@
         <v>2.44</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU126" t="n">
         <v>1.98</v>
@@ -26481,7 +26481,7 @@
         <v>0.22</v>
       </c>
       <c r="AT128" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU128" t="n">
         <v>1.14</v>
@@ -26884,7 +26884,7 @@
         <v>2.2</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT130" t="n">
         <v>1.89</v>
@@ -28305,7 +28305,7 @@
         <v>0.67</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT137" t="n">
         <v>0.88</v>
@@ -28511,7 +28511,7 @@
         <v>2.67</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU138" t="n">
         <v>1.94</v>
@@ -28714,7 +28714,7 @@
         <v>1.67</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU139" t="n">
         <v>2.15</v>
@@ -30132,7 +30132,7 @@
         <v>1.29</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT146" t="n">
         <v>1.44</v>
@@ -30338,7 +30338,7 @@
         <v>0.67</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU147" t="n">
         <v>1.41</v>
@@ -30541,7 +30541,7 @@
         <v>1.44</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU148" t="n">
         <v>1.43</v>
@@ -30741,7 +30741,7 @@
         <v>1.29</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT149" t="n">
         <v>1.22</v>
@@ -30947,7 +30947,7 @@
         <v>2.44</v>
       </c>
       <c r="AT150" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU150" t="n">
         <v>2.09</v>
@@ -31959,7 +31959,7 @@
         <v>0.29</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT155" t="n">
         <v>0.33</v>
@@ -32365,10 +32365,10 @@
         <v>0.57</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU157" t="n">
         <v>1.81</v>
@@ -33177,7 +33177,7 @@
         <v>0.86</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT161" t="n">
         <v>0.89</v>
@@ -36138,13 +36138,13 @@
         </is>
       </c>
       <c r="Q176" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R176" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S176" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T176" t="n">
         <v>3.6</v>
@@ -36261,22 +36261,834 @@
         <v>3.84</v>
       </c>
       <c r="BF176" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG176" t="n">
         <v>4</v>
       </c>
-      <c r="BG176" t="n">
+      <c r="BH176" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2638174</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>44941.45833333334</v>
+      </c>
+      <c r="F177" t="n">
+        <v>18</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="n">
+        <v>1</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>7</v>
+      </c>
+      <c r="R177" t="n">
+        <v>2</v>
+      </c>
+      <c r="S177" t="n">
+        <v>9</v>
+      </c>
+      <c r="T177" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U177" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V177" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X177" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y177" t="n">
         <v>3</v>
       </c>
-      <c r="BH176" t="n">
+      <c r="Z177" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2638175</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>44941.45833333334</v>
+      </c>
+      <c r="F178" t="n">
+        <v>18</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="n">
+        <v>2</v>
+      </c>
+      <c r="N178" t="n">
         <v>3</v>
       </c>
-      <c r="BI176" t="n">
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>['59', '80']</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>6</v>
+      </c>
+      <c r="R178" t="n">
         <v>4</v>
       </c>
-      <c r="BJ176" t="n">
+      <c r="S178" t="n">
+        <v>10</v>
+      </c>
+      <c r="T178" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U178" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V178" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X178" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2638166</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>44941.58333333334</v>
+      </c>
+      <c r="F179" t="n">
+        <v>18</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>5</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
+      <c r="K179" t="n">
+        <v>6</v>
+      </c>
+      <c r="L179" t="n">
+        <v>8</v>
+      </c>
+      <c r="M179" t="n">
+        <v>2</v>
+      </c>
+      <c r="N179" t="n">
+        <v>10</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['5', '20', '23', '38', '41', '54', '61', '85']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>['10', '56']</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>5</v>
+      </c>
+      <c r="R179" t="n">
+        <v>2</v>
+      </c>
+      <c r="S179" t="n">
         <v>7</v>
       </c>
-      <c r="BK176" t="n">
-        <v>7</v>
+      <c r="T179" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U179" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V179" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X179" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2638172</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>44941.69791666666</v>
+      </c>
+      <c r="F180" t="n">
+        <v>18</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="n">
+        <v>2</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>2</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>['40', '82']</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>5</v>
+      </c>
+      <c r="R180" t="n">
+        <v>9</v>
+      </c>
+      <c r="S180" t="n">
+        <v>14</v>
+      </c>
+      <c r="T180" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V180" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X180" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK180"/>
+  <dimension ref="A1:BK181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT16" t="n">
         <v>0.89</v>
@@ -6384,7 +6384,7 @@
         <v>1.33</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU29" t="n">
         <v>1.46</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT37" t="n">
         <v>0.33</v>
@@ -10038,7 +10038,7 @@
         <v>0.67</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU47" t="n">
         <v>1.14</v>
@@ -12877,7 +12877,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT61" t="n">
         <v>2</v>
@@ -13489,7 +13489,7 @@
         <v>1.33</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU64" t="n">
         <v>1.4</v>
@@ -15516,7 +15516,7 @@
         <v>1.67</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT74" t="n">
         <v>1.78</v>
@@ -17549,7 +17549,7 @@
         <v>1.67</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU84" t="n">
         <v>1.67</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT92" t="n">
         <v>0.89</v>
@@ -22827,7 +22827,7 @@
         <v>0.33</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU110" t="n">
         <v>1.57</v>
@@ -23639,7 +23639,7 @@
         <v>2.67</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU114" t="n">
         <v>1.95</v>
@@ -23839,7 +23839,7 @@
         <v>2.6</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT115" t="n">
         <v>2.22</v>
@@ -25666,7 +25666,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT124" t="n">
         <v>0.5600000000000001</v>
@@ -28308,7 +28308,7 @@
         <v>1.33</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU137" t="n">
         <v>1.46</v>
@@ -29320,7 +29320,7 @@
         <v>0.57</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT142" t="n">
         <v>0.44</v>
@@ -31556,7 +31556,7 @@
         <v>1.22</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU153" t="n">
         <v>1.46</v>
@@ -37089,6 +37089,209 @@
       </c>
       <c r="BK180" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2638168</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>44942.69791666666</v>
+      </c>
+      <c r="F181" t="n">
+        <v>18</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="n">
+        <v>1</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>3</v>
+      </c>
+      <c r="R181" t="n">
+        <v>3</v>
+      </c>
+      <c r="S181" t="n">
+        <v>6</v>
+      </c>
+      <c r="T181" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U181" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V181" t="n">
+        <v>4</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X181" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK181"/>
+  <dimension ref="A1:BK186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.44</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AT3" t="n">
         <v>2.22</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT6" t="n">
         <v>0.44</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT8" t="n">
         <v>2</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2.56</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.22</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AT21" t="n">
         <v>1.56</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU22" t="n">
         <v>1.61</v>
@@ -5572,7 +5572,7 @@
         <v>0.33</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>1.33</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU27" t="n">
         <v>1.17</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT28" t="n">
         <v>2.22</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT29" t="n">
         <v>0.78</v>
@@ -6787,10 +6787,10 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU31" t="n">
         <v>3.06</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AT36" t="n">
         <v>1.89</v>
@@ -8211,7 +8211,7 @@
         <v>2.78</v>
       </c>
       <c r="AT38" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU38" t="n">
         <v>2.3</v>
@@ -8820,7 +8820,7 @@
         <v>1.56</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU41" t="n">
         <v>1.16</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT42" t="n">
         <v>1.56</v>
@@ -9429,7 +9429,7 @@
         <v>1.89</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU44" t="n">
         <v>1.63</v>
@@ -9632,7 +9632,7 @@
         <v>0.33</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU45" t="n">
         <v>2</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT47" t="n">
         <v>0.78</v>
@@ -10441,7 +10441,7 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT49" t="n">
         <v>2.22</v>
@@ -10644,7 +10644,7 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT50" t="n">
         <v>0.89</v>
@@ -10850,7 +10850,7 @@
         <v>1.33</v>
       </c>
       <c r="AT51" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU51" t="n">
         <v>1.16</v>
@@ -11256,7 +11256,7 @@
         <v>2.67</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU53" t="n">
         <v>2.16</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AT54" t="n">
         <v>1.78</v>
@@ -12271,7 +12271,7 @@
         <v>1.22</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU58" t="n">
         <v>1.19</v>
@@ -13080,10 +13080,10 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT62" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU62" t="n">
         <v>1.66</v>
@@ -13692,7 +13692,7 @@
         <v>1.33</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU65" t="n">
         <v>1.18</v>
@@ -14095,7 +14095,7 @@
         <v>0.67</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT67" t="n">
         <v>0.33</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT68" t="n">
         <v>1.56</v>
@@ -14910,7 +14910,7 @@
         <v>2.44</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU71" t="n">
         <v>2.01</v>
@@ -15113,7 +15113,7 @@
         <v>2.78</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU72" t="n">
         <v>2.53</v>
@@ -16125,7 +16125,7 @@
         <v>0.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AT77" t="n">
         <v>0.89</v>
@@ -16937,10 +16937,10 @@
         <v>2</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU81" t="n">
         <v>1.47</v>
@@ -18155,7 +18155,7 @@
         <v>0.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT87" t="n">
         <v>0.33</v>
@@ -18358,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT88" t="n">
         <v>0.67</v>
@@ -18564,7 +18564,7 @@
         <v>0.33</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU89" t="n">
         <v>1.62</v>
@@ -18767,7 +18767,7 @@
         <v>1.78</v>
       </c>
       <c r="AT90" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU90" t="n">
         <v>2.23</v>
@@ -18967,7 +18967,7 @@
         <v>1.67</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT91" t="n">
         <v>1.89</v>
@@ -19579,7 +19579,7 @@
         <v>1.56</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU94" t="n">
         <v>1.55</v>
@@ -20188,7 +20188,7 @@
         <v>1.89</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU97" t="n">
         <v>1.53</v>
@@ -20591,7 +20591,7 @@
         <v>2</v>
       </c>
       <c r="AS99" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT99" t="n">
         <v>1.78</v>
@@ -20794,7 +20794,7 @@
         <v>2</v>
       </c>
       <c r="AS100" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AT100" t="n">
         <v>2</v>
@@ -21403,7 +21403,7 @@
         <v>0</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT103" t="n">
         <v>0.67</v>
@@ -21809,7 +21809,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT105" t="n">
         <v>1.44</v>
@@ -22015,7 +22015,7 @@
         <v>1.44</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU106" t="n">
         <v>1.57</v>
@@ -22218,7 +22218,7 @@
         <v>1.67</v>
       </c>
       <c r="AT107" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU107" t="n">
         <v>1.57</v>
@@ -22624,7 +22624,7 @@
         <v>1.78</v>
       </c>
       <c r="AT109" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU109" t="n">
         <v>2.3</v>
@@ -23233,7 +23233,7 @@
         <v>2.78</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU112" t="n">
         <v>2.54</v>
@@ -24248,7 +24248,7 @@
         <v>0.33</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU117" t="n">
         <v>1.68</v>
@@ -24854,7 +24854,7 @@
         <v>2.17</v>
       </c>
       <c r="AS120" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT120" t="n">
         <v>2</v>
@@ -25057,7 +25057,7 @@
         <v>0.2</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT121" t="n">
         <v>0.78</v>
@@ -25263,7 +25263,7 @@
         <v>1.44</v>
       </c>
       <c r="AT122" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU122" t="n">
         <v>1.61</v>
@@ -25463,7 +25463,7 @@
         <v>0.5</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT123" t="n">
         <v>0.44</v>
@@ -25669,7 +25669,7 @@
         <v>1.56</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU124" t="n">
         <v>1.58</v>
@@ -25872,7 +25872,7 @@
         <v>1.56</v>
       </c>
       <c r="AT125" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU125" t="n">
         <v>1.51</v>
@@ -26278,7 +26278,7 @@
         <v>1.67</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU127" t="n">
         <v>1.55</v>
@@ -26478,7 +26478,7 @@
         <v>0.83</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AT128" t="n">
         <v>0.89</v>
@@ -26681,7 +26681,7 @@
         <v>0.33</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT129" t="n">
         <v>0.33</v>
@@ -27293,7 +27293,7 @@
         <v>1.33</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU132" t="n">
         <v>1.55</v>
@@ -28711,7 +28711,7 @@
         <v>1</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT139" t="n">
         <v>0.67</v>
@@ -28914,7 +28914,7 @@
         <v>1.33</v>
       </c>
       <c r="AS140" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT140" t="n">
         <v>1.56</v>
@@ -29526,7 +29526,7 @@
         <v>2.78</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU143" t="n">
         <v>2.45</v>
@@ -29726,10 +29726,10 @@
         <v>0.71</v>
       </c>
       <c r="AS144" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AT144" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU144" t="n">
         <v>1.17</v>
@@ -29932,7 +29932,7 @@
         <v>1.67</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU145" t="n">
         <v>1.45</v>
@@ -30335,7 +30335,7 @@
         <v>0</v>
       </c>
       <c r="AS147" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT147" t="n">
         <v>0.67</v>
@@ -30538,7 +30538,7 @@
         <v>0.86</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT148" t="n">
         <v>0.67</v>
@@ -30744,7 +30744,7 @@
         <v>1.78</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU149" t="n">
         <v>1.86</v>
@@ -31350,7 +31350,7 @@
         <v>1.71</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT152" t="n">
         <v>1.78</v>
@@ -32771,7 +32771,7 @@
         <v>0.57</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT159" t="n">
         <v>0.89</v>
@@ -32977,7 +32977,7 @@
         <v>2.67</v>
       </c>
       <c r="AT160" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU160" t="n">
         <v>1.92</v>
@@ -33380,10 +33380,10 @@
         <v>0.63</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU162" t="n">
         <v>2.2</v>
@@ -33586,7 +33586,7 @@
         <v>2.56</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU163" t="n">
         <v>1.89</v>
@@ -33786,7 +33786,7 @@
         <v>1.5</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT164" t="n">
         <v>1.44</v>
@@ -33989,10 +33989,10 @@
         <v>1.25</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU165" t="n">
         <v>1.5</v>
@@ -34195,7 +34195,7 @@
         <v>1.33</v>
       </c>
       <c r="AT166" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU166" t="n">
         <v>1.58</v>
@@ -34598,10 +34598,10 @@
         <v>2.38</v>
       </c>
       <c r="AS168" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AT168" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU168" t="n">
         <v>1.22</v>
@@ -35004,7 +35004,7 @@
         <v>0.5</v>
       </c>
       <c r="AS170" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT170" t="n">
         <v>0.44</v>
@@ -37292,6 +37292,1021 @@
       </c>
       <c r="BK181" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2638178</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>44947.45833333334</v>
+      </c>
+      <c r="F182" t="n">
+        <v>19</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="n">
+        <v>2</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N182" t="n">
+        <v>2</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>['40', '54']</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>5</v>
+      </c>
+      <c r="R182" t="n">
+        <v>4</v>
+      </c>
+      <c r="S182" t="n">
+        <v>9</v>
+      </c>
+      <c r="T182" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U182" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V182" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X182" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2638183</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>44947.58333333334</v>
+      </c>
+      <c r="F183" t="n">
+        <v>19</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M183" t="n">
+        <v>2</v>
+      </c>
+      <c r="N183" t="n">
+        <v>2</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>['45+3', '48']</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
+        <v>3</v>
+      </c>
+      <c r="R183" t="n">
+        <v>4</v>
+      </c>
+      <c r="S183" t="n">
+        <v>7</v>
+      </c>
+      <c r="T183" t="n">
+        <v>8</v>
+      </c>
+      <c r="U183" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V183" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X183" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2638177</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>44947.69791666666</v>
+      </c>
+      <c r="F184" t="n">
+        <v>19</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="n">
+        <v>1</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>5</v>
+      </c>
+      <c r="R184" t="n">
+        <v>3</v>
+      </c>
+      <c r="S184" t="n">
+        <v>8</v>
+      </c>
+      <c r="T184" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U184" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V184" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X184" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2638184</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>44948.35416666666</v>
+      </c>
+      <c r="F185" t="n">
+        <v>19</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="n">
+        <v>1</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>6</v>
+      </c>
+      <c r="R185" t="n">
+        <v>6</v>
+      </c>
+      <c r="S185" t="n">
+        <v>12</v>
+      </c>
+      <c r="T185" t="n">
+        <v>4</v>
+      </c>
+      <c r="U185" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V185" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X185" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2638182</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>44948.45833333334</v>
+      </c>
+      <c r="F186" t="n">
+        <v>19</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="n">
+        <v>2</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>10</v>
+      </c>
+      <c r="R186" t="n">
+        <v>4</v>
+      </c>
+      <c r="S186" t="n">
+        <v>14</v>
+      </c>
+      <c r="T186" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U186" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V186" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X186" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK186"/>
+  <dimension ref="A1:BK188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>0.2</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.2</v>
       </c>
       <c r="AT8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT9" t="n">
         <v>0.89</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT11" t="n">
         <v>0.6</v>
@@ -5366,10 +5366,10 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT24" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU24" t="n">
         <v>1.57</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT27" t="n">
         <v>0.6</v>
@@ -6181,7 +6181,7 @@
         <v>0.9</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU28" t="n">
         <v>0.91</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT39" t="n">
         <v>0.67</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT46" t="n">
         <v>0.78</v>
@@ -10241,7 +10241,7 @@
         <v>1.44</v>
       </c>
       <c r="AT48" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU48" t="n">
         <v>1.45</v>
@@ -10444,7 +10444,7 @@
         <v>1.4</v>
       </c>
       <c r="AT49" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU49" t="n">
         <v>1.56</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT60" t="n">
         <v>0.67</v>
@@ -12880,7 +12880,7 @@
         <v>1.56</v>
       </c>
       <c r="AT61" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU61" t="n">
         <v>1.25</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT64" t="n">
         <v>0.78</v>
@@ -14707,7 +14707,7 @@
         <v>1.78</v>
       </c>
       <c r="AT70" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU70" t="n">
         <v>2.3</v>
@@ -15316,7 +15316,7 @@
         <v>2.67</v>
       </c>
       <c r="AT73" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU73" t="n">
         <v>2.04</v>
@@ -16734,7 +16734,7 @@
         <v>0.33</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT80" t="n">
         <v>0.78</v>
@@ -17955,7 +17955,7 @@
         <v>1.44</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU86" t="n">
         <v>1.64</v>
@@ -19982,7 +19982,7 @@
         <v>0.4</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT96" t="n">
         <v>0.44</v>
@@ -20797,7 +20797,7 @@
         <v>0.2</v>
       </c>
       <c r="AT100" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU100" t="n">
         <v>1.2</v>
@@ -21200,7 +21200,7 @@
         <v>1.2</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT102" t="n">
         <v>0.89</v>
@@ -23842,7 +23842,7 @@
         <v>1.56</v>
       </c>
       <c r="AT115" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU115" t="n">
         <v>1.57</v>
@@ -24042,7 +24042,7 @@
         <v>0.4</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT116" t="n">
         <v>0.89</v>
@@ -24857,7 +24857,7 @@
         <v>0.9</v>
       </c>
       <c r="AT120" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU120" t="n">
         <v>1.44</v>
@@ -27087,7 +27087,7 @@
         <v>1.5</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT131" t="n">
         <v>1.44</v>
@@ -27290,7 +27290,7 @@
         <v>1.83</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT132" t="n">
         <v>1.5</v>
@@ -27902,7 +27902,7 @@
         <v>1.22</v>
       </c>
       <c r="AT135" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU135" t="n">
         <v>1.41</v>
@@ -28105,7 +28105,7 @@
         <v>1.22</v>
       </c>
       <c r="AT136" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU136" t="n">
         <v>1.16</v>
@@ -31147,7 +31147,7 @@
         <v>2.33</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT151" t="n">
         <v>1.89</v>
@@ -31756,10 +31756,10 @@
         <v>2.29</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT154" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU154" t="n">
         <v>1.64</v>
@@ -33583,7 +33583,7 @@
         <v>1.5</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT163" t="n">
         <v>1.5</v>
@@ -34192,7 +34192,7 @@
         <v>1</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT166" t="n">
         <v>0.9</v>
@@ -34804,7 +34804,7 @@
         <v>2.44</v>
       </c>
       <c r="AT169" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU169" t="n">
         <v>2.02</v>
@@ -35210,7 +35210,7 @@
         <v>1.67</v>
       </c>
       <c r="AT171" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU171" t="n">
         <v>1.4</v>
@@ -38307,6 +38307,412 @@
       </c>
       <c r="BK186" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2638185</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>44948.58333333334</v>
+      </c>
+      <c r="F187" t="n">
+        <v>19</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M187" t="n">
+        <v>2</v>
+      </c>
+      <c r="N187" t="n">
+        <v>2</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['45', '49']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>4</v>
+      </c>
+      <c r="R187" t="n">
+        <v>0</v>
+      </c>
+      <c r="S187" t="n">
+        <v>4</v>
+      </c>
+      <c r="T187" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V187" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X187" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2638180</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>44948.69791666666</v>
+      </c>
+      <c r="F188" t="n">
+        <v>19</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>2</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
+      <c r="K188" t="n">
+        <v>3</v>
+      </c>
+      <c r="L188" t="n">
+        <v>3</v>
+      </c>
+      <c r="M188" t="n">
+        <v>3</v>
+      </c>
+      <c r="N188" t="n">
+        <v>6</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>['25', '34', '65']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>['4', '46', '53']</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>6</v>
+      </c>
+      <c r="R188" t="n">
+        <v>4</v>
+      </c>
+      <c r="S188" t="n">
+        <v>10</v>
+      </c>
+      <c r="T188" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V188" t="n">
+        <v>4</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X188" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK188"/>
+  <dimension ref="A1:BK191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>1.5</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>0.78</v>
@@ -2324,7 +2324,7 @@
         <v>1.2</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AT14" t="n">
         <v>0.67</v>
@@ -4151,7 +4151,7 @@
         <v>1.56</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT19" t="n">
         <v>0.33</v>
@@ -4557,7 +4557,7 @@
         <v>1.78</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT23" t="n">
         <v>1.44</v>
@@ -6587,7 +6587,7 @@
         <v>1.22</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU30" t="n">
         <v>1.21</v>
@@ -6993,7 +6993,7 @@
         <v>1.22</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU32" t="n">
         <v>1.42</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU33" t="n">
         <v>2.44</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT40" t="n">
         <v>0.67</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT44" t="n">
         <v>2.5</v>
@@ -10647,7 +10647,7 @@
         <v>1.2</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU50" t="n">
         <v>1.55</v>
@@ -11253,7 +11253,7 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AT53" t="n">
         <v>1.4</v>
@@ -11459,7 +11459,7 @@
         <v>0.2</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU54" t="n">
         <v>1.28</v>
@@ -11662,7 +11662,7 @@
         <v>1.56</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU55" t="n">
         <v>1.36</v>
@@ -11862,7 +11862,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT56" t="n">
         <v>0.89</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT59" t="n">
         <v>0.33</v>
@@ -13283,10 +13283,10 @@
         <v>0.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU63" t="n">
         <v>1.55</v>
@@ -15313,7 +15313,7 @@
         <v>1.75</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AT73" t="n">
         <v>2.1</v>
@@ -15519,7 +15519,7 @@
         <v>1.56</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU74" t="n">
         <v>1.52</v>
@@ -15719,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT75" t="n">
         <v>0.67</v>
@@ -15925,7 +15925,7 @@
         <v>1.22</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU76" t="n">
         <v>1.45</v>
@@ -17546,7 +17546,7 @@
         <v>0</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT84" t="n">
         <v>0.78</v>
@@ -17752,7 +17752,7 @@
         <v>1.33</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU85" t="n">
         <v>1.05</v>
@@ -19779,7 +19779,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AT95" t="n">
         <v>0.67</v>
@@ -19985,7 +19985,7 @@
         <v>1.2</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU96" t="n">
         <v>1.39</v>
@@ -20185,7 +20185,7 @@
         <v>2.25</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT97" t="n">
         <v>1.5</v>
@@ -20594,7 +20594,7 @@
         <v>0.9</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU99" t="n">
         <v>1.33</v>
@@ -21203,7 +21203,7 @@
         <v>2.4</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU102" t="n">
         <v>1.87</v>
@@ -22215,7 +22215,7 @@
         <v>0.8</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT107" t="n">
         <v>0.9</v>
@@ -23636,7 +23636,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AT114" t="n">
         <v>0.78</v>
@@ -24448,7 +24448,7 @@
         <v>0.6</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT118" t="n">
         <v>0.67</v>
@@ -24654,7 +24654,7 @@
         <v>1.33</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU119" t="n">
         <v>1.52</v>
@@ -25466,7 +25466,7 @@
         <v>1.2</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU123" t="n">
         <v>1.63</v>
@@ -26275,7 +26275,7 @@
         <v>1.5</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT127" t="n">
         <v>1.4</v>
@@ -27496,7 +27496,7 @@
         <v>2.78</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU133" t="n">
         <v>2.45</v>
@@ -27699,7 +27699,7 @@
         <v>0.33</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU134" t="n">
         <v>1.66</v>
@@ -28508,7 +28508,7 @@
         <v>0.67</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AT138" t="n">
         <v>0.78</v>
@@ -29117,7 +29117,7 @@
         <v>0.67</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT141" t="n">
         <v>0.89</v>
@@ -29323,7 +29323,7 @@
         <v>1.56</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU142" t="n">
         <v>1.6</v>
@@ -29929,7 +29929,7 @@
         <v>0.71</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT145" t="n">
         <v>0.6</v>
@@ -31353,7 +31353,7 @@
         <v>1.2</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU152" t="n">
         <v>1.58</v>
@@ -32974,7 +32974,7 @@
         <v>2.71</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AT160" t="n">
         <v>2.5</v>
@@ -33180,7 +33180,7 @@
         <v>1.44</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU161" t="n">
         <v>1.67</v>
@@ -34395,10 +34395,10 @@
         <v>0.88</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU167" t="n">
         <v>1.49</v>
@@ -35007,7 +35007,7 @@
         <v>0.9</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU170" t="n">
         <v>1.49</v>
@@ -35207,7 +35207,7 @@
         <v>2.13</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT171" t="n">
         <v>2.1</v>
@@ -35819,7 +35819,7 @@
         <v>1.22</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU174" t="n">
         <v>1.28</v>
@@ -36019,7 +36019,7 @@
         <v>0.38</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AT175" t="n">
         <v>0.33</v>
@@ -38713,6 +38713,615 @@
       </c>
       <c r="BK188" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2638176</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>44949.60416666666</v>
+      </c>
+      <c r="F189" t="n">
+        <v>19</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="n">
+        <v>2</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>4</v>
+      </c>
+      <c r="R189" t="n">
+        <v>1</v>
+      </c>
+      <c r="S189" t="n">
+        <v>5</v>
+      </c>
+      <c r="T189" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V189" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X189" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2638179</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>44949.69791666666</v>
+      </c>
+      <c r="F190" t="n">
+        <v>19</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>2</v>
+      </c>
+      <c r="R190" t="n">
+        <v>3</v>
+      </c>
+      <c r="S190" t="n">
+        <v>5</v>
+      </c>
+      <c r="T190" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V190" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X190" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2638181</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>44950.69791666666</v>
+      </c>
+      <c r="F191" t="n">
+        <v>19</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>2</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>2</v>
+      </c>
+      <c r="L191" t="n">
+        <v>4</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" t="n">
+        <v>4</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>['4', '38', '67', '75']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>3</v>
+      </c>
+      <c r="R191" t="n">
+        <v>4</v>
+      </c>
+      <c r="S191" t="n">
+        <v>7</v>
+      </c>
+      <c r="T191" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U191" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V191" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X191" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK191"/>
+  <dimension ref="A1:BK192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3339,7 +3339,7 @@
         <v>2.4</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT19" t="n">
         <v>0.33</v>
@@ -8414,7 +8414,7 @@
         <v>2.4</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU39" t="n">
         <v>1.67</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT40" t="n">
         <v>0.67</v>
@@ -11053,7 +11053,7 @@
         <v>2.78</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU52" t="n">
         <v>2.28</v>
@@ -11862,7 +11862,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT56" t="n">
         <v>0.89</v>
@@ -13283,7 +13283,7 @@
         <v>0.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT63" t="n">
         <v>1.1</v>
@@ -15722,7 +15722,7 @@
         <v>2</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU75" t="n">
         <v>1.52</v>
@@ -17546,7 +17546,7 @@
         <v>0</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT84" t="n">
         <v>0.78</v>
@@ -18361,7 +18361,7 @@
         <v>1.4</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU88" t="n">
         <v>1.57</v>
@@ -21406,7 +21406,7 @@
         <v>1.2</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU103" t="n">
         <v>1.63</v>
@@ -22215,7 +22215,7 @@
         <v>0.8</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT107" t="n">
         <v>0.9</v>
@@ -26075,7 +26075,7 @@
         <v>2.44</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU126" t="n">
         <v>1.98</v>
@@ -26275,7 +26275,7 @@
         <v>1.5</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT127" t="n">
         <v>1.4</v>
@@ -29929,7 +29929,7 @@
         <v>0.71</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT145" t="n">
         <v>0.6</v>
@@ -30338,7 +30338,7 @@
         <v>0.9</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU147" t="n">
         <v>1.41</v>
@@ -35207,7 +35207,7 @@
         <v>2.13</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT171" t="n">
         <v>2.1</v>
@@ -36428,7 +36428,7 @@
         <v>1.33</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU177" t="n">
         <v>1.42</v>
@@ -38861,7 +38861,7 @@
         <v>0.44</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT189" t="n">
         <v>0.5</v>
@@ -39322,6 +39322,209 @@
       </c>
       <c r="BK191" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2638187</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>44953.60416666666</v>
+      </c>
+      <c r="F192" t="n">
+        <v>20</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="n">
+        <v>2</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N192" t="n">
+        <v>2</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>['37', '77']</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>5</v>
+      </c>
+      <c r="R192" t="n">
+        <v>5</v>
+      </c>
+      <c r="S192" t="n">
+        <v>10</v>
+      </c>
+      <c r="T192" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U192" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V192" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X192" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK192"/>
+  <dimension ref="A1:BK196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.4</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.44</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT16" t="n">
         <v>0.89</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT18" t="n">
         <v>1.6</v>
@@ -5166,7 +5166,7 @@
         <v>2</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU23" t="n">
         <v>1.73</v>
@@ -5569,10 +5569,10 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -6384,7 +6384,7 @@
         <v>1.2</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU29" t="n">
         <v>1.46</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT30" t="n">
         <v>1.1</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT37" t="n">
         <v>0.33</v>
@@ -8617,7 +8617,7 @@
         <v>1.73</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU40" t="n">
         <v>1.94</v>
@@ -8817,10 +8817,10 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU41" t="n">
         <v>1.16</v>
@@ -9226,7 +9226,7 @@
         <v>2.44</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU43" t="n">
         <v>2.01</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AT45" t="n">
         <v>0.6</v>
@@ -10038,7 +10038,7 @@
         <v>0.9</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU47" t="n">
         <v>1.14</v>
@@ -11256,7 +11256,7 @@
         <v>2.4</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU53" t="n">
         <v>2.16</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT55" t="n">
         <v>0.5</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT57" t="n">
         <v>0.89</v>
@@ -12677,7 +12677,7 @@
         <v>2.4</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU60" t="n">
         <v>1.64</v>
@@ -12877,7 +12877,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT61" t="n">
         <v>2.1</v>
@@ -13489,7 +13489,7 @@
         <v>1.2</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU64" t="n">
         <v>1.4</v>
@@ -13895,7 +13895,7 @@
         <v>1.44</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU66" t="n">
         <v>1.45</v>
@@ -14501,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AT69" t="n">
         <v>1.89</v>
@@ -15113,7 +15113,7 @@
         <v>2.78</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU72" t="n">
         <v>2.53</v>
@@ -15516,7 +15516,7 @@
         <v>1.67</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT74" t="n">
         <v>1.6</v>
@@ -15922,7 +15922,7 @@
         <v>0.25</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT76" t="n">
         <v>0.5</v>
@@ -16331,7 +16331,7 @@
         <v>1.22</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU78" t="n">
         <v>1.04</v>
@@ -16531,7 +16531,7 @@
         <v>0.33</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT79" t="n">
         <v>0.89</v>
@@ -17143,7 +17143,7 @@
         <v>1.22</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU82" t="n">
         <v>1.31</v>
@@ -17549,7 +17549,7 @@
         <v>1.73</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU84" t="n">
         <v>1.67</v>
@@ -18561,7 +18561,7 @@
         <v>2.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AT89" t="n">
         <v>2.5</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT92" t="n">
         <v>0.89</v>
@@ -19576,7 +19576,7 @@
         <v>1.25</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT94" t="n">
         <v>0.6</v>
@@ -19782,7 +19782,7 @@
         <v>2.4</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU95" t="n">
         <v>1.95</v>
@@ -20997,7 +20997,7 @@
         <v>0.25</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT101" t="n">
         <v>0.89</v>
@@ -21812,7 +21812,7 @@
         <v>1.5</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU105" t="n">
         <v>2.27</v>
@@ -22015,7 +22015,7 @@
         <v>1.44</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU106" t="n">
         <v>1.57</v>
@@ -22418,7 +22418,7 @@
         <v>2</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT108" t="n">
         <v>1.89</v>
@@ -22824,10 +22824,10 @@
         <v>0.25</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU110" t="n">
         <v>1.57</v>
@@ -23433,7 +23433,7 @@
         <v>1</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT113" t="n">
         <v>1.56</v>
@@ -23639,7 +23639,7 @@
         <v>2.4</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU114" t="n">
         <v>1.95</v>
@@ -23839,7 +23839,7 @@
         <v>2.6</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT115" t="n">
         <v>2.1</v>
@@ -24245,7 +24245,7 @@
         <v>2</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AT117" t="n">
         <v>1.5</v>
@@ -24451,7 +24451,7 @@
         <v>2</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU118" t="n">
         <v>1.46</v>
@@ -25666,7 +25666,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT124" t="n">
         <v>0.6</v>
@@ -25869,7 +25869,7 @@
         <v>2.67</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT125" t="n">
         <v>2.5</v>
@@ -26278,7 +26278,7 @@
         <v>1.73</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU127" t="n">
         <v>1.55</v>
@@ -27090,7 +27090,7 @@
         <v>2.4</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU131" t="n">
         <v>1.98</v>
@@ -27696,7 +27696,7 @@
         <v>1.83</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AT134" t="n">
         <v>1.6</v>
@@ -28102,7 +28102,7 @@
         <v>2.67</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT136" t="n">
         <v>2.1</v>
@@ -28308,7 +28308,7 @@
         <v>1.33</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU137" t="n">
         <v>1.46</v>
@@ -28714,7 +28714,7 @@
         <v>1.5</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU139" t="n">
         <v>2.15</v>
@@ -29320,7 +29320,7 @@
         <v>0.57</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT142" t="n">
         <v>0.5</v>
@@ -30132,10 +30132,10 @@
         <v>1.29</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU146" t="n">
         <v>1.59</v>
@@ -30541,7 +30541,7 @@
         <v>1.4</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU148" t="n">
         <v>1.43</v>
@@ -30744,7 +30744,7 @@
         <v>1.78</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU149" t="n">
         <v>1.86</v>
@@ -31556,7 +31556,7 @@
         <v>1.22</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU153" t="n">
         <v>1.46</v>
@@ -32162,7 +32162,7 @@
         <v>2</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT156" t="n">
         <v>1.89</v>
@@ -32568,7 +32568,7 @@
         <v>1.57</v>
       </c>
       <c r="AS158" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AT158" t="n">
         <v>1.56</v>
@@ -33789,7 +33789,7 @@
         <v>1.4</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU164" t="n">
         <v>1.54</v>
@@ -33992,7 +33992,7 @@
         <v>1.2</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU165" t="n">
         <v>1.5</v>
@@ -35613,7 +35613,7 @@
         <v>0.63</v>
       </c>
       <c r="AS173" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AT173" t="n">
         <v>0.89</v>
@@ -35816,7 +35816,7 @@
         <v>1.88</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT174" t="n">
         <v>1.6</v>
@@ -36831,10 +36831,10 @@
         <v>0.75</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU179" t="n">
         <v>1.64</v>
@@ -37237,10 +37237,10 @@
         <v>0.88</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU181" t="n">
         <v>1.6</v>
@@ -37849,7 +37849,7 @@
         <v>1.5</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU184" t="n">
         <v>2.15</v>
@@ -39525,6 +39525,818 @@
       </c>
       <c r="BK192" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2638191</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>44953.69791666666</v>
+      </c>
+      <c r="F193" t="n">
+        <v>20</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>2</v>
+      </c>
+      <c r="K193" t="n">
+        <v>3</v>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="n">
+        <v>2</v>
+      </c>
+      <c r="N193" t="n">
+        <v>3</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>['5', '20']</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>4</v>
+      </c>
+      <c r="R193" t="n">
+        <v>4</v>
+      </c>
+      <c r="S193" t="n">
+        <v>8</v>
+      </c>
+      <c r="T193" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V193" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X193" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2638189</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>44954.45833333334</v>
+      </c>
+      <c r="F194" t="n">
+        <v>20</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="n">
+        <v>2</v>
+      </c>
+      <c r="M194" t="n">
+        <v>2</v>
+      </c>
+      <c r="N194" t="n">
+        <v>4</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['37', '69']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>['82', '85']</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>5</v>
+      </c>
+      <c r="R194" t="n">
+        <v>4</v>
+      </c>
+      <c r="S194" t="n">
+        <v>9</v>
+      </c>
+      <c r="T194" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U194" t="n">
+        <v>2</v>
+      </c>
+      <c r="V194" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X194" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2638188</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>44954.58333333334</v>
+      </c>
+      <c r="F195" t="n">
+        <v>20</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
+      <c r="K195" t="n">
+        <v>2</v>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="n">
+        <v>2</v>
+      </c>
+      <c r="N195" t="n">
+        <v>3</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>['21', '65']</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>2</v>
+      </c>
+      <c r="R195" t="n">
+        <v>14</v>
+      </c>
+      <c r="S195" t="n">
+        <v>16</v>
+      </c>
+      <c r="T195" t="n">
+        <v>6</v>
+      </c>
+      <c r="U195" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V195" t="n">
+        <v>2</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X195" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>23</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>2638186</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>44954.69791666666</v>
+      </c>
+      <c r="F196" t="n">
+        <v>20</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="n">
+        <v>2</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N196" t="n">
+        <v>2</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>['42', '57']</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>7</v>
+      </c>
+      <c r="R196" t="n">
+        <v>4</v>
+      </c>
+      <c r="S196" t="n">
+        <v>11</v>
+      </c>
+      <c r="T196" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U196" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V196" t="n">
+        <v>8</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X196" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK196"/>
+  <dimension ref="A1:BK198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT2" t="n">
         <v>1.5</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>2.78</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT24" t="n">
         <v>2.1</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT26" t="n">
         <v>0.78</v>
@@ -5978,7 +5978,7 @@
         <v>1.2</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU27" t="n">
         <v>1.17</v>
@@ -7399,7 +7399,7 @@
         <v>1.78</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU34" t="n">
         <v>2.92</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT39" t="n">
         <v>0.6</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT43" t="n">
         <v>1.6</v>
@@ -9632,7 +9632,7 @@
         <v>0.3</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU45" t="n">
         <v>2</v>
@@ -12068,7 +12068,7 @@
         <v>1.1</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU57" t="n">
         <v>1.54</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT60" t="n">
         <v>0.9</v>
@@ -13692,7 +13692,7 @@
         <v>1.33</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU65" t="n">
         <v>1.18</v>
@@ -14907,7 +14907,7 @@
         <v>2.33</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT71" t="n">
         <v>2.5</v>
@@ -16128,7 +16128,7 @@
         <v>0.2</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU77" t="n">
         <v>1.29</v>
@@ -16734,7 +16734,7 @@
         <v>0.33</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT80" t="n">
         <v>0.78</v>
@@ -17343,7 +17343,7 @@
         <v>0.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT83" t="n">
         <v>1.56</v>
@@ -19173,7 +19173,7 @@
         <v>1.5</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU92" t="n">
         <v>1.56</v>
@@ -19579,7 +19579,7 @@
         <v>1.7</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU94" t="n">
         <v>1.55</v>
@@ -21200,7 +21200,7 @@
         <v>1.2</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT102" t="n">
         <v>1.1</v>
@@ -21606,10 +21606,10 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU104" t="n">
         <v>2.04</v>
@@ -23233,7 +23233,7 @@
         <v>2.78</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU112" t="n">
         <v>2.54</v>
@@ -25669,7 +25669,7 @@
         <v>1.5</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU124" t="n">
         <v>1.58</v>
@@ -26072,7 +26072,7 @@
         <v>0</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT126" t="n">
         <v>0.6</v>
@@ -27087,7 +27087,7 @@
         <v>1.5</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT131" t="n">
         <v>1.6</v>
@@ -29120,7 +29120,7 @@
         <v>2</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU141" t="n">
         <v>1.51</v>
@@ -29932,7 +29932,7 @@
         <v>1.73</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU145" t="n">
         <v>1.45</v>
@@ -30944,7 +30944,7 @@
         <v>1.14</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT150" t="n">
         <v>0.89</v>
@@ -31147,7 +31147,7 @@
         <v>2.33</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT151" t="n">
         <v>1.89</v>
@@ -32774,7 +32774,7 @@
         <v>1.5</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU159" t="n">
         <v>2.17</v>
@@ -33383,7 +33383,7 @@
         <v>1.5</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU162" t="n">
         <v>2.2</v>
@@ -33583,7 +33583,7 @@
         <v>1.5</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT163" t="n">
         <v>1.5</v>
@@ -34801,7 +34801,7 @@
         <v>2.13</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT169" t="n">
         <v>2.1</v>
@@ -35616,7 +35616,7 @@
         <v>0.3</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU173" t="n">
         <v>1.56</v>
@@ -38255,7 +38255,7 @@
         <v>1.4</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU186" t="n">
         <v>1.55</v>
@@ -38658,7 +38658,7 @@
         <v>2.22</v>
       </c>
       <c r="AS188" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT188" t="n">
         <v>2.1</v>
@@ -39795,10 +39795,10 @@
         <v>5</v>
       </c>
       <c r="R194" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S194" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T194" t="n">
         <v>3.75</v>
@@ -40337,6 +40337,412 @@
       </c>
       <c r="BK196" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2638192</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>44955.35416666666</v>
+      </c>
+      <c r="F197" t="n">
+        <v>20</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>3</v>
+      </c>
+      <c r="K197" t="n">
+        <v>4</v>
+      </c>
+      <c r="L197" t="n">
+        <v>2</v>
+      </c>
+      <c r="M197" t="n">
+        <v>5</v>
+      </c>
+      <c r="N197" t="n">
+        <v>7</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['24', '81']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>['19', '21', '30', '47', '79']</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>2</v>
+      </c>
+      <c r="R197" t="n">
+        <v>3</v>
+      </c>
+      <c r="S197" t="n">
+        <v>5</v>
+      </c>
+      <c r="T197" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V197" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X197" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2638190</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>44955.45833333334</v>
+      </c>
+      <c r="F198" t="n">
+        <v>20</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>2</v>
+      </c>
+      <c r="K198" t="n">
+        <v>2</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" t="n">
+        <v>2</v>
+      </c>
+      <c r="N198" t="n">
+        <v>2</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>['18', '39']</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>12</v>
+      </c>
+      <c r="R198" t="n">
+        <v>1</v>
+      </c>
+      <c r="S198" t="n">
+        <v>13</v>
+      </c>
+      <c r="T198" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V198" t="n">
+        <v>6</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X198" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK198"/>
+  <dimension ref="A1:BK200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT7" t="n">
         <v>0.78</v>
@@ -2121,7 +2121,7 @@
         <v>1.2</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT17" t="n">
         <v>1.1</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT23" t="n">
         <v>1.6</v>
@@ -5369,7 +5369,7 @@
         <v>2.18</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU24" t="n">
         <v>1.57</v>
@@ -7602,7 +7602,7 @@
         <v>1.44</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU35" t="n">
         <v>1.64</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT38" t="n">
         <v>0.9</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT44" t="n">
         <v>2.5</v>
@@ -10241,7 +10241,7 @@
         <v>1.44</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU48" t="n">
         <v>1.45</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT52" t="n">
         <v>0.6</v>
@@ -11865,7 +11865,7 @@
         <v>1.73</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU56" t="n">
         <v>1.65</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT59" t="n">
         <v>0.33</v>
@@ -12880,7 +12880,7 @@
         <v>1.5</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU61" t="n">
         <v>1.25</v>
@@ -15110,7 +15110,7 @@
         <v>1.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT72" t="n">
         <v>1.36</v>
@@ -15316,7 +15316,7 @@
         <v>2.4</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU73" t="n">
         <v>2.04</v>
@@ -15719,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="AS75" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT75" t="n">
         <v>0.6</v>
@@ -16534,7 +16534,7 @@
         <v>1.7</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU79" t="n">
         <v>1.56</v>
@@ -20185,7 +20185,7 @@
         <v>2.25</v>
       </c>
       <c r="AS97" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT97" t="n">
         <v>1.5</v>
@@ -20388,7 +20388,7 @@
         <v>0.25</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT98" t="n">
         <v>0.78</v>
@@ -20797,7 +20797,7 @@
         <v>0.2</v>
       </c>
       <c r="AT100" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU100" t="n">
         <v>1.2</v>
@@ -21000,7 +21000,7 @@
         <v>1.1</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU101" t="n">
         <v>1.33</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT112" t="n">
         <v>0.82</v>
@@ -24045,7 +24045,7 @@
         <v>1.2</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU116" t="n">
         <v>1.56</v>
@@ -24448,7 +24448,7 @@
         <v>0.6</v>
       </c>
       <c r="AS118" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT118" t="n">
         <v>0.9</v>
@@ -24857,7 +24857,7 @@
         <v>0.9</v>
       </c>
       <c r="AT120" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU120" t="n">
         <v>1.44</v>
@@ -26481,7 +26481,7 @@
         <v>0.2</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU128" t="n">
         <v>1.14</v>
@@ -27493,7 +27493,7 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT133" t="n">
         <v>1.1</v>
@@ -27902,7 +27902,7 @@
         <v>1.22</v>
       </c>
       <c r="AT135" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU135" t="n">
         <v>1.41</v>
@@ -29117,7 +29117,7 @@
         <v>0.67</v>
       </c>
       <c r="AS141" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT141" t="n">
         <v>1.1</v>
@@ -29523,7 +29523,7 @@
         <v>1.71</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT143" t="n">
         <v>1.5</v>
@@ -30947,7 +30947,7 @@
         <v>2.2</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU150" t="n">
         <v>2.09</v>
@@ -34395,7 +34395,7 @@
         <v>0.88</v>
       </c>
       <c r="AS167" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT167" t="n">
         <v>1.1</v>
@@ -34804,7 +34804,7 @@
         <v>2.2</v>
       </c>
       <c r="AT169" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU169" t="n">
         <v>2.02</v>
@@ -35410,7 +35410,7 @@
         <v>1.75</v>
       </c>
       <c r="AS172" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT172" t="n">
         <v>1.56</v>
@@ -37037,7 +37037,7 @@
         <v>1.78</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU180" t="n">
         <v>1.77</v>
@@ -38458,7 +38458,7 @@
         <v>1.2</v>
       </c>
       <c r="AT187" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU187" t="n">
         <v>1.58</v>
@@ -39267,7 +39267,7 @@
         <v>1.78</v>
       </c>
       <c r="AS191" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT191" t="n">
         <v>1.6</v>
@@ -40743,6 +40743,412 @@
       </c>
       <c r="BK198" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2638194</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>44955.58333333334</v>
+      </c>
+      <c r="F199" t="n">
+        <v>20</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="n">
+        <v>2</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>3</v>
+      </c>
+      <c r="R199" t="n">
+        <v>4</v>
+      </c>
+      <c r="S199" t="n">
+        <v>7</v>
+      </c>
+      <c r="T199" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U199" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V199" t="n">
+        <v>4</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X199" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2638193</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>44955.69791666666</v>
+      </c>
+      <c r="F200" t="n">
+        <v>20</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="n">
+        <v>2</v>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="n">
+        <v>3</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['17', '86']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>3</v>
+      </c>
+      <c r="R200" t="n">
+        <v>8</v>
+      </c>
+      <c r="S200" t="n">
+        <v>11</v>
+      </c>
+      <c r="T200" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V200" t="n">
+        <v>5</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X200" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK200"/>
+  <dimension ref="A1:BK201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT12" t="n">
         <v>0.9</v>
@@ -4354,7 +4354,7 @@
         <v>1.73</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT35" t="n">
         <v>0.9</v>
@@ -8008,7 +8008,7 @@
         <v>1.5</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AU37" t="n">
         <v>0.67</v>
@@ -10238,7 +10238,7 @@
         <v>2</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT48" t="n">
         <v>1.91</v>
@@ -12474,7 +12474,7 @@
         <v>1.91</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AU59" t="n">
         <v>1.41</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT66" t="n">
         <v>1.6</v>
@@ -14098,7 +14098,7 @@
         <v>1.5</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AU67" t="n">
         <v>2.32</v>
@@ -17952,7 +17952,7 @@
         <v>3</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT86" t="n">
         <v>2.1</v>
@@ -18158,7 +18158,7 @@
         <v>1.2</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AU87" t="n">
         <v>1.68</v>
@@ -22012,7 +22012,7 @@
         <v>1.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT106" t="n">
         <v>1.36</v>
@@ -23030,7 +23030,7 @@
         <v>1.22</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AU111" t="n">
         <v>1.38</v>
@@ -25260,7 +25260,7 @@
         <v>0.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT122" t="n">
         <v>0.9</v>
@@ -26684,7 +26684,7 @@
         <v>1.4</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AU129" t="n">
         <v>1.43</v>
@@ -31962,7 +31962,7 @@
         <v>1.33</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AU155" t="n">
         <v>1.43</v>
@@ -33177,7 +33177,7 @@
         <v>0.86</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT161" t="n">
         <v>1.1</v>
@@ -36022,7 +36022,7 @@
         <v>2.4</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AU175" t="n">
         <v>1.82</v>
@@ -36628,7 +36628,7 @@
         <v>0.5</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT178" t="n">
         <v>0.78</v>
@@ -41149,6 +41149,209 @@
       </c>
       <c r="BK200" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2638195</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>44956.69791666666</v>
+      </c>
+      <c r="F201" t="n">
+        <v>20</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
+      <c r="K201" t="n">
+        <v>2</v>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="n">
+        <v>2</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>14</v>
+      </c>
+      <c r="R201" t="n">
+        <v>6</v>
+      </c>
+      <c r="S201" t="n">
+        <v>20</v>
+      </c>
+      <c r="T201" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V201" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X201" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK201"/>
+  <dimension ref="A1:BK203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2324,7 +2324,7 @@
         <v>1.2</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.22</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT20" t="n">
         <v>0.5</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AT25" t="n">
         <v>1.36</v>
@@ -6587,7 +6587,7 @@
         <v>1.1</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU30" t="n">
         <v>1.21</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT34" t="n">
         <v>1.1</v>
@@ -8211,7 +8211,7 @@
         <v>2.8</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU38" t="n">
         <v>2.3</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AT45" t="n">
         <v>0.82</v>
@@ -10647,7 +10647,7 @@
         <v>1.2</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU50" t="n">
         <v>1.55</v>
@@ -10850,7 +10850,7 @@
         <v>1.33</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU51" t="n">
         <v>1.16</v>
@@ -13083,7 +13083,7 @@
         <v>1.2</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU62" t="n">
         <v>1.66</v>
@@ -13286,7 +13286,7 @@
         <v>1.73</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU63" t="n">
         <v>1.55</v>
@@ -14501,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AT69" t="n">
         <v>1.89</v>
@@ -14704,7 +14704,7 @@
         <v>3</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT70" t="n">
         <v>2.1</v>
@@ -17752,7 +17752,7 @@
         <v>1.33</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU85" t="n">
         <v>1.05</v>
@@ -18561,7 +18561,7 @@
         <v>2.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AT89" t="n">
         <v>2.5</v>
@@ -18764,10 +18764,10 @@
         <v>1</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU90" t="n">
         <v>2.23</v>
@@ -21203,7 +21203,7 @@
         <v>2.18</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU102" t="n">
         <v>1.87</v>
@@ -22218,7 +22218,7 @@
         <v>1.73</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU107" t="n">
         <v>1.57</v>
@@ -22621,7 +22621,7 @@
         <v>2.6</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT109" t="n">
         <v>2.5</v>
@@ -22824,7 +22824,7 @@
         <v>0.25</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AT110" t="n">
         <v>0.7</v>
@@ -24245,7 +24245,7 @@
         <v>2</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AT117" t="n">
         <v>1.5</v>
@@ -25263,7 +25263,7 @@
         <v>1.4</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU122" t="n">
         <v>1.61</v>
@@ -26884,7 +26884,7 @@
         <v>2.2</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT130" t="n">
         <v>1.89</v>
@@ -27496,7 +27496,7 @@
         <v>2.8</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU133" t="n">
         <v>2.45</v>
@@ -27696,7 +27696,7 @@
         <v>1.83</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AT134" t="n">
         <v>1.6</v>
@@ -29729,7 +29729,7 @@
         <v>0.2</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU144" t="n">
         <v>1.17</v>
@@ -30741,7 +30741,7 @@
         <v>1.29</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT149" t="n">
         <v>1.36</v>
@@ -32365,7 +32365,7 @@
         <v>0.57</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT157" t="n">
         <v>0.78</v>
@@ -32568,7 +32568,7 @@
         <v>1.57</v>
       </c>
       <c r="AS158" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AT158" t="n">
         <v>1.56</v>
@@ -33180,7 +33180,7 @@
         <v>1.4</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU161" t="n">
         <v>1.67</v>
@@ -34195,7 +34195,7 @@
         <v>1.2</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU166" t="n">
         <v>1.58</v>
@@ -34398,7 +34398,7 @@
         <v>1.91</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU167" t="n">
         <v>1.49</v>
@@ -35613,7 +35613,7 @@
         <v>0.63</v>
       </c>
       <c r="AS173" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AT173" t="n">
         <v>1.1</v>
@@ -37034,7 +37034,7 @@
         <v>1</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT180" t="n">
         <v>0.9</v>
@@ -37443,7 +37443,7 @@
         <v>0.9</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU182" t="n">
         <v>1.47</v>
@@ -39067,7 +39067,7 @@
         <v>2.4</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU190" t="n">
         <v>1.76</v>
@@ -40079,7 +40079,7 @@
         <v>1.44</v>
       </c>
       <c r="AS195" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AT195" t="n">
         <v>1.6</v>
@@ -41351,6 +41351,412 @@
         <v>26</v>
       </c>
       <c r="BK201" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>2638196</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>44961.45833333334</v>
+      </c>
+      <c r="F202" t="n">
+        <v>21</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M202" t="n">
+        <v>2</v>
+      </c>
+      <c r="N202" t="n">
+        <v>2</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['58', '69']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>4</v>
+      </c>
+      <c r="R202" t="n">
+        <v>8</v>
+      </c>
+      <c r="S202" t="n">
+        <v>12</v>
+      </c>
+      <c r="T202" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2</v>
+      </c>
+      <c r="V202" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X202" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>2638201</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>44961.58333333334</v>
+      </c>
+      <c r="F203" t="n">
+        <v>21</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>2</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>2</v>
+      </c>
+      <c r="L203" t="n">
+        <v>2</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N203" t="n">
+        <v>2</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['2', '6']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>7</v>
+      </c>
+      <c r="R203" t="n">
+        <v>7</v>
+      </c>
+      <c r="S203" t="n">
+        <v>14</v>
+      </c>
+      <c r="T203" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V203" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X203" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK203" t="n">
         <v>12</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK203"/>
+  <dimension ref="A1:BK208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.2</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0.2</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT6" t="n">
         <v>0.5</v>
@@ -1918,7 +1918,7 @@
         <v>1.91</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT9" t="n">
         <v>1</v>
@@ -2527,7 +2527,7 @@
         <v>0.9</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT13" t="n">
         <v>1.89</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT14" t="n">
         <v>0.6</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT15" t="n">
         <v>1.09</v>
@@ -4151,7 +4151,7 @@
         <v>1.7</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.4</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU22" t="n">
         <v>1.61</v>
@@ -5775,7 +5775,7 @@
         <v>2.2</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU26" t="n">
         <v>1.74</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT27" t="n">
         <v>0.82</v>
@@ -6181,7 +6181,7 @@
         <v>0.9</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU28" t="n">
         <v>0.91</v>
@@ -6787,10 +6787,10 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU31" t="n">
         <v>3.06</v>
@@ -6990,10 +6990,10 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU32" t="n">
         <v>1.42</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT33" t="n">
         <v>0.5</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT42" t="n">
         <v>1.56</v>
@@ -9429,7 +9429,7 @@
         <v>1.91</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU44" t="n">
         <v>1.63</v>
@@ -9832,10 +9832,10 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU46" t="n">
         <v>1.12</v>
@@ -10444,7 +10444,7 @@
         <v>1.4</v>
       </c>
       <c r="AT49" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU49" t="n">
         <v>1.56</v>
@@ -10847,7 +10847,7 @@
         <v>0.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT51" t="n">
         <v>1.09</v>
@@ -11253,7 +11253,7 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT53" t="n">
         <v>1.36</v>
@@ -11459,7 +11459,7 @@
         <v>0.2</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU54" t="n">
         <v>1.28</v>
@@ -12268,10 +12268,10 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU58" t="n">
         <v>1.19</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT64" t="n">
         <v>0.7</v>
@@ -13689,7 +13689,7 @@
         <v>0.67</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT65" t="n">
         <v>0.82</v>
@@ -14095,7 +14095,7 @@
         <v>0.67</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT67" t="n">
         <v>0.4</v>
@@ -14707,7 +14707,7 @@
         <v>1.9</v>
       </c>
       <c r="AT70" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU70" t="n">
         <v>2.3</v>
@@ -14910,7 +14910,7 @@
         <v>2.2</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU71" t="n">
         <v>2.01</v>
@@ -15313,7 +15313,7 @@
         <v>1.75</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT73" t="n">
         <v>1.91</v>
@@ -15519,7 +15519,7 @@
         <v>1.5</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU74" t="n">
         <v>1.52</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT78" t="n">
         <v>0.9</v>
@@ -16737,7 +16737,7 @@
         <v>2.18</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU80" t="n">
         <v>1.82</v>
@@ -16940,7 +16940,7 @@
         <v>0.9</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU81" t="n">
         <v>1.47</v>
@@ -17140,7 +17140,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT82" t="n">
         <v>1.6</v>
@@ -17749,7 +17749,7 @@
         <v>1.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT85" t="n">
         <v>1</v>
@@ -17955,7 +17955,7 @@
         <v>1.4</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU86" t="n">
         <v>1.64</v>
@@ -18564,7 +18564,7 @@
         <v>0.27</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU89" t="n">
         <v>1.62</v>
@@ -18967,7 +18967,7 @@
         <v>1.67</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT91" t="n">
         <v>1.89</v>
@@ -19373,7 +19373,7 @@
         <v>0.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT93" t="n">
         <v>1.56</v>
@@ -19779,7 +19779,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT95" t="n">
         <v>0.9</v>
@@ -19982,7 +19982,7 @@
         <v>0.4</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT96" t="n">
         <v>0.5</v>
@@ -20188,7 +20188,7 @@
         <v>1.91</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU97" t="n">
         <v>1.53</v>
@@ -20391,7 +20391,7 @@
         <v>2.8</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU98" t="n">
         <v>2.36</v>
@@ -20594,7 +20594,7 @@
         <v>0.9</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU99" t="n">
         <v>1.33</v>
@@ -21809,7 +21809,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT105" t="n">
         <v>1.6</v>
@@ -22624,7 +22624,7 @@
         <v>1.9</v>
       </c>
       <c r="AT109" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU109" t="n">
         <v>2.3</v>
@@ -23027,7 +23027,7 @@
         <v>0.4</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT111" t="n">
         <v>0.4</v>
@@ -23636,7 +23636,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT114" t="n">
         <v>0.7</v>
@@ -23842,7 +23842,7 @@
         <v>1.5</v>
       </c>
       <c r="AT115" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU115" t="n">
         <v>1.57</v>
@@ -24042,7 +24042,7 @@
         <v>0.4</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT116" t="n">
         <v>0.9</v>
@@ -24248,7 +24248,7 @@
         <v>0.27</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU117" t="n">
         <v>1.68</v>
@@ -24651,10 +24651,10 @@
         <v>2.2</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU119" t="n">
         <v>1.52</v>
@@ -25060,7 +25060,7 @@
         <v>1.4</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU121" t="n">
         <v>1.47</v>
@@ -25872,7 +25872,7 @@
         <v>1.7</v>
       </c>
       <c r="AT125" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU125" t="n">
         <v>1.51</v>
@@ -27290,10 +27290,10 @@
         <v>1.83</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU132" t="n">
         <v>1.55</v>
@@ -27699,7 +27699,7 @@
         <v>0.27</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU134" t="n">
         <v>1.66</v>
@@ -27899,7 +27899,7 @@
         <v>2.29</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT135" t="n">
         <v>1.91</v>
@@ -28105,7 +28105,7 @@
         <v>1.1</v>
       </c>
       <c r="AT136" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU136" t="n">
         <v>1.16</v>
@@ -28305,7 +28305,7 @@
         <v>0.67</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT137" t="n">
         <v>0.7</v>
@@ -28508,10 +28508,10 @@
         <v>0.67</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU138" t="n">
         <v>1.94</v>
@@ -28711,7 +28711,7 @@
         <v>1</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT139" t="n">
         <v>0.9</v>
@@ -29526,7 +29526,7 @@
         <v>2.8</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU143" t="n">
         <v>2.45</v>
@@ -31353,7 +31353,7 @@
         <v>1.2</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU152" t="n">
         <v>1.58</v>
@@ -31553,7 +31553,7 @@
         <v>0.57</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT153" t="n">
         <v>0.7</v>
@@ -31756,10 +31756,10 @@
         <v>2.29</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT154" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU154" t="n">
         <v>1.64</v>
@@ -31959,7 +31959,7 @@
         <v>0.29</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT155" t="n">
         <v>0.4</v>
@@ -32368,7 +32368,7 @@
         <v>1.9</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU157" t="n">
         <v>1.81</v>
@@ -32771,7 +32771,7 @@
         <v>0.57</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT159" t="n">
         <v>1.1</v>
@@ -32974,10 +32974,10 @@
         <v>2.71</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT160" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU160" t="n">
         <v>1.92</v>
@@ -33380,7 +33380,7 @@
         <v>0.63</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT162" t="n">
         <v>0.82</v>
@@ -33586,7 +33586,7 @@
         <v>2.18</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU163" t="n">
         <v>1.89</v>
@@ -34192,7 +34192,7 @@
         <v>1</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT166" t="n">
         <v>1.09</v>
@@ -34601,7 +34601,7 @@
         <v>0.2</v>
       </c>
       <c r="AT168" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU168" t="n">
         <v>1.22</v>
@@ -35210,7 +35210,7 @@
         <v>1.73</v>
       </c>
       <c r="AT171" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU171" t="n">
         <v>1.4</v>
@@ -35819,7 +35819,7 @@
         <v>1.1</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU174" t="n">
         <v>1.28</v>
@@ -36019,7 +36019,7 @@
         <v>0.38</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT175" t="n">
         <v>0.4</v>
@@ -36222,7 +36222,7 @@
         <v>1.75</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT176" t="n">
         <v>1.89</v>
@@ -36425,7 +36425,7 @@
         <v>0.38</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT177" t="n">
         <v>0.6</v>
@@ -36631,7 +36631,7 @@
         <v>1.4</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU178" t="n">
         <v>1.74</v>
@@ -37646,7 +37646,7 @@
         <v>1.2</v>
       </c>
       <c r="AT183" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU183" t="n">
         <v>1.49</v>
@@ -37846,7 +37846,7 @@
         <v>1.22</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT184" t="n">
         <v>1.36</v>
@@ -38052,7 +38052,7 @@
         <v>0.2</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU185" t="n">
         <v>1.13</v>
@@ -38455,7 +38455,7 @@
         <v>2</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT187" t="n">
         <v>1.91</v>
@@ -38661,7 +38661,7 @@
         <v>2.18</v>
       </c>
       <c r="AT188" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU188" t="n">
         <v>1.87</v>
@@ -39064,7 +39064,7 @@
         <v>0.89</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT190" t="n">
         <v>1</v>
@@ -39270,7 +39270,7 @@
         <v>1.91</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU191" t="n">
         <v>1.54</v>
@@ -41758,6 +41758,1021 @@
       </c>
       <c r="BK203" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2638203</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>44961.69791666666</v>
+      </c>
+      <c r="F204" t="n">
+        <v>21</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>2</v>
+      </c>
+      <c r="R204" t="n">
+        <v>7</v>
+      </c>
+      <c r="S204" t="n">
+        <v>9</v>
+      </c>
+      <c r="T204" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U204" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V204" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X204" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2638204</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>44962.35416666666</v>
+      </c>
+      <c r="F205" t="n">
+        <v>21</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M205" t="n">
+        <v>3</v>
+      </c>
+      <c r="N205" t="n">
+        <v>3</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['47', '68', '73']</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>3</v>
+      </c>
+      <c r="R205" t="n">
+        <v>6</v>
+      </c>
+      <c r="S205" t="n">
+        <v>9</v>
+      </c>
+      <c r="T205" t="n">
+        <v>7</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V205" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X205" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>2638205</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>44962.45833333334</v>
+      </c>
+      <c r="F206" t="n">
+        <v>21</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>6</v>
+      </c>
+      <c r="R206" t="n">
+        <v>5</v>
+      </c>
+      <c r="S206" t="n">
+        <v>11</v>
+      </c>
+      <c r="T206" t="n">
+        <v>3</v>
+      </c>
+      <c r="U206" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V206" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X206" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>2638197</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>44962.58333333334</v>
+      </c>
+      <c r="F207" t="n">
+        <v>21</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1</v>
+      </c>
+      <c r="K207" t="n">
+        <v>2</v>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="n">
+        <v>2</v>
+      </c>
+      <c r="N207" t="n">
+        <v>3</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>['14', '47']</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>5</v>
+      </c>
+      <c r="R207" t="n">
+        <v>3</v>
+      </c>
+      <c r="S207" t="n">
+        <v>8</v>
+      </c>
+      <c r="T207" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U207" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V207" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X207" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>2638199</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>44962.69791666666</v>
+      </c>
+      <c r="F208" t="n">
+        <v>21</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>1</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N208" t="n">
+        <v>1</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>8</v>
+      </c>
+      <c r="R208" t="n">
+        <v>0</v>
+      </c>
+      <c r="S208" t="n">
+        <v>8</v>
+      </c>
+      <c r="T208" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U208" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V208" t="n">
+        <v>4</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X208" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK208"/>
+  <dimension ref="A1:BK210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT5" t="n">
         <v>1.36</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT10" t="n">
         <v>2.55</v>
@@ -3136,7 +3136,7 @@
         <v>1.5</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT22" t="n">
         <v>1.36</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT28" t="n">
         <v>1.91</v>
@@ -6384,7 +6384,7 @@
         <v>1.2</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU29" t="n">
         <v>1.46</v>
@@ -7805,7 +7805,7 @@
         <v>0.2</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU36" t="n">
         <v>1.22</v>
@@ -10035,10 +10035,10 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU47" t="n">
         <v>1.14</v>
@@ -10441,7 +10441,7 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT49" t="n">
         <v>1.91</v>
@@ -13489,7 +13489,7 @@
         <v>1.09</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU64" t="n">
         <v>1.4</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT68" t="n">
         <v>1.56</v>
@@ -14504,7 +14504,7 @@
         <v>0.27</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU69" t="n">
         <v>1.53</v>
@@ -16937,7 +16937,7 @@
         <v>2</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT81" t="n">
         <v>1.36</v>
@@ -17549,7 +17549,7 @@
         <v>1.73</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU84" t="n">
         <v>1.67</v>
@@ -18358,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT88" t="n">
         <v>0.6</v>
@@ -18970,7 +18970,7 @@
         <v>1.36</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU91" t="n">
         <v>2.24</v>
@@ -20591,7 +20591,7 @@
         <v>2</v>
       </c>
       <c r="AS99" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT99" t="n">
         <v>1.45</v>
@@ -22421,7 +22421,7 @@
         <v>1.7</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU108" t="n">
         <v>1.62</v>
@@ -22827,7 +22827,7 @@
         <v>0.27</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU110" t="n">
         <v>1.57</v>
@@ -23639,7 +23639,7 @@
         <v>2.45</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU114" t="n">
         <v>1.95</v>
@@ -24854,7 +24854,7 @@
         <v>2.17</v>
       </c>
       <c r="AS120" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT120" t="n">
         <v>1.91</v>
@@ -25057,7 +25057,7 @@
         <v>0.2</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT121" t="n">
         <v>1</v>
@@ -26681,7 +26681,7 @@
         <v>0.33</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT129" t="n">
         <v>0.4</v>
@@ -26887,7 +26887,7 @@
         <v>1.9</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU130" t="n">
         <v>1.97</v>
@@ -28308,7 +28308,7 @@
         <v>1.5</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU137" t="n">
         <v>1.46</v>
@@ -28914,7 +28914,7 @@
         <v>1.33</v>
       </c>
       <c r="AS140" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT140" t="n">
         <v>1.56</v>
@@ -30335,7 +30335,7 @@
         <v>0</v>
       </c>
       <c r="AS147" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT147" t="n">
         <v>0.6</v>
@@ -30538,7 +30538,7 @@
         <v>0.86</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT148" t="n">
         <v>0.9</v>
@@ -31150,7 +31150,7 @@
         <v>2.18</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU151" t="n">
         <v>1.89</v>
@@ -31556,7 +31556,7 @@
         <v>1.4</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU153" t="n">
         <v>1.46</v>
@@ -32165,7 +32165,7 @@
         <v>1.1</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU156" t="n">
         <v>1.24</v>
@@ -33786,7 +33786,7 @@
         <v>1.5</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT164" t="n">
         <v>1.6</v>
@@ -35004,7 +35004,7 @@
         <v>0.5</v>
       </c>
       <c r="AS170" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT170" t="n">
         <v>0.5</v>
@@ -36225,7 +36225,7 @@
         <v>1.4</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU176" t="n">
         <v>1.5</v>
@@ -37240,7 +37240,7 @@
         <v>1.5</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU181" t="n">
         <v>1.6</v>
@@ -37440,7 +37440,7 @@
         <v>1</v>
       </c>
       <c r="AS182" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT182" t="n">
         <v>1.09</v>
@@ -38252,7 +38252,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT186" t="n">
         <v>0.82</v>
@@ -40285,7 +40285,7 @@
         <v>1.7</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU196" t="n">
         <v>1.72</v>
@@ -42773,6 +42773,412 @@
       </c>
       <c r="BK208" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>2638198</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>44963.60416666666</v>
+      </c>
+      <c r="F209" t="n">
+        <v>21</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>1</v>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="n">
+        <v>2</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>6</v>
+      </c>
+      <c r="R209" t="n">
+        <v>5</v>
+      </c>
+      <c r="S209" t="n">
+        <v>11</v>
+      </c>
+      <c r="T209" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U209" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V209" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X209" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>2638200</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>44963.69791666666</v>
+      </c>
+      <c r="F210" t="n">
+        <v>21</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>1</v>
+      </c>
+      <c r="J210" t="n">
+        <v>1</v>
+      </c>
+      <c r="K210" t="n">
+        <v>2</v>
+      </c>
+      <c r="L210" t="n">
+        <v>2</v>
+      </c>
+      <c r="M210" t="n">
+        <v>2</v>
+      </c>
+      <c r="N210" t="n">
+        <v>4</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>['32', '90+9']</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>['12', '58']</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>9</v>
+      </c>
+      <c r="R210" t="n">
+        <v>3</v>
+      </c>
+      <c r="S210" t="n">
+        <v>12</v>
+      </c>
+      <c r="T210" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U210" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V210" t="n">
+        <v>5</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X210" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="325">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -679,6 +679,18 @@
     <t>['32', '90+9']</t>
   </si>
   <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['71', '90+4']</t>
+  </si>
+  <si>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['1', '28']</t>
+  </si>
+  <si>
     <t>['2', '45+4']</t>
   </si>
   <si>
@@ -965,6 +977,18 @@
   </si>
   <si>
     <t>['26', '45', '47']</t>
+  </si>
+  <si>
+    <t>['25', '31']</t>
+  </si>
+  <si>
+    <t>['23', '65']</t>
+  </si>
+  <si>
+    <t>['6', '45+2']</t>
+  </si>
+  <si>
+    <t>['25']</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK211"/>
+  <dimension ref="A1:BK217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1570,7 +1594,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1657,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT2">
         <v>1.36</v>
@@ -1761,7 +1785,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1851,7 +1875,7 @@
         <v>0.2</v>
       </c>
       <c r="AT3">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1952,7 +1976,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -2039,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT4">
         <v>1.6</v>
@@ -2143,7 +2167,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2233,7 +2257,7 @@
         <v>1.36</v>
       </c>
       <c r="AT5">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2334,7 +2358,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q6">
         <v>11</v>
@@ -2525,7 +2549,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2612,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT7">
         <v>1</v>
@@ -2806,7 +2830,7 @@
         <v>1.09</v>
       </c>
       <c r="AT8">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3098,7 +3122,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3379,7 +3403,7 @@
         <v>2.18</v>
       </c>
       <c r="AT11">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3567,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT12">
         <v>0.9</v>
@@ -3952,7 +3976,7 @@
         <v>2.45</v>
       </c>
       <c r="AT14">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4331,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT16">
         <v>0.9</v>
@@ -4525,7 +4549,7 @@
         <v>2.8</v>
       </c>
       <c r="AT17">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4904,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT19">
         <v>0.4</v>
@@ -5390,7 +5414,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5668,7 +5692,7 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT23">
         <v>1.6</v>
@@ -5862,7 +5886,7 @@
         <v>2.18</v>
       </c>
       <c r="AT24">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU24">
         <v>1.57</v>
@@ -5963,7 +5987,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6053,7 +6077,7 @@
         <v>0.27</v>
       </c>
       <c r="AT25">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6241,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT26">
         <v>1</v>
@@ -6345,7 +6369,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6435,7 +6459,7 @@
         <v>1.09</v>
       </c>
       <c r="AT27">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU27">
         <v>1.17</v>
@@ -6536,7 +6560,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6626,7 +6650,7 @@
         <v>0.91</v>
       </c>
       <c r="AT28">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU28">
         <v>0.91</v>
@@ -6918,7 +6942,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7005,7 +7029,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT30">
         <v>1</v>
@@ -7772,7 +7796,7 @@
         <v>1.9</v>
       </c>
       <c r="AT34">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU34">
         <v>2.92</v>
@@ -7960,7 +7984,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT35">
         <v>0.9</v>
@@ -8342,7 +8366,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT37">
         <v>0.4</v>
@@ -8446,7 +8470,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8727,7 +8751,7 @@
         <v>2.18</v>
       </c>
       <c r="AT39">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU39">
         <v>1.67</v>
@@ -8828,7 +8852,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -8915,7 +8939,7 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT40">
         <v>0.9</v>
@@ -9019,7 +9043,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9109,7 +9133,7 @@
         <v>1.7</v>
       </c>
       <c r="AT41">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU41">
         <v>1.16</v>
@@ -9210,7 +9234,7 @@
         <v>97</v>
       </c>
       <c r="P42" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -9401,7 +9425,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9488,7 +9512,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT43">
         <v>1.6</v>
@@ -9592,7 +9616,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9679,7 +9703,7 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT44">
         <v>2.55</v>
@@ -9873,7 +9897,7 @@
         <v>0.27</v>
       </c>
       <c r="AT45">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU45">
         <v>2</v>
@@ -9974,7 +9998,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -10443,10 +10467,10 @@
         <v>2</v>
       </c>
       <c r="AS48">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT48">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU48">
         <v>1.45</v>
@@ -10547,7 +10571,7 @@
         <v>86</v>
       </c>
       <c r="P49" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10637,7 +10661,7 @@
         <v>1.36</v>
       </c>
       <c r="AT49">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU49">
         <v>1.56</v>
@@ -10738,7 +10762,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -11210,7 +11234,7 @@
         <v>2.8</v>
       </c>
       <c r="AT52">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU52">
         <v>2.28</v>
@@ -11401,7 +11425,7 @@
         <v>2.45</v>
       </c>
       <c r="AT53">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU53">
         <v>2.16</v>
@@ -11502,7 +11526,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -11693,7 +11717,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11884,7 +11908,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11971,7 +11995,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT56">
         <v>0.9</v>
@@ -12162,10 +12186,10 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT57">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU57">
         <v>1.54</v>
@@ -12266,7 +12290,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12544,7 +12568,7 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT59">
         <v>0.4</v>
@@ -12648,7 +12672,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -12839,7 +12863,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12926,10 +12950,10 @@
         <v>1.33</v>
       </c>
       <c r="AS61">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT61">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU61">
         <v>1.25</v>
@@ -13030,7 +13054,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13221,7 +13245,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13308,7 +13332,7 @@
         <v>0.67</v>
       </c>
       <c r="AS63">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT63">
         <v>1</v>
@@ -13603,7 +13627,7 @@
         <v>86</v>
       </c>
       <c r="P65" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13693,7 +13717,7 @@
         <v>1.5</v>
       </c>
       <c r="AT65">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU65">
         <v>1.18</v>
@@ -13794,7 +13818,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13881,7 +13905,7 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT66">
         <v>1.6</v>
@@ -14367,7 +14391,7 @@
         <v>86</v>
       </c>
       <c r="P69" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14648,7 +14672,7 @@
         <v>1.9</v>
       </c>
       <c r="AT70">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU70">
         <v>2.3</v>
@@ -14749,7 +14773,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -14836,7 +14860,7 @@
         <v>2.33</v>
       </c>
       <c r="AS71">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT71">
         <v>2.55</v>
@@ -14940,7 +14964,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15030,7 +15054,7 @@
         <v>2.8</v>
       </c>
       <c r="AT72">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU72">
         <v>2.53</v>
@@ -15131,7 +15155,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15221,7 +15245,7 @@
         <v>2.45</v>
       </c>
       <c r="AT73">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU73">
         <v>2.04</v>
@@ -15322,7 +15346,7 @@
         <v>111</v>
       </c>
       <c r="P74" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15409,7 +15433,7 @@
         <v>1.67</v>
       </c>
       <c r="AS74">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT74">
         <v>1.45</v>
@@ -15600,10 +15624,10 @@
         <v>0</v>
       </c>
       <c r="AS75">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT75">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU75">
         <v>1.52</v>
@@ -15791,7 +15815,7 @@
         <v>0.25</v>
       </c>
       <c r="AS76">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT76">
         <v>0.5</v>
@@ -15895,7 +15919,7 @@
         <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15985,7 +16009,7 @@
         <v>0.2</v>
       </c>
       <c r="AT77">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU77">
         <v>1.29</v>
@@ -16659,7 +16683,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16850,7 +16874,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17128,7 +17152,7 @@
         <v>0.67</v>
       </c>
       <c r="AS83">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT83">
         <v>1.7</v>
@@ -17232,7 +17256,7 @@
         <v>100</v>
       </c>
       <c r="P84" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17319,7 +17343,7 @@
         <v>0</v>
       </c>
       <c r="AS84">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT84">
         <v>0.73</v>
@@ -17614,7 +17638,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17701,10 +17725,10 @@
         <v>3</v>
       </c>
       <c r="AS86">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT86">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU86">
         <v>1.64</v>
@@ -18086,7 +18110,7 @@
         <v>1.36</v>
       </c>
       <c r="AT88">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU88">
         <v>1.57</v>
@@ -18187,7 +18211,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18569,7 +18593,7 @@
         <v>86</v>
       </c>
       <c r="P91" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18847,10 +18871,10 @@
         <v>1</v>
       </c>
       <c r="AS92">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT92">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU92">
         <v>1.56</v>
@@ -19232,7 +19256,7 @@
         <v>1.7</v>
       </c>
       <c r="AT94">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU94">
         <v>1.55</v>
@@ -19524,7 +19548,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19802,7 +19826,7 @@
         <v>2.25</v>
       </c>
       <c r="AS97">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT97">
         <v>1.36</v>
@@ -19906,7 +19930,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20097,7 +20121,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q99">
         <v>9</v>
@@ -20288,7 +20312,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20378,7 +20402,7 @@
         <v>0.2</v>
       </c>
       <c r="AT100">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU100">
         <v>1.2</v>
@@ -20566,7 +20590,7 @@
         <v>0.25</v>
       </c>
       <c r="AS101">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT101">
         <v>0.9</v>
@@ -20951,7 +20975,7 @@
         <v>1.09</v>
       </c>
       <c r="AT103">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU103">
         <v>1.63</v>
@@ -21139,10 +21163,10 @@
         <v>0.8</v>
       </c>
       <c r="AS104">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT104">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU104">
         <v>2.04</v>
@@ -21243,7 +21267,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21434,7 +21458,7 @@
         <v>112</v>
       </c>
       <c r="P106" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21521,10 +21545,10 @@
         <v>1.2</v>
       </c>
       <c r="AS106">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT106">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU106">
         <v>1.57</v>
@@ -21712,7 +21736,7 @@
         <v>0.8</v>
       </c>
       <c r="AS107">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT107">
         <v>1.09</v>
@@ -21816,7 +21840,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -22198,7 +22222,7 @@
         <v>86</v>
       </c>
       <c r="P110" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22670,7 +22694,7 @@
         <v>2.8</v>
       </c>
       <c r="AT112">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU112">
         <v>2.54</v>
@@ -22771,7 +22795,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q113">
         <v>7</v>
@@ -22858,7 +22882,7 @@
         <v>1</v>
       </c>
       <c r="AS113">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT113">
         <v>1.7</v>
@@ -23153,7 +23177,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23240,10 +23264,10 @@
         <v>2.6</v>
       </c>
       <c r="AS115">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT115">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU115">
         <v>1.57</v>
@@ -23344,7 +23368,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -23726,7 +23750,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23813,7 +23837,7 @@
         <v>0.6</v>
       </c>
       <c r="AS118">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT118">
         <v>0.9</v>
@@ -23917,7 +23941,7 @@
         <v>167</v>
       </c>
       <c r="P119" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24108,7 +24132,7 @@
         <v>112</v>
       </c>
       <c r="P120" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24198,7 +24222,7 @@
         <v>0.91</v>
       </c>
       <c r="AT120">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU120">
         <v>1.44</v>
@@ -24299,7 +24323,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24577,7 +24601,7 @@
         <v>0.67</v>
       </c>
       <c r="AS122">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT122">
         <v>1.09</v>
@@ -24681,7 +24705,7 @@
         <v>169</v>
       </c>
       <c r="P123" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q123">
         <v>2</v>
@@ -24959,10 +24983,10 @@
         <v>0.83</v>
       </c>
       <c r="AS124">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT124">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU124">
         <v>1.58</v>
@@ -25063,7 +25087,7 @@
         <v>157</v>
       </c>
       <c r="P125" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25341,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="AS126">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT126">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU126">
         <v>1.98</v>
@@ -25532,10 +25556,10 @@
         <v>1.5</v>
       </c>
       <c r="AS127">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT127">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU127">
         <v>1.55</v>
@@ -25636,7 +25660,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27063,7 +27087,7 @@
         <v>1.4</v>
       </c>
       <c r="AT135">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU135">
         <v>1.41</v>
@@ -27251,10 +27275,10 @@
         <v>2.67</v>
       </c>
       <c r="AS136">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT136">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU136">
         <v>1.16</v>
@@ -27546,7 +27570,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -28206,10 +28230,10 @@
         <v>0.67</v>
       </c>
       <c r="AS141">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT141">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU141">
         <v>1.51</v>
@@ -28397,7 +28421,7 @@
         <v>0.57</v>
       </c>
       <c r="AS142">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT142">
         <v>0.5</v>
@@ -28501,7 +28525,7 @@
         <v>182</v>
       </c>
       <c r="P143" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28692,7 +28716,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q144">
         <v>9</v>
@@ -28970,10 +28994,10 @@
         <v>0.71</v>
       </c>
       <c r="AS145">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT145">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU145">
         <v>1.45</v>
@@ -29074,7 +29098,7 @@
         <v>184</v>
       </c>
       <c r="P146" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29265,7 +29289,7 @@
         <v>137</v>
       </c>
       <c r="P147" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29355,7 +29379,7 @@
         <v>0.91</v>
       </c>
       <c r="AT147">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU147">
         <v>1.41</v>
@@ -29737,7 +29761,7 @@
         <v>1.9</v>
       </c>
       <c r="AT149">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU149">
         <v>1.86</v>
@@ -29838,7 +29862,7 @@
         <v>186</v>
       </c>
       <c r="P150" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -29925,7 +29949,7 @@
         <v>1.14</v>
       </c>
       <c r="AS150">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT150">
         <v>0.9</v>
@@ -30220,7 +30244,7 @@
         <v>188</v>
       </c>
       <c r="P152" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -30411,7 +30435,7 @@
         <v>170</v>
       </c>
       <c r="P153" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q153">
         <v>9</v>
@@ -30602,7 +30626,7 @@
         <v>189</v>
       </c>
       <c r="P154" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30692,7 +30716,7 @@
         <v>1.09</v>
       </c>
       <c r="AT154">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU154">
         <v>1.64</v>
@@ -30793,7 +30817,7 @@
         <v>170</v>
       </c>
       <c r="P155" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -30984,7 +31008,7 @@
         <v>190</v>
       </c>
       <c r="P156" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -31071,7 +31095,7 @@
         <v>2</v>
       </c>
       <c r="AS156">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT156">
         <v>1.8</v>
@@ -31366,7 +31390,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31557,7 +31581,7 @@
         <v>157</v>
       </c>
       <c r="P159" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -31647,7 +31671,7 @@
         <v>1.36</v>
       </c>
       <c r="AT159">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU159">
         <v>2.17</v>
@@ -32026,7 +32050,7 @@
         <v>0.86</v>
       </c>
       <c r="AS161">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT161">
         <v>1</v>
@@ -32220,7 +32244,7 @@
         <v>1.36</v>
       </c>
       <c r="AT162">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU162">
         <v>2.2</v>
@@ -32512,7 +32536,7 @@
         <v>196</v>
       </c>
       <c r="P164" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q164">
         <v>3</v>
@@ -32793,7 +32817,7 @@
         <v>1.09</v>
       </c>
       <c r="AT165">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU165">
         <v>1.5</v>
@@ -33085,7 +33109,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q167">
         <v>10</v>
@@ -33172,7 +33196,7 @@
         <v>0.88</v>
       </c>
       <c r="AS167">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT167">
         <v>1</v>
@@ -33276,7 +33300,7 @@
         <v>86</v>
       </c>
       <c r="P168" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33467,7 +33491,7 @@
         <v>199</v>
       </c>
       <c r="P169" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33554,10 +33578,10 @@
         <v>2.13</v>
       </c>
       <c r="AS169">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT169">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU169">
         <v>2.02</v>
@@ -33849,7 +33873,7 @@
         <v>191</v>
       </c>
       <c r="P171" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -33936,10 +33960,10 @@
         <v>2.13</v>
       </c>
       <c r="AS171">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT171">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU171">
         <v>1.4</v>
@@ -34231,7 +34255,7 @@
         <v>202</v>
       </c>
       <c r="P173" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34321,7 +34345,7 @@
         <v>0.27</v>
       </c>
       <c r="AT173">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU173">
         <v>1.56</v>
@@ -34422,7 +34446,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q174">
         <v>8</v>
@@ -34509,7 +34533,7 @@
         <v>1.88</v>
       </c>
       <c r="AS174">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT174">
         <v>1.45</v>
@@ -34804,7 +34828,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q176">
         <v>7</v>
@@ -34995,7 +35019,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q177">
         <v>7</v>
@@ -35085,7 +35109,7 @@
         <v>1.5</v>
       </c>
       <c r="AT177">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU177">
         <v>1.42</v>
@@ -35186,7 +35210,7 @@
         <v>205</v>
       </c>
       <c r="P178" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q178">
         <v>6</v>
@@ -35273,7 +35297,7 @@
         <v>0.5</v>
       </c>
       <c r="AS178">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT178">
         <v>1</v>
@@ -35377,7 +35401,7 @@
         <v>206</v>
       </c>
       <c r="P179" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q179">
         <v>5</v>
@@ -35846,7 +35870,7 @@
         <v>0.88</v>
       </c>
       <c r="AS181">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT181">
         <v>0.73</v>
@@ -36141,7 +36165,7 @@
         <v>86</v>
       </c>
       <c r="P183" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -36422,7 +36446,7 @@
         <v>1.36</v>
       </c>
       <c r="AT184">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU184">
         <v>2.15</v>
@@ -36523,7 +36547,7 @@
         <v>86</v>
       </c>
       <c r="P185" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q185">
         <v>6</v>
@@ -36714,7 +36738,7 @@
         <v>144</v>
       </c>
       <c r="P186" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q186">
         <v>10</v>
@@ -36804,7 +36828,7 @@
         <v>1.36</v>
       </c>
       <c r="AT186">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU186">
         <v>1.55</v>
@@ -36905,7 +36929,7 @@
         <v>86</v>
       </c>
       <c r="P187" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -36995,7 +37019,7 @@
         <v>1.09</v>
       </c>
       <c r="AT187">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU187">
         <v>1.58</v>
@@ -37096,7 +37120,7 @@
         <v>209</v>
       </c>
       <c r="P188" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -37186,7 +37210,7 @@
         <v>2.18</v>
       </c>
       <c r="AT188">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU188">
         <v>1.87</v>
@@ -37287,7 +37311,7 @@
         <v>131</v>
       </c>
       <c r="P189" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37374,7 +37398,7 @@
         <v>0.44</v>
       </c>
       <c r="AS189">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT189">
         <v>0.5</v>
@@ -37478,7 +37502,7 @@
         <v>86</v>
       </c>
       <c r="P190" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q190">
         <v>2</v>
@@ -37756,7 +37780,7 @@
         <v>1.78</v>
       </c>
       <c r="AS191">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT191">
         <v>1.45</v>
@@ -37947,10 +37971,10 @@
         <v>0.67</v>
       </c>
       <c r="AS192">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT192">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU192">
         <v>1.49</v>
@@ -38051,7 +38075,7 @@
         <v>143</v>
       </c>
       <c r="P193" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38138,7 +38162,7 @@
         <v>0.67</v>
       </c>
       <c r="AS193">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT193">
         <v>0.9</v>
@@ -38242,7 +38266,7 @@
         <v>212</v>
       </c>
       <c r="P194" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q194">
         <v>5</v>
@@ -38329,10 +38353,10 @@
         <v>1.4</v>
       </c>
       <c r="AS194">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT194">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU194">
         <v>1.6</v>
@@ -38433,7 +38457,7 @@
         <v>152</v>
       </c>
       <c r="P195" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -38815,7 +38839,7 @@
         <v>214</v>
       </c>
       <c r="P197" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q197">
         <v>2</v>
@@ -38902,10 +38926,10 @@
         <v>0.6</v>
       </c>
       <c r="AS197">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT197">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU197">
         <v>1.96</v>
@@ -39006,7 +39030,7 @@
         <v>86</v>
       </c>
       <c r="P198" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q198">
         <v>12</v>
@@ -39096,7 +39120,7 @@
         <v>2.18</v>
       </c>
       <c r="AT198">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU198">
         <v>1.89</v>
@@ -39284,7 +39308,7 @@
         <v>0.89</v>
       </c>
       <c r="AS199">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT199">
         <v>0.9</v>
@@ -39388,7 +39412,7 @@
         <v>216</v>
       </c>
       <c r="P200" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -39478,7 +39502,7 @@
         <v>2.8</v>
       </c>
       <c r="AT200">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU200">
         <v>2.28</v>
@@ -39666,7 +39690,7 @@
         <v>0.33</v>
       </c>
       <c r="AS201">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT201">
         <v>0.4</v>
@@ -39770,7 +39794,7 @@
         <v>86</v>
       </c>
       <c r="P202" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -40242,7 +40266,7 @@
         <v>1.4</v>
       </c>
       <c r="AT204">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU204">
         <v>1.47</v>
@@ -40343,7 +40367,7 @@
         <v>86</v>
       </c>
       <c r="P205" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q205">
         <v>3</v>
@@ -40725,7 +40749,7 @@
         <v>157</v>
       </c>
       <c r="P207" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -41107,7 +41131,7 @@
         <v>219</v>
       </c>
       <c r="P209" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q209">
         <v>6</v>
@@ -41298,7 +41322,7 @@
         <v>220</v>
       </c>
       <c r="P210" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q210">
         <v>9</v>
@@ -41489,7 +41513,7 @@
         <v>86</v>
       </c>
       <c r="P211" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -41631,6 +41655,1152 @@
       </c>
       <c r="BK211">
         <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:63">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>2638212</v>
+      </c>
+      <c r="C212" t="s">
+        <v>63</v>
+      </c>
+      <c r="D212" t="s">
+        <v>64</v>
+      </c>
+      <c r="E212" s="2">
+        <v>44967.69791666666</v>
+      </c>
+      <c r="F212">
+        <v>22</v>
+      </c>
+      <c r="G212" t="s">
+        <v>65</v>
+      </c>
+      <c r="H212" t="s">
+        <v>76</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>1</v>
+      </c>
+      <c r="M212">
+        <v>0</v>
+      </c>
+      <c r="N212">
+        <v>1</v>
+      </c>
+      <c r="O212" t="s">
+        <v>221</v>
+      </c>
+      <c r="P212" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q212">
+        <v>3</v>
+      </c>
+      <c r="R212">
+        <v>8</v>
+      </c>
+      <c r="S212">
+        <v>11</v>
+      </c>
+      <c r="T212">
+        <v>2.4</v>
+      </c>
+      <c r="U212">
+        <v>2.2</v>
+      </c>
+      <c r="V212">
+        <v>5</v>
+      </c>
+      <c r="W212">
+        <v>1.4</v>
+      </c>
+      <c r="X212">
+        <v>2.75</v>
+      </c>
+      <c r="Y212">
+        <v>3</v>
+      </c>
+      <c r="Z212">
+        <v>1.36</v>
+      </c>
+      <c r="AA212">
+        <v>8</v>
+      </c>
+      <c r="AB212">
+        <v>1.08</v>
+      </c>
+      <c r="AC212">
+        <v>1.62</v>
+      </c>
+      <c r="AD212">
+        <v>3.5</v>
+      </c>
+      <c r="AE212">
+        <v>4.55</v>
+      </c>
+      <c r="AF212">
+        <v>1.06</v>
+      </c>
+      <c r="AG212">
+        <v>10</v>
+      </c>
+      <c r="AH212">
+        <v>1.35</v>
+      </c>
+      <c r="AI212">
+        <v>3.25</v>
+      </c>
+      <c r="AJ212">
+        <v>1.86</v>
+      </c>
+      <c r="AK212">
+        <v>1.79</v>
+      </c>
+      <c r="AL212">
+        <v>1.91</v>
+      </c>
+      <c r="AM212">
+        <v>1.91</v>
+      </c>
+      <c r="AN212">
+        <v>1.2</v>
+      </c>
+      <c r="AO212">
+        <v>1.25</v>
+      </c>
+      <c r="AP212">
+        <v>2.1</v>
+      </c>
+      <c r="AQ212">
+        <v>2.2</v>
+      </c>
+      <c r="AR212">
+        <v>1.36</v>
+      </c>
+      <c r="AS212">
+        <v>2.27</v>
+      </c>
+      <c r="AT212">
+        <v>1.25</v>
+      </c>
+      <c r="AU212">
+        <v>1.94</v>
+      </c>
+      <c r="AV212">
+        <v>1.54</v>
+      </c>
+      <c r="AW212">
+        <v>3.48</v>
+      </c>
+      <c r="AX212">
+        <v>1.52</v>
+      </c>
+      <c r="AY212">
+        <v>8</v>
+      </c>
+      <c r="AZ212">
+        <v>3.05</v>
+      </c>
+      <c r="BA212">
+        <v>1.38</v>
+      </c>
+      <c r="BB212">
+        <v>1.65</v>
+      </c>
+      <c r="BC212">
+        <v>2.04</v>
+      </c>
+      <c r="BD212">
+        <v>2.6</v>
+      </c>
+      <c r="BE212">
+        <v>3.45</v>
+      </c>
+      <c r="BF212">
+        <v>4</v>
+      </c>
+      <c r="BG212">
+        <v>4</v>
+      </c>
+      <c r="BH212">
+        <v>5</v>
+      </c>
+      <c r="BI212">
+        <v>10</v>
+      </c>
+      <c r="BJ212">
+        <v>9</v>
+      </c>
+      <c r="BK212">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="1:63">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>2638207</v>
+      </c>
+      <c r="C213" t="s">
+        <v>63</v>
+      </c>
+      <c r="D213" t="s">
+        <v>64</v>
+      </c>
+      <c r="E213" s="2">
+        <v>44968.45833333334</v>
+      </c>
+      <c r="F213">
+        <v>22</v>
+      </c>
+      <c r="G213" t="s">
+        <v>79</v>
+      </c>
+      <c r="H213" t="s">
+        <v>72</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>2</v>
+      </c>
+      <c r="K213">
+        <v>2</v>
+      </c>
+      <c r="L213">
+        <v>2</v>
+      </c>
+      <c r="M213">
+        <v>2</v>
+      </c>
+      <c r="N213">
+        <v>4</v>
+      </c>
+      <c r="O213" t="s">
+        <v>222</v>
+      </c>
+      <c r="P213" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q213">
+        <v>7</v>
+      </c>
+      <c r="R213">
+        <v>3</v>
+      </c>
+      <c r="S213">
+        <v>10</v>
+      </c>
+      <c r="T213">
+        <v>2.75</v>
+      </c>
+      <c r="U213">
+        <v>2.1</v>
+      </c>
+      <c r="V213">
+        <v>4.33</v>
+      </c>
+      <c r="W213">
+        <v>1.4</v>
+      </c>
+      <c r="X213">
+        <v>2.75</v>
+      </c>
+      <c r="Y213">
+        <v>3</v>
+      </c>
+      <c r="Z213">
+        <v>1.36</v>
+      </c>
+      <c r="AA213">
+        <v>8</v>
+      </c>
+      <c r="AB213">
+        <v>1.08</v>
+      </c>
+      <c r="AC213">
+        <v>2.05</v>
+      </c>
+      <c r="AD213">
+        <v>3.2</v>
+      </c>
+      <c r="AE213">
+        <v>3.25</v>
+      </c>
+      <c r="AF213">
+        <v>1.06</v>
+      </c>
+      <c r="AG213">
+        <v>10</v>
+      </c>
+      <c r="AH213">
+        <v>1.33</v>
+      </c>
+      <c r="AI213">
+        <v>3.3</v>
+      </c>
+      <c r="AJ213">
+        <v>2.1</v>
+      </c>
+      <c r="AK213">
+        <v>1.75</v>
+      </c>
+      <c r="AL213">
+        <v>1.8</v>
+      </c>
+      <c r="AM213">
+        <v>1.95</v>
+      </c>
+      <c r="AN213">
+        <v>1.29</v>
+      </c>
+      <c r="AO213">
+        <v>1.31</v>
+      </c>
+      <c r="AP213">
+        <v>1.72</v>
+      </c>
+      <c r="AQ213">
+        <v>1.5</v>
+      </c>
+      <c r="AR213">
+        <v>0.6</v>
+      </c>
+      <c r="AS213">
+        <v>1.45</v>
+      </c>
+      <c r="AT213">
+        <v>0.64</v>
+      </c>
+      <c r="AU213">
+        <v>1.58</v>
+      </c>
+      <c r="AV213">
+        <v>1.33</v>
+      </c>
+      <c r="AW213">
+        <v>2.91</v>
+      </c>
+      <c r="AX213">
+        <v>1.64</v>
+      </c>
+      <c r="AY213">
+        <v>8</v>
+      </c>
+      <c r="AZ213">
+        <v>2.65</v>
+      </c>
+      <c r="BA213">
+        <v>1.36</v>
+      </c>
+      <c r="BB213">
+        <v>1.58</v>
+      </c>
+      <c r="BC213">
+        <v>1.94</v>
+      </c>
+      <c r="BD213">
+        <v>2.45</v>
+      </c>
+      <c r="BE213">
+        <v>3.25</v>
+      </c>
+      <c r="BF213">
+        <v>9</v>
+      </c>
+      <c r="BG213">
+        <v>5</v>
+      </c>
+      <c r="BH213">
+        <v>16</v>
+      </c>
+      <c r="BI213">
+        <v>6</v>
+      </c>
+      <c r="BJ213">
+        <v>25</v>
+      </c>
+      <c r="BK213">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:63">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>2638211</v>
+      </c>
+      <c r="C214" t="s">
+        <v>63</v>
+      </c>
+      <c r="D214" t="s">
+        <v>64</v>
+      </c>
+      <c r="E214" s="2">
+        <v>44968.58333333334</v>
+      </c>
+      <c r="F214">
+        <v>22</v>
+      </c>
+      <c r="G214" t="s">
+        <v>67</v>
+      </c>
+      <c r="H214" t="s">
+        <v>83</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="K214">
+        <v>2</v>
+      </c>
+      <c r="L214">
+        <v>1</v>
+      </c>
+      <c r="M214">
+        <v>1</v>
+      </c>
+      <c r="N214">
+        <v>2</v>
+      </c>
+      <c r="O214" t="s">
+        <v>223</v>
+      </c>
+      <c r="P214" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q214">
+        <v>3</v>
+      </c>
+      <c r="R214">
+        <v>7</v>
+      </c>
+      <c r="S214">
+        <v>10</v>
+      </c>
+      <c r="T214">
+        <v>4.75</v>
+      </c>
+      <c r="U214">
+        <v>2</v>
+      </c>
+      <c r="V214">
+        <v>2.63</v>
+      </c>
+      <c r="W214">
+        <v>1.5</v>
+      </c>
+      <c r="X214">
+        <v>2.5</v>
+      </c>
+      <c r="Y214">
+        <v>3.5</v>
+      </c>
+      <c r="Z214">
+        <v>1.29</v>
+      </c>
+      <c r="AA214">
+        <v>10</v>
+      </c>
+      <c r="AB214">
+        <v>1.06</v>
+      </c>
+      <c r="AC214">
+        <v>3.7</v>
+      </c>
+      <c r="AD214">
+        <v>3.1</v>
+      </c>
+      <c r="AE214">
+        <v>1.97</v>
+      </c>
+      <c r="AF214">
+        <v>1.09</v>
+      </c>
+      <c r="AG214">
+        <v>8</v>
+      </c>
+      <c r="AH214">
+        <v>1.45</v>
+      </c>
+      <c r="AI214">
+        <v>2.8</v>
+      </c>
+      <c r="AJ214">
+        <v>2.45</v>
+      </c>
+      <c r="AK214">
+        <v>1.55</v>
+      </c>
+      <c r="AL214">
+        <v>2.05</v>
+      </c>
+      <c r="AM214">
+        <v>1.7</v>
+      </c>
+      <c r="AN214">
+        <v>1.82</v>
+      </c>
+      <c r="AO214">
+        <v>1.32</v>
+      </c>
+      <c r="AP214">
+        <v>1.23</v>
+      </c>
+      <c r="AQ214">
+        <v>1.1</v>
+      </c>
+      <c r="AR214">
+        <v>1.91</v>
+      </c>
+      <c r="AS214">
+        <v>1.09</v>
+      </c>
+      <c r="AT214">
+        <v>1.83</v>
+      </c>
+      <c r="AU214">
+        <v>1.39</v>
+      </c>
+      <c r="AV214">
+        <v>1.45</v>
+      </c>
+      <c r="AW214">
+        <v>2.84</v>
+      </c>
+      <c r="AX214">
+        <v>2.45</v>
+      </c>
+      <c r="AY214">
+        <v>7.5</v>
+      </c>
+      <c r="AZ214">
+        <v>1.73</v>
+      </c>
+      <c r="BA214">
+        <v>1.44</v>
+      </c>
+      <c r="BB214">
+        <v>1.73</v>
+      </c>
+      <c r="BC214">
+        <v>2.17</v>
+      </c>
+      <c r="BD214">
+        <v>2.8</v>
+      </c>
+      <c r="BE214">
+        <v>3.85</v>
+      </c>
+      <c r="BF214">
+        <v>5</v>
+      </c>
+      <c r="BG214">
+        <v>6</v>
+      </c>
+      <c r="BH214">
+        <v>6</v>
+      </c>
+      <c r="BI214">
+        <v>7</v>
+      </c>
+      <c r="BJ214">
+        <v>11</v>
+      </c>
+      <c r="BK214">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:63">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>2638210</v>
+      </c>
+      <c r="C215" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215" t="s">
+        <v>64</v>
+      </c>
+      <c r="E215" s="2">
+        <v>44968.69791666666</v>
+      </c>
+      <c r="F215">
+        <v>22</v>
+      </c>
+      <c r="G215" t="s">
+        <v>70</v>
+      </c>
+      <c r="H215" t="s">
+        <v>81</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215">
+        <v>2</v>
+      </c>
+      <c r="N215">
+        <v>2</v>
+      </c>
+      <c r="O215" t="s">
+        <v>86</v>
+      </c>
+      <c r="P215" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q215">
+        <v>5</v>
+      </c>
+      <c r="R215">
+        <v>7</v>
+      </c>
+      <c r="S215">
+        <v>12</v>
+      </c>
+      <c r="T215">
+        <v>2.88</v>
+      </c>
+      <c r="U215">
+        <v>2.2</v>
+      </c>
+      <c r="V215">
+        <v>3.5</v>
+      </c>
+      <c r="W215">
+        <v>1.36</v>
+      </c>
+      <c r="X215">
+        <v>3</v>
+      </c>
+      <c r="Y215">
+        <v>2.75</v>
+      </c>
+      <c r="Z215">
+        <v>1.4</v>
+      </c>
+      <c r="AA215">
+        <v>7</v>
+      </c>
+      <c r="AB215">
+        <v>1.1</v>
+      </c>
+      <c r="AC215">
+        <v>2.4</v>
+      </c>
+      <c r="AD215">
+        <v>3.5</v>
+      </c>
+      <c r="AE215">
+        <v>2.9</v>
+      </c>
+      <c r="AF215">
+        <v>1.04</v>
+      </c>
+      <c r="AG215">
+        <v>12</v>
+      </c>
+      <c r="AH215">
+        <v>1.28</v>
+      </c>
+      <c r="AI215">
+        <v>3.75</v>
+      </c>
+      <c r="AJ215">
+        <v>1.81</v>
+      </c>
+      <c r="AK215">
+        <v>2.01</v>
+      </c>
+      <c r="AL215">
+        <v>1.67</v>
+      </c>
+      <c r="AM215">
+        <v>2.1</v>
+      </c>
+      <c r="AN215">
+        <v>1.37</v>
+      </c>
+      <c r="AO215">
+        <v>1.3</v>
+      </c>
+      <c r="AP215">
+        <v>1.6</v>
+      </c>
+      <c r="AQ215">
+        <v>1.91</v>
+      </c>
+      <c r="AR215">
+        <v>1.91</v>
+      </c>
+      <c r="AS215">
+        <v>1.75</v>
+      </c>
+      <c r="AT215">
+        <v>2</v>
+      </c>
+      <c r="AU215">
+        <v>1.5</v>
+      </c>
+      <c r="AV215">
+        <v>1.55</v>
+      </c>
+      <c r="AW215">
+        <v>3.05</v>
+      </c>
+      <c r="AX215">
+        <v>1.81</v>
+      </c>
+      <c r="AY215">
+        <v>7.5</v>
+      </c>
+      <c r="AZ215">
+        <v>2.33</v>
+      </c>
+      <c r="BA215">
+        <v>1.38</v>
+      </c>
+      <c r="BB215">
+        <v>1.62</v>
+      </c>
+      <c r="BC215">
+        <v>2</v>
+      </c>
+      <c r="BD215">
+        <v>2.55</v>
+      </c>
+      <c r="BE215">
+        <v>3.45</v>
+      </c>
+      <c r="BF215">
+        <v>6</v>
+      </c>
+      <c r="BG215">
+        <v>11</v>
+      </c>
+      <c r="BH215">
+        <v>8</v>
+      </c>
+      <c r="BI215">
+        <v>13</v>
+      </c>
+      <c r="BJ215">
+        <v>14</v>
+      </c>
+      <c r="BK215">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="216" spans="1:63">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>2638215</v>
+      </c>
+      <c r="C216" t="s">
+        <v>63</v>
+      </c>
+      <c r="D216" t="s">
+        <v>64</v>
+      </c>
+      <c r="E216" s="2">
+        <v>44969.35416666666</v>
+      </c>
+      <c r="F216">
+        <v>22</v>
+      </c>
+      <c r="G216" t="s">
+        <v>75</v>
+      </c>
+      <c r="H216" t="s">
+        <v>78</v>
+      </c>
+      <c r="I216">
+        <v>2</v>
+      </c>
+      <c r="J216">
+        <v>2</v>
+      </c>
+      <c r="K216">
+        <v>4</v>
+      </c>
+      <c r="L216">
+        <v>2</v>
+      </c>
+      <c r="M216">
+        <v>2</v>
+      </c>
+      <c r="N216">
+        <v>4</v>
+      </c>
+      <c r="O216" t="s">
+        <v>224</v>
+      </c>
+      <c r="P216" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q216">
+        <v>10</v>
+      </c>
+      <c r="R216">
+        <v>7</v>
+      </c>
+      <c r="S216">
+        <v>17</v>
+      </c>
+      <c r="T216">
+        <v>2.6</v>
+      </c>
+      <c r="U216">
+        <v>2.25</v>
+      </c>
+      <c r="V216">
+        <v>4</v>
+      </c>
+      <c r="W216">
+        <v>1.36</v>
+      </c>
+      <c r="X216">
+        <v>3</v>
+      </c>
+      <c r="Y216">
+        <v>2.63</v>
+      </c>
+      <c r="Z216">
+        <v>1.44</v>
+      </c>
+      <c r="AA216">
+        <v>7</v>
+      </c>
+      <c r="AB216">
+        <v>1.1</v>
+      </c>
+      <c r="AC216">
+        <v>2.05</v>
+      </c>
+      <c r="AD216">
+        <v>3.45</v>
+      </c>
+      <c r="AE216">
+        <v>3.61</v>
+      </c>
+      <c r="AF216">
+        <v>1.04</v>
+      </c>
+      <c r="AG216">
+        <v>12</v>
+      </c>
+      <c r="AH216">
+        <v>1.28</v>
+      </c>
+      <c r="AI216">
+        <v>3.75</v>
+      </c>
+      <c r="AJ216">
+        <v>1.8</v>
+      </c>
+      <c r="AK216">
+        <v>1.95</v>
+      </c>
+      <c r="AL216">
+        <v>1.7</v>
+      </c>
+      <c r="AM216">
+        <v>2.05</v>
+      </c>
+      <c r="AN216">
+        <v>1.28</v>
+      </c>
+      <c r="AO216">
+        <v>1.29</v>
+      </c>
+      <c r="AP216">
+        <v>1.75</v>
+      </c>
+      <c r="AQ216">
+        <v>1.4</v>
+      </c>
+      <c r="AR216">
+        <v>0.82</v>
+      </c>
+      <c r="AS216">
+        <v>1.36</v>
+      </c>
+      <c r="AT216">
+        <v>0.83</v>
+      </c>
+      <c r="AU216">
+        <v>1.88</v>
+      </c>
+      <c r="AV216">
+        <v>1.59</v>
+      </c>
+      <c r="AW216">
+        <v>3.47</v>
+      </c>
+      <c r="AX216">
+        <v>1.58</v>
+      </c>
+      <c r="AY216">
+        <v>8</v>
+      </c>
+      <c r="AZ216">
+        <v>2.8</v>
+      </c>
+      <c r="BA216">
+        <v>1.29</v>
+      </c>
+      <c r="BB216">
+        <v>1.5</v>
+      </c>
+      <c r="BC216">
+        <v>1.8</v>
+      </c>
+      <c r="BD216">
+        <v>2.23</v>
+      </c>
+      <c r="BE216">
+        <v>2.9</v>
+      </c>
+      <c r="BF216">
+        <v>8</v>
+      </c>
+      <c r="BG216">
+        <v>3</v>
+      </c>
+      <c r="BH216">
+        <v>12</v>
+      </c>
+      <c r="BI216">
+        <v>5</v>
+      </c>
+      <c r="BJ216">
+        <v>20</v>
+      </c>
+      <c r="BK216">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:63">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>2638206</v>
+      </c>
+      <c r="C217" t="s">
+        <v>63</v>
+      </c>
+      <c r="D217" t="s">
+        <v>64</v>
+      </c>
+      <c r="E217" s="2">
+        <v>44969.45833333334</v>
+      </c>
+      <c r="F217">
+        <v>22</v>
+      </c>
+      <c r="G217" t="s">
+        <v>82</v>
+      </c>
+      <c r="H217" t="s">
+        <v>68</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+      <c r="M217">
+        <v>1</v>
+      </c>
+      <c r="N217">
+        <v>1</v>
+      </c>
+      <c r="O217" t="s">
+        <v>86</v>
+      </c>
+      <c r="P217" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q217">
+        <v>3</v>
+      </c>
+      <c r="R217">
+        <v>2</v>
+      </c>
+      <c r="S217">
+        <v>5</v>
+      </c>
+      <c r="T217">
+        <v>2.88</v>
+      </c>
+      <c r="U217">
+        <v>2.05</v>
+      </c>
+      <c r="V217">
+        <v>4</v>
+      </c>
+      <c r="W217">
+        <v>1.44</v>
+      </c>
+      <c r="X217">
+        <v>2.63</v>
+      </c>
+      <c r="Y217">
+        <v>3.25</v>
+      </c>
+      <c r="Z217">
+        <v>1.33</v>
+      </c>
+      <c r="AA217">
+        <v>9</v>
+      </c>
+      <c r="AB217">
+        <v>1.07</v>
+      </c>
+      <c r="AC217">
+        <v>2.2</v>
+      </c>
+      <c r="AD217">
+        <v>3.3</v>
+      </c>
+      <c r="AE217">
+        <v>3.36</v>
+      </c>
+      <c r="AF217">
+        <v>1.07</v>
+      </c>
+      <c r="AG217">
+        <v>9.5</v>
+      </c>
+      <c r="AH217">
+        <v>1.38</v>
+      </c>
+      <c r="AI217">
+        <v>3.1</v>
+      </c>
+      <c r="AJ217">
+        <v>2.06</v>
+      </c>
+      <c r="AK217">
+        <v>1.71</v>
+      </c>
+      <c r="AL217">
+        <v>1.91</v>
+      </c>
+      <c r="AM217">
+        <v>1.91</v>
+      </c>
+      <c r="AN217">
+        <v>1.32</v>
+      </c>
+      <c r="AO217">
+        <v>1.32</v>
+      </c>
+      <c r="AP217">
+        <v>1.65</v>
+      </c>
+      <c r="AQ217">
+        <v>1.73</v>
+      </c>
+      <c r="AR217">
+        <v>1.1</v>
+      </c>
+      <c r="AS217">
+        <v>1.58</v>
+      </c>
+      <c r="AT217">
+        <v>1.27</v>
+      </c>
+      <c r="AU217">
+        <v>1.54</v>
+      </c>
+      <c r="AV217">
+        <v>1.27</v>
+      </c>
+      <c r="AW217">
+        <v>2.81</v>
+      </c>
+      <c r="AX217">
+        <v>1.72</v>
+      </c>
+      <c r="AY217">
+        <v>7.5</v>
+      </c>
+      <c r="AZ217">
+        <v>2.48</v>
+      </c>
+      <c r="BA217">
+        <v>1.4</v>
+      </c>
+      <c r="BB217">
+        <v>1.65</v>
+      </c>
+      <c r="BC217">
+        <v>2.04</v>
+      </c>
+      <c r="BD217">
+        <v>2.6</v>
+      </c>
+      <c r="BE217">
+        <v>3.45</v>
+      </c>
+      <c r="BF217">
+        <v>5</v>
+      </c>
+      <c r="BG217">
+        <v>6</v>
+      </c>
+      <c r="BH217">
+        <v>9</v>
+      </c>
+      <c r="BI217">
+        <v>1</v>
+      </c>
+      <c r="BJ217">
+        <v>14</v>
+      </c>
+      <c r="BK217">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="326">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -691,6 +691,9 @@
     <t>['1', '28']</t>
   </si>
   <si>
+    <t>['21', '65', '79']</t>
+  </si>
+  <si>
     <t>['2', '45+4']</t>
   </si>
   <si>
@@ -1350,7 +1353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK217"/>
+  <dimension ref="A1:BK219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1594,7 +1597,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1785,7 +1788,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1976,7 +1979,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -2167,7 +2170,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2358,7 +2361,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q6">
         <v>11</v>
@@ -2448,7 +2451,7 @@
         <v>1.36</v>
       </c>
       <c r="AT6">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2549,7 +2552,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -3122,7 +3125,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3400,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT11">
         <v>0.83</v>
@@ -4358,7 +4361,7 @@
         <v>1.45</v>
       </c>
       <c r="AT16">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4546,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT17">
         <v>1.27</v>
@@ -5122,7 +5125,7 @@
         <v>1.9</v>
       </c>
       <c r="AT20">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5414,7 +5417,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5883,7 +5886,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT24">
         <v>1.83</v>
@@ -5987,7 +5990,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6369,7 +6372,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6560,7 +6563,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6942,7 +6945,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7605,7 +7608,7 @@
         <v>2.45</v>
       </c>
       <c r="AT33">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU33">
         <v>2.44</v>
@@ -7987,7 +7990,7 @@
         <v>1.36</v>
       </c>
       <c r="AT35">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU35">
         <v>1.64</v>
@@ -8470,7 +8473,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8557,7 +8560,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT38">
         <v>1.09</v>
@@ -8748,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT39">
         <v>0.64</v>
@@ -8852,7 +8855,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -9043,7 +9046,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9234,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="P42" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -9425,7 +9428,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9616,7 +9619,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9998,7 +10001,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -10571,7 +10574,7 @@
         <v>86</v>
       </c>
       <c r="P49" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10762,7 +10765,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -11231,7 +11234,7 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT52">
         <v>0.64</v>
@@ -11526,7 +11529,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -11717,7 +11720,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11807,7 +11810,7 @@
         <v>1.7</v>
       </c>
       <c r="AT55">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU55">
         <v>1.36</v>
@@ -11908,7 +11911,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11998,7 +12001,7 @@
         <v>1.58</v>
       </c>
       <c r="AT56">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU56">
         <v>1.65</v>
@@ -12290,7 +12293,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12672,7 +12675,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -12759,7 +12762,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT60">
         <v>0.9</v>
@@ -12863,7 +12866,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13054,7 +13057,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13245,7 +13248,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13627,7 +13630,7 @@
         <v>86</v>
       </c>
       <c r="P65" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13818,7 +13821,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -14391,7 +14394,7 @@
         <v>86</v>
       </c>
       <c r="P69" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14773,7 +14776,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -14964,7 +14967,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15051,7 +15054,7 @@
         <v>1.5</v>
       </c>
       <c r="AS72">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT72">
         <v>1.25</v>
@@ -15155,7 +15158,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15346,7 +15349,7 @@
         <v>111</v>
       </c>
       <c r="P74" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15818,7 +15821,7 @@
         <v>1.09</v>
       </c>
       <c r="AT76">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU76">
         <v>1.45</v>
@@ -15919,7 +15922,7 @@
         <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -16391,7 +16394,7 @@
         <v>1.7</v>
       </c>
       <c r="AT79">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU79">
         <v>1.56</v>
@@ -16579,7 +16582,7 @@
         <v>0.33</v>
       </c>
       <c r="AS80">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT80">
         <v>1</v>
@@ -16683,7 +16686,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16874,7 +16877,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17256,7 +17259,7 @@
         <v>100</v>
       </c>
       <c r="P84" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17638,7 +17641,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -18211,7 +18214,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18593,7 +18596,7 @@
         <v>86</v>
       </c>
       <c r="P91" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -19548,7 +19551,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19638,7 +19641,7 @@
         <v>1.09</v>
       </c>
       <c r="AT96">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU96">
         <v>1.39</v>
@@ -19930,7 +19933,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20017,7 +20020,7 @@
         <v>0.25</v>
       </c>
       <c r="AS98">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT98">
         <v>1</v>
@@ -20121,7 +20124,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q99">
         <v>9</v>
@@ -20312,7 +20315,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20593,7 +20596,7 @@
         <v>1.09</v>
       </c>
       <c r="AT101">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU101">
         <v>1.33</v>
@@ -20781,7 +20784,7 @@
         <v>1.2</v>
       </c>
       <c r="AS102">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT102">
         <v>1</v>
@@ -21267,7 +21270,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21458,7 +21461,7 @@
         <v>112</v>
       </c>
       <c r="P106" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21840,7 +21843,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -22222,7 +22225,7 @@
         <v>86</v>
       </c>
       <c r="P110" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22691,7 +22694,7 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT112">
         <v>0.83</v>
@@ -22795,7 +22798,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q113">
         <v>7</v>
@@ -23177,7 +23180,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23368,7 +23371,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -23458,7 +23461,7 @@
         <v>1.09</v>
       </c>
       <c r="AT116">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU116">
         <v>1.56</v>
@@ -23750,7 +23753,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23941,7 +23944,7 @@
         <v>167</v>
       </c>
       <c r="P119" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24132,7 +24135,7 @@
         <v>112</v>
       </c>
       <c r="P120" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24323,7 +24326,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24705,7 +24708,7 @@
         <v>169</v>
       </c>
       <c r="P123" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q123">
         <v>2</v>
@@ -24795,7 +24798,7 @@
         <v>1.09</v>
       </c>
       <c r="AT123">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU123">
         <v>1.63</v>
@@ -25087,7 +25090,7 @@
         <v>157</v>
       </c>
       <c r="P125" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25660,7 +25663,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25750,7 +25753,7 @@
         <v>0.2</v>
       </c>
       <c r="AT128">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU128">
         <v>1.14</v>
@@ -26320,7 +26323,7 @@
         <v>1.5</v>
       </c>
       <c r="AS131">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT131">
         <v>1.6</v>
@@ -26702,7 +26705,7 @@
         <v>1</v>
       </c>
       <c r="AS133">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT133">
         <v>1</v>
@@ -27570,7 +27573,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -28424,7 +28427,7 @@
         <v>1.45</v>
       </c>
       <c r="AT142">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU142">
         <v>1.6</v>
@@ -28525,7 +28528,7 @@
         <v>182</v>
       </c>
       <c r="P143" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28612,7 +28615,7 @@
         <v>1.71</v>
       </c>
       <c r="AS143">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT143">
         <v>1.36</v>
@@ -28716,7 +28719,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q144">
         <v>9</v>
@@ -29098,7 +29101,7 @@
         <v>184</v>
       </c>
       <c r="P146" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29289,7 +29292,7 @@
         <v>137</v>
       </c>
       <c r="P147" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29862,7 +29865,7 @@
         <v>186</v>
       </c>
       <c r="P150" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -29952,7 +29955,7 @@
         <v>2.27</v>
       </c>
       <c r="AT150">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU150">
         <v>2.09</v>
@@ -30140,7 +30143,7 @@
         <v>2.33</v>
       </c>
       <c r="AS151">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT151">
         <v>1.8</v>
@@ -30244,7 +30247,7 @@
         <v>188</v>
       </c>
       <c r="P152" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -30435,7 +30438,7 @@
         <v>170</v>
       </c>
       <c r="P153" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q153">
         <v>9</v>
@@ -30626,7 +30629,7 @@
         <v>189</v>
       </c>
       <c r="P154" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30817,7 +30820,7 @@
         <v>170</v>
       </c>
       <c r="P155" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -31008,7 +31011,7 @@
         <v>190</v>
       </c>
       <c r="P156" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -31390,7 +31393,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31581,7 +31584,7 @@
         <v>157</v>
       </c>
       <c r="P159" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -32432,7 +32435,7 @@
         <v>1.5</v>
       </c>
       <c r="AS163">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT163">
         <v>1.36</v>
@@ -32536,7 +32539,7 @@
         <v>196</v>
       </c>
       <c r="P164" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q164">
         <v>3</v>
@@ -33109,7 +33112,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q167">
         <v>10</v>
@@ -33300,7 +33303,7 @@
         <v>86</v>
       </c>
       <c r="P168" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33491,7 +33494,7 @@
         <v>199</v>
       </c>
       <c r="P169" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33772,7 +33775,7 @@
         <v>0.91</v>
       </c>
       <c r="AT170">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU170">
         <v>1.49</v>
@@ -33873,7 +33876,7 @@
         <v>191</v>
       </c>
       <c r="P171" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -34151,7 +34154,7 @@
         <v>1.75</v>
       </c>
       <c r="AS172">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT172">
         <v>1.7</v>
@@ -34255,7 +34258,7 @@
         <v>202</v>
       </c>
       <c r="P173" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34446,7 +34449,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q174">
         <v>8</v>
@@ -34828,7 +34831,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q176">
         <v>7</v>
@@ -35019,7 +35022,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q177">
         <v>7</v>
@@ -35210,7 +35213,7 @@
         <v>205</v>
       </c>
       <c r="P178" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q178">
         <v>6</v>
@@ -35401,7 +35404,7 @@
         <v>206</v>
       </c>
       <c r="P179" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q179">
         <v>5</v>
@@ -35682,7 +35685,7 @@
         <v>1.9</v>
       </c>
       <c r="AT180">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU180">
         <v>1.77</v>
@@ -36165,7 +36168,7 @@
         <v>86</v>
       </c>
       <c r="P183" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -36547,7 +36550,7 @@
         <v>86</v>
       </c>
       <c r="P185" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q185">
         <v>6</v>
@@ -36738,7 +36741,7 @@
         <v>144</v>
       </c>
       <c r="P186" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q186">
         <v>10</v>
@@ -36929,7 +36932,7 @@
         <v>86</v>
       </c>
       <c r="P187" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -37120,7 +37123,7 @@
         <v>209</v>
       </c>
       <c r="P188" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -37207,7 +37210,7 @@
         <v>2.22</v>
       </c>
       <c r="AS188">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT188">
         <v>2</v>
@@ -37311,7 +37314,7 @@
         <v>131</v>
       </c>
       <c r="P189" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37401,7 +37404,7 @@
         <v>1.58</v>
       </c>
       <c r="AT189">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU189">
         <v>1.37</v>
@@ -37502,7 +37505,7 @@
         <v>86</v>
       </c>
       <c r="P190" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q190">
         <v>2</v>
@@ -38075,7 +38078,7 @@
         <v>143</v>
       </c>
       <c r="P193" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38266,7 +38269,7 @@
         <v>212</v>
       </c>
       <c r="P194" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q194">
         <v>5</v>
@@ -38457,7 +38460,7 @@
         <v>152</v>
       </c>
       <c r="P195" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -38839,7 +38842,7 @@
         <v>214</v>
       </c>
       <c r="P197" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q197">
         <v>2</v>
@@ -39030,7 +39033,7 @@
         <v>86</v>
       </c>
       <c r="P198" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q198">
         <v>12</v>
@@ -39117,7 +39120,7 @@
         <v>0.89</v>
       </c>
       <c r="AS198">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT198">
         <v>1.27</v>
@@ -39311,7 +39314,7 @@
         <v>1.75</v>
       </c>
       <c r="AT199">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU199">
         <v>1.53</v>
@@ -39412,7 +39415,7 @@
         <v>216</v>
       </c>
       <c r="P200" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -39499,7 +39502,7 @@
         <v>2.1</v>
       </c>
       <c r="AS200">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT200">
         <v>1.83</v>
@@ -39794,7 +39797,7 @@
         <v>86</v>
       </c>
       <c r="P202" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -40367,7 +40370,7 @@
         <v>86</v>
       </c>
       <c r="P205" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q205">
         <v>3</v>
@@ -40749,7 +40752,7 @@
         <v>157</v>
       </c>
       <c r="P207" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -41131,7 +41134,7 @@
         <v>219</v>
       </c>
       <c r="P209" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q209">
         <v>6</v>
@@ -41322,7 +41325,7 @@
         <v>220</v>
       </c>
       <c r="P210" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q210">
         <v>9</v>
@@ -41513,7 +41516,7 @@
         <v>86</v>
       </c>
       <c r="P211" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -41895,7 +41898,7 @@
         <v>222</v>
       </c>
       <c r="P213" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42277,7 +42280,7 @@
         <v>86</v>
       </c>
       <c r="P215" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q215">
         <v>5</v>
@@ -42468,7 +42471,7 @@
         <v>224</v>
       </c>
       <c r="P216" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q216">
         <v>10</v>
@@ -42659,7 +42662,7 @@
         <v>86</v>
       </c>
       <c r="P217" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -42800,6 +42803,388 @@
         <v>14</v>
       </c>
       <c r="BK217">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:63">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>2638209</v>
+      </c>
+      <c r="C218" t="s">
+        <v>63</v>
+      </c>
+      <c r="D218" t="s">
+        <v>64</v>
+      </c>
+      <c r="E218" s="2">
+        <v>44969.58333333334</v>
+      </c>
+      <c r="F218">
+        <v>22</v>
+      </c>
+      <c r="G218" t="s">
+        <v>74</v>
+      </c>
+      <c r="H218" t="s">
+        <v>69</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>1</v>
+      </c>
+      <c r="L218">
+        <v>1</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <v>1</v>
+      </c>
+      <c r="O218" t="s">
+        <v>218</v>
+      </c>
+      <c r="P218" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q218">
+        <v>5</v>
+      </c>
+      <c r="R218">
+        <v>6</v>
+      </c>
+      <c r="S218">
+        <v>11</v>
+      </c>
+      <c r="T218">
+        <v>2.5</v>
+      </c>
+      <c r="U218">
+        <v>2.2</v>
+      </c>
+      <c r="V218">
+        <v>4.75</v>
+      </c>
+      <c r="W218">
+        <v>1.4</v>
+      </c>
+      <c r="X218">
+        <v>2.75</v>
+      </c>
+      <c r="Y218">
+        <v>3</v>
+      </c>
+      <c r="Z218">
+        <v>1.36</v>
+      </c>
+      <c r="AA218">
+        <v>8</v>
+      </c>
+      <c r="AB218">
+        <v>1.08</v>
+      </c>
+      <c r="AC218">
+        <v>4.2</v>
+      </c>
+      <c r="AD218">
+        <v>4.96</v>
+      </c>
+      <c r="AE218">
+        <v>1.58</v>
+      </c>
+      <c r="AF218">
+        <v>1.06</v>
+      </c>
+      <c r="AG218">
+        <v>10</v>
+      </c>
+      <c r="AH218">
+        <v>1.35</v>
+      </c>
+      <c r="AI218">
+        <v>3.25</v>
+      </c>
+      <c r="AJ218">
+        <v>1.96</v>
+      </c>
+      <c r="AK218">
+        <v>1.85</v>
+      </c>
+      <c r="AL218">
+        <v>1.91</v>
+      </c>
+      <c r="AM218">
+        <v>1.91</v>
+      </c>
+      <c r="AN218">
+        <v>1.21</v>
+      </c>
+      <c r="AO218">
+        <v>1.28</v>
+      </c>
+      <c r="AP218">
+        <v>1.93</v>
+      </c>
+      <c r="AQ218">
+        <v>2.18</v>
+      </c>
+      <c r="AR218">
+        <v>0.9</v>
+      </c>
+      <c r="AS218">
+        <v>2.25</v>
+      </c>
+      <c r="AT218">
+        <v>0.82</v>
+      </c>
+      <c r="AU218">
+        <v>1.96</v>
+      </c>
+      <c r="AV218">
+        <v>1.65</v>
+      </c>
+      <c r="AW218">
+        <v>3.61</v>
+      </c>
+      <c r="AX218">
+        <v>1.7</v>
+      </c>
+      <c r="AY218">
+        <v>7.5</v>
+      </c>
+      <c r="AZ218">
+        <v>2.5</v>
+      </c>
+      <c r="BA218">
+        <v>1.38</v>
+      </c>
+      <c r="BB218">
+        <v>1.65</v>
+      </c>
+      <c r="BC218">
+        <v>2.04</v>
+      </c>
+      <c r="BD218">
+        <v>2.63</v>
+      </c>
+      <c r="BE218">
+        <v>3.5</v>
+      </c>
+      <c r="BF218">
+        <v>6</v>
+      </c>
+      <c r="BG218">
+        <v>4</v>
+      </c>
+      <c r="BH218">
+        <v>5</v>
+      </c>
+      <c r="BI218">
+        <v>9</v>
+      </c>
+      <c r="BJ218">
+        <v>11</v>
+      </c>
+      <c r="BK218">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:63">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>2638213</v>
+      </c>
+      <c r="C219" t="s">
+        <v>63</v>
+      </c>
+      <c r="D219" t="s">
+        <v>64</v>
+      </c>
+      <c r="E219" s="2">
+        <v>44969.69791666666</v>
+      </c>
+      <c r="F219">
+        <v>22</v>
+      </c>
+      <c r="G219" t="s">
+        <v>80</v>
+      </c>
+      <c r="H219" t="s">
+        <v>84</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>1</v>
+      </c>
+      <c r="L219">
+        <v>3</v>
+      </c>
+      <c r="M219">
+        <v>0</v>
+      </c>
+      <c r="N219">
+        <v>3</v>
+      </c>
+      <c r="O219" t="s">
+        <v>225</v>
+      </c>
+      <c r="P219" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q219">
+        <v>9</v>
+      </c>
+      <c r="R219">
+        <v>7</v>
+      </c>
+      <c r="S219">
+        <v>16</v>
+      </c>
+      <c r="T219">
+        <v>1.57</v>
+      </c>
+      <c r="U219">
+        <v>2.88</v>
+      </c>
+      <c r="V219">
+        <v>10</v>
+      </c>
+      <c r="W219">
+        <v>1.22</v>
+      </c>
+      <c r="X219">
+        <v>4</v>
+      </c>
+      <c r="Y219">
+        <v>2.1</v>
+      </c>
+      <c r="Z219">
+        <v>1.67</v>
+      </c>
+      <c r="AA219">
+        <v>4.5</v>
+      </c>
+      <c r="AB219">
+        <v>1.18</v>
+      </c>
+      <c r="AC219">
+        <v>1.22</v>
+      </c>
+      <c r="AD219">
+        <v>6.95</v>
+      </c>
+      <c r="AE219">
+        <v>11</v>
+      </c>
+      <c r="AF219">
+        <v>1.01</v>
+      </c>
+      <c r="AG219">
+        <v>23</v>
+      </c>
+      <c r="AH219">
+        <v>1.13</v>
+      </c>
+      <c r="AI219">
+        <v>6</v>
+      </c>
+      <c r="AJ219">
+        <v>1.43</v>
+      </c>
+      <c r="AK219">
+        <v>2.7</v>
+      </c>
+      <c r="AL219">
+        <v>2.05</v>
+      </c>
+      <c r="AM219">
+        <v>1.7</v>
+      </c>
+      <c r="AN219">
+        <v>1.03</v>
+      </c>
+      <c r="AO219">
+        <v>1.1</v>
+      </c>
+      <c r="AP219">
+        <v>4.75</v>
+      </c>
+      <c r="AQ219">
+        <v>2.8</v>
+      </c>
+      <c r="AR219">
+        <v>0.5</v>
+      </c>
+      <c r="AS219">
+        <v>2.82</v>
+      </c>
+      <c r="AT219">
+        <v>0.45</v>
+      </c>
+      <c r="AU219">
+        <v>2.21</v>
+      </c>
+      <c r="AV219">
+        <v>1.65</v>
+      </c>
+      <c r="AW219">
+        <v>3.86</v>
+      </c>
+      <c r="AX219">
+        <v>1.19</v>
+      </c>
+      <c r="AY219">
+        <v>12</v>
+      </c>
+      <c r="AZ219">
+        <v>6.4</v>
+      </c>
+      <c r="BA219">
+        <v>1.3</v>
+      </c>
+      <c r="BB219">
+        <v>1.52</v>
+      </c>
+      <c r="BC219">
+        <v>1.83</v>
+      </c>
+      <c r="BD219">
+        <v>2.28</v>
+      </c>
+      <c r="BE219">
+        <v>2.95</v>
+      </c>
+      <c r="BF219">
+        <v>10</v>
+      </c>
+      <c r="BG219">
+        <v>2</v>
+      </c>
+      <c r="BH219">
+        <v>5</v>
+      </c>
+      <c r="BI219">
+        <v>5</v>
+      </c>
+      <c r="BJ219">
+        <v>15</v>
+      </c>
+      <c r="BK219">
         <v>7</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="326">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -694,6 +694,9 @@
     <t>['21', '65', '79']</t>
   </si>
   <si>
+    <t>['31']</t>
+  </si>
+  <si>
     <t>['2', '45+4']</t>
   </si>
   <si>
@@ -728,9 +731,6 @@
   </si>
   <si>
     <t>['22']</t>
-  </si>
-  <si>
-    <t>['31']</t>
   </si>
   <si>
     <t>['88']</t>
@@ -1353,7 +1353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK219"/>
+  <dimension ref="A1:BK221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1597,7 +1597,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1788,7 +1788,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AT3">
         <v>2</v>
@@ -1979,7 +1979,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -2069,7 +2069,7 @@
         <v>1.09</v>
       </c>
       <c r="AT4">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2361,7 +2361,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q6">
         <v>11</v>
@@ -2552,7 +2552,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -3125,7 +3125,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3212,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT10">
         <v>2.55</v>
@@ -3597,7 +3597,7 @@
         <v>1.36</v>
       </c>
       <c r="AT12">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AT21">
         <v>1.7</v>
@@ -5417,7 +5417,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5698,7 +5698,7 @@
         <v>1.75</v>
       </c>
       <c r="AT23">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU23">
         <v>1.73</v>
@@ -5990,7 +5990,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6372,7 +6372,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6563,7 +6563,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6650,7 +6650,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT28">
         <v>2</v>
@@ -6945,7 +6945,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -8178,7 +8178,7 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AT36">
         <v>1.8</v>
@@ -8473,7 +8473,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8945,7 +8945,7 @@
         <v>1.58</v>
       </c>
       <c r="AT40">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU40">
         <v>1.94</v>
@@ -9518,7 +9518,7 @@
         <v>2.27</v>
       </c>
       <c r="AT43">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU43">
         <v>2.01</v>
@@ -10279,7 +10279,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT47">
         <v>0.73</v>
@@ -11616,7 +11616,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AT54">
         <v>1.45</v>
@@ -12765,7 +12765,7 @@
         <v>2.25</v>
       </c>
       <c r="AT60">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU60">
         <v>1.64</v>
@@ -13911,7 +13911,7 @@
         <v>1.36</v>
       </c>
       <c r="AT66">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU66">
         <v>1.45</v>
@@ -16009,7 +16009,7 @@
         <v>0.33</v>
       </c>
       <c r="AS77">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AT77">
         <v>1.27</v>
@@ -16203,7 +16203,7 @@
         <v>1.4</v>
       </c>
       <c r="AT78">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU78">
         <v>1.04</v>
@@ -16773,7 +16773,7 @@
         <v>2</v>
       </c>
       <c r="AS81">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT81">
         <v>1.36</v>
@@ -16967,7 +16967,7 @@
         <v>1.4</v>
       </c>
       <c r="AT82">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU82">
         <v>1.31</v>
@@ -19450,7 +19450,7 @@
         <v>2.45</v>
       </c>
       <c r="AT95">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU95">
         <v>1.95</v>
@@ -20211,7 +20211,7 @@
         <v>2</v>
       </c>
       <c r="AS99">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT99">
         <v>1.45</v>
@@ -20402,7 +20402,7 @@
         <v>2</v>
       </c>
       <c r="AS100">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AT100">
         <v>1.83</v>
@@ -21360,7 +21360,7 @@
         <v>1.36</v>
       </c>
       <c r="AT105">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU105">
         <v>2.27</v>
@@ -23843,7 +23843,7 @@
         <v>1.75</v>
       </c>
       <c r="AT118">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU118">
         <v>1.46</v>
@@ -24222,7 +24222,7 @@
         <v>2.17</v>
       </c>
       <c r="AS120">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT120">
         <v>1.83</v>
@@ -25750,7 +25750,7 @@
         <v>0.83</v>
       </c>
       <c r="AS128">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AT128">
         <v>0.82</v>
@@ -26326,7 +26326,7 @@
         <v>2.25</v>
       </c>
       <c r="AT131">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU131">
         <v>1.98</v>
@@ -27573,7 +27573,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -27854,7 +27854,7 @@
         <v>1.36</v>
       </c>
       <c r="AT139">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU139">
         <v>2.15</v>
@@ -28042,7 +28042,7 @@
         <v>1.33</v>
       </c>
       <c r="AS140">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT140">
         <v>1.7</v>
@@ -28806,7 +28806,7 @@
         <v>0.71</v>
       </c>
       <c r="AS144">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AT144">
         <v>1.09</v>
@@ -29191,7 +29191,7 @@
         <v>1.7</v>
       </c>
       <c r="AT146">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU146">
         <v>1.59</v>
@@ -29379,7 +29379,7 @@
         <v>0</v>
       </c>
       <c r="AS147">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT147">
         <v>0.64</v>
@@ -29573,7 +29573,7 @@
         <v>1.36</v>
       </c>
       <c r="AT148">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU148">
         <v>1.43</v>
@@ -32629,7 +32629,7 @@
         <v>1.36</v>
       </c>
       <c r="AT164">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU164">
         <v>1.54</v>
@@ -33390,7 +33390,7 @@
         <v>2.38</v>
       </c>
       <c r="AS168">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AT168">
         <v>2.55</v>
@@ -33772,7 +33772,7 @@
         <v>0.5</v>
       </c>
       <c r="AS170">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT170">
         <v>0.45</v>
@@ -35494,7 +35494,7 @@
         <v>1.7</v>
       </c>
       <c r="AT179">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU179">
         <v>1.64</v>
@@ -36064,7 +36064,7 @@
         <v>1</v>
       </c>
       <c r="AS182">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT182">
         <v>1.09</v>
@@ -36637,7 +36637,7 @@
         <v>1.33</v>
       </c>
       <c r="AS185">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AT185">
         <v>1.36</v>
@@ -37314,7 +37314,7 @@
         <v>131</v>
       </c>
       <c r="P189" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -38168,7 +38168,7 @@
         <v>1.09</v>
       </c>
       <c r="AT193">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU193">
         <v>1.34</v>
@@ -38550,7 +38550,7 @@
         <v>0.27</v>
       </c>
       <c r="AT195">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU195">
         <v>1.58</v>
@@ -41221,7 +41221,7 @@
         <v>1.89</v>
       </c>
       <c r="AS209">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT209">
         <v>1.8</v>
@@ -43186,6 +43186,388 @@
       </c>
       <c r="BK219">
         <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:63">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>2638208</v>
+      </c>
+      <c r="C220" t="s">
+        <v>63</v>
+      </c>
+      <c r="D220" t="s">
+        <v>64</v>
+      </c>
+      <c r="E220" s="2">
+        <v>44970.60416666666</v>
+      </c>
+      <c r="F220">
+        <v>22</v>
+      </c>
+      <c r="G220" t="s">
+        <v>73</v>
+      </c>
+      <c r="H220" t="s">
+        <v>71</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>1</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <v>1</v>
+      </c>
+      <c r="O220" t="s">
+        <v>226</v>
+      </c>
+      <c r="P220" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q220">
+        <v>5</v>
+      </c>
+      <c r="R220">
+        <v>1</v>
+      </c>
+      <c r="S220">
+        <v>6</v>
+      </c>
+      <c r="T220">
+        <v>2.5</v>
+      </c>
+      <c r="U220">
+        <v>2.2</v>
+      </c>
+      <c r="V220">
+        <v>4.75</v>
+      </c>
+      <c r="W220">
+        <v>1.4</v>
+      </c>
+      <c r="X220">
+        <v>2.75</v>
+      </c>
+      <c r="Y220">
+        <v>3</v>
+      </c>
+      <c r="Z220">
+        <v>1.36</v>
+      </c>
+      <c r="AA220">
+        <v>8</v>
+      </c>
+      <c r="AB220">
+        <v>1.08</v>
+      </c>
+      <c r="AC220">
+        <v>1.97</v>
+      </c>
+      <c r="AD220">
+        <v>2.99</v>
+      </c>
+      <c r="AE220">
+        <v>4.65</v>
+      </c>
+      <c r="AF220">
+        <v>1.06</v>
+      </c>
+      <c r="AG220">
+        <v>8.5</v>
+      </c>
+      <c r="AH220">
+        <v>1.33</v>
+      </c>
+      <c r="AI220">
+        <v>3.25</v>
+      </c>
+      <c r="AJ220">
+        <v>1.97</v>
+      </c>
+      <c r="AK220">
+        <v>1.84</v>
+      </c>
+      <c r="AL220">
+        <v>1.91</v>
+      </c>
+      <c r="AM220">
+        <v>1.91</v>
+      </c>
+      <c r="AN220">
+        <v>1.21</v>
+      </c>
+      <c r="AO220">
+        <v>1.3</v>
+      </c>
+      <c r="AP220">
+        <v>1.9</v>
+      </c>
+      <c r="AQ220">
+        <v>0.91</v>
+      </c>
+      <c r="AR220">
+        <v>0.9</v>
+      </c>
+      <c r="AS220">
+        <v>1.08</v>
+      </c>
+      <c r="AT220">
+        <v>0.82</v>
+      </c>
+      <c r="AU220">
+        <v>1.49</v>
+      </c>
+      <c r="AV220">
+        <v>1.22</v>
+      </c>
+      <c r="AW220">
+        <v>2.71</v>
+      </c>
+      <c r="AX220">
+        <v>1.56</v>
+      </c>
+      <c r="AY220">
+        <v>8</v>
+      </c>
+      <c r="AZ220">
+        <v>2.9</v>
+      </c>
+      <c r="BA220">
+        <v>1.26</v>
+      </c>
+      <c r="BB220">
+        <v>1.51</v>
+      </c>
+      <c r="BC220">
+        <v>1.91</v>
+      </c>
+      <c r="BD220">
+        <v>2.47</v>
+      </c>
+      <c r="BE220">
+        <v>3.34</v>
+      </c>
+      <c r="BF220">
+        <v>8</v>
+      </c>
+      <c r="BG220">
+        <v>4</v>
+      </c>
+      <c r="BH220">
+        <v>9</v>
+      </c>
+      <c r="BI220">
+        <v>6</v>
+      </c>
+      <c r="BJ220">
+        <v>17</v>
+      </c>
+      <c r="BK220">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:63">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>2638214</v>
+      </c>
+      <c r="C221" t="s">
+        <v>63</v>
+      </c>
+      <c r="D221" t="s">
+        <v>64</v>
+      </c>
+      <c r="E221" s="2">
+        <v>44970.69791666666</v>
+      </c>
+      <c r="F221">
+        <v>22</v>
+      </c>
+      <c r="G221" t="s">
+        <v>66</v>
+      </c>
+      <c r="H221" t="s">
+        <v>77</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>0</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>0</v>
+      </c>
+      <c r="O221" t="s">
+        <v>86</v>
+      </c>
+      <c r="P221" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q221">
+        <v>3</v>
+      </c>
+      <c r="R221">
+        <v>7</v>
+      </c>
+      <c r="S221">
+        <v>10</v>
+      </c>
+      <c r="T221">
+        <v>7</v>
+      </c>
+      <c r="U221">
+        <v>2.3</v>
+      </c>
+      <c r="V221">
+        <v>1.95</v>
+      </c>
+      <c r="W221">
+        <v>1.36</v>
+      </c>
+      <c r="X221">
+        <v>3</v>
+      </c>
+      <c r="Y221">
+        <v>2.63</v>
+      </c>
+      <c r="Z221">
+        <v>1.44</v>
+      </c>
+      <c r="AA221">
+        <v>7</v>
+      </c>
+      <c r="AB221">
+        <v>1.1</v>
+      </c>
+      <c r="AC221">
+        <v>6.91</v>
+      </c>
+      <c r="AD221">
+        <v>4.56</v>
+      </c>
+      <c r="AE221">
+        <v>1.44</v>
+      </c>
+      <c r="AF221">
+        <v>1.04</v>
+      </c>
+      <c r="AG221">
+        <v>10</v>
+      </c>
+      <c r="AH221">
+        <v>1.29</v>
+      </c>
+      <c r="AI221">
+        <v>3.6</v>
+      </c>
+      <c r="AJ221">
+        <v>1.83</v>
+      </c>
+      <c r="AK221">
+        <v>2</v>
+      </c>
+      <c r="AL221">
+        <v>2.05</v>
+      </c>
+      <c r="AM221">
+        <v>1.7</v>
+      </c>
+      <c r="AN221">
+        <v>2.65</v>
+      </c>
+      <c r="AO221">
+        <v>1.2</v>
+      </c>
+      <c r="AP221">
+        <v>1.1</v>
+      </c>
+      <c r="AQ221">
+        <v>0.2</v>
+      </c>
+      <c r="AR221">
+        <v>1.6</v>
+      </c>
+      <c r="AS221">
+        <v>0.27</v>
+      </c>
+      <c r="AT221">
+        <v>1.55</v>
+      </c>
+      <c r="AU221">
+        <v>1.12</v>
+      </c>
+      <c r="AV221">
+        <v>1.94</v>
+      </c>
+      <c r="AW221">
+        <v>3.06</v>
+      </c>
+      <c r="AX221">
+        <v>3.7</v>
+      </c>
+      <c r="AY221">
+        <v>8.5</v>
+      </c>
+      <c r="AZ221">
+        <v>1.4</v>
+      </c>
+      <c r="BA221">
+        <v>1.28</v>
+      </c>
+      <c r="BB221">
+        <v>1.54</v>
+      </c>
+      <c r="BC221">
+        <v>1.95</v>
+      </c>
+      <c r="BD221">
+        <v>2.56</v>
+      </c>
+      <c r="BE221">
+        <v>3.42</v>
+      </c>
+      <c r="BF221">
+        <v>2</v>
+      </c>
+      <c r="BG221">
+        <v>3</v>
+      </c>
+      <c r="BH221">
+        <v>0</v>
+      </c>
+      <c r="BI221">
+        <v>6</v>
+      </c>
+      <c r="BJ221">
+        <v>2</v>
+      </c>
+      <c r="BK221">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="327">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -993,6 +993,9 @@
   <si>
     <t>['25']</t>
   </si>
+  <si>
+    <t>['12', '33']</t>
+  </si>
 </sst>
 </file>
 
@@ -1353,7 +1356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK221"/>
+  <dimension ref="A1:BK222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3215,7 +3218,7 @@
         <v>1.08</v>
       </c>
       <c r="AT10">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -4167,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT15">
         <v>1.09</v>
@@ -7226,7 +7229,7 @@
         <v>1.36</v>
       </c>
       <c r="AT31">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU31">
         <v>3.06</v>
@@ -7414,7 +7417,7 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT32">
         <v>1.45</v>
@@ -9709,7 +9712,7 @@
         <v>1.75</v>
       </c>
       <c r="AT44">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU44">
         <v>1.63</v>
@@ -12380,7 +12383,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT58">
         <v>1.36</v>
@@ -14866,7 +14869,7 @@
         <v>2.27</v>
       </c>
       <c r="AT71">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU71">
         <v>2.01</v>
@@ -16200,7 +16203,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT78">
         <v>0.82</v>
@@ -16964,7 +16967,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT82">
         <v>1.55</v>
@@ -18304,7 +18307,7 @@
         <v>0.27</v>
       </c>
       <c r="AT89">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU89">
         <v>1.62</v>
@@ -22124,7 +22127,7 @@
         <v>1.9</v>
       </c>
       <c r="AT109">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU109">
         <v>2.3</v>
@@ -22503,7 +22506,7 @@
         <v>0.4</v>
       </c>
       <c r="AS111">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT111">
         <v>0.4</v>
@@ -25180,7 +25183,7 @@
         <v>1.7</v>
       </c>
       <c r="AT125">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU125">
         <v>1.51</v>
@@ -27087,7 +27090,7 @@
         <v>2.29</v>
       </c>
       <c r="AS135">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT135">
         <v>1.83</v>
@@ -30525,7 +30528,7 @@
         <v>0.57</v>
       </c>
       <c r="AS153">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT153">
         <v>0.73</v>
@@ -31865,7 +31868,7 @@
         <v>2.45</v>
       </c>
       <c r="AT160">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU160">
         <v>1.92</v>
@@ -33393,7 +33396,7 @@
         <v>0.27</v>
       </c>
       <c r="AT168">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU168">
         <v>1.22</v>
@@ -34918,7 +34921,7 @@
         <v>1.75</v>
       </c>
       <c r="AS176">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT176">
         <v>1.8</v>
@@ -36258,7 +36261,7 @@
         <v>1.09</v>
       </c>
       <c r="AT183">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU183">
         <v>1.49</v>
@@ -40266,7 +40269,7 @@
         <v>2.1</v>
       </c>
       <c r="AS204">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT204">
         <v>2</v>
@@ -40460,7 +40463,7 @@
         <v>1.09</v>
       </c>
       <c r="AT205">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU205">
         <v>1.5</v>
@@ -43568,6 +43571,197 @@
       </c>
       <c r="BK221">
         <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:63">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>2638223</v>
+      </c>
+      <c r="C222" t="s">
+        <v>63</v>
+      </c>
+      <c r="D222" t="s">
+        <v>64</v>
+      </c>
+      <c r="E222" s="2">
+        <v>44974.69791666666</v>
+      </c>
+      <c r="F222">
+        <v>23</v>
+      </c>
+      <c r="G222" t="s">
+        <v>78</v>
+      </c>
+      <c r="H222" t="s">
+        <v>80</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>2</v>
+      </c>
+      <c r="K222">
+        <v>2</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>2</v>
+      </c>
+      <c r="N222">
+        <v>2</v>
+      </c>
+      <c r="O222" t="s">
+        <v>86</v>
+      </c>
+      <c r="P222" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q222">
+        <v>1</v>
+      </c>
+      <c r="R222">
+        <v>3</v>
+      </c>
+      <c r="S222">
+        <v>4</v>
+      </c>
+      <c r="T222">
+        <v>5.5</v>
+      </c>
+      <c r="U222">
+        <v>2.4</v>
+      </c>
+      <c r="V222">
+        <v>2.1</v>
+      </c>
+      <c r="W222">
+        <v>1.3</v>
+      </c>
+      <c r="X222">
+        <v>3.4</v>
+      </c>
+      <c r="Y222">
+        <v>2.5</v>
+      </c>
+      <c r="Z222">
+        <v>1.5</v>
+      </c>
+      <c r="AA222">
+        <v>6</v>
+      </c>
+      <c r="AB222">
+        <v>1.13</v>
+      </c>
+      <c r="AC222">
+        <v>6</v>
+      </c>
+      <c r="AD222">
+        <v>4.6</v>
+      </c>
+      <c r="AE222">
+        <v>1.58</v>
+      </c>
+      <c r="AF222">
+        <v>1.02</v>
+      </c>
+      <c r="AG222">
+        <v>12</v>
+      </c>
+      <c r="AH222">
+        <v>1.18</v>
+      </c>
+      <c r="AI222">
+        <v>4.5</v>
+      </c>
+      <c r="AJ222">
+        <v>1.6</v>
+      </c>
+      <c r="AK222">
+        <v>2.2</v>
+      </c>
+      <c r="AL222">
+        <v>1.75</v>
+      </c>
+      <c r="AM222">
+        <v>2</v>
+      </c>
+      <c r="AN222">
+        <v>2.4</v>
+      </c>
+      <c r="AO222">
+        <v>1.22</v>
+      </c>
+      <c r="AP222">
+        <v>1.15</v>
+      </c>
+      <c r="AQ222">
+        <v>1.4</v>
+      </c>
+      <c r="AR222">
+        <v>2.55</v>
+      </c>
+      <c r="AS222">
+        <v>1.27</v>
+      </c>
+      <c r="AT222">
+        <v>2.58</v>
+      </c>
+      <c r="AU222">
+        <v>1.54</v>
+      </c>
+      <c r="AV222">
+        <v>1.77</v>
+      </c>
+      <c r="AW222">
+        <v>3.31</v>
+      </c>
+      <c r="AX222">
+        <v>3.05</v>
+      </c>
+      <c r="AY222">
+        <v>8</v>
+      </c>
+      <c r="AZ222">
+        <v>1.5</v>
+      </c>
+      <c r="BA222">
+        <v>1.33</v>
+      </c>
+      <c r="BB222">
+        <v>1.55</v>
+      </c>
+      <c r="BC222">
+        <v>1.88</v>
+      </c>
+      <c r="BD222">
+        <v>2.35</v>
+      </c>
+      <c r="BE222">
+        <v>3.1</v>
+      </c>
+      <c r="BF222">
+        <v>3</v>
+      </c>
+      <c r="BG222">
+        <v>5</v>
+      </c>
+      <c r="BH222">
+        <v>6</v>
+      </c>
+      <c r="BI222">
+        <v>8</v>
+      </c>
+      <c r="BJ222">
+        <v>9</v>
+      </c>
+      <c r="BK222">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="335">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -697,6 +697,18 @@
     <t>['31']</t>
   </si>
   <si>
+    <t>['20', '73', '89']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['41', '79']</t>
+  </si>
+  <si>
     <t>['2', '45+4']</t>
   </si>
   <si>
@@ -895,9 +907,6 @@
     <t>['77', '90+2']</t>
   </si>
   <si>
-    <t>['45']</t>
-  </si>
-  <si>
     <t>['14']</t>
   </si>
   <si>
@@ -995,6 +1004,21 @@
   </si>
   <si>
     <t>['12', '33']</t>
+  </si>
+  <si>
+    <t>['27', '90']</t>
+  </si>
+  <si>
+    <t>['4', '74']</t>
+  </si>
+  <si>
+    <t>['60', '69']</t>
+  </si>
+  <si>
+    <t>['32', '66']</t>
+  </si>
+  <si>
+    <t>['54', '74']</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK222"/>
+  <dimension ref="A1:BK231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1600,7 +1624,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1690,7 +1714,7 @@
         <v>2.27</v>
       </c>
       <c r="AT2">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1791,7 +1815,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1878,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AT3">
         <v>2</v>
@@ -1982,7 +2006,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -2173,7 +2197,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2260,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT5">
         <v>1.25</v>
@@ -2364,7 +2388,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q6">
         <v>11</v>
@@ -2451,10 +2475,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT6">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2555,7 +2579,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2645,7 +2669,7 @@
         <v>1.75</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2833,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT8">
         <v>1.83</v>
@@ -3024,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT9">
         <v>1</v>
@@ -3128,7 +3152,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3788,10 +3812,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT13">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3979,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT14">
         <v>0.64</v>
@@ -4173,7 +4197,7 @@
         <v>1.27</v>
       </c>
       <c r="AT15">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4743,10 +4767,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT18">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4937,7 +4961,7 @@
         <v>1.58</v>
       </c>
       <c r="AT19">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5125,10 +5149,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT20">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5316,10 +5340,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AT21">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU21">
         <v>1.41</v>
@@ -5420,7 +5444,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5507,10 +5531,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT22">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU22">
         <v>1.61</v>
@@ -5993,7 +6017,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6274,7 +6298,7 @@
         <v>2.27</v>
       </c>
       <c r="AT26">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU26">
         <v>1.74</v>
@@ -6375,7 +6399,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6462,7 +6486,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT27">
         <v>0.83</v>
@@ -6566,7 +6590,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6844,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT29">
         <v>0.73</v>
@@ -6948,7 +6972,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7226,7 +7250,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT31">
         <v>2.58</v>
@@ -7420,7 +7444,7 @@
         <v>1.27</v>
       </c>
       <c r="AT32">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU32">
         <v>1.42</v>
@@ -7608,10 +7632,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT33">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU33">
         <v>2.44</v>
@@ -7799,7 +7823,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT34">
         <v>1.27</v>
@@ -8181,10 +8205,10 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AT36">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU36">
         <v>1.22</v>
@@ -8375,7 +8399,7 @@
         <v>1.45</v>
       </c>
       <c r="AT37">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU37">
         <v>0.67</v>
@@ -8566,7 +8590,7 @@
         <v>2.82</v>
       </c>
       <c r="AT38">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU38">
         <v>2.3</v>
@@ -8858,7 +8882,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -9049,7 +9073,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9136,7 +9160,7 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT41">
         <v>1.25</v>
@@ -9240,7 +9264,7 @@
         <v>97</v>
       </c>
       <c r="P42" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -9327,10 +9351,10 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT42">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU42">
         <v>2.22</v>
@@ -9431,7 +9455,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9622,7 +9646,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10004,7 +10028,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -10091,10 +10115,10 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT46">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU46">
         <v>1.12</v>
@@ -10577,7 +10601,7 @@
         <v>86</v>
       </c>
       <c r="P49" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10664,7 +10688,7 @@
         <v>3</v>
       </c>
       <c r="AS49">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT49">
         <v>2</v>
@@ -10768,7 +10792,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10855,7 +10879,7 @@
         <v>0.5</v>
       </c>
       <c r="AS50">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT50">
         <v>1</v>
@@ -11046,10 +11070,10 @@
         <v>0.5</v>
       </c>
       <c r="AS51">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT51">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU51">
         <v>1.16</v>
@@ -11428,7 +11452,7 @@
         <v>2</v>
       </c>
       <c r="AS53">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT53">
         <v>1.25</v>
@@ -11532,7 +11556,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -11619,10 +11643,10 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AT54">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU54">
         <v>1.28</v>
@@ -11723,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11810,10 +11834,10 @@
         <v>0</v>
       </c>
       <c r="AS55">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT55">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU55">
         <v>1.36</v>
@@ -11914,7 +11938,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12296,7 +12320,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12386,7 +12410,7 @@
         <v>1.27</v>
       </c>
       <c r="AT58">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU58">
         <v>1.19</v>
@@ -12577,7 +12601,7 @@
         <v>1.75</v>
       </c>
       <c r="AT59">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU59">
         <v>1.41</v>
@@ -12678,7 +12702,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -12869,7 +12893,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13060,7 +13084,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13147,10 +13171,10 @@
         <v>0.33</v>
       </c>
       <c r="AS62">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT62">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU62">
         <v>1.66</v>
@@ -13251,7 +13275,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13529,7 +13553,7 @@
         <v>0</v>
       </c>
       <c r="AS64">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT64">
         <v>0.73</v>
@@ -13633,7 +13657,7 @@
         <v>86</v>
       </c>
       <c r="P65" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13720,7 +13744,7 @@
         <v>0.67</v>
       </c>
       <c r="AS65">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT65">
         <v>0.83</v>
@@ -13824,7 +13848,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -14102,10 +14126,10 @@
         <v>0.67</v>
       </c>
       <c r="AS67">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT67">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU67">
         <v>2.32</v>
@@ -14293,10 +14317,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT68">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU68">
         <v>1.45</v>
@@ -14397,7 +14421,7 @@
         <v>86</v>
       </c>
       <c r="P69" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14487,7 +14511,7 @@
         <v>0.27</v>
       </c>
       <c r="AT69">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU69">
         <v>1.53</v>
@@ -14675,7 +14699,7 @@
         <v>3</v>
       </c>
       <c r="AS70">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT70">
         <v>2</v>
@@ -14779,7 +14803,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -14970,7 +14994,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15161,7 +15185,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15248,7 +15272,7 @@
         <v>1.75</v>
       </c>
       <c r="AS73">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT73">
         <v>1.83</v>
@@ -15352,7 +15376,7 @@
         <v>111</v>
       </c>
       <c r="P74" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15442,7 +15466,7 @@
         <v>1.45</v>
       </c>
       <c r="AT74">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU74">
         <v>1.52</v>
@@ -15824,7 +15848,7 @@
         <v>1.09</v>
       </c>
       <c r="AT76">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU76">
         <v>1.45</v>
@@ -15925,7 +15949,7 @@
         <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -16012,7 +16036,7 @@
         <v>0.33</v>
       </c>
       <c r="AS77">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AT77">
         <v>1.27</v>
@@ -16394,7 +16418,7 @@
         <v>0.33</v>
       </c>
       <c r="AS79">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT79">
         <v>0.82</v>
@@ -16588,7 +16612,7 @@
         <v>2.25</v>
       </c>
       <c r="AT80">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU80">
         <v>1.82</v>
@@ -16689,7 +16713,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16779,7 +16803,7 @@
         <v>1.08</v>
       </c>
       <c r="AT81">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU81">
         <v>1.47</v>
@@ -16880,7 +16904,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17161,7 +17185,7 @@
         <v>2.27</v>
       </c>
       <c r="AT83">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU83">
         <v>2.05</v>
@@ -17262,7 +17286,7 @@
         <v>100</v>
       </c>
       <c r="P84" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17540,7 +17564,7 @@
         <v>1.25</v>
       </c>
       <c r="AS85">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT85">
         <v>1</v>
@@ -17644,7 +17668,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17922,10 +17946,10 @@
         <v>0.5</v>
       </c>
       <c r="AS87">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT87">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU87">
         <v>1.68</v>
@@ -18113,7 +18137,7 @@
         <v>0</v>
       </c>
       <c r="AS88">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT88">
         <v>0.64</v>
@@ -18217,7 +18241,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18495,10 +18519,10 @@
         <v>1</v>
       </c>
       <c r="AS90">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT90">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU90">
         <v>2.23</v>
@@ -18599,7 +18623,7 @@
         <v>86</v>
       </c>
       <c r="P91" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18686,10 +18710,10 @@
         <v>1.67</v>
       </c>
       <c r="AS91">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT91">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU91">
         <v>2.24</v>
@@ -19068,10 +19092,10 @@
         <v>0.5</v>
       </c>
       <c r="AS93">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT93">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU93">
         <v>1.49</v>
@@ -19259,7 +19283,7 @@
         <v>1.25</v>
       </c>
       <c r="AS94">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT94">
         <v>0.83</v>
@@ -19450,7 +19474,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT95">
         <v>0.82</v>
@@ -19554,7 +19578,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19641,10 +19665,10 @@
         <v>0.4</v>
       </c>
       <c r="AS96">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT96">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU96">
         <v>1.39</v>
@@ -19835,7 +19859,7 @@
         <v>1.75</v>
       </c>
       <c r="AT97">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU97">
         <v>1.53</v>
@@ -19936,7 +19960,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20026,7 +20050,7 @@
         <v>2.82</v>
       </c>
       <c r="AT98">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU98">
         <v>2.36</v>
@@ -20127,7 +20151,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q99">
         <v>9</v>
@@ -20217,7 +20241,7 @@
         <v>1.08</v>
       </c>
       <c r="AT99">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU99">
         <v>1.33</v>
@@ -20318,7 +20342,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20405,7 +20429,7 @@
         <v>2</v>
       </c>
       <c r="AS100">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AT100">
         <v>1.83</v>
@@ -20978,7 +21002,7 @@
         <v>0</v>
       </c>
       <c r="AS103">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT103">
         <v>0.64</v>
@@ -21273,7 +21297,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21360,7 +21384,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT105">
         <v>1.55</v>
@@ -21464,7 +21488,7 @@
         <v>112</v>
       </c>
       <c r="P106" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21745,7 +21769,7 @@
         <v>1.58</v>
       </c>
       <c r="AT107">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU107">
         <v>1.57</v>
@@ -21846,7 +21870,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -21933,10 +21957,10 @@
         <v>2</v>
       </c>
       <c r="AS108">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT108">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU108">
         <v>1.62</v>
@@ -22124,7 +22148,7 @@
         <v>2.6</v>
       </c>
       <c r="AS109">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT109">
         <v>2.58</v>
@@ -22228,7 +22252,7 @@
         <v>86</v>
       </c>
       <c r="P110" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22509,7 +22533,7 @@
         <v>1.27</v>
       </c>
       <c r="AT111">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU111">
         <v>1.38</v>
@@ -22801,7 +22825,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q113">
         <v>7</v>
@@ -22891,7 +22915,7 @@
         <v>1.09</v>
       </c>
       <c r="AT113">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU113">
         <v>1.25</v>
@@ -23079,7 +23103,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT114">
         <v>0.73</v>
@@ -23183,7 +23207,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23374,7 +23398,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -23461,7 +23485,7 @@
         <v>0.4</v>
       </c>
       <c r="AS116">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT116">
         <v>0.82</v>
@@ -23655,7 +23679,7 @@
         <v>0.27</v>
       </c>
       <c r="AT117">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU117">
         <v>1.68</v>
@@ -23756,7 +23780,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23947,7 +23971,7 @@
         <v>167</v>
       </c>
       <c r="P119" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24034,10 +24058,10 @@
         <v>2.2</v>
       </c>
       <c r="AS119">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT119">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU119">
         <v>1.52</v>
@@ -24138,7 +24162,7 @@
         <v>112</v>
       </c>
       <c r="P120" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24329,7 +24353,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24416,10 +24440,10 @@
         <v>0.2</v>
       </c>
       <c r="AS121">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT121">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU121">
         <v>1.47</v>
@@ -24610,7 +24634,7 @@
         <v>1.36</v>
       </c>
       <c r="AT122">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU122">
         <v>1.61</v>
@@ -24711,7 +24735,7 @@
         <v>169</v>
       </c>
       <c r="P123" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q123">
         <v>2</v>
@@ -24798,10 +24822,10 @@
         <v>0.5</v>
       </c>
       <c r="AS123">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT123">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU123">
         <v>1.63</v>
@@ -25093,7 +25117,7 @@
         <v>157</v>
       </c>
       <c r="P125" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25180,7 +25204,7 @@
         <v>2.67</v>
       </c>
       <c r="AS125">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT125">
         <v>2.58</v>
@@ -25666,7 +25690,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25753,7 +25777,7 @@
         <v>0.83</v>
       </c>
       <c r="AS128">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AT128">
         <v>0.82</v>
@@ -25944,10 +25968,10 @@
         <v>0.33</v>
       </c>
       <c r="AS129">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT129">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU129">
         <v>1.43</v>
@@ -26135,10 +26159,10 @@
         <v>2.2</v>
       </c>
       <c r="AS130">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT130">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU130">
         <v>1.97</v>
@@ -26517,10 +26541,10 @@
         <v>1.83</v>
       </c>
       <c r="AS132">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT132">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU132">
         <v>1.55</v>
@@ -26902,7 +26926,7 @@
         <v>0.27</v>
       </c>
       <c r="AT134">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU134">
         <v>1.66</v>
@@ -27472,7 +27496,7 @@
         <v>0.67</v>
       </c>
       <c r="AS137">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT137">
         <v>0.73</v>
@@ -27576,7 +27600,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -27663,10 +27687,10 @@
         <v>0.67</v>
       </c>
       <c r="AS138">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT138">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU138">
         <v>1.94</v>
@@ -27854,7 +27878,7 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT139">
         <v>0.82</v>
@@ -28048,7 +28072,7 @@
         <v>1.08</v>
       </c>
       <c r="AT140">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU140">
         <v>1.37</v>
@@ -28430,7 +28454,7 @@
         <v>1.45</v>
       </c>
       <c r="AT142">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU142">
         <v>1.6</v>
@@ -28531,7 +28555,7 @@
         <v>182</v>
       </c>
       <c r="P143" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28621,7 +28645,7 @@
         <v>2.82</v>
       </c>
       <c r="AT143">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU143">
         <v>2.45</v>
@@ -28722,7 +28746,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q144">
         <v>9</v>
@@ -28809,10 +28833,10 @@
         <v>0.71</v>
       </c>
       <c r="AS144">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AT144">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU144">
         <v>1.17</v>
@@ -29104,7 +29128,7 @@
         <v>184</v>
       </c>
       <c r="P146" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29191,7 +29215,7 @@
         <v>1.29</v>
       </c>
       <c r="AS146">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT146">
         <v>1.55</v>
@@ -29295,7 +29319,7 @@
         <v>137</v>
       </c>
       <c r="P147" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29573,7 +29597,7 @@
         <v>0.86</v>
       </c>
       <c r="AS148">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT148">
         <v>0.82</v>
@@ -29764,7 +29788,7 @@
         <v>1.29</v>
       </c>
       <c r="AS149">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT149">
         <v>1.25</v>
@@ -29868,7 +29892,7 @@
         <v>186</v>
       </c>
       <c r="P150" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -30149,7 +30173,7 @@
         <v>2.25</v>
       </c>
       <c r="AT151">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU151">
         <v>1.89</v>
@@ -30250,7 +30274,7 @@
         <v>188</v>
       </c>
       <c r="P152" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -30337,10 +30361,10 @@
         <v>1.71</v>
       </c>
       <c r="AS152">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT152">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU152">
         <v>1.58</v>
@@ -30441,7 +30465,7 @@
         <v>170</v>
       </c>
       <c r="P153" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q153">
         <v>9</v>
@@ -30632,7 +30656,7 @@
         <v>189</v>
       </c>
       <c r="P154" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30719,7 +30743,7 @@
         <v>2.29</v>
       </c>
       <c r="AS154">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT154">
         <v>2</v>
@@ -30823,7 +30847,7 @@
         <v>170</v>
       </c>
       <c r="P155" t="s">
-        <v>293</v>
+        <v>229</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -30910,10 +30934,10 @@
         <v>0.29</v>
       </c>
       <c r="AS155">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT155">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU155">
         <v>1.43</v>
@@ -31014,7 +31038,7 @@
         <v>190</v>
       </c>
       <c r="P156" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -31104,7 +31128,7 @@
         <v>1.09</v>
       </c>
       <c r="AT156">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU156">
         <v>1.24</v>
@@ -31292,10 +31316,10 @@
         <v>0.57</v>
       </c>
       <c r="AS157">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT157">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU157">
         <v>1.81</v>
@@ -31396,7 +31420,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31486,7 +31510,7 @@
         <v>0.27</v>
       </c>
       <c r="AT158">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU158">
         <v>1.54</v>
@@ -31587,7 +31611,7 @@
         <v>157</v>
       </c>
       <c r="P159" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -31674,7 +31698,7 @@
         <v>0.57</v>
       </c>
       <c r="AS159">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT159">
         <v>1.27</v>
@@ -31865,7 +31889,7 @@
         <v>2.71</v>
       </c>
       <c r="AS160">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT160">
         <v>2.58</v>
@@ -32247,7 +32271,7 @@
         <v>0.63</v>
       </c>
       <c r="AS162">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT162">
         <v>0.83</v>
@@ -32441,7 +32465,7 @@
         <v>2.25</v>
       </c>
       <c r="AT163">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU163">
         <v>1.89</v>
@@ -32542,7 +32566,7 @@
         <v>196</v>
       </c>
       <c r="P164" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q164">
         <v>3</v>
@@ -32629,7 +32653,7 @@
         <v>1.5</v>
       </c>
       <c r="AS164">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT164">
         <v>1.55</v>
@@ -32820,7 +32844,7 @@
         <v>1.25</v>
       </c>
       <c r="AS165">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT165">
         <v>1.25</v>
@@ -33011,10 +33035,10 @@
         <v>1</v>
       </c>
       <c r="AS166">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT166">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU166">
         <v>1.58</v>
@@ -33115,7 +33139,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q167">
         <v>10</v>
@@ -33306,7 +33330,7 @@
         <v>86</v>
       </c>
       <c r="P168" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33393,7 +33417,7 @@
         <v>2.38</v>
       </c>
       <c r="AS168">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AT168">
         <v>2.58</v>
@@ -33497,7 +33521,7 @@
         <v>199</v>
       </c>
       <c r="P169" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33778,7 +33802,7 @@
         <v>1.08</v>
       </c>
       <c r="AT170">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU170">
         <v>1.49</v>
@@ -33879,7 +33903,7 @@
         <v>191</v>
       </c>
       <c r="P171" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -34160,7 +34184,7 @@
         <v>2.82</v>
       </c>
       <c r="AT172">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU172">
         <v>2.35</v>
@@ -34261,7 +34285,7 @@
         <v>202</v>
       </c>
       <c r="P173" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34452,7 +34476,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q174">
         <v>8</v>
@@ -34542,7 +34566,7 @@
         <v>1.09</v>
       </c>
       <c r="AT174">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU174">
         <v>1.28</v>
@@ -34730,10 +34754,10 @@
         <v>0.38</v>
       </c>
       <c r="AS175">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT175">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU175">
         <v>1.82</v>
@@ -34834,7 +34858,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q176">
         <v>7</v>
@@ -34924,7 +34948,7 @@
         <v>1.27</v>
       </c>
       <c r="AT176">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU176">
         <v>1.5</v>
@@ -35025,7 +35049,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q177">
         <v>7</v>
@@ -35112,7 +35136,7 @@
         <v>0.38</v>
       </c>
       <c r="AS177">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT177">
         <v>0.64</v>
@@ -35216,7 +35240,7 @@
         <v>205</v>
       </c>
       <c r="P178" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q178">
         <v>6</v>
@@ -35306,7 +35330,7 @@
         <v>1.36</v>
       </c>
       <c r="AT178">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU178">
         <v>1.74</v>
@@ -35407,7 +35431,7 @@
         <v>206</v>
       </c>
       <c r="P179" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q179">
         <v>5</v>
@@ -35494,7 +35518,7 @@
         <v>0.75</v>
       </c>
       <c r="AS179">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT179">
         <v>0.82</v>
@@ -35685,7 +35709,7 @@
         <v>1</v>
       </c>
       <c r="AS180">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT180">
         <v>0.82</v>
@@ -36070,7 +36094,7 @@
         <v>1.08</v>
       </c>
       <c r="AT182">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU182">
         <v>1.47</v>
@@ -36171,7 +36195,7 @@
         <v>86</v>
       </c>
       <c r="P183" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -36258,7 +36282,7 @@
         <v>2.44</v>
       </c>
       <c r="AS183">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT183">
         <v>2.58</v>
@@ -36449,7 +36473,7 @@
         <v>1.22</v>
       </c>
       <c r="AS184">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT184">
         <v>1.25</v>
@@ -36553,7 +36577,7 @@
         <v>86</v>
       </c>
       <c r="P185" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q185">
         <v>6</v>
@@ -36640,10 +36664,10 @@
         <v>1.33</v>
       </c>
       <c r="AS185">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AT185">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU185">
         <v>1.13</v>
@@ -36744,7 +36768,7 @@
         <v>144</v>
       </c>
       <c r="P186" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q186">
         <v>10</v>
@@ -36831,7 +36855,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS186">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT186">
         <v>0.83</v>
@@ -36935,7 +36959,7 @@
         <v>86</v>
       </c>
       <c r="P187" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -37022,7 +37046,7 @@
         <v>2</v>
       </c>
       <c r="AS187">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT187">
         <v>1.83</v>
@@ -37126,7 +37150,7 @@
         <v>209</v>
       </c>
       <c r="P188" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -37317,7 +37341,7 @@
         <v>131</v>
       </c>
       <c r="P189" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37407,7 +37431,7 @@
         <v>1.58</v>
       </c>
       <c r="AT189">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU189">
         <v>1.37</v>
@@ -37508,7 +37532,7 @@
         <v>86</v>
       </c>
       <c r="P190" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q190">
         <v>2</v>
@@ -37595,7 +37619,7 @@
         <v>0.89</v>
       </c>
       <c r="AS190">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT190">
         <v>1</v>
@@ -37789,7 +37813,7 @@
         <v>1.75</v>
       </c>
       <c r="AT191">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU191">
         <v>1.54</v>
@@ -38081,7 +38105,7 @@
         <v>143</v>
       </c>
       <c r="P193" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38272,7 +38296,7 @@
         <v>212</v>
       </c>
       <c r="P194" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q194">
         <v>5</v>
@@ -38463,7 +38487,7 @@
         <v>152</v>
       </c>
       <c r="P195" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -38741,7 +38765,7 @@
         <v>0.78</v>
       </c>
       <c r="AS196">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT196">
         <v>0.73</v>
@@ -38845,7 +38869,7 @@
         <v>214</v>
       </c>
       <c r="P197" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q197">
         <v>2</v>
@@ -39036,7 +39060,7 @@
         <v>86</v>
       </c>
       <c r="P198" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q198">
         <v>12</v>
@@ -39418,7 +39442,7 @@
         <v>216</v>
       </c>
       <c r="P200" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -39699,7 +39723,7 @@
         <v>1.36</v>
       </c>
       <c r="AT201">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU201">
         <v>1.79</v>
@@ -39800,7 +39824,7 @@
         <v>86</v>
       </c>
       <c r="P202" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -39890,7 +39914,7 @@
         <v>0.27</v>
       </c>
       <c r="AT202">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU202">
         <v>1.57</v>
@@ -40078,7 +40102,7 @@
         <v>1.1</v>
       </c>
       <c r="AS203">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT203">
         <v>1</v>
@@ -40373,7 +40397,7 @@
         <v>86</v>
       </c>
       <c r="P205" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q205">
         <v>3</v>
@@ -40460,7 +40484,7 @@
         <v>2.5</v>
       </c>
       <c r="AS205">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT205">
         <v>2.58</v>
@@ -40651,10 +40675,10 @@
         <v>1.5</v>
       </c>
       <c r="AS206">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT206">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU206">
         <v>1.46</v>
@@ -40755,7 +40779,7 @@
         <v>157</v>
       </c>
       <c r="P207" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -40842,10 +40866,10 @@
         <v>0.78</v>
       </c>
       <c r="AS207">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT207">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU207">
         <v>2.14</v>
@@ -41033,10 +41057,10 @@
         <v>1.6</v>
       </c>
       <c r="AS208">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT208">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU208">
         <v>1.68</v>
@@ -41137,7 +41161,7 @@
         <v>219</v>
       </c>
       <c r="P209" t="s">
-        <v>293</v>
+        <v>229</v>
       </c>
       <c r="Q209">
         <v>6</v>
@@ -41227,7 +41251,7 @@
         <v>1.08</v>
       </c>
       <c r="AT209">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU209">
         <v>1.46</v>
@@ -41328,7 +41352,7 @@
         <v>220</v>
       </c>
       <c r="P210" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q210">
         <v>9</v>
@@ -41415,7 +41439,7 @@
         <v>0.7</v>
       </c>
       <c r="AS210">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT210">
         <v>0.73</v>
@@ -41519,7 +41543,7 @@
         <v>86</v>
       </c>
       <c r="P211" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -41606,10 +41630,10 @@
         <v>1.56</v>
       </c>
       <c r="AS211">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT211">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU211">
         <v>1.42</v>
@@ -41901,7 +41925,7 @@
         <v>222</v>
       </c>
       <c r="P213" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42283,7 +42307,7 @@
         <v>86</v>
       </c>
       <c r="P215" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q215">
         <v>5</v>
@@ -42474,7 +42498,7 @@
         <v>224</v>
       </c>
       <c r="P216" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q216">
         <v>10</v>
@@ -42665,7 +42689,7 @@
         <v>86</v>
       </c>
       <c r="P217" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -43137,7 +43161,7 @@
         <v>2.82</v>
       </c>
       <c r="AT219">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU219">
         <v>2.21</v>
@@ -43516,7 +43540,7 @@
         <v>1.6</v>
       </c>
       <c r="AS221">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AT221">
         <v>1.55</v>
@@ -43620,7 +43644,7 @@
         <v>86</v>
       </c>
       <c r="P222" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q222">
         <v>1</v>
@@ -43762,6 +43786,1725 @@
       </c>
       <c r="BK222">
         <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:63">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>2638222</v>
+      </c>
+      <c r="C223" t="s">
+        <v>63</v>
+      </c>
+      <c r="D223" t="s">
+        <v>64</v>
+      </c>
+      <c r="E223" s="2">
+        <v>44975.45833333334</v>
+      </c>
+      <c r="F223">
+        <v>23</v>
+      </c>
+      <c r="G223" t="s">
+        <v>66</v>
+      </c>
+      <c r="H223" t="s">
+        <v>82</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>1</v>
+      </c>
+      <c r="K223">
+        <v>1</v>
+      </c>
+      <c r="L223">
+        <v>1</v>
+      </c>
+      <c r="M223">
+        <v>2</v>
+      </c>
+      <c r="N223">
+        <v>3</v>
+      </c>
+      <c r="O223" t="s">
+        <v>168</v>
+      </c>
+      <c r="P223" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q223">
+        <v>1</v>
+      </c>
+      <c r="R223">
+        <v>8</v>
+      </c>
+      <c r="S223">
+        <v>9</v>
+      </c>
+      <c r="T223">
+        <v>3.75</v>
+      </c>
+      <c r="U223">
+        <v>2</v>
+      </c>
+      <c r="V223">
+        <v>3.2</v>
+      </c>
+      <c r="W223">
+        <v>1.5</v>
+      </c>
+      <c r="X223">
+        <v>2.5</v>
+      </c>
+      <c r="Y223">
+        <v>3.5</v>
+      </c>
+      <c r="Z223">
+        <v>1.29</v>
+      </c>
+      <c r="AA223">
+        <v>11</v>
+      </c>
+      <c r="AB223">
+        <v>1.05</v>
+      </c>
+      <c r="AC223">
+        <v>3.1</v>
+      </c>
+      <c r="AD223">
+        <v>3.25</v>
+      </c>
+      <c r="AE223">
+        <v>2.38</v>
+      </c>
+      <c r="AF223">
+        <v>1.09</v>
+      </c>
+      <c r="AG223">
+        <v>7</v>
+      </c>
+      <c r="AH223">
+        <v>1.48</v>
+      </c>
+      <c r="AI223">
+        <v>2.83</v>
+      </c>
+      <c r="AJ223">
+        <v>2.3</v>
+      </c>
+      <c r="AK223">
+        <v>1.62</v>
+      </c>
+      <c r="AL223">
+        <v>1.95</v>
+      </c>
+      <c r="AM223">
+        <v>1.8</v>
+      </c>
+      <c r="AN223">
+        <v>1.5</v>
+      </c>
+      <c r="AO223">
+        <v>1.37</v>
+      </c>
+      <c r="AP223">
+        <v>1.37</v>
+      </c>
+      <c r="AQ223">
+        <v>0.27</v>
+      </c>
+      <c r="AR223">
+        <v>1</v>
+      </c>
+      <c r="AS223">
+        <v>0.25</v>
+      </c>
+      <c r="AT223">
+        <v>1.18</v>
+      </c>
+      <c r="AU223">
+        <v>1.05</v>
+      </c>
+      <c r="AV223">
+        <v>1.29</v>
+      </c>
+      <c r="AW223">
+        <v>2.34</v>
+      </c>
+      <c r="AX223">
+        <v>2.12</v>
+      </c>
+      <c r="AY223">
+        <v>7</v>
+      </c>
+      <c r="AZ223">
+        <v>1.96</v>
+      </c>
+      <c r="BA223">
+        <v>1.47</v>
+      </c>
+      <c r="BB223">
+        <v>1.78</v>
+      </c>
+      <c r="BC223">
+        <v>2.23</v>
+      </c>
+      <c r="BD223">
+        <v>2.9</v>
+      </c>
+      <c r="BE223">
+        <v>4</v>
+      </c>
+      <c r="BF223">
+        <v>5</v>
+      </c>
+      <c r="BG223">
+        <v>6</v>
+      </c>
+      <c r="BH223">
+        <v>3</v>
+      </c>
+      <c r="BI223">
+        <v>3</v>
+      </c>
+      <c r="BJ223">
+        <v>8</v>
+      </c>
+      <c r="BK223">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:63">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>2638219</v>
+      </c>
+      <c r="C224" t="s">
+        <v>63</v>
+      </c>
+      <c r="D224" t="s">
+        <v>64</v>
+      </c>
+      <c r="E224" s="2">
+        <v>44975.58333333334</v>
+      </c>
+      <c r="F224">
+        <v>23</v>
+      </c>
+      <c r="G224" t="s">
+        <v>68</v>
+      </c>
+      <c r="H224" t="s">
+        <v>65</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>1</v>
+      </c>
+      <c r="K224">
+        <v>1</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>1</v>
+      </c>
+      <c r="N224">
+        <v>1</v>
+      </c>
+      <c r="O224" t="s">
+        <v>86</v>
+      </c>
+      <c r="P224" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q224">
+        <v>10</v>
+      </c>
+      <c r="R224">
+        <v>3</v>
+      </c>
+      <c r="S224">
+        <v>13</v>
+      </c>
+      <c r="T224">
+        <v>4</v>
+      </c>
+      <c r="U224">
+        <v>2.1</v>
+      </c>
+      <c r="V224">
+        <v>2.75</v>
+      </c>
+      <c r="W224">
+        <v>1.4</v>
+      </c>
+      <c r="X224">
+        <v>2.75</v>
+      </c>
+      <c r="Y224">
+        <v>3</v>
+      </c>
+      <c r="Z224">
+        <v>1.36</v>
+      </c>
+      <c r="AA224">
+        <v>8</v>
+      </c>
+      <c r="AB224">
+        <v>1.08</v>
+      </c>
+      <c r="AC224">
+        <v>3.9</v>
+      </c>
+      <c r="AD224">
+        <v>3.4</v>
+      </c>
+      <c r="AE224">
+        <v>2</v>
+      </c>
+      <c r="AF224">
+        <v>1.04</v>
+      </c>
+      <c r="AG224">
+        <v>9.5</v>
+      </c>
+      <c r="AH224">
+        <v>1.3</v>
+      </c>
+      <c r="AI224">
+        <v>3.4</v>
+      </c>
+      <c r="AJ224">
+        <v>2</v>
+      </c>
+      <c r="AK224">
+        <v>1.81</v>
+      </c>
+      <c r="AL224">
+        <v>1.8</v>
+      </c>
+      <c r="AM224">
+        <v>1.95</v>
+      </c>
+      <c r="AN224">
+        <v>1.7</v>
+      </c>
+      <c r="AO224">
+        <v>1.35</v>
+      </c>
+      <c r="AP224">
+        <v>1.25</v>
+      </c>
+      <c r="AQ224">
+        <v>1.36</v>
+      </c>
+      <c r="AR224">
+        <v>1.45</v>
+      </c>
+      <c r="AS224">
+        <v>1.25</v>
+      </c>
+      <c r="AT224">
+        <v>1.58</v>
+      </c>
+      <c r="AU224">
+        <v>1.64</v>
+      </c>
+      <c r="AV224">
+        <v>1.64</v>
+      </c>
+      <c r="AW224">
+        <v>3.28</v>
+      </c>
+      <c r="AX224">
+        <v>2.4</v>
+      </c>
+      <c r="AY224">
+        <v>7.5</v>
+      </c>
+      <c r="AZ224">
+        <v>1.76</v>
+      </c>
+      <c r="BA224">
+        <v>1.36</v>
+      </c>
+      <c r="BB224">
+        <v>1.6</v>
+      </c>
+      <c r="BC224">
+        <v>1.97</v>
+      </c>
+      <c r="BD224">
+        <v>2.5</v>
+      </c>
+      <c r="BE224">
+        <v>3.3</v>
+      </c>
+      <c r="BF224">
+        <v>6</v>
+      </c>
+      <c r="BG224">
+        <v>9</v>
+      </c>
+      <c r="BH224">
+        <v>3</v>
+      </c>
+      <c r="BI224">
+        <v>5</v>
+      </c>
+      <c r="BJ224">
+        <v>9</v>
+      </c>
+      <c r="BK224">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="1:63">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>2638218</v>
+      </c>
+      <c r="C225" t="s">
+        <v>63</v>
+      </c>
+      <c r="D225" t="s">
+        <v>64</v>
+      </c>
+      <c r="E225" s="2">
+        <v>44975.69791666666</v>
+      </c>
+      <c r="F225">
+        <v>23</v>
+      </c>
+      <c r="G225" t="s">
+        <v>77</v>
+      </c>
+      <c r="H225" t="s">
+        <v>75</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225">
+        <v>1</v>
+      </c>
+      <c r="K225">
+        <v>2</v>
+      </c>
+      <c r="L225">
+        <v>3</v>
+      </c>
+      <c r="M225">
+        <v>1</v>
+      </c>
+      <c r="N225">
+        <v>4</v>
+      </c>
+      <c r="O225" t="s">
+        <v>227</v>
+      </c>
+      <c r="P225" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q225">
+        <v>3</v>
+      </c>
+      <c r="R225">
+        <v>8</v>
+      </c>
+      <c r="S225">
+        <v>11</v>
+      </c>
+      <c r="T225">
+        <v>2.05</v>
+      </c>
+      <c r="U225">
+        <v>2.38</v>
+      </c>
+      <c r="V225">
+        <v>6</v>
+      </c>
+      <c r="W225">
+        <v>1.33</v>
+      </c>
+      <c r="X225">
+        <v>3.25</v>
+      </c>
+      <c r="Y225">
+        <v>2.63</v>
+      </c>
+      <c r="Z225">
+        <v>1.44</v>
+      </c>
+      <c r="AA225">
+        <v>6.5</v>
+      </c>
+      <c r="AB225">
+        <v>1.11</v>
+      </c>
+      <c r="AC225">
+        <v>1.49</v>
+      </c>
+      <c r="AD225">
+        <v>4.42</v>
+      </c>
+      <c r="AE225">
+        <v>6.5</v>
+      </c>
+      <c r="AF225">
+        <v>1.02</v>
+      </c>
+      <c r="AG225">
+        <v>12</v>
+      </c>
+      <c r="AH225">
+        <v>1.22</v>
+      </c>
+      <c r="AI225">
+        <v>4</v>
+      </c>
+      <c r="AJ225">
+        <v>1.72</v>
+      </c>
+      <c r="AK225">
+        <v>2.13</v>
+      </c>
+      <c r="AL225">
+        <v>1.91</v>
+      </c>
+      <c r="AM225">
+        <v>1.91</v>
+      </c>
+      <c r="AN225">
+        <v>1.08</v>
+      </c>
+      <c r="AO225">
+        <v>1.22</v>
+      </c>
+      <c r="AP225">
+        <v>2.65</v>
+      </c>
+      <c r="AQ225">
+        <v>2.45</v>
+      </c>
+      <c r="AR225">
+        <v>1.36</v>
+      </c>
+      <c r="AS225">
+        <v>2.5</v>
+      </c>
+      <c r="AT225">
+        <v>1.25</v>
+      </c>
+      <c r="AU225">
+        <v>1.73</v>
+      </c>
+      <c r="AV225">
+        <v>1.61</v>
+      </c>
+      <c r="AW225">
+        <v>3.34</v>
+      </c>
+      <c r="AX225">
+        <v>1.38</v>
+      </c>
+      <c r="AY225">
+        <v>8.5</v>
+      </c>
+      <c r="AZ225">
+        <v>3.75</v>
+      </c>
+      <c r="BA225">
+        <v>1.34</v>
+      </c>
+      <c r="BB225">
+        <v>1.57</v>
+      </c>
+      <c r="BC225">
+        <v>1.92</v>
+      </c>
+      <c r="BD225">
+        <v>2.43</v>
+      </c>
+      <c r="BE225">
+        <v>3.2</v>
+      </c>
+      <c r="BF225">
+        <v>8</v>
+      </c>
+      <c r="BG225">
+        <v>2</v>
+      </c>
+      <c r="BH225">
+        <v>4</v>
+      </c>
+      <c r="BI225">
+        <v>4</v>
+      </c>
+      <c r="BJ225">
+        <v>12</v>
+      </c>
+      <c r="BK225">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:63">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>2638216</v>
+      </c>
+      <c r="C226" t="s">
+        <v>63</v>
+      </c>
+      <c r="D226" t="s">
+        <v>64</v>
+      </c>
+      <c r="E226" s="2">
+        <v>44976.35416666666</v>
+      </c>
+      <c r="F226">
+        <v>23</v>
+      </c>
+      <c r="G226" t="s">
+        <v>81</v>
+      </c>
+      <c r="H226" t="s">
+        <v>67</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>1</v>
+      </c>
+      <c r="K226">
+        <v>1</v>
+      </c>
+      <c r="L226">
+        <v>1</v>
+      </c>
+      <c r="M226">
+        <v>2</v>
+      </c>
+      <c r="N226">
+        <v>3</v>
+      </c>
+      <c r="O226" t="s">
+        <v>228</v>
+      </c>
+      <c r="P226" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q226">
+        <v>6</v>
+      </c>
+      <c r="R226">
+        <v>1</v>
+      </c>
+      <c r="S226">
+        <v>7</v>
+      </c>
+      <c r="T226">
+        <v>2.05</v>
+      </c>
+      <c r="U226">
+        <v>2.3</v>
+      </c>
+      <c r="V226">
+        <v>6</v>
+      </c>
+      <c r="W226">
+        <v>1.36</v>
+      </c>
+      <c r="X226">
+        <v>3</v>
+      </c>
+      <c r="Y226">
+        <v>2.63</v>
+      </c>
+      <c r="Z226">
+        <v>1.44</v>
+      </c>
+      <c r="AA226">
+        <v>7</v>
+      </c>
+      <c r="AB226">
+        <v>1.1</v>
+      </c>
+      <c r="AC226">
+        <v>1.48</v>
+      </c>
+      <c r="AD226">
+        <v>4.4</v>
+      </c>
+      <c r="AE226">
+        <v>6.8</v>
+      </c>
+      <c r="AF226">
+        <v>1.03</v>
+      </c>
+      <c r="AG226">
+        <v>11</v>
+      </c>
+      <c r="AH226">
+        <v>1.25</v>
+      </c>
+      <c r="AI226">
+        <v>3.8</v>
+      </c>
+      <c r="AJ226">
+        <v>1.73</v>
+      </c>
+      <c r="AK226">
+        <v>2</v>
+      </c>
+      <c r="AL226">
+        <v>1.95</v>
+      </c>
+      <c r="AM226">
+        <v>1.8</v>
+      </c>
+      <c r="AN226">
+        <v>1.09</v>
+      </c>
+      <c r="AO226">
+        <v>1.19</v>
+      </c>
+      <c r="AP226">
+        <v>2.44</v>
+      </c>
+      <c r="AQ226">
+        <v>1.7</v>
+      </c>
+      <c r="AR226">
+        <v>1.09</v>
+      </c>
+      <c r="AS226">
+        <v>1.55</v>
+      </c>
+      <c r="AT226">
+        <v>1.25</v>
+      </c>
+      <c r="AU226">
+        <v>1.78</v>
+      </c>
+      <c r="AV226">
+        <v>1.24</v>
+      </c>
+      <c r="AW226">
+        <v>3.02</v>
+      </c>
+      <c r="AX226">
+        <v>1.23</v>
+      </c>
+      <c r="AY226">
+        <v>10</v>
+      </c>
+      <c r="AZ226">
+        <v>5.65</v>
+      </c>
+      <c r="BA226">
+        <v>1.26</v>
+      </c>
+      <c r="BB226">
+        <v>1.55</v>
+      </c>
+      <c r="BC226">
+        <v>1.9</v>
+      </c>
+      <c r="BD226">
+        <v>2.37</v>
+      </c>
+      <c r="BE226">
+        <v>3.34</v>
+      </c>
+      <c r="BF226">
+        <v>11</v>
+      </c>
+      <c r="BG226">
+        <v>3</v>
+      </c>
+      <c r="BH226">
+        <v>6</v>
+      </c>
+      <c r="BI226">
+        <v>2</v>
+      </c>
+      <c r="BJ226">
+        <v>17</v>
+      </c>
+      <c r="BK226">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:63">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>2638221</v>
+      </c>
+      <c r="C227" t="s">
+        <v>63</v>
+      </c>
+      <c r="D227" t="s">
+        <v>64</v>
+      </c>
+      <c r="E227" s="2">
+        <v>44976.45833333334</v>
+      </c>
+      <c r="F227">
+        <v>23</v>
+      </c>
+      <c r="G227" t="s">
+        <v>71</v>
+      </c>
+      <c r="H227" t="s">
+        <v>70</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>2</v>
+      </c>
+      <c r="N227">
+        <v>2</v>
+      </c>
+      <c r="O227" t="s">
+        <v>86</v>
+      </c>
+      <c r="P227" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q227">
+        <v>2</v>
+      </c>
+      <c r="R227">
+        <v>9</v>
+      </c>
+      <c r="S227">
+        <v>11</v>
+      </c>
+      <c r="T227">
+        <v>5</v>
+      </c>
+      <c r="U227">
+        <v>2.25</v>
+      </c>
+      <c r="V227">
+        <v>2.25</v>
+      </c>
+      <c r="W227">
+        <v>1.36</v>
+      </c>
+      <c r="X227">
+        <v>3</v>
+      </c>
+      <c r="Y227">
+        <v>2.75</v>
+      </c>
+      <c r="Z227">
+        <v>1.4</v>
+      </c>
+      <c r="AA227">
+        <v>7</v>
+      </c>
+      <c r="AB227">
+        <v>1.1</v>
+      </c>
+      <c r="AC227">
+        <v>5</v>
+      </c>
+      <c r="AD227">
+        <v>4</v>
+      </c>
+      <c r="AE227">
+        <v>1.67</v>
+      </c>
+      <c r="AF227">
+        <v>1.05</v>
+      </c>
+      <c r="AG227">
+        <v>9.75</v>
+      </c>
+      <c r="AH227">
+        <v>1.28</v>
+      </c>
+      <c r="AI227">
+        <v>3.4</v>
+      </c>
+      <c r="AJ227">
+        <v>1.7</v>
+      </c>
+      <c r="AK227">
+        <v>2.05</v>
+      </c>
+      <c r="AL227">
+        <v>1.8</v>
+      </c>
+      <c r="AM227">
+        <v>1.95</v>
+      </c>
+      <c r="AN227">
+        <v>2.2</v>
+      </c>
+      <c r="AO227">
+        <v>1.24</v>
+      </c>
+      <c r="AP227">
+        <v>1.16</v>
+      </c>
+      <c r="AQ227">
+        <v>1.09</v>
+      </c>
+      <c r="AR227">
+        <v>1.8</v>
+      </c>
+      <c r="AS227">
+        <v>1</v>
+      </c>
+      <c r="AT227">
+        <v>1.91</v>
+      </c>
+      <c r="AU227">
+        <v>1.32</v>
+      </c>
+      <c r="AV227">
+        <v>1.3</v>
+      </c>
+      <c r="AW227">
+        <v>2.62</v>
+      </c>
+      <c r="AX227">
+        <v>3.3</v>
+      </c>
+      <c r="AY227">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ227">
+        <v>1.51</v>
+      </c>
+      <c r="BA227">
+        <v>1.29</v>
+      </c>
+      <c r="BB227">
+        <v>1.65</v>
+      </c>
+      <c r="BC227">
+        <v>2.04</v>
+      </c>
+      <c r="BD227">
+        <v>2.57</v>
+      </c>
+      <c r="BE227">
+        <v>3.64</v>
+      </c>
+      <c r="BF227">
+        <v>3</v>
+      </c>
+      <c r="BG227">
+        <v>8</v>
+      </c>
+      <c r="BH227">
+        <v>5</v>
+      </c>
+      <c r="BI227">
+        <v>7</v>
+      </c>
+      <c r="BJ227">
+        <v>8</v>
+      </c>
+      <c r="BK227">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="228" spans="1:63">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>2638217</v>
+      </c>
+      <c r="C228" t="s">
+        <v>63</v>
+      </c>
+      <c r="D228" t="s">
+        <v>64</v>
+      </c>
+      <c r="E228" s="2">
+        <v>44976.45833333334</v>
+      </c>
+      <c r="F228">
+        <v>23</v>
+      </c>
+      <c r="G228" t="s">
+        <v>69</v>
+      </c>
+      <c r="H228" t="s">
+        <v>79</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
+      <c r="K228">
+        <v>1</v>
+      </c>
+      <c r="L228">
+        <v>1</v>
+      </c>
+      <c r="M228">
+        <v>1</v>
+      </c>
+      <c r="N228">
+        <v>2</v>
+      </c>
+      <c r="O228" t="s">
+        <v>176</v>
+      </c>
+      <c r="P228" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q228">
+        <v>13</v>
+      </c>
+      <c r="R228">
+        <v>1</v>
+      </c>
+      <c r="S228">
+        <v>14</v>
+      </c>
+      <c r="T228">
+        <v>2.2</v>
+      </c>
+      <c r="U228">
+        <v>2.3</v>
+      </c>
+      <c r="V228">
+        <v>5.5</v>
+      </c>
+      <c r="W228">
+        <v>1.33</v>
+      </c>
+      <c r="X228">
+        <v>3.25</v>
+      </c>
+      <c r="Y228">
+        <v>2.63</v>
+      </c>
+      <c r="Z228">
+        <v>1.44</v>
+      </c>
+      <c r="AA228">
+        <v>6.5</v>
+      </c>
+      <c r="AB228">
+        <v>1.11</v>
+      </c>
+      <c r="AC228">
+        <v>1.64</v>
+      </c>
+      <c r="AD228">
+        <v>4.1</v>
+      </c>
+      <c r="AE228">
+        <v>5.2</v>
+      </c>
+      <c r="AF228">
+        <v>1.01</v>
+      </c>
+      <c r="AG228">
+        <v>10.25</v>
+      </c>
+      <c r="AH228">
+        <v>1.24</v>
+      </c>
+      <c r="AI228">
+        <v>3.72</v>
+      </c>
+      <c r="AJ228">
+        <v>1.75</v>
+      </c>
+      <c r="AK228">
+        <v>1.95</v>
+      </c>
+      <c r="AL228">
+        <v>1.8</v>
+      </c>
+      <c r="AM228">
+        <v>1.95</v>
+      </c>
+      <c r="AN228">
+        <v>1.15</v>
+      </c>
+      <c r="AO228">
+        <v>1.2</v>
+      </c>
+      <c r="AP228">
+        <v>2.4</v>
+      </c>
+      <c r="AQ228">
+        <v>1.36</v>
+      </c>
+      <c r="AR228">
+        <v>1</v>
+      </c>
+      <c r="AS228">
+        <v>1.33</v>
+      </c>
+      <c r="AT228">
+        <v>1</v>
+      </c>
+      <c r="AU228">
+        <v>2.14</v>
+      </c>
+      <c r="AV228">
+        <v>1.28</v>
+      </c>
+      <c r="AW228">
+        <v>3.42</v>
+      </c>
+      <c r="AX228">
+        <v>1.22</v>
+      </c>
+      <c r="AY228">
+        <v>10.5</v>
+      </c>
+      <c r="AZ228">
+        <v>5.8</v>
+      </c>
+      <c r="BA228">
+        <v>1.22</v>
+      </c>
+      <c r="BB228">
+        <v>1.5</v>
+      </c>
+      <c r="BC228">
+        <v>1.81</v>
+      </c>
+      <c r="BD228">
+        <v>2.25</v>
+      </c>
+      <c r="BE228">
+        <v>3.08</v>
+      </c>
+      <c r="BF228">
+        <v>2</v>
+      </c>
+      <c r="BG228">
+        <v>2</v>
+      </c>
+      <c r="BH228">
+        <v>6</v>
+      </c>
+      <c r="BI228">
+        <v>0</v>
+      </c>
+      <c r="BJ228">
+        <v>8</v>
+      </c>
+      <c r="BK228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:63">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>2638224</v>
+      </c>
+      <c r="C229" t="s">
+        <v>63</v>
+      </c>
+      <c r="D229" t="s">
+        <v>64</v>
+      </c>
+      <c r="E229" s="2">
+        <v>44976.58333333334</v>
+      </c>
+      <c r="F229">
+        <v>23</v>
+      </c>
+      <c r="G229" t="s">
+        <v>72</v>
+      </c>
+      <c r="H229" t="s">
+        <v>74</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>1</v>
+      </c>
+      <c r="K229">
+        <v>1</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>2</v>
+      </c>
+      <c r="N229">
+        <v>2</v>
+      </c>
+      <c r="O229" t="s">
+        <v>86</v>
+      </c>
+      <c r="P229" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q229">
+        <v>7</v>
+      </c>
+      <c r="R229">
+        <v>4</v>
+      </c>
+      <c r="S229">
+        <v>11</v>
+      </c>
+      <c r="T229">
+        <v>6</v>
+      </c>
+      <c r="U229">
+        <v>2.2</v>
+      </c>
+      <c r="V229">
+        <v>2.2</v>
+      </c>
+      <c r="W229">
+        <v>1.4</v>
+      </c>
+      <c r="X229">
+        <v>2.75</v>
+      </c>
+      <c r="Y229">
+        <v>3</v>
+      </c>
+      <c r="Z229">
+        <v>1.36</v>
+      </c>
+      <c r="AA229">
+        <v>8</v>
+      </c>
+      <c r="AB229">
+        <v>1.08</v>
+      </c>
+      <c r="AC229">
+        <v>5.5</v>
+      </c>
+      <c r="AD229">
+        <v>3.6</v>
+      </c>
+      <c r="AE229">
+        <v>1.67</v>
+      </c>
+      <c r="AF229">
+        <v>1.05</v>
+      </c>
+      <c r="AG229">
+        <v>11</v>
+      </c>
+      <c r="AH229">
+        <v>1.32</v>
+      </c>
+      <c r="AI229">
+        <v>3.4</v>
+      </c>
+      <c r="AJ229">
+        <v>2.03</v>
+      </c>
+      <c r="AK229">
+        <v>1.87</v>
+      </c>
+      <c r="AL229">
+        <v>2</v>
+      </c>
+      <c r="AM229">
+        <v>1.75</v>
+      </c>
+      <c r="AN229">
+        <v>2.35</v>
+      </c>
+      <c r="AO229">
+        <v>1.22</v>
+      </c>
+      <c r="AP229">
+        <v>1.14</v>
+      </c>
+      <c r="AQ229">
+        <v>1.09</v>
+      </c>
+      <c r="AR229">
+        <v>1.7</v>
+      </c>
+      <c r="AS229">
+        <v>1</v>
+      </c>
+      <c r="AT229">
+        <v>1.82</v>
+      </c>
+      <c r="AU229">
+        <v>1.45</v>
+      </c>
+      <c r="AV229">
+        <v>1.35</v>
+      </c>
+      <c r="AW229">
+        <v>2.8</v>
+      </c>
+      <c r="AX229">
+        <v>3</v>
+      </c>
+      <c r="AY229">
+        <v>8</v>
+      </c>
+      <c r="AZ229">
+        <v>1.59</v>
+      </c>
+      <c r="BA229">
+        <v>1.25</v>
+      </c>
+      <c r="BB229">
+        <v>1.53</v>
+      </c>
+      <c r="BC229">
+        <v>1.93</v>
+      </c>
+      <c r="BD229">
+        <v>2.45</v>
+      </c>
+      <c r="BE229">
+        <v>3.28</v>
+      </c>
+      <c r="BF229">
+        <v>8</v>
+      </c>
+      <c r="BG229">
+        <v>4</v>
+      </c>
+      <c r="BH229">
+        <v>3</v>
+      </c>
+      <c r="BI229">
+        <v>9</v>
+      </c>
+      <c r="BJ229">
+        <v>11</v>
+      </c>
+      <c r="BK229">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:63">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>2638220</v>
+      </c>
+      <c r="C230" t="s">
+        <v>63</v>
+      </c>
+      <c r="D230" t="s">
+        <v>64</v>
+      </c>
+      <c r="E230" s="2">
+        <v>44976.69791666666</v>
+      </c>
+      <c r="F230">
+        <v>23</v>
+      </c>
+      <c r="G230" t="s">
+        <v>83</v>
+      </c>
+      <c r="H230" t="s">
+        <v>73</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>1</v>
+      </c>
+      <c r="L230">
+        <v>1</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>1</v>
+      </c>
+      <c r="O230" t="s">
+        <v>229</v>
+      </c>
+      <c r="P230" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q230">
+        <v>5</v>
+      </c>
+      <c r="R230">
+        <v>1</v>
+      </c>
+      <c r="S230">
+        <v>6</v>
+      </c>
+      <c r="T230">
+        <v>2.2</v>
+      </c>
+      <c r="U230">
+        <v>2.1</v>
+      </c>
+      <c r="V230">
+        <v>6.5</v>
+      </c>
+      <c r="W230">
+        <v>1.44</v>
+      </c>
+      <c r="X230">
+        <v>2.63</v>
+      </c>
+      <c r="Y230">
+        <v>3.25</v>
+      </c>
+      <c r="Z230">
+        <v>1.33</v>
+      </c>
+      <c r="AA230">
+        <v>9</v>
+      </c>
+      <c r="AB230">
+        <v>1.07</v>
+      </c>
+      <c r="AC230">
+        <v>1.55</v>
+      </c>
+      <c r="AD230">
+        <v>3.8</v>
+      </c>
+      <c r="AE230">
+        <v>6.5</v>
+      </c>
+      <c r="AF230">
+        <v>1.07</v>
+      </c>
+      <c r="AG230">
+        <v>9.4</v>
+      </c>
+      <c r="AH230">
+        <v>1.38</v>
+      </c>
+      <c r="AI230">
+        <v>3.05</v>
+      </c>
+      <c r="AJ230">
+        <v>2.04</v>
+      </c>
+      <c r="AK230">
+        <v>1.78</v>
+      </c>
+      <c r="AL230">
+        <v>2.1</v>
+      </c>
+      <c r="AM230">
+        <v>1.67</v>
+      </c>
+      <c r="AN230">
+        <v>1.15</v>
+      </c>
+      <c r="AO230">
+        <v>1.3</v>
+      </c>
+      <c r="AP230">
+        <v>2.39</v>
+      </c>
+      <c r="AQ230">
+        <v>1.9</v>
+      </c>
+      <c r="AR230">
+        <v>0.4</v>
+      </c>
+      <c r="AS230">
+        <v>2</v>
+      </c>
+      <c r="AT230">
+        <v>0.36</v>
+      </c>
+      <c r="AU230">
+        <v>1.72</v>
+      </c>
+      <c r="AV230">
+        <v>1.31</v>
+      </c>
+      <c r="AW230">
+        <v>3.03</v>
+      </c>
+      <c r="AX230">
+        <v>1.23</v>
+      </c>
+      <c r="AY230">
+        <v>10</v>
+      </c>
+      <c r="AZ230">
+        <v>5.65</v>
+      </c>
+      <c r="BA230">
+        <v>1.27</v>
+      </c>
+      <c r="BB230">
+        <v>1.59</v>
+      </c>
+      <c r="BC230">
+        <v>1.96</v>
+      </c>
+      <c r="BD230">
+        <v>2.46</v>
+      </c>
+      <c r="BE230">
+        <v>3.42</v>
+      </c>
+      <c r="BF230">
+        <v>6</v>
+      </c>
+      <c r="BG230">
+        <v>2</v>
+      </c>
+      <c r="BH230">
+        <v>0</v>
+      </c>
+      <c r="BI230">
+        <v>2</v>
+      </c>
+      <c r="BJ230">
+        <v>6</v>
+      </c>
+      <c r="BK230">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:63">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>2638225</v>
+      </c>
+      <c r="C231" t="s">
+        <v>63</v>
+      </c>
+      <c r="D231" t="s">
+        <v>64</v>
+      </c>
+      <c r="E231" s="2">
+        <v>44977.69791666666</v>
+      </c>
+      <c r="F231">
+        <v>23</v>
+      </c>
+      <c r="G231" t="s">
+        <v>76</v>
+      </c>
+      <c r="H231" t="s">
+        <v>84</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>1</v>
+      </c>
+      <c r="L231">
+        <v>2</v>
+      </c>
+      <c r="M231">
+        <v>2</v>
+      </c>
+      <c r="N231">
+        <v>4</v>
+      </c>
+      <c r="O231" t="s">
+        <v>230</v>
+      </c>
+      <c r="P231" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q231">
+        <v>5</v>
+      </c>
+      <c r="R231">
+        <v>1</v>
+      </c>
+      <c r="S231">
+        <v>6</v>
+      </c>
+      <c r="T231">
+        <v>2.25</v>
+      </c>
+      <c r="U231">
+        <v>2.2</v>
+      </c>
+      <c r="V231">
+        <v>5.5</v>
+      </c>
+      <c r="W231">
+        <v>1.4</v>
+      </c>
+      <c r="X231">
+        <v>2.75</v>
+      </c>
+      <c r="Y231">
+        <v>3</v>
+      </c>
+      <c r="Z231">
+        <v>1.36</v>
+      </c>
+      <c r="AA231">
+        <v>9</v>
+      </c>
+      <c r="AB231">
+        <v>1.07</v>
+      </c>
+      <c r="AC231">
+        <v>1.67</v>
+      </c>
+      <c r="AD231">
+        <v>3.8</v>
+      </c>
+      <c r="AE231">
+        <v>5.3</v>
+      </c>
+      <c r="AF231">
+        <v>1.05</v>
+      </c>
+      <c r="AG231">
+        <v>9.5</v>
+      </c>
+      <c r="AH231">
+        <v>1.38</v>
+      </c>
+      <c r="AI231">
+        <v>3.2</v>
+      </c>
+      <c r="AJ231">
+        <v>2.06</v>
+      </c>
+      <c r="AK231">
+        <v>1.76</v>
+      </c>
+      <c r="AL231">
+        <v>2</v>
+      </c>
+      <c r="AM231">
+        <v>1.75</v>
+      </c>
+      <c r="AN231">
+        <v>1.19</v>
+      </c>
+      <c r="AO231">
+        <v>1.3</v>
+      </c>
+      <c r="AP231">
+        <v>2.18</v>
+      </c>
+      <c r="AQ231">
+        <v>1.5</v>
+      </c>
+      <c r="AR231">
+        <v>0.45</v>
+      </c>
+      <c r="AS231">
+        <v>1.45</v>
+      </c>
+      <c r="AT231">
+        <v>0.5</v>
+      </c>
+      <c r="AU231">
+        <v>1.49</v>
+      </c>
+      <c r="AV231">
+        <v>1.58</v>
+      </c>
+      <c r="AW231">
+        <v>3.07</v>
+      </c>
+      <c r="AX231">
+        <v>1.5</v>
+      </c>
+      <c r="AY231">
+        <v>8</v>
+      </c>
+      <c r="AZ231">
+        <v>3.15</v>
+      </c>
+      <c r="BA231">
+        <v>1.38</v>
+      </c>
+      <c r="BB231">
+        <v>1.66</v>
+      </c>
+      <c r="BC231">
+        <v>2.04</v>
+      </c>
+      <c r="BD231">
+        <v>2.65</v>
+      </c>
+      <c r="BE231">
+        <v>3.5</v>
+      </c>
+      <c r="BF231">
+        <v>7</v>
+      </c>
+      <c r="BG231">
+        <v>3</v>
+      </c>
+      <c r="BH231">
+        <v>7</v>
+      </c>
+      <c r="BI231">
+        <v>7</v>
+      </c>
+      <c r="BJ231">
+        <v>14</v>
+      </c>
+      <c r="BK231">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="337">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -709,6 +709,9 @@
     <t>['41', '79']</t>
   </si>
   <si>
+    <t>['76']</t>
+  </si>
+  <si>
     <t>['2', '45+4']</t>
   </si>
   <si>
@@ -1019,6 +1022,9 @@
   </si>
   <si>
     <t>['54', '74']</t>
+  </si>
+  <si>
+    <t>['17', '28']</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK231"/>
+  <dimension ref="A1:BK234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1624,7 +1630,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1815,7 +1821,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2006,7 +2012,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -2093,10 +2099,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT4">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2197,7 +2203,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2388,7 +2394,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q6">
         <v>11</v>
@@ -2579,7 +2585,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -3152,7 +3158,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3242,7 +3248,7 @@
         <v>1.08</v>
       </c>
       <c r="AT10">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3433,7 +3439,7 @@
         <v>2.25</v>
       </c>
       <c r="AT11">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -4385,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT16">
         <v>0.82</v>
@@ -4958,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT19">
         <v>0.36</v>
@@ -5444,7 +5450,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5725,7 +5731,7 @@
         <v>1.75</v>
       </c>
       <c r="AT23">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU23">
         <v>1.73</v>
@@ -6017,7 +6023,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6399,7 +6405,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6489,7 +6495,7 @@
         <v>1</v>
       </c>
       <c r="AT27">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU27">
         <v>1.17</v>
@@ -6590,7 +6596,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6972,7 +6978,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7059,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT30">
         <v>1</v>
@@ -7253,7 +7259,7 @@
         <v>1.33</v>
       </c>
       <c r="AT31">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU31">
         <v>3.06</v>
@@ -8396,7 +8402,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT37">
         <v>0.36</v>
@@ -8882,7 +8888,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -8969,7 +8975,7 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT40">
         <v>0.82</v>
@@ -9073,7 +9079,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9264,7 +9270,7 @@
         <v>97</v>
       </c>
       <c r="P42" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -9455,7 +9461,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9545,7 +9551,7 @@
         <v>2.27</v>
       </c>
       <c r="AT43">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU43">
         <v>2.01</v>
@@ -9646,7 +9652,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9736,7 +9742,7 @@
         <v>1.75</v>
       </c>
       <c r="AT44">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU44">
         <v>1.63</v>
@@ -9927,7 +9933,7 @@
         <v>0.27</v>
       </c>
       <c r="AT45">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU45">
         <v>2</v>
@@ -10028,7 +10034,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -10601,7 +10607,7 @@
         <v>86</v>
       </c>
       <c r="P49" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10792,7 +10798,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -11556,7 +11562,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -11747,7 +11753,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11938,7 +11944,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12025,7 +12031,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT56">
         <v>0.82</v>
@@ -12216,7 +12222,7 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT57">
         <v>1.27</v>
@@ -12320,7 +12326,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12702,7 +12708,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -12893,7 +12899,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12980,7 +12986,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT61">
         <v>1.83</v>
@@ -13084,7 +13090,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13275,7 +13281,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13362,7 +13368,7 @@
         <v>0.67</v>
       </c>
       <c r="AS63">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT63">
         <v>1</v>
@@ -13657,7 +13663,7 @@
         <v>86</v>
       </c>
       <c r="P65" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13747,7 +13753,7 @@
         <v>1.45</v>
       </c>
       <c r="AT65">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU65">
         <v>1.18</v>
@@ -13848,7 +13854,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13938,7 +13944,7 @@
         <v>1.36</v>
       </c>
       <c r="AT66">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU66">
         <v>1.45</v>
@@ -14421,7 +14427,7 @@
         <v>86</v>
       </c>
       <c r="P69" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14803,7 +14809,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -14893,7 +14899,7 @@
         <v>2.27</v>
       </c>
       <c r="AT71">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU71">
         <v>2.01</v>
@@ -14994,7 +15000,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15185,7 +15191,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15376,7 +15382,7 @@
         <v>111</v>
       </c>
       <c r="P74" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15463,7 +15469,7 @@
         <v>1.67</v>
       </c>
       <c r="AS74">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT74">
         <v>1.58</v>
@@ -15845,7 +15851,7 @@
         <v>0.25</v>
       </c>
       <c r="AS76">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT76">
         <v>0.5</v>
@@ -15949,7 +15955,7 @@
         <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -16713,7 +16719,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16904,7 +16910,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -16994,7 +17000,7 @@
         <v>1.27</v>
       </c>
       <c r="AT82">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU82">
         <v>1.31</v>
@@ -17286,7 +17292,7 @@
         <v>100</v>
       </c>
       <c r="P84" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17373,7 +17379,7 @@
         <v>0</v>
       </c>
       <c r="AS84">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT84">
         <v>0.73</v>
@@ -17668,7 +17674,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -18241,7 +18247,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18331,7 +18337,7 @@
         <v>0.27</v>
       </c>
       <c r="AT89">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU89">
         <v>1.62</v>
@@ -18623,7 +18629,7 @@
         <v>86</v>
       </c>
       <c r="P91" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18901,7 +18907,7 @@
         <v>1</v>
       </c>
       <c r="AS92">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT92">
         <v>1.27</v>
@@ -19286,7 +19292,7 @@
         <v>1.55</v>
       </c>
       <c r="AT94">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU94">
         <v>1.55</v>
@@ -19578,7 +19584,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19960,7 +19966,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20151,7 +20157,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q99">
         <v>9</v>
@@ -20342,7 +20348,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20620,7 +20626,7 @@
         <v>0.25</v>
       </c>
       <c r="AS101">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT101">
         <v>0.82</v>
@@ -21297,7 +21303,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21387,7 +21393,7 @@
         <v>1.33</v>
       </c>
       <c r="AT105">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU105">
         <v>2.27</v>
@@ -21488,7 +21494,7 @@
         <v>112</v>
       </c>
       <c r="P106" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21766,7 +21772,7 @@
         <v>0.8</v>
       </c>
       <c r="AS107">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT107">
         <v>1.25</v>
@@ -21870,7 +21876,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -22151,7 +22157,7 @@
         <v>2</v>
       </c>
       <c r="AT109">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU109">
         <v>2.3</v>
@@ -22252,7 +22258,7 @@
         <v>86</v>
       </c>
       <c r="P110" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22724,7 +22730,7 @@
         <v>2.82</v>
       </c>
       <c r="AT112">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU112">
         <v>2.54</v>
@@ -22825,7 +22831,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q113">
         <v>7</v>
@@ -22912,7 +22918,7 @@
         <v>1</v>
       </c>
       <c r="AS113">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT113">
         <v>1.82</v>
@@ -23207,7 +23213,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23294,7 +23300,7 @@
         <v>2.6</v>
       </c>
       <c r="AS115">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT115">
         <v>2</v>
@@ -23398,7 +23404,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -23780,7 +23786,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23971,7 +23977,7 @@
         <v>167</v>
       </c>
       <c r="P119" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24162,7 +24168,7 @@
         <v>112</v>
       </c>
       <c r="P120" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24353,7 +24359,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24735,7 +24741,7 @@
         <v>169</v>
       </c>
       <c r="P123" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q123">
         <v>2</v>
@@ -25013,10 +25019,10 @@
         <v>0.83</v>
       </c>
       <c r="AS124">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT124">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU124">
         <v>1.58</v>
@@ -25117,7 +25123,7 @@
         <v>157</v>
       </c>
       <c r="P125" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25207,7 +25213,7 @@
         <v>1.55</v>
       </c>
       <c r="AT125">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU125">
         <v>1.51</v>
@@ -25586,7 +25592,7 @@
         <v>1.5</v>
       </c>
       <c r="AS127">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT127">
         <v>1.25</v>
@@ -25690,7 +25696,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -26353,7 +26359,7 @@
         <v>2.25</v>
       </c>
       <c r="AT131">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU131">
         <v>1.98</v>
@@ -27305,7 +27311,7 @@
         <v>2.67</v>
       </c>
       <c r="AS136">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT136">
         <v>2</v>
@@ -27600,7 +27606,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -28451,7 +28457,7 @@
         <v>0.57</v>
       </c>
       <c r="AS142">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT142">
         <v>0.5</v>
@@ -28555,7 +28561,7 @@
         <v>182</v>
       </c>
       <c r="P143" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28746,7 +28752,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q144">
         <v>9</v>
@@ -29024,10 +29030,10 @@
         <v>0.71</v>
       </c>
       <c r="AS145">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT145">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU145">
         <v>1.45</v>
@@ -29128,7 +29134,7 @@
         <v>184</v>
       </c>
       <c r="P146" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29218,7 +29224,7 @@
         <v>1.55</v>
       </c>
       <c r="AT146">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU146">
         <v>1.59</v>
@@ -29319,7 +29325,7 @@
         <v>137</v>
       </c>
       <c r="P147" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29892,7 +29898,7 @@
         <v>186</v>
       </c>
       <c r="P150" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -30274,7 +30280,7 @@
         <v>188</v>
       </c>
       <c r="P152" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -30465,7 +30471,7 @@
         <v>170</v>
       </c>
       <c r="P153" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q153">
         <v>9</v>
@@ -30656,7 +30662,7 @@
         <v>189</v>
       </c>
       <c r="P154" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -31038,7 +31044,7 @@
         <v>190</v>
       </c>
       <c r="P156" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -31125,7 +31131,7 @@
         <v>2</v>
       </c>
       <c r="AS156">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT156">
         <v>1.91</v>
@@ -31420,7 +31426,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31611,7 +31617,7 @@
         <v>157</v>
       </c>
       <c r="P159" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -31892,7 +31898,7 @@
         <v>2.5</v>
       </c>
       <c r="AT160">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU160">
         <v>1.92</v>
@@ -32274,7 +32280,7 @@
         <v>1.33</v>
       </c>
       <c r="AT162">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU162">
         <v>2.2</v>
@@ -32566,7 +32572,7 @@
         <v>196</v>
       </c>
       <c r="P164" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q164">
         <v>3</v>
@@ -32656,7 +32662,7 @@
         <v>1.25</v>
       </c>
       <c r="AT164">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU164">
         <v>1.54</v>
@@ -33139,7 +33145,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q167">
         <v>10</v>
@@ -33330,7 +33336,7 @@
         <v>86</v>
       </c>
       <c r="P168" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33420,7 +33426,7 @@
         <v>0.25</v>
       </c>
       <c r="AT168">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU168">
         <v>1.22</v>
@@ -33521,7 +33527,7 @@
         <v>199</v>
       </c>
       <c r="P169" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33903,7 +33909,7 @@
         <v>191</v>
       </c>
       <c r="P171" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -33990,7 +33996,7 @@
         <v>2.13</v>
       </c>
       <c r="AS171">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT171">
         <v>2</v>
@@ -34285,7 +34291,7 @@
         <v>202</v>
       </c>
       <c r="P173" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34476,7 +34482,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q174">
         <v>8</v>
@@ -34563,7 +34569,7 @@
         <v>1.88</v>
       </c>
       <c r="AS174">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT174">
         <v>1.58</v>
@@ -34858,7 +34864,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q176">
         <v>7</v>
@@ -35049,7 +35055,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q177">
         <v>7</v>
@@ -35240,7 +35246,7 @@
         <v>205</v>
       </c>
       <c r="P178" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q178">
         <v>6</v>
@@ -35431,7 +35437,7 @@
         <v>206</v>
       </c>
       <c r="P179" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q179">
         <v>5</v>
@@ -35900,7 +35906,7 @@
         <v>0.88</v>
       </c>
       <c r="AS181">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT181">
         <v>0.73</v>
@@ -36195,7 +36201,7 @@
         <v>86</v>
       </c>
       <c r="P183" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -36285,7 +36291,7 @@
         <v>1</v>
       </c>
       <c r="AT183">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU183">
         <v>1.49</v>
@@ -36577,7 +36583,7 @@
         <v>86</v>
       </c>
       <c r="P185" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q185">
         <v>6</v>
@@ -36768,7 +36774,7 @@
         <v>144</v>
       </c>
       <c r="P186" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q186">
         <v>10</v>
@@ -36858,7 +36864,7 @@
         <v>1.25</v>
       </c>
       <c r="AT186">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU186">
         <v>1.55</v>
@@ -36959,7 +36965,7 @@
         <v>86</v>
       </c>
       <c r="P187" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -37150,7 +37156,7 @@
         <v>209</v>
       </c>
       <c r="P188" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -37341,7 +37347,7 @@
         <v>131</v>
       </c>
       <c r="P189" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37428,7 +37434,7 @@
         <v>0.44</v>
       </c>
       <c r="AS189">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT189">
         <v>0.5</v>
@@ -37532,7 +37538,7 @@
         <v>86</v>
       </c>
       <c r="P190" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q190">
         <v>2</v>
@@ -38001,7 +38007,7 @@
         <v>0.67</v>
       </c>
       <c r="AS192">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT192">
         <v>0.64</v>
@@ -38105,7 +38111,7 @@
         <v>143</v>
       </c>
       <c r="P193" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38192,7 +38198,7 @@
         <v>0.67</v>
       </c>
       <c r="AS193">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT193">
         <v>0.82</v>
@@ -38296,7 +38302,7 @@
         <v>212</v>
       </c>
       <c r="P194" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q194">
         <v>5</v>
@@ -38383,7 +38389,7 @@
         <v>1.4</v>
       </c>
       <c r="AS194">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT194">
         <v>1.25</v>
@@ -38487,7 +38493,7 @@
         <v>152</v>
       </c>
       <c r="P195" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -38577,7 +38583,7 @@
         <v>0.27</v>
       </c>
       <c r="AT195">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU195">
         <v>1.58</v>
@@ -38869,7 +38875,7 @@
         <v>214</v>
       </c>
       <c r="P197" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q197">
         <v>2</v>
@@ -38959,7 +38965,7 @@
         <v>2.27</v>
       </c>
       <c r="AT197">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU197">
         <v>1.96</v>
@@ -39060,7 +39066,7 @@
         <v>86</v>
       </c>
       <c r="P198" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q198">
         <v>12</v>
@@ -39442,7 +39448,7 @@
         <v>216</v>
       </c>
       <c r="P200" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -39824,7 +39830,7 @@
         <v>86</v>
       </c>
       <c r="P202" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -40397,7 +40403,7 @@
         <v>86</v>
       </c>
       <c r="P205" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q205">
         <v>3</v>
@@ -40487,7 +40493,7 @@
         <v>1</v>
       </c>
       <c r="AT205">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU205">
         <v>1.5</v>
@@ -40779,7 +40785,7 @@
         <v>157</v>
       </c>
       <c r="P207" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -41352,7 +41358,7 @@
         <v>220</v>
       </c>
       <c r="P210" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q210">
         <v>9</v>
@@ -41543,7 +41549,7 @@
         <v>86</v>
       </c>
       <c r="P211" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -41925,7 +41931,7 @@
         <v>222</v>
       </c>
       <c r="P213" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42012,7 +42018,7 @@
         <v>0.6</v>
       </c>
       <c r="AS213">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT213">
         <v>0.64</v>
@@ -42203,7 +42209,7 @@
         <v>1.91</v>
       </c>
       <c r="AS214">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT214">
         <v>1.83</v>
@@ -42307,7 +42313,7 @@
         <v>86</v>
       </c>
       <c r="P215" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q215">
         <v>5</v>
@@ -42498,7 +42504,7 @@
         <v>224</v>
       </c>
       <c r="P216" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q216">
         <v>10</v>
@@ -42588,7 +42594,7 @@
         <v>1.36</v>
       </c>
       <c r="AT216">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU216">
         <v>1.88</v>
@@ -42689,7 +42695,7 @@
         <v>86</v>
       </c>
       <c r="P217" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -42776,7 +42782,7 @@
         <v>1.1</v>
       </c>
       <c r="AS217">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT217">
         <v>1.27</v>
@@ -43543,7 +43549,7 @@
         <v>0.25</v>
       </c>
       <c r="AT221">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU221">
         <v>1.12</v>
@@ -43644,7 +43650,7 @@
         <v>86</v>
       </c>
       <c r="P222" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q222">
         <v>1</v>
@@ -43734,7 +43740,7 @@
         <v>1.27</v>
       </c>
       <c r="AT222">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU222">
         <v>1.54</v>
@@ -43835,7 +43841,7 @@
         <v>168</v>
       </c>
       <c r="P223" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q223">
         <v>1</v>
@@ -44408,7 +44414,7 @@
         <v>228</v>
       </c>
       <c r="P226" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q226">
         <v>6</v>
@@ -44599,7 +44605,7 @@
         <v>86</v>
       </c>
       <c r="P227" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q227">
         <v>2</v>
@@ -44790,7 +44796,7 @@
         <v>176</v>
       </c>
       <c r="P228" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q228">
         <v>13</v>
@@ -44981,7 +44987,7 @@
         <v>86</v>
       </c>
       <c r="P229" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45363,7 +45369,7 @@
         <v>230</v>
       </c>
       <c r="P231" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q231">
         <v>5</v>
@@ -45505,6 +45511,579 @@
       </c>
       <c r="BK231">
         <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:63">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>2638228</v>
+      </c>
+      <c r="C232" t="s">
+        <v>63</v>
+      </c>
+      <c r="D232" t="s">
+        <v>64</v>
+      </c>
+      <c r="E232" s="2">
+        <v>44982.58333333334</v>
+      </c>
+      <c r="F232">
+        <v>24</v>
+      </c>
+      <c r="G232" t="s">
+        <v>79</v>
+      </c>
+      <c r="H232" t="s">
+        <v>80</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>2</v>
+      </c>
+      <c r="K232">
+        <v>2</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>2</v>
+      </c>
+      <c r="N232">
+        <v>2</v>
+      </c>
+      <c r="O232" t="s">
+        <v>86</v>
+      </c>
+      <c r="P232" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q232">
+        <v>4</v>
+      </c>
+      <c r="R232">
+        <v>13</v>
+      </c>
+      <c r="S232">
+        <v>17</v>
+      </c>
+      <c r="T232">
+        <v>6.5</v>
+      </c>
+      <c r="U232">
+        <v>2.5</v>
+      </c>
+      <c r="V232">
+        <v>1.91</v>
+      </c>
+      <c r="W232">
+        <v>1.3</v>
+      </c>
+      <c r="X232">
+        <v>3.4</v>
+      </c>
+      <c r="Y232">
+        <v>2.38</v>
+      </c>
+      <c r="Z232">
+        <v>1.53</v>
+      </c>
+      <c r="AA232">
+        <v>6</v>
+      </c>
+      <c r="AB232">
+        <v>1.13</v>
+      </c>
+      <c r="AC232">
+        <v>5.75</v>
+      </c>
+      <c r="AD232">
+        <v>4.25</v>
+      </c>
+      <c r="AE232">
+        <v>1.41</v>
+      </c>
+      <c r="AF232">
+        <v>1.02</v>
+      </c>
+      <c r="AG232">
+        <v>12</v>
+      </c>
+      <c r="AH232">
+        <v>1.2</v>
+      </c>
+      <c r="AI232">
+        <v>4.3</v>
+      </c>
+      <c r="AJ232">
+        <v>1.7</v>
+      </c>
+      <c r="AK232">
+        <v>2.1</v>
+      </c>
+      <c r="AL232">
+        <v>1.91</v>
+      </c>
+      <c r="AM232">
+        <v>1.91</v>
+      </c>
+      <c r="AN232">
+        <v>2.7</v>
+      </c>
+      <c r="AO232">
+        <v>1.19</v>
+      </c>
+      <c r="AP232">
+        <v>1.13</v>
+      </c>
+      <c r="AQ232">
+        <v>1.45</v>
+      </c>
+      <c r="AR232">
+        <v>2.58</v>
+      </c>
+      <c r="AS232">
+        <v>1.33</v>
+      </c>
+      <c r="AT232">
+        <v>2.62</v>
+      </c>
+      <c r="AU232">
+        <v>1.68</v>
+      </c>
+      <c r="AV232">
+        <v>1.76</v>
+      </c>
+      <c r="AW232">
+        <v>3.44</v>
+      </c>
+      <c r="AX232">
+        <v>4.7</v>
+      </c>
+      <c r="AY232">
+        <v>9.5</v>
+      </c>
+      <c r="AZ232">
+        <v>1.3</v>
+      </c>
+      <c r="BA232">
+        <v>1.24</v>
+      </c>
+      <c r="BB232">
+        <v>1.46</v>
+      </c>
+      <c r="BC232">
+        <v>1.82</v>
+      </c>
+      <c r="BD232">
+        <v>2.4</v>
+      </c>
+      <c r="BE232">
+        <v>3.3</v>
+      </c>
+      <c r="BF232">
+        <v>3</v>
+      </c>
+      <c r="BG232">
+        <v>8</v>
+      </c>
+      <c r="BH232">
+        <v>6</v>
+      </c>
+      <c r="BI232">
+        <v>13</v>
+      </c>
+      <c r="BJ232">
+        <v>9</v>
+      </c>
+      <c r="BK232">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="233" spans="1:63">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>2638231</v>
+      </c>
+      <c r="C233" t="s">
+        <v>63</v>
+      </c>
+      <c r="D233" t="s">
+        <v>64</v>
+      </c>
+      <c r="E233" s="2">
+        <v>44982.69791666666</v>
+      </c>
+      <c r="F233">
+        <v>24</v>
+      </c>
+      <c r="G233" t="s">
+        <v>67</v>
+      </c>
+      <c r="H233" t="s">
+        <v>78</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>1</v>
+      </c>
+      <c r="N233">
+        <v>1</v>
+      </c>
+      <c r="O233" t="s">
+        <v>86</v>
+      </c>
+      <c r="P233" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q233">
+        <v>4</v>
+      </c>
+      <c r="R233">
+        <v>7</v>
+      </c>
+      <c r="S233">
+        <v>11</v>
+      </c>
+      <c r="T233">
+        <v>3.1</v>
+      </c>
+      <c r="U233">
+        <v>2.1</v>
+      </c>
+      <c r="V233">
+        <v>3.5</v>
+      </c>
+      <c r="W233">
+        <v>1.44</v>
+      </c>
+      <c r="X233">
+        <v>2.63</v>
+      </c>
+      <c r="Y233">
+        <v>3</v>
+      </c>
+      <c r="Z233">
+        <v>1.36</v>
+      </c>
+      <c r="AA233">
+        <v>9</v>
+      </c>
+      <c r="AB233">
+        <v>1.07</v>
+      </c>
+      <c r="AC233">
+        <v>2.5</v>
+      </c>
+      <c r="AD233">
+        <v>3.2</v>
+      </c>
+      <c r="AE233">
+        <v>2.9</v>
+      </c>
+      <c r="AF233">
+        <v>1.05</v>
+      </c>
+      <c r="AG233">
+        <v>9</v>
+      </c>
+      <c r="AH233">
+        <v>1.33</v>
+      </c>
+      <c r="AI233">
+        <v>3.2</v>
+      </c>
+      <c r="AJ233">
+        <v>1.8</v>
+      </c>
+      <c r="AK233">
+        <v>1.91</v>
+      </c>
+      <c r="AL233">
+        <v>1.8</v>
+      </c>
+      <c r="AM233">
+        <v>1.95</v>
+      </c>
+      <c r="AN233">
+        <v>1.42</v>
+      </c>
+      <c r="AO233">
+        <v>1.3</v>
+      </c>
+      <c r="AP233">
+        <v>1.57</v>
+      </c>
+      <c r="AQ233">
+        <v>1.09</v>
+      </c>
+      <c r="AR233">
+        <v>0.83</v>
+      </c>
+      <c r="AS233">
+        <v>1</v>
+      </c>
+      <c r="AT233">
+        <v>1</v>
+      </c>
+      <c r="AU233">
+        <v>1.38</v>
+      </c>
+      <c r="AV233">
+        <v>1.54</v>
+      </c>
+      <c r="AW233">
+        <v>2.92</v>
+      </c>
+      <c r="AX233">
+        <v>2.02</v>
+      </c>
+      <c r="AY233">
+        <v>7.6</v>
+      </c>
+      <c r="AZ233">
+        <v>2.17</v>
+      </c>
+      <c r="BA233">
+        <v>1.37</v>
+      </c>
+      <c r="BB233">
+        <v>1.62</v>
+      </c>
+      <c r="BC233">
+        <v>2</v>
+      </c>
+      <c r="BD233">
+        <v>2.55</v>
+      </c>
+      <c r="BE233">
+        <v>3.4</v>
+      </c>
+      <c r="BF233">
+        <v>2</v>
+      </c>
+      <c r="BG233">
+        <v>4</v>
+      </c>
+      <c r="BH233">
+        <v>16</v>
+      </c>
+      <c r="BI233">
+        <v>4</v>
+      </c>
+      <c r="BJ233">
+        <v>18</v>
+      </c>
+      <c r="BK233">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:63">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>2638226</v>
+      </c>
+      <c r="C234" t="s">
+        <v>63</v>
+      </c>
+      <c r="D234" t="s">
+        <v>64</v>
+      </c>
+      <c r="E234" s="2">
+        <v>44983.35416666666</v>
+      </c>
+      <c r="F234">
+        <v>24</v>
+      </c>
+      <c r="G234" t="s">
+        <v>82</v>
+      </c>
+      <c r="H234" t="s">
+        <v>77</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>1</v>
+      </c>
+      <c r="M234">
+        <v>0</v>
+      </c>
+      <c r="N234">
+        <v>1</v>
+      </c>
+      <c r="O234" t="s">
+        <v>231</v>
+      </c>
+      <c r="P234" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q234">
+        <v>0</v>
+      </c>
+      <c r="R234">
+        <v>2</v>
+      </c>
+      <c r="S234">
+        <v>2</v>
+      </c>
+      <c r="T234">
+        <v>5.5</v>
+      </c>
+      <c r="U234">
+        <v>2.2</v>
+      </c>
+      <c r="V234">
+        <v>2.38</v>
+      </c>
+      <c r="W234">
+        <v>1.44</v>
+      </c>
+      <c r="X234">
+        <v>2.63</v>
+      </c>
+      <c r="Y234">
+        <v>3</v>
+      </c>
+      <c r="Z234">
+        <v>1.36</v>
+      </c>
+      <c r="AA234">
+        <v>9</v>
+      </c>
+      <c r="AB234">
+        <v>1.07</v>
+      </c>
+      <c r="AC234">
+        <v>5</v>
+      </c>
+      <c r="AD234">
+        <v>3.7</v>
+      </c>
+      <c r="AE234">
+        <v>1.65</v>
+      </c>
+      <c r="AF234">
+        <v>1.06</v>
+      </c>
+      <c r="AG234">
+        <v>10</v>
+      </c>
+      <c r="AH234">
+        <v>1.33</v>
+      </c>
+      <c r="AI234">
+        <v>3.4</v>
+      </c>
+      <c r="AJ234">
+        <v>1.91</v>
+      </c>
+      <c r="AK234">
+        <v>1.89</v>
+      </c>
+      <c r="AL234">
+        <v>1.95</v>
+      </c>
+      <c r="AM234">
+        <v>1.8</v>
+      </c>
+      <c r="AN234">
+        <v>2.05</v>
+      </c>
+      <c r="AO234">
+        <v>1.27</v>
+      </c>
+      <c r="AP234">
+        <v>1.18</v>
+      </c>
+      <c r="AQ234">
+        <v>1.58</v>
+      </c>
+      <c r="AR234">
+        <v>1.55</v>
+      </c>
+      <c r="AS234">
+        <v>1.69</v>
+      </c>
+      <c r="AT234">
+        <v>1.42</v>
+      </c>
+      <c r="AU234">
+        <v>1.58</v>
+      </c>
+      <c r="AV234">
+        <v>1.84</v>
+      </c>
+      <c r="AW234">
+        <v>3.42</v>
+      </c>
+      <c r="AX234">
+        <v>3.2</v>
+      </c>
+      <c r="AY234">
+        <v>6.5</v>
+      </c>
+      <c r="AZ234">
+        <v>1.55</v>
+      </c>
+      <c r="BA234">
+        <v>1.27</v>
+      </c>
+      <c r="BB234">
+        <v>1.51</v>
+      </c>
+      <c r="BC234">
+        <v>1.9</v>
+      </c>
+      <c r="BD234">
+        <v>2.5</v>
+      </c>
+      <c r="BE234">
+        <v>3.5</v>
+      </c>
+      <c r="BF234">
+        <v>3</v>
+      </c>
+      <c r="BG234">
+        <v>2</v>
+      </c>
+      <c r="BH234">
+        <v>2</v>
+      </c>
+      <c r="BI234">
+        <v>4</v>
+      </c>
+      <c r="BJ234">
+        <v>5</v>
+      </c>
+      <c r="BK234">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="341">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -712,6 +712,15 @@
     <t>['76']</t>
   </si>
   <si>
+    <t>['51', '65', '71']</t>
+  </si>
+  <si>
+    <t>['22', '55']</t>
+  </si>
+  <si>
+    <t>['25', '86']</t>
+  </si>
+  <si>
     <t>['2', '45+4']</t>
   </si>
   <si>
@@ -1025,6 +1034,9 @@
   </si>
   <si>
     <t>['17', '28']</t>
+  </si>
+  <si>
+    <t>['6', '72']</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK234"/>
+  <dimension ref="A1:BK237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1630,7 +1642,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1717,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT2">
         <v>1.25</v>
@@ -1821,7 +1833,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1911,7 +1923,7 @@
         <v>0.25</v>
       </c>
       <c r="AT3">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2012,7 +2024,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -2203,7 +2215,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2394,7 +2406,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q6">
         <v>11</v>
@@ -2585,7 +2597,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2863,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT8">
         <v>1.83</v>
@@ -3158,7 +3170,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3627,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT12">
         <v>0.82</v>
@@ -4012,7 +4024,7 @@
         <v>2.5</v>
       </c>
       <c r="AT14">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4585,7 +4597,7 @@
         <v>2.82</v>
       </c>
       <c r="AT17">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -5450,7 +5462,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -6023,7 +6035,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6301,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT26">
         <v>1.18</v>
@@ -6405,7 +6417,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6596,7 +6608,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6686,7 +6698,7 @@
         <v>1.08</v>
       </c>
       <c r="AT28">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU28">
         <v>0.91</v>
@@ -6874,7 +6886,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT29">
         <v>0.73</v>
@@ -6978,7 +6990,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7832,7 +7844,7 @@
         <v>2</v>
       </c>
       <c r="AT34">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU34">
         <v>2.92</v>
@@ -8020,7 +8032,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT35">
         <v>0.82</v>
@@ -8787,7 +8799,7 @@
         <v>2.25</v>
       </c>
       <c r="AT39">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU39">
         <v>1.67</v>
@@ -8888,7 +8900,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -9079,7 +9091,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9270,7 +9282,7 @@
         <v>97</v>
       </c>
       <c r="P42" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -9461,7 +9473,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9548,7 +9560,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT43">
         <v>1.42</v>
@@ -9652,7 +9664,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10034,7 +10046,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -10503,7 +10515,7 @@
         <v>2</v>
       </c>
       <c r="AS48">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT48">
         <v>1.83</v>
@@ -10607,7 +10619,7 @@
         <v>86</v>
       </c>
       <c r="P49" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10697,7 +10709,7 @@
         <v>1.25</v>
       </c>
       <c r="AT49">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU49">
         <v>1.56</v>
@@ -10798,7 +10810,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10885,7 +10897,7 @@
         <v>0.5</v>
       </c>
       <c r="AS50">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT50">
         <v>1</v>
@@ -11270,7 +11282,7 @@
         <v>2.82</v>
       </c>
       <c r="AT52">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU52">
         <v>2.28</v>
@@ -11562,7 +11574,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -11753,7 +11765,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11944,7 +11956,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12225,7 +12237,7 @@
         <v>1</v>
       </c>
       <c r="AT57">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU57">
         <v>1.54</v>
@@ -12326,7 +12338,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12708,7 +12720,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -12899,7 +12911,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13090,7 +13102,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13177,7 +13189,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT62">
         <v>1.25</v>
@@ -13281,7 +13293,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13663,7 +13675,7 @@
         <v>86</v>
       </c>
       <c r="P65" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13854,7 +13866,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13941,7 +13953,7 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT66">
         <v>1.42</v>
@@ -14427,7 +14439,7 @@
         <v>86</v>
       </c>
       <c r="P69" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14708,7 +14720,7 @@
         <v>2</v>
       </c>
       <c r="AT70">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU70">
         <v>2.3</v>
@@ -14809,7 +14821,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -14896,7 +14908,7 @@
         <v>2.33</v>
       </c>
       <c r="AS71">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT71">
         <v>2.62</v>
@@ -15000,7 +15012,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15191,7 +15203,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15382,7 +15394,7 @@
         <v>111</v>
       </c>
       <c r="P74" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15663,7 +15675,7 @@
         <v>1.75</v>
       </c>
       <c r="AT75">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU75">
         <v>1.52</v>
@@ -15955,7 +15967,7 @@
         <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -16045,7 +16057,7 @@
         <v>0.25</v>
       </c>
       <c r="AT77">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU77">
         <v>1.29</v>
@@ -16719,7 +16731,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16910,7 +16922,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17188,7 +17200,7 @@
         <v>0.67</v>
       </c>
       <c r="AS83">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT83">
         <v>1.82</v>
@@ -17292,7 +17304,7 @@
         <v>100</v>
       </c>
       <c r="P84" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17674,7 +17686,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17761,10 +17773,10 @@
         <v>3</v>
       </c>
       <c r="AS86">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT86">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU86">
         <v>1.64</v>
@@ -17952,7 +17964,7 @@
         <v>0.5</v>
       </c>
       <c r="AS87">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT87">
         <v>0.36</v>
@@ -18146,7 +18158,7 @@
         <v>1.25</v>
       </c>
       <c r="AT88">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU88">
         <v>1.57</v>
@@ -18247,7 +18259,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18629,7 +18641,7 @@
         <v>86</v>
       </c>
       <c r="P91" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18910,7 +18922,7 @@
         <v>1.33</v>
       </c>
       <c r="AT92">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU92">
         <v>1.56</v>
@@ -19584,7 +19596,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19966,7 +19978,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20157,7 +20169,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q99">
         <v>9</v>
@@ -20348,7 +20360,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -21008,10 +21020,10 @@
         <v>0</v>
       </c>
       <c r="AS103">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT103">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU103">
         <v>1.63</v>
@@ -21199,10 +21211,10 @@
         <v>0.8</v>
       </c>
       <c r="AS104">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT104">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU104">
         <v>2.04</v>
@@ -21303,7 +21315,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21494,7 +21506,7 @@
         <v>112</v>
       </c>
       <c r="P106" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21581,7 +21593,7 @@
         <v>1.2</v>
       </c>
       <c r="AS106">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT106">
         <v>1.25</v>
@@ -21876,7 +21888,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -22258,7 +22270,7 @@
         <v>86</v>
       </c>
       <c r="P110" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22831,7 +22843,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q113">
         <v>7</v>
@@ -23213,7 +23225,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23303,7 +23315,7 @@
         <v>1.33</v>
       </c>
       <c r="AT115">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU115">
         <v>1.57</v>
@@ -23404,7 +23416,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -23786,7 +23798,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23977,7 +23989,7 @@
         <v>167</v>
       </c>
       <c r="P119" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24168,7 +24180,7 @@
         <v>112</v>
       </c>
       <c r="P120" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24359,7 +24371,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24637,7 +24649,7 @@
         <v>0.67</v>
       </c>
       <c r="AS122">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT122">
         <v>1.25</v>
@@ -24741,7 +24753,7 @@
         <v>169</v>
       </c>
       <c r="P123" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q123">
         <v>2</v>
@@ -24828,7 +24840,7 @@
         <v>0.5</v>
       </c>
       <c r="AS123">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT123">
         <v>0.5</v>
@@ -25123,7 +25135,7 @@
         <v>157</v>
       </c>
       <c r="P125" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25401,10 +25413,10 @@
         <v>0</v>
       </c>
       <c r="AS126">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT126">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU126">
         <v>1.98</v>
@@ -25696,7 +25708,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27314,7 +27326,7 @@
         <v>1</v>
       </c>
       <c r="AT136">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU136">
         <v>1.16</v>
@@ -27606,7 +27618,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -28269,7 +28281,7 @@
         <v>1.75</v>
       </c>
       <c r="AT141">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU141">
         <v>1.51</v>
@@ -28561,7 +28573,7 @@
         <v>182</v>
       </c>
       <c r="P143" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28752,7 +28764,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q144">
         <v>9</v>
@@ -29134,7 +29146,7 @@
         <v>184</v>
       </c>
       <c r="P146" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29325,7 +29337,7 @@
         <v>137</v>
       </c>
       <c r="P147" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29415,7 +29427,7 @@
         <v>1.08</v>
       </c>
       <c r="AT147">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU147">
         <v>1.41</v>
@@ -29898,7 +29910,7 @@
         <v>186</v>
       </c>
       <c r="P150" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -29985,7 +29997,7 @@
         <v>1.14</v>
       </c>
       <c r="AS150">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT150">
         <v>0.82</v>
@@ -30280,7 +30292,7 @@
         <v>188</v>
       </c>
       <c r="P152" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -30367,7 +30379,7 @@
         <v>1.71</v>
       </c>
       <c r="AS152">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT152">
         <v>1.58</v>
@@ -30471,7 +30483,7 @@
         <v>170</v>
       </c>
       <c r="P153" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q153">
         <v>9</v>
@@ -30662,7 +30674,7 @@
         <v>189</v>
       </c>
       <c r="P154" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30752,7 +30764,7 @@
         <v>1</v>
       </c>
       <c r="AT154">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU154">
         <v>1.64</v>
@@ -31044,7 +31056,7 @@
         <v>190</v>
       </c>
       <c r="P156" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -31426,7 +31438,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31617,7 +31629,7 @@
         <v>157</v>
       </c>
       <c r="P159" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -31707,7 +31719,7 @@
         <v>1.33</v>
       </c>
       <c r="AT159">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU159">
         <v>2.17</v>
@@ -32086,7 +32098,7 @@
         <v>0.86</v>
       </c>
       <c r="AS161">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT161">
         <v>1</v>
@@ -32572,7 +32584,7 @@
         <v>196</v>
       </c>
       <c r="P164" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q164">
         <v>3</v>
@@ -32850,7 +32862,7 @@
         <v>1.25</v>
       </c>
       <c r="AS165">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT165">
         <v>1.25</v>
@@ -33145,7 +33157,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q167">
         <v>10</v>
@@ -33336,7 +33348,7 @@
         <v>86</v>
       </c>
       <c r="P168" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33527,7 +33539,7 @@
         <v>199</v>
       </c>
       <c r="P169" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33614,7 +33626,7 @@
         <v>2.13</v>
       </c>
       <c r="AS169">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT169">
         <v>1.83</v>
@@ -33909,7 +33921,7 @@
         <v>191</v>
       </c>
       <c r="P171" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -33999,7 +34011,7 @@
         <v>1.69</v>
       </c>
       <c r="AT171">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU171">
         <v>1.4</v>
@@ -34291,7 +34303,7 @@
         <v>202</v>
       </c>
       <c r="P173" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34381,7 +34393,7 @@
         <v>0.27</v>
       </c>
       <c r="AT173">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU173">
         <v>1.56</v>
@@ -34482,7 +34494,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q174">
         <v>8</v>
@@ -34864,7 +34876,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q176">
         <v>7</v>
@@ -35055,7 +35067,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q177">
         <v>7</v>
@@ -35145,7 +35157,7 @@
         <v>1.45</v>
       </c>
       <c r="AT177">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU177">
         <v>1.42</v>
@@ -35246,7 +35258,7 @@
         <v>205</v>
       </c>
       <c r="P178" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q178">
         <v>6</v>
@@ -35333,7 +35345,7 @@
         <v>0.5</v>
       </c>
       <c r="AS178">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT178">
         <v>1.18</v>
@@ -35437,7 +35449,7 @@
         <v>206</v>
       </c>
       <c r="P179" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q179">
         <v>5</v>
@@ -36201,7 +36213,7 @@
         <v>86</v>
       </c>
       <c r="P183" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -36288,7 +36300,7 @@
         <v>2.44</v>
       </c>
       <c r="AS183">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT183">
         <v>2.62</v>
@@ -36583,7 +36595,7 @@
         <v>86</v>
       </c>
       <c r="P185" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q185">
         <v>6</v>
@@ -36774,7 +36786,7 @@
         <v>144</v>
       </c>
       <c r="P186" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q186">
         <v>10</v>
@@ -36965,7 +36977,7 @@
         <v>86</v>
       </c>
       <c r="P187" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -37156,7 +37168,7 @@
         <v>209</v>
       </c>
       <c r="P188" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -37246,7 +37258,7 @@
         <v>2.25</v>
       </c>
       <c r="AT188">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU188">
         <v>1.87</v>
@@ -37347,7 +37359,7 @@
         <v>131</v>
       </c>
       <c r="P189" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37538,7 +37550,7 @@
         <v>86</v>
       </c>
       <c r="P190" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q190">
         <v>2</v>
@@ -38010,7 +38022,7 @@
         <v>1.69</v>
       </c>
       <c r="AT192">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU192">
         <v>1.49</v>
@@ -38111,7 +38123,7 @@
         <v>143</v>
       </c>
       <c r="P193" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38302,7 +38314,7 @@
         <v>212</v>
       </c>
       <c r="P194" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q194">
         <v>5</v>
@@ -38493,7 +38505,7 @@
         <v>152</v>
       </c>
       <c r="P195" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -38875,7 +38887,7 @@
         <v>214</v>
       </c>
       <c r="P197" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q197">
         <v>2</v>
@@ -38962,7 +38974,7 @@
         <v>0.6</v>
       </c>
       <c r="AS197">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT197">
         <v>1</v>
@@ -39066,7 +39078,7 @@
         <v>86</v>
       </c>
       <c r="P198" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q198">
         <v>12</v>
@@ -39156,7 +39168,7 @@
         <v>2.25</v>
       </c>
       <c r="AT198">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU198">
         <v>1.89</v>
@@ -39448,7 +39460,7 @@
         <v>216</v>
       </c>
       <c r="P200" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -39726,7 +39738,7 @@
         <v>0.33</v>
       </c>
       <c r="AS201">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT201">
         <v>0.36</v>
@@ -39830,7 +39842,7 @@
         <v>86</v>
       </c>
       <c r="P202" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -40302,7 +40314,7 @@
         <v>1.27</v>
       </c>
       <c r="AT204">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU204">
         <v>1.47</v>
@@ -40403,7 +40415,7 @@
         <v>86</v>
       </c>
       <c r="P205" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q205">
         <v>3</v>
@@ -40785,7 +40797,7 @@
         <v>157</v>
       </c>
       <c r="P207" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -41358,7 +41370,7 @@
         <v>220</v>
       </c>
       <c r="P210" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q210">
         <v>9</v>
@@ -41549,7 +41561,7 @@
         <v>86</v>
       </c>
       <c r="P211" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -41636,7 +41648,7 @@
         <v>1.56</v>
       </c>
       <c r="AS211">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT211">
         <v>1.82</v>
@@ -41827,7 +41839,7 @@
         <v>1.36</v>
       </c>
       <c r="AS212">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT212">
         <v>1.25</v>
@@ -41931,7 +41943,7 @@
         <v>222</v>
       </c>
       <c r="P213" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42021,7 +42033,7 @@
         <v>1.33</v>
       </c>
       <c r="AT213">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU213">
         <v>1.58</v>
@@ -42313,7 +42325,7 @@
         <v>86</v>
       </c>
       <c r="P215" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q215">
         <v>5</v>
@@ -42403,7 +42415,7 @@
         <v>1.75</v>
       </c>
       <c r="AT215">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU215">
         <v>1.5</v>
@@ -42504,7 +42516,7 @@
         <v>224</v>
       </c>
       <c r="P216" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q216">
         <v>10</v>
@@ -42591,7 +42603,7 @@
         <v>0.82</v>
       </c>
       <c r="AS216">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT216">
         <v>1</v>
@@ -42695,7 +42707,7 @@
         <v>86</v>
       </c>
       <c r="P217" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -42785,7 +42797,7 @@
         <v>1.69</v>
       </c>
       <c r="AT217">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU217">
         <v>1.54</v>
@@ -43650,7 +43662,7 @@
         <v>86</v>
       </c>
       <c r="P222" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q222">
         <v>1</v>
@@ -43841,7 +43853,7 @@
         <v>168</v>
       </c>
       <c r="P223" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q223">
         <v>1</v>
@@ -44414,7 +44426,7 @@
         <v>228</v>
       </c>
       <c r="P226" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q226">
         <v>6</v>
@@ -44605,7 +44617,7 @@
         <v>86</v>
       </c>
       <c r="P227" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q227">
         <v>2</v>
@@ -44692,7 +44704,7 @@
         <v>1.8</v>
       </c>
       <c r="AS227">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT227">
         <v>1.91</v>
@@ -44796,7 +44808,7 @@
         <v>176</v>
       </c>
       <c r="P228" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q228">
         <v>13</v>
@@ -44987,7 +44999,7 @@
         <v>86</v>
       </c>
       <c r="P229" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45369,7 +45381,7 @@
         <v>230</v>
       </c>
       <c r="P231" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q231">
         <v>5</v>
@@ -45560,7 +45572,7 @@
         <v>86</v>
       </c>
       <c r="P232" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q232">
         <v>4</v>
@@ -45945,13 +45957,13 @@
         <v>86</v>
       </c>
       <c r="Q234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R234">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S234">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T234">
         <v>5.5</v>
@@ -46068,22 +46080,595 @@
         <v>3.5</v>
       </c>
       <c r="BF234">
+        <v>7</v>
+      </c>
+      <c r="BG234">
+        <v>5</v>
+      </c>
+      <c r="BH234">
+        <v>7</v>
+      </c>
+      <c r="BI234">
+        <v>9</v>
+      </c>
+      <c r="BJ234">
+        <v>14</v>
+      </c>
+      <c r="BK234">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235" spans="1:63">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>2638234</v>
+      </c>
+      <c r="C235" t="s">
+        <v>63</v>
+      </c>
+      <c r="D235" t="s">
+        <v>64</v>
+      </c>
+      <c r="E235" s="2">
+        <v>44983.45833333334</v>
+      </c>
+      <c r="F235">
+        <v>24</v>
+      </c>
+      <c r="G235" t="s">
+        <v>71</v>
+      </c>
+      <c r="H235" t="s">
+        <v>68</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
+      <c r="L235">
         <v>3</v>
       </c>
-      <c r="BG234">
-        <v>2</v>
-      </c>
-      <c r="BH234">
-        <v>2</v>
-      </c>
-      <c r="BI234">
+      <c r="M235">
+        <v>0</v>
+      </c>
+      <c r="N235">
+        <v>3</v>
+      </c>
+      <c r="O235" t="s">
+        <v>232</v>
+      </c>
+      <c r="P235" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q235">
+        <v>1</v>
+      </c>
+      <c r="R235">
+        <v>3</v>
+      </c>
+      <c r="S235">
         <v>4</v>
       </c>
-      <c r="BJ234">
+      <c r="T235">
+        <v>3.75</v>
+      </c>
+      <c r="U235">
+        <v>2.1</v>
+      </c>
+      <c r="V235">
+        <v>3</v>
+      </c>
+      <c r="W235">
+        <v>1.4</v>
+      </c>
+      <c r="X235">
+        <v>2.75</v>
+      </c>
+      <c r="Y235">
+        <v>3</v>
+      </c>
+      <c r="Z235">
+        <v>1.36</v>
+      </c>
+      <c r="AA235">
+        <v>8</v>
+      </c>
+      <c r="AB235">
+        <v>1.08</v>
+      </c>
+      <c r="AC235">
+        <v>3.3</v>
+      </c>
+      <c r="AD235">
+        <v>3.4</v>
+      </c>
+      <c r="AE235">
+        <v>2.1</v>
+      </c>
+      <c r="AF235">
+        <v>1.06</v>
+      </c>
+      <c r="AG235">
+        <v>11</v>
+      </c>
+      <c r="AH235">
+        <v>1.33</v>
+      </c>
+      <c r="AI235">
+        <v>3.3</v>
+      </c>
+      <c r="AJ235">
+        <v>2.05</v>
+      </c>
+      <c r="AK235">
+        <v>1.78</v>
+      </c>
+      <c r="AL235">
+        <v>1.75</v>
+      </c>
+      <c r="AM235">
+        <v>2</v>
+      </c>
+      <c r="AN235">
+        <v>1.63</v>
+      </c>
+      <c r="AO235">
+        <v>1.31</v>
+      </c>
+      <c r="AP235">
+        <v>1.33</v>
+      </c>
+      <c r="AQ235">
+        <v>1</v>
+      </c>
+      <c r="AR235">
+        <v>1.27</v>
+      </c>
+      <c r="AS235">
+        <v>1.15</v>
+      </c>
+      <c r="AT235">
+        <v>1.17</v>
+      </c>
+      <c r="AU235">
+        <v>1.28</v>
+      </c>
+      <c r="AV235">
+        <v>1.24</v>
+      </c>
+      <c r="AW235">
+        <v>2.52</v>
+      </c>
+      <c r="AX235">
+        <v>2.1</v>
+      </c>
+      <c r="AY235">
+        <v>6</v>
+      </c>
+      <c r="AZ235">
+        <v>2.1</v>
+      </c>
+      <c r="BA235">
+        <v>1.26</v>
+      </c>
+      <c r="BB235">
+        <v>1.49</v>
+      </c>
+      <c r="BC235">
+        <v>1.85</v>
+      </c>
+      <c r="BD235">
+        <v>2.45</v>
+      </c>
+      <c r="BE235">
+        <v>3.4</v>
+      </c>
+      <c r="BF235">
         <v>5</v>
       </c>
-      <c r="BK234">
+      <c r="BG235">
+        <v>4</v>
+      </c>
+      <c r="BH235">
+        <v>8</v>
+      </c>
+      <c r="BI235">
+        <v>12</v>
+      </c>
+      <c r="BJ235">
+        <v>13</v>
+      </c>
+      <c r="BK235">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="236" spans="1:63">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>2638235</v>
+      </c>
+      <c r="C236" t="s">
+        <v>63</v>
+      </c>
+      <c r="D236" t="s">
+        <v>64</v>
+      </c>
+      <c r="E236" s="2">
+        <v>44983.58333333334</v>
+      </c>
+      <c r="F236">
+        <v>24</v>
+      </c>
+      <c r="G236" t="s">
+        <v>75</v>
+      </c>
+      <c r="H236" t="s">
+        <v>72</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236">
+        <v>1</v>
+      </c>
+      <c r="K236">
+        <v>2</v>
+      </c>
+      <c r="L236">
+        <v>2</v>
+      </c>
+      <c r="M236">
+        <v>2</v>
+      </c>
+      <c r="N236">
+        <v>4</v>
+      </c>
+      <c r="O236" t="s">
+        <v>233</v>
+      </c>
+      <c r="P236" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q236">
+        <v>5</v>
+      </c>
+      <c r="R236">
+        <v>2</v>
+      </c>
+      <c r="S236">
+        <v>7</v>
+      </c>
+      <c r="T236">
+        <v>2.2</v>
+      </c>
+      <c r="U236">
+        <v>2.25</v>
+      </c>
+      <c r="V236">
+        <v>5.5</v>
+      </c>
+      <c r="W236">
+        <v>1.36</v>
+      </c>
+      <c r="X236">
+        <v>3</v>
+      </c>
+      <c r="Y236">
+        <v>2.75</v>
+      </c>
+      <c r="Z236">
+        <v>1.4</v>
+      </c>
+      <c r="AA236">
+        <v>7</v>
+      </c>
+      <c r="AB236">
+        <v>1.1</v>
+      </c>
+      <c r="AC236">
+        <v>1.72</v>
+      </c>
+      <c r="AD236">
+        <v>4.06</v>
+      </c>
+      <c r="AE236">
+        <v>5.3</v>
+      </c>
+      <c r="AF236">
+        <v>1.04</v>
+      </c>
+      <c r="AG236">
+        <v>12</v>
+      </c>
+      <c r="AH236">
+        <v>1.28</v>
+      </c>
+      <c r="AI236">
+        <v>3.75</v>
+      </c>
+      <c r="AJ236">
+        <v>1.93</v>
+      </c>
+      <c r="AK236">
+        <v>1.97</v>
+      </c>
+      <c r="AL236">
+        <v>1.91</v>
+      </c>
+      <c r="AM236">
+        <v>1.91</v>
+      </c>
+      <c r="AN236">
+        <v>1.15</v>
+      </c>
+      <c r="AO236">
+        <v>1.25</v>
+      </c>
+      <c r="AP236">
+        <v>2.2</v>
+      </c>
+      <c r="AQ236">
+        <v>1.36</v>
+      </c>
+      <c r="AR236">
+        <v>0.64</v>
+      </c>
+      <c r="AS236">
+        <v>1.33</v>
+      </c>
+      <c r="AT236">
+        <v>0.67</v>
+      </c>
+      <c r="AU236">
+        <v>1.9</v>
+      </c>
+      <c r="AV236">
+        <v>1.33</v>
+      </c>
+      <c r="AW236">
+        <v>3.23</v>
+      </c>
+      <c r="AX236">
+        <v>1.55</v>
+      </c>
+      <c r="AY236">
+        <v>6.5</v>
+      </c>
+      <c r="AZ236">
+        <v>3.1</v>
+      </c>
+      <c r="BA236">
+        <v>1.22</v>
+      </c>
+      <c r="BB236">
+        <v>1.43</v>
+      </c>
+      <c r="BC236">
+        <v>1.75</v>
+      </c>
+      <c r="BD236">
+        <v>2.3</v>
+      </c>
+      <c r="BE236">
+        <v>3.2</v>
+      </c>
+      <c r="BF236">
+        <v>7</v>
+      </c>
+      <c r="BG236">
+        <v>3</v>
+      </c>
+      <c r="BH236">
+        <v>11</v>
+      </c>
+      <c r="BI236">
+        <v>8</v>
+      </c>
+      <c r="BJ236">
+        <v>18</v>
+      </c>
+      <c r="BK236">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237" spans="1:63">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>2638232</v>
+      </c>
+      <c r="C237" t="s">
+        <v>63</v>
+      </c>
+      <c r="D237" t="s">
+        <v>64</v>
+      </c>
+      <c r="E237" s="2">
+        <v>44983.69791666666</v>
+      </c>
+      <c r="F237">
+        <v>24</v>
+      </c>
+      <c r="G237" t="s">
+        <v>65</v>
+      </c>
+      <c r="H237" t="s">
+        <v>81</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>1</v>
+      </c>
+      <c r="L237">
+        <v>2</v>
+      </c>
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237">
+        <v>2</v>
+      </c>
+      <c r="O237" t="s">
+        <v>234</v>
+      </c>
+      <c r="P237" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q237">
+        <v>4</v>
+      </c>
+      <c r="R237">
+        <v>3</v>
+      </c>
+      <c r="S237">
+        <v>7</v>
+      </c>
+      <c r="T237">
+        <v>2.75</v>
+      </c>
+      <c r="U237">
+        <v>2.2</v>
+      </c>
+      <c r="V237">
+        <v>3.75</v>
+      </c>
+      <c r="W237">
+        <v>1.36</v>
+      </c>
+      <c r="X237">
+        <v>3</v>
+      </c>
+      <c r="Y237">
+        <v>2.75</v>
+      </c>
+      <c r="Z237">
+        <v>1.4</v>
+      </c>
+      <c r="AA237">
+        <v>7</v>
+      </c>
+      <c r="AB237">
+        <v>1.1</v>
+      </c>
+      <c r="AC237">
+        <v>2.2</v>
+      </c>
+      <c r="AD237">
+        <v>3.3</v>
+      </c>
+      <c r="AE237">
+        <v>3.3</v>
+      </c>
+      <c r="AF237">
+        <v>1.05</v>
+      </c>
+      <c r="AG237">
+        <v>11</v>
+      </c>
+      <c r="AH237">
+        <v>1.3</v>
+      </c>
+      <c r="AI237">
+        <v>3.6</v>
+      </c>
+      <c r="AJ237">
+        <v>1.9</v>
+      </c>
+      <c r="AK237">
+        <v>2</v>
+      </c>
+      <c r="AL237">
+        <v>1.7</v>
+      </c>
+      <c r="AM237">
+        <v>2.05</v>
+      </c>
+      <c r="AN237">
+        <v>1.32</v>
+      </c>
+      <c r="AO237">
+        <v>1.31</v>
+      </c>
+      <c r="AP237">
+        <v>1.65</v>
+      </c>
+      <c r="AQ237">
+        <v>2.27</v>
+      </c>
+      <c r="AR237">
+        <v>2</v>
+      </c>
+      <c r="AS237">
+        <v>2.33</v>
+      </c>
+      <c r="AT237">
+        <v>1.85</v>
+      </c>
+      <c r="AU237">
+        <v>1.86</v>
+      </c>
+      <c r="AV237">
+        <v>1.64</v>
+      </c>
+      <c r="AW237">
+        <v>3.5</v>
+      </c>
+      <c r="AX237">
+        <v>1.98</v>
+      </c>
+      <c r="AY237">
         <v>6</v>
+      </c>
+      <c r="AZ237">
+        <v>2.2</v>
+      </c>
+      <c r="BA237">
+        <v>1.29</v>
+      </c>
+      <c r="BB237">
+        <v>1.55</v>
+      </c>
+      <c r="BC237">
+        <v>1.95</v>
+      </c>
+      <c r="BD237">
+        <v>2.65</v>
+      </c>
+      <c r="BE237">
+        <v>3.75</v>
+      </c>
+      <c r="BF237">
+        <v>5</v>
+      </c>
+      <c r="BG237">
+        <v>0</v>
+      </c>
+      <c r="BH237">
+        <v>9</v>
+      </c>
+      <c r="BI237">
+        <v>5</v>
+      </c>
+      <c r="BJ237">
+        <v>14</v>
+      </c>
+      <c r="BK237">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="346">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -721,6 +721,12 @@
     <t>['25', '86']</t>
   </si>
   <si>
+    <t>['17', '83']</t>
+  </si>
+  <si>
+    <t>['16', '45+1', '71', '80']</t>
+  </si>
+  <si>
     <t>['2', '45+4']</t>
   </si>
   <si>
@@ -1037,6 +1043,15 @@
   </si>
   <si>
     <t>['6', '72']</t>
+  </si>
+  <si>
+    <t>['12', '38', '89']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['2', '43']</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK237"/>
+  <dimension ref="A1:BK241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1642,7 +1657,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1833,7 +1848,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2024,7 +2039,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -2215,7 +2230,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2305,7 +2320,7 @@
         <v>1.25</v>
       </c>
       <c r="AT5">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2406,7 +2421,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q6">
         <v>11</v>
@@ -2597,7 +2612,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2684,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT7">
         <v>1.18</v>
@@ -2878,7 +2893,7 @@
         <v>1.15</v>
       </c>
       <c r="AT8">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3170,7 +3185,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3257,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT10">
         <v>2.62</v>
@@ -3448,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT11">
         <v>1</v>
@@ -4406,7 +4421,7 @@
         <v>1.33</v>
       </c>
       <c r="AT16">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -5462,7 +5477,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5740,7 +5755,7 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT23">
         <v>1.42</v>
@@ -5931,10 +5946,10 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT24">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU24">
         <v>1.57</v>
@@ -6035,7 +6050,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6122,10 +6137,10 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AT25">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6417,7 +6432,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6608,7 +6623,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6695,7 +6710,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT28">
         <v>1.85</v>
@@ -6889,7 +6904,7 @@
         <v>1.15</v>
       </c>
       <c r="AT29">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU29">
         <v>1.46</v>
@@ -6990,7 +7005,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -8035,7 +8050,7 @@
         <v>1.33</v>
       </c>
       <c r="AT35">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU35">
         <v>1.64</v>
@@ -8796,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT39">
         <v>0.67</v>
@@ -8900,7 +8915,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -9091,7 +9106,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9181,7 +9196,7 @@
         <v>1.55</v>
       </c>
       <c r="AT41">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU41">
         <v>1.16</v>
@@ -9282,7 +9297,7 @@
         <v>97</v>
       </c>
       <c r="P42" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -9473,7 +9488,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9664,7 +9679,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9751,7 +9766,7 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT44">
         <v>2.62</v>
@@ -9942,7 +9957,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AT45">
         <v>1</v>
@@ -10046,7 +10061,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -10324,10 +10339,10 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT47">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU47">
         <v>1.14</v>
@@ -10518,7 +10533,7 @@
         <v>1.33</v>
       </c>
       <c r="AT48">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU48">
         <v>1.45</v>
@@ -10619,7 +10634,7 @@
         <v>86</v>
       </c>
       <c r="P49" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10810,7 +10825,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -11473,7 +11488,7 @@
         <v>2.5</v>
       </c>
       <c r="AT53">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU53">
         <v>2.16</v>
@@ -11574,7 +11589,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -11765,7 +11780,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11956,7 +11971,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12046,7 +12061,7 @@
         <v>1.69</v>
       </c>
       <c r="AT56">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU56">
         <v>1.65</v>
@@ -12338,7 +12353,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12616,7 +12631,7 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT59">
         <v>0.36</v>
@@ -12720,7 +12735,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -12807,7 +12822,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT60">
         <v>0.82</v>
@@ -12911,7 +12926,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13001,7 +13016,7 @@
         <v>1.33</v>
       </c>
       <c r="AT61">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU61">
         <v>1.25</v>
@@ -13102,7 +13117,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13293,7 +13308,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13574,7 +13589,7 @@
         <v>1</v>
       </c>
       <c r="AT64">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU64">
         <v>1.4</v>
@@ -13675,7 +13690,7 @@
         <v>86</v>
       </c>
       <c r="P65" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13866,7 +13881,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -14439,7 +14454,7 @@
         <v>86</v>
       </c>
       <c r="P69" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14526,7 +14541,7 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AT69">
         <v>1.91</v>
@@ -14821,7 +14836,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -15012,7 +15027,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15102,7 +15117,7 @@
         <v>2.82</v>
       </c>
       <c r="AT72">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU72">
         <v>2.53</v>
@@ -15203,7 +15218,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15293,7 +15308,7 @@
         <v>2.5</v>
       </c>
       <c r="AT73">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU73">
         <v>2.04</v>
@@ -15394,7 +15409,7 @@
         <v>111</v>
       </c>
       <c r="P74" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15672,7 +15687,7 @@
         <v>0</v>
       </c>
       <c r="AS75">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT75">
         <v>0.67</v>
@@ -15967,7 +15982,7 @@
         <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -16439,7 +16454,7 @@
         <v>1.55</v>
       </c>
       <c r="AT79">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU79">
         <v>1.56</v>
@@ -16627,7 +16642,7 @@
         <v>0.33</v>
       </c>
       <c r="AS80">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT80">
         <v>1.18</v>
@@ -16731,7 +16746,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16818,7 +16833,7 @@
         <v>2</v>
       </c>
       <c r="AS81">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT81">
         <v>1.25</v>
@@ -16922,7 +16937,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17304,7 +17319,7 @@
         <v>100</v>
       </c>
       <c r="P84" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17394,7 +17409,7 @@
         <v>1.69</v>
       </c>
       <c r="AT84">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU84">
         <v>1.67</v>
@@ -17686,7 +17701,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -18259,7 +18274,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18346,7 +18361,7 @@
         <v>2.5</v>
       </c>
       <c r="AS89">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AT89">
         <v>2.62</v>
@@ -18641,7 +18656,7 @@
         <v>86</v>
       </c>
       <c r="P91" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -19596,7 +19611,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19874,7 +19889,7 @@
         <v>2.25</v>
       </c>
       <c r="AS97">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT97">
         <v>1.25</v>
@@ -19978,7 +19993,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20169,7 +20184,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q99">
         <v>9</v>
@@ -20256,7 +20271,7 @@
         <v>2</v>
       </c>
       <c r="AS99">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT99">
         <v>1.58</v>
@@ -20360,7 +20375,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20450,7 +20465,7 @@
         <v>0.25</v>
       </c>
       <c r="AT100">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU100">
         <v>1.2</v>
@@ -20641,7 +20656,7 @@
         <v>1</v>
       </c>
       <c r="AT101">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU101">
         <v>1.33</v>
@@ -20829,7 +20844,7 @@
         <v>1.2</v>
       </c>
       <c r="AS102">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT102">
         <v>1</v>
@@ -21315,7 +21330,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21506,7 +21521,7 @@
         <v>112</v>
       </c>
       <c r="P106" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21596,7 +21611,7 @@
         <v>1.33</v>
       </c>
       <c r="AT106">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU106">
         <v>1.57</v>
@@ -21888,7 +21903,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -22270,7 +22285,7 @@
         <v>86</v>
       </c>
       <c r="P110" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22357,10 +22372,10 @@
         <v>0.25</v>
       </c>
       <c r="AS110">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AT110">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU110">
         <v>1.57</v>
@@ -22843,7 +22858,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q113">
         <v>7</v>
@@ -23124,7 +23139,7 @@
         <v>2.5</v>
       </c>
       <c r="AT114">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU114">
         <v>1.95</v>
@@ -23225,7 +23240,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23416,7 +23431,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -23506,7 +23521,7 @@
         <v>1</v>
       </c>
       <c r="AT116">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU116">
         <v>1.56</v>
@@ -23694,7 +23709,7 @@
         <v>2</v>
       </c>
       <c r="AS117">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AT117">
         <v>1.25</v>
@@ -23798,7 +23813,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23885,7 +23900,7 @@
         <v>0.6</v>
       </c>
       <c r="AS118">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT118">
         <v>0.82</v>
@@ -23989,7 +24004,7 @@
         <v>167</v>
       </c>
       <c r="P119" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24180,7 +24195,7 @@
         <v>112</v>
       </c>
       <c r="P120" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24267,10 +24282,10 @@
         <v>2.17</v>
       </c>
       <c r="AS120">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT120">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU120">
         <v>1.44</v>
@@ -24371,7 +24386,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24753,7 +24768,7 @@
         <v>169</v>
       </c>
       <c r="P123" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q123">
         <v>2</v>
@@ -25135,7 +25150,7 @@
         <v>157</v>
       </c>
       <c r="P125" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25607,7 +25622,7 @@
         <v>1.69</v>
       </c>
       <c r="AT127">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU127">
         <v>1.55</v>
@@ -25708,7 +25723,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25798,7 +25813,7 @@
         <v>0.25</v>
       </c>
       <c r="AT128">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU128">
         <v>1.14</v>
@@ -26368,7 +26383,7 @@
         <v>1.5</v>
       </c>
       <c r="AS131">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT131">
         <v>1.42</v>
@@ -26941,7 +26956,7 @@
         <v>1.83</v>
       </c>
       <c r="AS134">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AT134">
         <v>1.58</v>
@@ -27135,7 +27150,7 @@
         <v>1.27</v>
       </c>
       <c r="AT135">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU135">
         <v>1.41</v>
@@ -27517,7 +27532,7 @@
         <v>1.45</v>
       </c>
       <c r="AT137">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU137">
         <v>1.46</v>
@@ -27618,7 +27633,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -28087,7 +28102,7 @@
         <v>1.33</v>
       </c>
       <c r="AS140">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT140">
         <v>1.82</v>
@@ -28278,7 +28293,7 @@
         <v>0.67</v>
       </c>
       <c r="AS141">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT141">
         <v>1.17</v>
@@ -28573,7 +28588,7 @@
         <v>182</v>
       </c>
       <c r="P143" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28764,7 +28779,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q144">
         <v>9</v>
@@ -29146,7 +29161,7 @@
         <v>184</v>
       </c>
       <c r="P146" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29337,7 +29352,7 @@
         <v>137</v>
       </c>
       <c r="P147" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29424,7 +29439,7 @@
         <v>0</v>
       </c>
       <c r="AS147">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT147">
         <v>0.67</v>
@@ -29809,7 +29824,7 @@
         <v>2</v>
       </c>
       <c r="AT149">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU149">
         <v>1.86</v>
@@ -29910,7 +29925,7 @@
         <v>186</v>
       </c>
       <c r="P150" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -30000,7 +30015,7 @@
         <v>2.33</v>
       </c>
       <c r="AT150">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU150">
         <v>2.09</v>
@@ -30188,7 +30203,7 @@
         <v>2.33</v>
       </c>
       <c r="AS151">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT151">
         <v>1.91</v>
@@ -30292,7 +30307,7 @@
         <v>188</v>
       </c>
       <c r="P152" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -30483,7 +30498,7 @@
         <v>170</v>
       </c>
       <c r="P153" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q153">
         <v>9</v>
@@ -30573,7 +30588,7 @@
         <v>1.27</v>
       </c>
       <c r="AT153">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU153">
         <v>1.46</v>
@@ -30674,7 +30689,7 @@
         <v>189</v>
       </c>
       <c r="P154" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -31056,7 +31071,7 @@
         <v>190</v>
       </c>
       <c r="P156" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -31438,7 +31453,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31525,7 +31540,7 @@
         <v>1.57</v>
       </c>
       <c r="AS158">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AT158">
         <v>1.82</v>
@@ -31629,7 +31644,7 @@
         <v>157</v>
       </c>
       <c r="P159" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -32480,7 +32495,7 @@
         <v>1.5</v>
       </c>
       <c r="AS163">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT163">
         <v>1.25</v>
@@ -32584,7 +32599,7 @@
         <v>196</v>
       </c>
       <c r="P164" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q164">
         <v>3</v>
@@ -32865,7 +32880,7 @@
         <v>1.15</v>
       </c>
       <c r="AT165">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU165">
         <v>1.5</v>
@@ -33157,7 +33172,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q167">
         <v>10</v>
@@ -33244,7 +33259,7 @@
         <v>0.88</v>
       </c>
       <c r="AS167">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT167">
         <v>1</v>
@@ -33348,7 +33363,7 @@
         <v>86</v>
       </c>
       <c r="P168" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33539,7 +33554,7 @@
         <v>199</v>
       </c>
       <c r="P169" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33629,7 +33644,7 @@
         <v>2.33</v>
       </c>
       <c r="AT169">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU169">
         <v>2.02</v>
@@ -33817,7 +33832,7 @@
         <v>0.5</v>
       </c>
       <c r="AS170">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT170">
         <v>0.5</v>
@@ -33921,7 +33936,7 @@
         <v>191</v>
       </c>
       <c r="P171" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -34303,7 +34318,7 @@
         <v>202</v>
       </c>
       <c r="P173" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34390,7 +34405,7 @@
         <v>0.63</v>
       </c>
       <c r="AS173">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AT173">
         <v>1.17</v>
@@ -34494,7 +34509,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q174">
         <v>8</v>
@@ -34876,7 +34891,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q176">
         <v>7</v>
@@ -35067,7 +35082,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q177">
         <v>7</v>
@@ -35258,7 +35273,7 @@
         <v>205</v>
       </c>
       <c r="P178" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q178">
         <v>6</v>
@@ -35449,7 +35464,7 @@
         <v>206</v>
       </c>
       <c r="P179" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q179">
         <v>5</v>
@@ -35730,7 +35745,7 @@
         <v>2</v>
       </c>
       <c r="AT180">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU180">
         <v>1.77</v>
@@ -35921,7 +35936,7 @@
         <v>1.33</v>
       </c>
       <c r="AT181">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU181">
         <v>1.6</v>
@@ -36109,7 +36124,7 @@
         <v>1</v>
       </c>
       <c r="AS182">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT182">
         <v>1.25</v>
@@ -36213,7 +36228,7 @@
         <v>86</v>
       </c>
       <c r="P183" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -36494,7 +36509,7 @@
         <v>1.33</v>
       </c>
       <c r="AT184">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU184">
         <v>2.15</v>
@@ -36595,7 +36610,7 @@
         <v>86</v>
       </c>
       <c r="P185" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q185">
         <v>6</v>
@@ -36786,7 +36801,7 @@
         <v>144</v>
       </c>
       <c r="P186" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q186">
         <v>10</v>
@@ -36977,7 +36992,7 @@
         <v>86</v>
       </c>
       <c r="P187" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -37067,7 +37082,7 @@
         <v>1</v>
       </c>
       <c r="AT187">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU187">
         <v>1.58</v>
@@ -37168,7 +37183,7 @@
         <v>209</v>
       </c>
       <c r="P188" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -37255,7 +37270,7 @@
         <v>2.22</v>
       </c>
       <c r="AS188">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT188">
         <v>1.85</v>
@@ -37359,7 +37374,7 @@
         <v>131</v>
       </c>
       <c r="P189" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37550,7 +37565,7 @@
         <v>86</v>
       </c>
       <c r="P190" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q190">
         <v>2</v>
@@ -37828,7 +37843,7 @@
         <v>1.78</v>
       </c>
       <c r="AS191">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT191">
         <v>1.58</v>
@@ -38123,7 +38138,7 @@
         <v>143</v>
       </c>
       <c r="P193" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38314,7 +38329,7 @@
         <v>212</v>
       </c>
       <c r="P194" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q194">
         <v>5</v>
@@ -38404,7 +38419,7 @@
         <v>1.33</v>
       </c>
       <c r="AT194">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU194">
         <v>1.6</v>
@@ -38505,7 +38520,7 @@
         <v>152</v>
       </c>
       <c r="P195" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -38592,7 +38607,7 @@
         <v>1.44</v>
       </c>
       <c r="AS195">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AT195">
         <v>1.42</v>
@@ -38786,7 +38801,7 @@
         <v>1.55</v>
       </c>
       <c r="AT196">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU196">
         <v>1.72</v>
@@ -38887,7 +38902,7 @@
         <v>214</v>
       </c>
       <c r="P197" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q197">
         <v>2</v>
@@ -39078,7 +39093,7 @@
         <v>86</v>
       </c>
       <c r="P198" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q198">
         <v>12</v>
@@ -39165,7 +39180,7 @@
         <v>0.89</v>
       </c>
       <c r="AS198">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT198">
         <v>1.17</v>
@@ -39356,10 +39371,10 @@
         <v>0.89</v>
       </c>
       <c r="AS199">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT199">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU199">
         <v>1.53</v>
@@ -39460,7 +39475,7 @@
         <v>216</v>
       </c>
       <c r="P200" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -39550,7 +39565,7 @@
         <v>2.82</v>
       </c>
       <c r="AT200">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU200">
         <v>2.28</v>
@@ -39842,7 +39857,7 @@
         <v>86</v>
       </c>
       <c r="P202" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -39929,7 +39944,7 @@
         <v>0.9</v>
       </c>
       <c r="AS202">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AT202">
         <v>1.25</v>
@@ -40415,7 +40430,7 @@
         <v>86</v>
       </c>
       <c r="P205" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q205">
         <v>3</v>
@@ -40797,7 +40812,7 @@
         <v>157</v>
       </c>
       <c r="P207" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -41266,7 +41281,7 @@
         <v>1.89</v>
       </c>
       <c r="AS209">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT209">
         <v>1.91</v>
@@ -41370,7 +41385,7 @@
         <v>220</v>
       </c>
       <c r="P210" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q210">
         <v>9</v>
@@ -41460,7 +41475,7 @@
         <v>1.25</v>
       </c>
       <c r="AT210">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU210">
         <v>1.58</v>
@@ -41561,7 +41576,7 @@
         <v>86</v>
       </c>
       <c r="P211" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -41842,7 +41857,7 @@
         <v>2.33</v>
       </c>
       <c r="AT212">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU212">
         <v>1.94</v>
@@ -41943,7 +41958,7 @@
         <v>222</v>
       </c>
       <c r="P213" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42224,7 +42239,7 @@
         <v>1</v>
       </c>
       <c r="AT214">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU214">
         <v>1.39</v>
@@ -42325,7 +42340,7 @@
         <v>86</v>
       </c>
       <c r="P215" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q215">
         <v>5</v>
@@ -42412,7 +42427,7 @@
         <v>1.91</v>
       </c>
       <c r="AS215">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT215">
         <v>1.85</v>
@@ -42516,7 +42531,7 @@
         <v>224</v>
       </c>
       <c r="P216" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q216">
         <v>10</v>
@@ -42707,7 +42722,7 @@
         <v>86</v>
       </c>
       <c r="P217" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -42985,10 +43000,10 @@
         <v>0.9</v>
       </c>
       <c r="AS218">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT218">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU218">
         <v>1.96</v>
@@ -43367,7 +43382,7 @@
         <v>0.9</v>
       </c>
       <c r="AS220">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT220">
         <v>0.82</v>
@@ -43662,7 +43677,7 @@
         <v>86</v>
       </c>
       <c r="P222" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q222">
         <v>1</v>
@@ -43853,7 +43868,7 @@
         <v>168</v>
       </c>
       <c r="P223" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q223">
         <v>1</v>
@@ -44426,7 +44441,7 @@
         <v>228</v>
       </c>
       <c r="P226" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q226">
         <v>6</v>
@@ -44617,7 +44632,7 @@
         <v>86</v>
       </c>
       <c r="P227" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q227">
         <v>2</v>
@@ -44808,7 +44823,7 @@
         <v>176</v>
       </c>
       <c r="P228" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q228">
         <v>13</v>
@@ -44999,7 +45014,7 @@
         <v>86</v>
       </c>
       <c r="P229" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45381,7 +45396,7 @@
         <v>230</v>
       </c>
       <c r="P231" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q231">
         <v>5</v>
@@ -45572,7 +45587,7 @@
         <v>86</v>
       </c>
       <c r="P232" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q232">
         <v>4</v>
@@ -46336,7 +46351,7 @@
         <v>233</v>
       </c>
       <c r="P236" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q236">
         <v>5</v>
@@ -46669,6 +46684,770 @@
       </c>
       <c r="BK237">
         <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:63">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>2638233</v>
+      </c>
+      <c r="C238" t="s">
+        <v>63</v>
+      </c>
+      <c r="D238" t="s">
+        <v>64</v>
+      </c>
+      <c r="E238" s="2">
+        <v>44984.60416666666</v>
+      </c>
+      <c r="F238">
+        <v>24</v>
+      </c>
+      <c r="G238" t="s">
+        <v>73</v>
+      </c>
+      <c r="H238" t="s">
+        <v>69</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>2</v>
+      </c>
+      <c r="K238">
+        <v>2</v>
+      </c>
+      <c r="L238">
+        <v>0</v>
+      </c>
+      <c r="M238">
+        <v>3</v>
+      </c>
+      <c r="N238">
+        <v>3</v>
+      </c>
+      <c r="O238" t="s">
+        <v>86</v>
+      </c>
+      <c r="P238" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q238">
+        <v>4</v>
+      </c>
+      <c r="R238">
+        <v>2</v>
+      </c>
+      <c r="S238">
+        <v>6</v>
+      </c>
+      <c r="T238">
+        <v>3.75</v>
+      </c>
+      <c r="U238">
+        <v>2.05</v>
+      </c>
+      <c r="V238">
+        <v>3</v>
+      </c>
+      <c r="W238">
+        <v>1.44</v>
+      </c>
+      <c r="X238">
+        <v>2.63</v>
+      </c>
+      <c r="Y238">
+        <v>3.25</v>
+      </c>
+      <c r="Z238">
+        <v>1.33</v>
+      </c>
+      <c r="AA238">
+        <v>10</v>
+      </c>
+      <c r="AB238">
+        <v>1.06</v>
+      </c>
+      <c r="AC238">
+        <v>3.5</v>
+      </c>
+      <c r="AD238">
+        <v>3.3</v>
+      </c>
+      <c r="AE238">
+        <v>2.1</v>
+      </c>
+      <c r="AF238">
+        <v>1.07</v>
+      </c>
+      <c r="AG238">
+        <v>9</v>
+      </c>
+      <c r="AH238">
+        <v>1.4</v>
+      </c>
+      <c r="AI238">
+        <v>3</v>
+      </c>
+      <c r="AJ238">
+        <v>2.1</v>
+      </c>
+      <c r="AK238">
+        <v>1.8</v>
+      </c>
+      <c r="AL238">
+        <v>1.95</v>
+      </c>
+      <c r="AM238">
+        <v>1.8</v>
+      </c>
+      <c r="AN238">
+        <v>1.63</v>
+      </c>
+      <c r="AO238">
+        <v>1.3</v>
+      </c>
+      <c r="AP238">
+        <v>1.36</v>
+      </c>
+      <c r="AQ238">
+        <v>1.08</v>
+      </c>
+      <c r="AR238">
+        <v>0.82</v>
+      </c>
+      <c r="AS238">
+        <v>1</v>
+      </c>
+      <c r="AT238">
+        <v>1</v>
+      </c>
+      <c r="AU238">
+        <v>1.52</v>
+      </c>
+      <c r="AV238">
+        <v>1.63</v>
+      </c>
+      <c r="AW238">
+        <v>3.15</v>
+      </c>
+      <c r="AX238">
+        <v>2.85</v>
+      </c>
+      <c r="AY238">
+        <v>6.25</v>
+      </c>
+      <c r="AZ238">
+        <v>1.65</v>
+      </c>
+      <c r="BA238">
+        <v>1.27</v>
+      </c>
+      <c r="BB238">
+        <v>1.52</v>
+      </c>
+      <c r="BC238">
+        <v>1.9</v>
+      </c>
+      <c r="BD238">
+        <v>2.55</v>
+      </c>
+      <c r="BE238">
+        <v>3.6</v>
+      </c>
+      <c r="BF238">
+        <v>4</v>
+      </c>
+      <c r="BG238">
+        <v>8</v>
+      </c>
+      <c r="BH238">
+        <v>10</v>
+      </c>
+      <c r="BI238">
+        <v>9</v>
+      </c>
+      <c r="BJ238">
+        <v>14</v>
+      </c>
+      <c r="BK238">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="239" spans="1:63">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>2638230</v>
+      </c>
+      <c r="C239" t="s">
+        <v>63</v>
+      </c>
+      <c r="D239" t="s">
+        <v>64</v>
+      </c>
+      <c r="E239" s="2">
+        <v>44984.69791666666</v>
+      </c>
+      <c r="F239">
+        <v>24</v>
+      </c>
+      <c r="G239" t="s">
+        <v>70</v>
+      </c>
+      <c r="H239" t="s">
+        <v>66</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>1</v>
+      </c>
+      <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239">
+        <v>1</v>
+      </c>
+      <c r="O239" t="s">
+        <v>103</v>
+      </c>
+      <c r="P239" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q239">
+        <v>8</v>
+      </c>
+      <c r="R239">
+        <v>3</v>
+      </c>
+      <c r="S239">
+        <v>11</v>
+      </c>
+      <c r="T239">
+        <v>1.95</v>
+      </c>
+      <c r="U239">
+        <v>2.3</v>
+      </c>
+      <c r="V239">
+        <v>7.5</v>
+      </c>
+      <c r="W239">
+        <v>1.4</v>
+      </c>
+      <c r="X239">
+        <v>2.75</v>
+      </c>
+      <c r="Y239">
+        <v>2.75</v>
+      </c>
+      <c r="Z239">
+        <v>1.4</v>
+      </c>
+      <c r="AA239">
+        <v>8</v>
+      </c>
+      <c r="AB239">
+        <v>1.08</v>
+      </c>
+      <c r="AC239">
+        <v>1.4</v>
+      </c>
+      <c r="AD239">
+        <v>4.33</v>
+      </c>
+      <c r="AE239">
+        <v>7.5</v>
+      </c>
+      <c r="AF239">
+        <v>1.05</v>
+      </c>
+      <c r="AG239">
+        <v>11</v>
+      </c>
+      <c r="AH239">
+        <v>1.3</v>
+      </c>
+      <c r="AI239">
+        <v>3.6</v>
+      </c>
+      <c r="AJ239">
+        <v>1.98</v>
+      </c>
+      <c r="AK239">
+        <v>1.92</v>
+      </c>
+      <c r="AL239">
+        <v>2.1</v>
+      </c>
+      <c r="AM239">
+        <v>1.67</v>
+      </c>
+      <c r="AN239">
+        <v>1.08</v>
+      </c>
+      <c r="AO239">
+        <v>1.21</v>
+      </c>
+      <c r="AP239">
+        <v>2.8</v>
+      </c>
+      <c r="AQ239">
+        <v>1.75</v>
+      </c>
+      <c r="AR239">
+        <v>0.73</v>
+      </c>
+      <c r="AS239">
+        <v>1.85</v>
+      </c>
+      <c r="AT239">
+        <v>0.67</v>
+      </c>
+      <c r="AU239">
+        <v>1.52</v>
+      </c>
+      <c r="AV239">
+        <v>1.49</v>
+      </c>
+      <c r="AW239">
+        <v>3.01</v>
+      </c>
+      <c r="AX239">
+        <v>1.32</v>
+      </c>
+      <c r="AY239">
+        <v>7.5</v>
+      </c>
+      <c r="AZ239">
+        <v>4.6</v>
+      </c>
+      <c r="BA239">
+        <v>1.3</v>
+      </c>
+      <c r="BB239">
+        <v>1.57</v>
+      </c>
+      <c r="BC239">
+        <v>2</v>
+      </c>
+      <c r="BD239">
+        <v>2.7</v>
+      </c>
+      <c r="BE239">
+        <v>3.9</v>
+      </c>
+      <c r="BF239">
+        <v>5</v>
+      </c>
+      <c r="BG239">
+        <v>3</v>
+      </c>
+      <c r="BH239">
+        <v>12</v>
+      </c>
+      <c r="BI239">
+        <v>6</v>
+      </c>
+      <c r="BJ239">
+        <v>17</v>
+      </c>
+      <c r="BK239">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:63">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>2638227</v>
+      </c>
+      <c r="C240" t="s">
+        <v>63</v>
+      </c>
+      <c r="D240" t="s">
+        <v>64</v>
+      </c>
+      <c r="E240" s="2">
+        <v>44985.60416666666</v>
+      </c>
+      <c r="F240">
+        <v>24</v>
+      </c>
+      <c r="G240" t="s">
+        <v>84</v>
+      </c>
+      <c r="H240" t="s">
+        <v>83</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>1</v>
+      </c>
+      <c r="L240">
+        <v>2</v>
+      </c>
+      <c r="M240">
+        <v>1</v>
+      </c>
+      <c r="N240">
+        <v>3</v>
+      </c>
+      <c r="O240" t="s">
+        <v>235</v>
+      </c>
+      <c r="P240" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q240">
+        <v>3</v>
+      </c>
+      <c r="R240">
+        <v>3</v>
+      </c>
+      <c r="S240">
+        <v>6</v>
+      </c>
+      <c r="T240">
+        <v>5.5</v>
+      </c>
+      <c r="U240">
+        <v>2.1</v>
+      </c>
+      <c r="V240">
+        <v>2.4</v>
+      </c>
+      <c r="W240">
+        <v>1.44</v>
+      </c>
+      <c r="X240">
+        <v>2.63</v>
+      </c>
+      <c r="Y240">
+        <v>3.25</v>
+      </c>
+      <c r="Z240">
+        <v>1.33</v>
+      </c>
+      <c r="AA240">
+        <v>10</v>
+      </c>
+      <c r="AB240">
+        <v>1.06</v>
+      </c>
+      <c r="AC240">
+        <v>5.11</v>
+      </c>
+      <c r="AD240">
+        <v>3.6</v>
+      </c>
+      <c r="AE240">
+        <v>1.72</v>
+      </c>
+      <c r="AF240">
+        <v>1.07</v>
+      </c>
+      <c r="AG240">
+        <v>9</v>
+      </c>
+      <c r="AH240">
+        <v>1.4</v>
+      </c>
+      <c r="AI240">
+        <v>2.95</v>
+      </c>
+      <c r="AJ240">
+        <v>2.16</v>
+      </c>
+      <c r="AK240">
+        <v>1.65</v>
+      </c>
+      <c r="AL240">
+        <v>2.05</v>
+      </c>
+      <c r="AM240">
+        <v>1.7</v>
+      </c>
+      <c r="AN240">
+        <v>2.1</v>
+      </c>
+      <c r="AO240">
+        <v>1.28</v>
+      </c>
+      <c r="AP240">
+        <v>1.16</v>
+      </c>
+      <c r="AQ240">
+        <v>0.27</v>
+      </c>
+      <c r="AR240">
+        <v>1.83</v>
+      </c>
+      <c r="AS240">
+        <v>0.5</v>
+      </c>
+      <c r="AT240">
+        <v>1.69</v>
+      </c>
+      <c r="AU240">
+        <v>1.55</v>
+      </c>
+      <c r="AV240">
+        <v>1.46</v>
+      </c>
+      <c r="AW240">
+        <v>3.01</v>
+      </c>
+      <c r="AX240">
+        <v>3.2</v>
+      </c>
+      <c r="AY240">
+        <v>6.5</v>
+      </c>
+      <c r="AZ240">
+        <v>1.55</v>
+      </c>
+      <c r="BA240">
+        <v>1.3</v>
+      </c>
+      <c r="BB240">
+        <v>1.57</v>
+      </c>
+      <c r="BC240">
+        <v>2</v>
+      </c>
+      <c r="BD240">
+        <v>2.7</v>
+      </c>
+      <c r="BE240">
+        <v>3.9</v>
+      </c>
+      <c r="BF240">
+        <v>3</v>
+      </c>
+      <c r="BG240">
+        <v>4</v>
+      </c>
+      <c r="BH240">
+        <v>4</v>
+      </c>
+      <c r="BI240">
+        <v>8</v>
+      </c>
+      <c r="BJ240">
+        <v>7</v>
+      </c>
+      <c r="BK240">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="241" spans="1:63">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>2638229</v>
+      </c>
+      <c r="C241" t="s">
+        <v>63</v>
+      </c>
+      <c r="D241" t="s">
+        <v>64</v>
+      </c>
+      <c r="E241" s="2">
+        <v>44985.69791666666</v>
+      </c>
+      <c r="F241">
+        <v>24</v>
+      </c>
+      <c r="G241" t="s">
+        <v>74</v>
+      </c>
+      <c r="H241" t="s">
+        <v>76</v>
+      </c>
+      <c r="I241">
+        <v>2</v>
+      </c>
+      <c r="J241">
+        <v>2</v>
+      </c>
+      <c r="K241">
+        <v>4</v>
+      </c>
+      <c r="L241">
+        <v>4</v>
+      </c>
+      <c r="M241">
+        <v>2</v>
+      </c>
+      <c r="N241">
+        <v>6</v>
+      </c>
+      <c r="O241" t="s">
+        <v>236</v>
+      </c>
+      <c r="P241" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q241">
+        <v>3</v>
+      </c>
+      <c r="R241">
+        <v>7</v>
+      </c>
+      <c r="S241">
+        <v>10</v>
+      </c>
+      <c r="T241">
+        <v>2.4</v>
+      </c>
+      <c r="U241">
+        <v>2.1</v>
+      </c>
+      <c r="V241">
+        <v>5.5</v>
+      </c>
+      <c r="W241">
+        <v>1.44</v>
+      </c>
+      <c r="X241">
+        <v>2.63</v>
+      </c>
+      <c r="Y241">
+        <v>3.25</v>
+      </c>
+      <c r="Z241">
+        <v>1.33</v>
+      </c>
+      <c r="AA241">
+        <v>10</v>
+      </c>
+      <c r="AB241">
+        <v>1.06</v>
+      </c>
+      <c r="AC241">
+        <v>1.75</v>
+      </c>
+      <c r="AD241">
+        <v>3.52</v>
+      </c>
+      <c r="AE241">
+        <v>4.72</v>
+      </c>
+      <c r="AF241">
+        <v>1.07</v>
+      </c>
+      <c r="AG241">
+        <v>9</v>
+      </c>
+      <c r="AH241">
+        <v>1.4</v>
+      </c>
+      <c r="AI241">
+        <v>2.95</v>
+      </c>
+      <c r="AJ241">
+        <v>2.18</v>
+      </c>
+      <c r="AK241">
+        <v>1.65</v>
+      </c>
+      <c r="AL241">
+        <v>2.05</v>
+      </c>
+      <c r="AM241">
+        <v>1.7</v>
+      </c>
+      <c r="AN241">
+        <v>1.18</v>
+      </c>
+      <c r="AO241">
+        <v>1.29</v>
+      </c>
+      <c r="AP241">
+        <v>2</v>
+      </c>
+      <c r="AQ241">
+        <v>2.25</v>
+      </c>
+      <c r="AR241">
+        <v>1.25</v>
+      </c>
+      <c r="AS241">
+        <v>2.31</v>
+      </c>
+      <c r="AT241">
+        <v>1.15</v>
+      </c>
+      <c r="AU241">
+        <v>1.9</v>
+      </c>
+      <c r="AV241">
+        <v>1.54</v>
+      </c>
+      <c r="AW241">
+        <v>3.44</v>
+      </c>
+      <c r="AX241">
+        <v>2.1</v>
+      </c>
+      <c r="AY241">
+        <v>6</v>
+      </c>
+      <c r="AZ241">
+        <v>2.05</v>
+      </c>
+      <c r="BA241">
+        <v>1.26</v>
+      </c>
+      <c r="BB241">
+        <v>1.5</v>
+      </c>
+      <c r="BC241">
+        <v>1.87</v>
+      </c>
+      <c r="BD241">
+        <v>2.45</v>
+      </c>
+      <c r="BE241">
+        <v>3.1</v>
+      </c>
+      <c r="BF241">
+        <v>7</v>
+      </c>
+      <c r="BG241">
+        <v>4</v>
+      </c>
+      <c r="BH241">
+        <v>6</v>
+      </c>
+      <c r="BI241">
+        <v>4</v>
+      </c>
+      <c r="BJ241">
+        <v>13</v>
+      </c>
+      <c r="BK241">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="346">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1413,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK241"/>
+  <dimension ref="A1:BK242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3848,7 +3848,7 @@
         <v>1.45</v>
       </c>
       <c r="AT13">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AT17">
         <v>1.17</v>
@@ -8241,7 +8241,7 @@
         <v>0.25</v>
       </c>
       <c r="AT36">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU36">
         <v>1.22</v>
@@ -8620,7 +8620,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AT38">
         <v>1.25</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AT52">
         <v>0.67</v>
@@ -14544,7 +14544,7 @@
         <v>0.5</v>
       </c>
       <c r="AT69">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU69">
         <v>1.53</v>
@@ -15114,7 +15114,7 @@
         <v>1.5</v>
       </c>
       <c r="AS72">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AT72">
         <v>1.15</v>
@@ -18746,7 +18746,7 @@
         <v>1.33</v>
       </c>
       <c r="AT91">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU91">
         <v>2.24</v>
@@ -20080,7 +20080,7 @@
         <v>0.25</v>
       </c>
       <c r="AS98">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AT98">
         <v>1.18</v>
@@ -21993,7 +21993,7 @@
         <v>1.55</v>
       </c>
       <c r="AT108">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU108">
         <v>1.62</v>
@@ -22754,7 +22754,7 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AT112">
         <v>1</v>
@@ -26195,7 +26195,7 @@
         <v>2</v>
       </c>
       <c r="AT130">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU130">
         <v>1.97</v>
@@ -26765,7 +26765,7 @@
         <v>1</v>
       </c>
       <c r="AS133">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AT133">
         <v>1</v>
@@ -28675,7 +28675,7 @@
         <v>1.71</v>
       </c>
       <c r="AS143">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AT143">
         <v>1.25</v>
@@ -30206,7 +30206,7 @@
         <v>2.31</v>
       </c>
       <c r="AT151">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU151">
         <v>1.89</v>
@@ -31161,7 +31161,7 @@
         <v>1</v>
       </c>
       <c r="AT156">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU156">
         <v>1.24</v>
@@ -34214,7 +34214,7 @@
         <v>1.75</v>
       </c>
       <c r="AS172">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AT172">
         <v>1.82</v>
@@ -34981,7 +34981,7 @@
         <v>1.27</v>
       </c>
       <c r="AT176">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU176">
         <v>1.5</v>
@@ -39562,7 +39562,7 @@
         <v>2.1</v>
       </c>
       <c r="AS200">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AT200">
         <v>1.69</v>
@@ -41284,7 +41284,7 @@
         <v>1</v>
       </c>
       <c r="AT209">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU209">
         <v>1.46</v>
@@ -43191,7 +43191,7 @@
         <v>0.5</v>
       </c>
       <c r="AS219">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AT219">
         <v>0.5</v>
@@ -44722,7 +44722,7 @@
         <v>1.15</v>
       </c>
       <c r="AT227">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU227">
         <v>1.32</v>
@@ -47448,6 +47448,197 @@
       </c>
       <c r="BK241">
         <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:63">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>2638240</v>
+      </c>
+      <c r="C242" t="s">
+        <v>63</v>
+      </c>
+      <c r="D242" t="s">
+        <v>64</v>
+      </c>
+      <c r="E242" s="2">
+        <v>44988.69791666666</v>
+      </c>
+      <c r="F242">
+        <v>25</v>
+      </c>
+      <c r="G242" t="s">
+        <v>80</v>
+      </c>
+      <c r="H242" t="s">
+        <v>70</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>0</v>
+      </c>
+      <c r="M242">
+        <v>1</v>
+      </c>
+      <c r="N242">
+        <v>1</v>
+      </c>
+      <c r="O242" t="s">
+        <v>86</v>
+      </c>
+      <c r="P242" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q242">
+        <v>8</v>
+      </c>
+      <c r="R242">
+        <v>3</v>
+      </c>
+      <c r="S242">
+        <v>11</v>
+      </c>
+      <c r="T242">
+        <v>2.2</v>
+      </c>
+      <c r="U242">
+        <v>2.3</v>
+      </c>
+      <c r="V242">
+        <v>5.5</v>
+      </c>
+      <c r="W242">
+        <v>1.36</v>
+      </c>
+      <c r="X242">
+        <v>3</v>
+      </c>
+      <c r="Y242">
+        <v>2.63</v>
+      </c>
+      <c r="Z242">
+        <v>1.44</v>
+      </c>
+      <c r="AA242">
+        <v>7</v>
+      </c>
+      <c r="AB242">
+        <v>1.1</v>
+      </c>
+      <c r="AC242">
+        <v>1.52</v>
+      </c>
+      <c r="AD242">
+        <v>3.92</v>
+      </c>
+      <c r="AE242">
+        <v>5.2</v>
+      </c>
+      <c r="AF242">
+        <v>1.04</v>
+      </c>
+      <c r="AG242">
+        <v>10</v>
+      </c>
+      <c r="AH242">
+        <v>1.25</v>
+      </c>
+      <c r="AI242">
+        <v>3.8</v>
+      </c>
+      <c r="AJ242">
+        <v>1.81</v>
+      </c>
+      <c r="AK242">
+        <v>1.99</v>
+      </c>
+      <c r="AL242">
+        <v>1.8</v>
+      </c>
+      <c r="AM242">
+        <v>1.95</v>
+      </c>
+      <c r="AN242">
+        <v>1.15</v>
+      </c>
+      <c r="AO242">
+        <v>1.23</v>
+      </c>
+      <c r="AP242">
+        <v>2.3</v>
+      </c>
+      <c r="AQ242">
+        <v>2.82</v>
+      </c>
+      <c r="AR242">
+        <v>1.91</v>
+      </c>
+      <c r="AS242">
+        <v>2.58</v>
+      </c>
+      <c r="AT242">
+        <v>2</v>
+      </c>
+      <c r="AU242">
+        <v>2.2</v>
+      </c>
+      <c r="AV242">
+        <v>1.37</v>
+      </c>
+      <c r="AW242">
+        <v>3.57</v>
+      </c>
+      <c r="AX242">
+        <v>1.44</v>
+      </c>
+      <c r="AY242">
+        <v>8.5</v>
+      </c>
+      <c r="AZ242">
+        <v>3.4</v>
+      </c>
+      <c r="BA242">
+        <v>1.34</v>
+      </c>
+      <c r="BB242">
+        <v>1.57</v>
+      </c>
+      <c r="BC242">
+        <v>1.91</v>
+      </c>
+      <c r="BD242">
+        <v>2.43</v>
+      </c>
+      <c r="BE242">
+        <v>3.2</v>
+      </c>
+      <c r="BF242">
+        <v>3</v>
+      </c>
+      <c r="BG242">
+        <v>3</v>
+      </c>
+      <c r="BH242">
+        <v>4</v>
+      </c>
+      <c r="BI242">
+        <v>1</v>
+      </c>
+      <c r="BJ242">
+        <v>7</v>
+      </c>
+      <c r="BK242">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="351">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -727,6 +727,18 @@
     <t>['16', '45+1', '71', '80']</t>
   </si>
   <si>
+    <t>['19', '67']</t>
+  </si>
+  <si>
+    <t>['49', '87']</t>
+  </si>
+  <si>
+    <t>['29', '53']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
     <t>['2', '45+4']</t>
   </si>
   <si>
@@ -1052,6 +1064,9 @@
   </si>
   <si>
     <t>['2', '43']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK242"/>
+  <dimension ref="A1:BK249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1657,7 +1672,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1747,7 +1762,7 @@
         <v>2.33</v>
       </c>
       <c r="AT2">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1848,7 +1863,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1935,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AT3">
         <v>1.85</v>
@@ -2039,7 +2054,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -2230,7 +2245,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2317,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT5">
         <v>1.15</v>
@@ -2421,7 +2436,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q6">
         <v>11</v>
@@ -2508,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT6">
         <v>0.5</v>
@@ -2612,7 +2627,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -3084,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3185,7 +3200,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3657,7 +3672,7 @@
         <v>1.33</v>
       </c>
       <c r="AT12">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -4036,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT14">
         <v>0.67</v>
@@ -4230,7 +4245,7 @@
         <v>1.27</v>
       </c>
       <c r="AT15">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4800,10 +4815,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT18">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4994,7 +5009,7 @@
         <v>1.69</v>
       </c>
       <c r="AT19">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5182,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT20">
         <v>0.5</v>
@@ -5373,10 +5388,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AT21">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU21">
         <v>1.41</v>
@@ -5477,7 +5492,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5564,10 +5579,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT22">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU22">
         <v>1.61</v>
@@ -6050,7 +6065,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6432,7 +6447,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6623,7 +6638,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -7005,7 +7020,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7095,7 +7110,7 @@
         <v>1</v>
       </c>
       <c r="AT30">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU30">
         <v>1.21</v>
@@ -7283,7 +7298,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT31">
         <v>2.62</v>
@@ -7477,7 +7492,7 @@
         <v>1.27</v>
       </c>
       <c r="AT32">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU32">
         <v>1.42</v>
@@ -7665,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT33">
         <v>0.5</v>
@@ -7856,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT34">
         <v>1.17</v>
@@ -8238,7 +8253,7 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AT36">
         <v>2</v>
@@ -8432,7 +8447,7 @@
         <v>1.33</v>
       </c>
       <c r="AT37">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU37">
         <v>0.67</v>
@@ -8623,7 +8638,7 @@
         <v>2.58</v>
       </c>
       <c r="AT38">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU38">
         <v>2.3</v>
@@ -8915,7 +8930,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -9005,7 +9020,7 @@
         <v>1.69</v>
       </c>
       <c r="AT40">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU40">
         <v>1.94</v>
@@ -9106,7 +9121,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9193,7 +9208,7 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT41">
         <v>1.15</v>
@@ -9297,7 +9312,7 @@
         <v>97</v>
       </c>
       <c r="P42" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -9384,10 +9399,10 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT42">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU42">
         <v>2.22</v>
@@ -9488,7 +9503,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9679,7 +9694,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10061,7 +10076,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -10634,7 +10649,7 @@
         <v>86</v>
       </c>
       <c r="P49" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10721,7 +10736,7 @@
         <v>3</v>
       </c>
       <c r="AS49">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT49">
         <v>1.85</v>
@@ -10825,7 +10840,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10915,7 +10930,7 @@
         <v>1.15</v>
       </c>
       <c r="AT50">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU50">
         <v>1.55</v>
@@ -11106,7 +11121,7 @@
         <v>1.45</v>
       </c>
       <c r="AT51">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU51">
         <v>1.16</v>
@@ -11485,7 +11500,7 @@
         <v>2</v>
       </c>
       <c r="AS53">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT53">
         <v>1.15</v>
@@ -11589,7 +11604,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -11676,10 +11691,10 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AT54">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU54">
         <v>1.28</v>
@@ -11780,7 +11795,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11867,7 +11882,7 @@
         <v>0</v>
       </c>
       <c r="AS55">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT55">
         <v>0.5</v>
@@ -11971,7 +11986,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12353,7 +12368,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12443,7 +12458,7 @@
         <v>1.27</v>
       </c>
       <c r="AT58">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU58">
         <v>1.19</v>
@@ -12634,7 +12649,7 @@
         <v>1.85</v>
       </c>
       <c r="AT59">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU59">
         <v>1.41</v>
@@ -12735,7 +12750,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -12825,7 +12840,7 @@
         <v>2.31</v>
       </c>
       <c r="AT60">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU60">
         <v>1.64</v>
@@ -12926,7 +12941,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13117,7 +13132,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13207,7 +13222,7 @@
         <v>1.15</v>
       </c>
       <c r="AT62">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU62">
         <v>1.66</v>
@@ -13308,7 +13323,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13398,7 +13413,7 @@
         <v>1.69</v>
       </c>
       <c r="AT63">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU63">
         <v>1.55</v>
@@ -13690,7 +13705,7 @@
         <v>86</v>
       </c>
       <c r="P65" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13881,7 +13896,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -14159,10 +14174,10 @@
         <v>0.67</v>
       </c>
       <c r="AS67">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT67">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU67">
         <v>2.32</v>
@@ -14350,10 +14365,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT68">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU68">
         <v>1.45</v>
@@ -14454,7 +14469,7 @@
         <v>86</v>
       </c>
       <c r="P69" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14732,7 +14747,7 @@
         <v>3</v>
       </c>
       <c r="AS70">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT70">
         <v>1.85</v>
@@ -14836,7 +14851,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -15027,7 +15042,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15218,7 +15233,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15305,7 +15320,7 @@
         <v>1.75</v>
       </c>
       <c r="AS73">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT73">
         <v>1.69</v>
@@ -15409,7 +15424,7 @@
         <v>111</v>
       </c>
       <c r="P74" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15499,7 +15514,7 @@
         <v>1.33</v>
       </c>
       <c r="AT74">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU74">
         <v>1.52</v>
@@ -15982,7 +15997,7 @@
         <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -16069,7 +16084,7 @@
         <v>0.33</v>
       </c>
       <c r="AS77">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AT77">
         <v>1.17</v>
@@ -16263,7 +16278,7 @@
         <v>1.27</v>
       </c>
       <c r="AT78">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU78">
         <v>1.04</v>
@@ -16451,7 +16466,7 @@
         <v>0.33</v>
       </c>
       <c r="AS79">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT79">
         <v>1</v>
@@ -16746,7 +16761,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16836,7 +16851,7 @@
         <v>1</v>
       </c>
       <c r="AT81">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU81">
         <v>1.47</v>
@@ -16937,7 +16952,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17218,7 +17233,7 @@
         <v>2.33</v>
       </c>
       <c r="AT83">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU83">
         <v>2.05</v>
@@ -17319,7 +17334,7 @@
         <v>100</v>
       </c>
       <c r="P84" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17600,7 +17615,7 @@
         <v>1.45</v>
       </c>
       <c r="AT85">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU85">
         <v>1.05</v>
@@ -17701,7 +17716,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17982,7 +17997,7 @@
         <v>1.15</v>
       </c>
       <c r="AT87">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU87">
         <v>1.68</v>
@@ -18170,7 +18185,7 @@
         <v>0</v>
       </c>
       <c r="AS88">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT88">
         <v>0.67</v>
@@ -18274,7 +18289,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18552,10 +18567,10 @@
         <v>1</v>
       </c>
       <c r="AS90">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT90">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU90">
         <v>2.23</v>
@@ -18656,7 +18671,7 @@
         <v>86</v>
       </c>
       <c r="P91" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18743,7 +18758,7 @@
         <v>1.67</v>
       </c>
       <c r="AS91">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT91">
         <v>2</v>
@@ -19128,7 +19143,7 @@
         <v>1.45</v>
       </c>
       <c r="AT93">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU93">
         <v>1.49</v>
@@ -19316,7 +19331,7 @@
         <v>1.25</v>
       </c>
       <c r="AS94">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT94">
         <v>1</v>
@@ -19507,10 +19522,10 @@
         <v>0.75</v>
       </c>
       <c r="AS95">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT95">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU95">
         <v>1.95</v>
@@ -19611,7 +19626,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19892,7 +19907,7 @@
         <v>1.85</v>
       </c>
       <c r="AT97">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU97">
         <v>1.53</v>
@@ -19993,7 +20008,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20184,7 +20199,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q99">
         <v>9</v>
@@ -20274,7 +20289,7 @@
         <v>1</v>
       </c>
       <c r="AT99">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU99">
         <v>1.33</v>
@@ -20375,7 +20390,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20462,7 +20477,7 @@
         <v>2</v>
       </c>
       <c r="AS100">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AT100">
         <v>1.69</v>
@@ -20847,7 +20862,7 @@
         <v>2.31</v>
       </c>
       <c r="AT102">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU102">
         <v>1.87</v>
@@ -21330,7 +21345,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21417,7 +21432,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT105">
         <v>1.42</v>
@@ -21521,7 +21536,7 @@
         <v>112</v>
       </c>
       <c r="P106" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21802,7 +21817,7 @@
         <v>1.69</v>
       </c>
       <c r="AT107">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU107">
         <v>1.57</v>
@@ -21903,7 +21918,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -21990,7 +22005,7 @@
         <v>2</v>
       </c>
       <c r="AS108">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT108">
         <v>2</v>
@@ -22181,7 +22196,7 @@
         <v>2.6</v>
       </c>
       <c r="AS109">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT109">
         <v>2.62</v>
@@ -22285,7 +22300,7 @@
         <v>86</v>
       </c>
       <c r="P110" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22566,7 +22581,7 @@
         <v>1.27</v>
       </c>
       <c r="AT111">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU111">
         <v>1.38</v>
@@ -22858,7 +22873,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q113">
         <v>7</v>
@@ -22948,7 +22963,7 @@
         <v>1</v>
       </c>
       <c r="AT113">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU113">
         <v>1.25</v>
@@ -23136,7 +23151,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT114">
         <v>0.67</v>
@@ -23240,7 +23255,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23431,7 +23446,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -23712,7 +23727,7 @@
         <v>0.5</v>
       </c>
       <c r="AT117">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU117">
         <v>1.68</v>
@@ -23813,7 +23828,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23903,7 +23918,7 @@
         <v>1.85</v>
       </c>
       <c r="AT118">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU118">
         <v>1.46</v>
@@ -24004,7 +24019,7 @@
         <v>167</v>
       </c>
       <c r="P119" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24094,7 +24109,7 @@
         <v>1.45</v>
       </c>
       <c r="AT119">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU119">
         <v>1.52</v>
@@ -24195,7 +24210,7 @@
         <v>112</v>
       </c>
       <c r="P120" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24386,7 +24401,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24473,7 +24488,7 @@
         <v>0.2</v>
       </c>
       <c r="AS121">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT121">
         <v>1.18</v>
@@ -24667,7 +24682,7 @@
         <v>1.33</v>
       </c>
       <c r="AT122">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU122">
         <v>1.61</v>
@@ -24768,7 +24783,7 @@
         <v>169</v>
       </c>
       <c r="P123" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q123">
         <v>2</v>
@@ -25150,7 +25165,7 @@
         <v>157</v>
       </c>
       <c r="P125" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25237,7 +25252,7 @@
         <v>2.67</v>
       </c>
       <c r="AS125">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT125">
         <v>2.62</v>
@@ -25723,7 +25738,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25810,7 +25825,7 @@
         <v>0.83</v>
       </c>
       <c r="AS128">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AT128">
         <v>1</v>
@@ -26001,10 +26016,10 @@
         <v>0.33</v>
       </c>
       <c r="AS129">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT129">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU129">
         <v>1.43</v>
@@ -26192,7 +26207,7 @@
         <v>2.2</v>
       </c>
       <c r="AS130">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT130">
         <v>2</v>
@@ -26577,7 +26592,7 @@
         <v>1</v>
       </c>
       <c r="AT132">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU132">
         <v>1.55</v>
@@ -26768,7 +26783,7 @@
         <v>2.58</v>
       </c>
       <c r="AT133">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU133">
         <v>2.45</v>
@@ -26959,7 +26974,7 @@
         <v>0.5</v>
       </c>
       <c r="AT134">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU134">
         <v>1.66</v>
@@ -27633,7 +27648,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -27720,7 +27735,7 @@
         <v>0.67</v>
       </c>
       <c r="AS138">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT138">
         <v>1.18</v>
@@ -27911,10 +27926,10 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT139">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU139">
         <v>2.15</v>
@@ -28105,7 +28120,7 @@
         <v>1</v>
       </c>
       <c r="AT140">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU140">
         <v>1.37</v>
@@ -28588,7 +28603,7 @@
         <v>182</v>
       </c>
       <c r="P143" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28678,7 +28693,7 @@
         <v>2.58</v>
       </c>
       <c r="AT143">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU143">
         <v>2.45</v>
@@ -28779,7 +28794,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q144">
         <v>9</v>
@@ -28866,10 +28881,10 @@
         <v>0.71</v>
       </c>
       <c r="AS144">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AT144">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU144">
         <v>1.17</v>
@@ -29161,7 +29176,7 @@
         <v>184</v>
       </c>
       <c r="P146" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29248,7 +29263,7 @@
         <v>1.29</v>
       </c>
       <c r="AS146">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT146">
         <v>1.42</v>
@@ -29352,7 +29367,7 @@
         <v>137</v>
       </c>
       <c r="P147" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29630,10 +29645,10 @@
         <v>0.86</v>
       </c>
       <c r="AS148">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT148">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU148">
         <v>1.43</v>
@@ -29821,7 +29836,7 @@
         <v>1.29</v>
       </c>
       <c r="AS149">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT149">
         <v>1.15</v>
@@ -29925,7 +29940,7 @@
         <v>186</v>
       </c>
       <c r="P150" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -30307,7 +30322,7 @@
         <v>188</v>
       </c>
       <c r="P152" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -30397,7 +30412,7 @@
         <v>1.15</v>
       </c>
       <c r="AT152">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU152">
         <v>1.58</v>
@@ -30498,7 +30513,7 @@
         <v>170</v>
       </c>
       <c r="P153" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q153">
         <v>9</v>
@@ -30689,7 +30704,7 @@
         <v>189</v>
       </c>
       <c r="P154" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30970,7 +30985,7 @@
         <v>1.45</v>
       </c>
       <c r="AT155">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU155">
         <v>1.43</v>
@@ -31071,7 +31086,7 @@
         <v>190</v>
       </c>
       <c r="P156" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -31349,7 +31364,7 @@
         <v>0.57</v>
       </c>
       <c r="AS157">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT157">
         <v>1.18</v>
@@ -31453,7 +31468,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31543,7 +31558,7 @@
         <v>0.5</v>
       </c>
       <c r="AT158">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU158">
         <v>1.54</v>
@@ -31644,7 +31659,7 @@
         <v>157</v>
       </c>
       <c r="P159" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -31731,7 +31746,7 @@
         <v>0.57</v>
       </c>
       <c r="AS159">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT159">
         <v>1.17</v>
@@ -31922,7 +31937,7 @@
         <v>2.71</v>
       </c>
       <c r="AS160">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT160">
         <v>2.62</v>
@@ -32116,7 +32131,7 @@
         <v>1.33</v>
       </c>
       <c r="AT161">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU161">
         <v>1.67</v>
@@ -32304,7 +32319,7 @@
         <v>0.63</v>
       </c>
       <c r="AS162">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT162">
         <v>1</v>
@@ -32498,7 +32513,7 @@
         <v>2.31</v>
       </c>
       <c r="AT163">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU163">
         <v>1.89</v>
@@ -32599,7 +32614,7 @@
         <v>196</v>
       </c>
       <c r="P164" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q164">
         <v>3</v>
@@ -32686,7 +32701,7 @@
         <v>1.5</v>
       </c>
       <c r="AS164">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT164">
         <v>1.42</v>
@@ -33071,7 +33086,7 @@
         <v>1</v>
       </c>
       <c r="AT166">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU166">
         <v>1.58</v>
@@ -33172,7 +33187,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q167">
         <v>10</v>
@@ -33262,7 +33277,7 @@
         <v>1.85</v>
       </c>
       <c r="AT167">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU167">
         <v>1.49</v>
@@ -33363,7 +33378,7 @@
         <v>86</v>
       </c>
       <c r="P168" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33450,7 +33465,7 @@
         <v>2.38</v>
       </c>
       <c r="AS168">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AT168">
         <v>2.62</v>
@@ -33554,7 +33569,7 @@
         <v>199</v>
       </c>
       <c r="P169" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33936,7 +33951,7 @@
         <v>191</v>
       </c>
       <c r="P171" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -34217,7 +34232,7 @@
         <v>2.58</v>
       </c>
       <c r="AT172">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU172">
         <v>2.35</v>
@@ -34318,7 +34333,7 @@
         <v>202</v>
       </c>
       <c r="P173" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34509,7 +34524,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q174">
         <v>8</v>
@@ -34599,7 +34614,7 @@
         <v>1</v>
       </c>
       <c r="AT174">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU174">
         <v>1.28</v>
@@ -34787,10 +34802,10 @@
         <v>0.38</v>
       </c>
       <c r="AS175">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT175">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU175">
         <v>1.82</v>
@@ -34891,7 +34906,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q176">
         <v>7</v>
@@ -35082,7 +35097,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q177">
         <v>7</v>
@@ -35273,7 +35288,7 @@
         <v>205</v>
       </c>
       <c r="P178" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q178">
         <v>6</v>
@@ -35464,7 +35479,7 @@
         <v>206</v>
       </c>
       <c r="P179" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q179">
         <v>5</v>
@@ -35551,10 +35566,10 @@
         <v>0.75</v>
       </c>
       <c r="AS179">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT179">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU179">
         <v>1.64</v>
@@ -35742,7 +35757,7 @@
         <v>1</v>
       </c>
       <c r="AS180">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT180">
         <v>1</v>
@@ -36127,7 +36142,7 @@
         <v>1</v>
       </c>
       <c r="AT182">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU182">
         <v>1.47</v>
@@ -36228,7 +36243,7 @@
         <v>86</v>
       </c>
       <c r="P183" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -36506,7 +36521,7 @@
         <v>1.22</v>
       </c>
       <c r="AS184">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT184">
         <v>1.15</v>
@@ -36610,7 +36625,7 @@
         <v>86</v>
       </c>
       <c r="P185" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q185">
         <v>6</v>
@@ -36697,10 +36712,10 @@
         <v>1.33</v>
       </c>
       <c r="AS185">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AT185">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU185">
         <v>1.13</v>
@@ -36801,7 +36816,7 @@
         <v>144</v>
       </c>
       <c r="P186" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q186">
         <v>10</v>
@@ -36888,7 +36903,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS186">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT186">
         <v>1</v>
@@ -36992,7 +37007,7 @@
         <v>86</v>
       </c>
       <c r="P187" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -37183,7 +37198,7 @@
         <v>209</v>
       </c>
       <c r="P188" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -37374,7 +37389,7 @@
         <v>131</v>
       </c>
       <c r="P189" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37565,7 +37580,7 @@
         <v>86</v>
       </c>
       <c r="P190" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q190">
         <v>2</v>
@@ -37652,10 +37667,10 @@
         <v>0.89</v>
       </c>
       <c r="AS190">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT190">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU190">
         <v>1.76</v>
@@ -37846,7 +37861,7 @@
         <v>1.85</v>
       </c>
       <c r="AT191">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU191">
         <v>1.54</v>
@@ -38138,7 +38153,7 @@
         <v>143</v>
       </c>
       <c r="P193" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38228,7 +38243,7 @@
         <v>1</v>
       </c>
       <c r="AT193">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU193">
         <v>1.34</v>
@@ -38329,7 +38344,7 @@
         <v>212</v>
       </c>
       <c r="P194" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q194">
         <v>5</v>
@@ -38520,7 +38535,7 @@
         <v>152</v>
       </c>
       <c r="P195" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -38798,7 +38813,7 @@
         <v>0.78</v>
       </c>
       <c r="AS196">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT196">
         <v>0.67</v>
@@ -38902,7 +38917,7 @@
         <v>214</v>
       </c>
       <c r="P197" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q197">
         <v>2</v>
@@ -39093,7 +39108,7 @@
         <v>86</v>
       </c>
       <c r="P198" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q198">
         <v>12</v>
@@ -39475,7 +39490,7 @@
         <v>216</v>
       </c>
       <c r="P200" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -39756,7 +39771,7 @@
         <v>1.33</v>
       </c>
       <c r="AT201">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU201">
         <v>1.79</v>
@@ -39857,7 +39872,7 @@
         <v>86</v>
       </c>
       <c r="P202" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -39947,7 +39962,7 @@
         <v>0.5</v>
       </c>
       <c r="AT202">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU202">
         <v>1.57</v>
@@ -40135,10 +40150,10 @@
         <v>1.1</v>
       </c>
       <c r="AS203">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT203">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU203">
         <v>1.75</v>
@@ -40430,7 +40445,7 @@
         <v>86</v>
       </c>
       <c r="P205" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q205">
         <v>3</v>
@@ -40711,7 +40726,7 @@
         <v>1.45</v>
       </c>
       <c r="AT206">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU206">
         <v>1.46</v>
@@ -40812,7 +40827,7 @@
         <v>157</v>
       </c>
       <c r="P207" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -40899,7 +40914,7 @@
         <v>0.78</v>
       </c>
       <c r="AS207">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT207">
         <v>1.18</v>
@@ -41090,10 +41105,10 @@
         <v>1.6</v>
       </c>
       <c r="AS208">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT208">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU208">
         <v>1.68</v>
@@ -41385,7 +41400,7 @@
         <v>220</v>
       </c>
       <c r="P210" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q210">
         <v>9</v>
@@ -41472,7 +41487,7 @@
         <v>0.7</v>
       </c>
       <c r="AS210">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT210">
         <v>0.67</v>
@@ -41576,7 +41591,7 @@
         <v>86</v>
       </c>
       <c r="P211" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -41666,7 +41681,7 @@
         <v>1.15</v>
       </c>
       <c r="AT211">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU211">
         <v>1.42</v>
@@ -41958,7 +41973,7 @@
         <v>222</v>
       </c>
       <c r="P213" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42340,7 +42355,7 @@
         <v>86</v>
       </c>
       <c r="P215" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q215">
         <v>5</v>
@@ -42531,7 +42546,7 @@
         <v>224</v>
       </c>
       <c r="P216" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q216">
         <v>10</v>
@@ -42722,7 +42737,7 @@
         <v>86</v>
       </c>
       <c r="P217" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -43385,7 +43400,7 @@
         <v>1</v>
       </c>
       <c r="AT220">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU220">
         <v>1.49</v>
@@ -43573,7 +43588,7 @@
         <v>1.6</v>
       </c>
       <c r="AS221">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AT221">
         <v>1.42</v>
@@ -43677,7 +43692,7 @@
         <v>86</v>
       </c>
       <c r="P222" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q222">
         <v>1</v>
@@ -43868,7 +43883,7 @@
         <v>168</v>
       </c>
       <c r="P223" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q223">
         <v>1</v>
@@ -43955,7 +43970,7 @@
         <v>1</v>
       </c>
       <c r="AS223">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AT223">
         <v>1.18</v>
@@ -44146,10 +44161,10 @@
         <v>1.45</v>
       </c>
       <c r="AS224">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT224">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU224">
         <v>1.64</v>
@@ -44337,10 +44352,10 @@
         <v>1.36</v>
       </c>
       <c r="AS225">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT225">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU225">
         <v>1.73</v>
@@ -44441,7 +44456,7 @@
         <v>228</v>
       </c>
       <c r="P226" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q226">
         <v>6</v>
@@ -44528,10 +44543,10 @@
         <v>1.09</v>
       </c>
       <c r="AS226">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT226">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU226">
         <v>1.78</v>
@@ -44632,7 +44647,7 @@
         <v>86</v>
       </c>
       <c r="P227" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q227">
         <v>2</v>
@@ -44823,7 +44838,7 @@
         <v>176</v>
       </c>
       <c r="P228" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q228">
         <v>13</v>
@@ -44910,10 +44925,10 @@
         <v>1</v>
       </c>
       <c r="AS228">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT228">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU228">
         <v>2.14</v>
@@ -45014,7 +45029,7 @@
         <v>86</v>
       </c>
       <c r="P229" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45104,7 +45119,7 @@
         <v>1</v>
       </c>
       <c r="AT229">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU229">
         <v>1.45</v>
@@ -45292,10 +45307,10 @@
         <v>0.4</v>
       </c>
       <c r="AS230">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT230">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU230">
         <v>1.72</v>
@@ -45396,7 +45411,7 @@
         <v>230</v>
       </c>
       <c r="P231" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q231">
         <v>5</v>
@@ -45587,7 +45602,7 @@
         <v>86</v>
       </c>
       <c r="P232" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q232">
         <v>4</v>
@@ -46351,7 +46366,7 @@
         <v>233</v>
       </c>
       <c r="P236" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q236">
         <v>5</v>
@@ -46733,7 +46748,7 @@
         <v>86</v>
       </c>
       <c r="P238" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q238">
         <v>4</v>
@@ -47115,7 +47130,7 @@
         <v>235</v>
       </c>
       <c r="P240" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -47306,7 +47321,7 @@
         <v>236</v>
       </c>
       <c r="P241" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -47497,7 +47512,7 @@
         <v>86</v>
       </c>
       <c r="P242" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q242">
         <v>8</v>
@@ -47639,6 +47654,1343 @@
       </c>
       <c r="BK242">
         <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:63">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>2638239</v>
+      </c>
+      <c r="C243" t="s">
+        <v>63</v>
+      </c>
+      <c r="D243" t="s">
+        <v>64</v>
+      </c>
+      <c r="E243" s="2">
+        <v>44989.45833333334</v>
+      </c>
+      <c r="F243">
+        <v>25</v>
+      </c>
+      <c r="G243" t="s">
+        <v>68</v>
+      </c>
+      <c r="H243" t="s">
+        <v>79</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>1</v>
+      </c>
+      <c r="L243">
+        <v>2</v>
+      </c>
+      <c r="M243">
+        <v>1</v>
+      </c>
+      <c r="N243">
+        <v>3</v>
+      </c>
+      <c r="O243" t="s">
+        <v>237</v>
+      </c>
+      <c r="P243" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q243">
+        <v>1</v>
+      </c>
+      <c r="R243">
+        <v>8</v>
+      </c>
+      <c r="S243">
+        <v>9</v>
+      </c>
+      <c r="T243">
+        <v>2.75</v>
+      </c>
+      <c r="U243">
+        <v>2.1</v>
+      </c>
+      <c r="V243">
+        <v>4</v>
+      </c>
+      <c r="W243">
+        <v>1.4</v>
+      </c>
+      <c r="X243">
+        <v>2.75</v>
+      </c>
+      <c r="Y243">
+        <v>3</v>
+      </c>
+      <c r="Z243">
+        <v>1.36</v>
+      </c>
+      <c r="AA243">
+        <v>8</v>
+      </c>
+      <c r="AB243">
+        <v>1.08</v>
+      </c>
+      <c r="AC243">
+        <v>2.15</v>
+      </c>
+      <c r="AD243">
+        <v>3.3</v>
+      </c>
+      <c r="AE243">
+        <v>3.65</v>
+      </c>
+      <c r="AF243">
+        <v>1.05</v>
+      </c>
+      <c r="AG243">
+        <v>9</v>
+      </c>
+      <c r="AH243">
+        <v>1.28</v>
+      </c>
+      <c r="AI243">
+        <v>3.5</v>
+      </c>
+      <c r="AJ243">
+        <v>1.9</v>
+      </c>
+      <c r="AK243">
+        <v>1.77</v>
+      </c>
+      <c r="AL243">
+        <v>1.8</v>
+      </c>
+      <c r="AM243">
+        <v>1.95</v>
+      </c>
+      <c r="AN243">
+        <v>1.22</v>
+      </c>
+      <c r="AO243">
+        <v>1.37</v>
+      </c>
+      <c r="AP243">
+        <v>1.75</v>
+      </c>
+      <c r="AQ243">
+        <v>1.25</v>
+      </c>
+      <c r="AR243">
+        <v>1</v>
+      </c>
+      <c r="AS243">
+        <v>1.38</v>
+      </c>
+      <c r="AT243">
+        <v>0.92</v>
+      </c>
+      <c r="AU243">
+        <v>1.62</v>
+      </c>
+      <c r="AV243">
+        <v>1.21</v>
+      </c>
+      <c r="AW243">
+        <v>2.83</v>
+      </c>
+      <c r="AX243">
+        <v>1.64</v>
+      </c>
+      <c r="AY243">
+        <v>7.5</v>
+      </c>
+      <c r="AZ243">
+        <v>2.65</v>
+      </c>
+      <c r="BA243">
+        <v>1.37</v>
+      </c>
+      <c r="BB243">
+        <v>1.6</v>
+      </c>
+      <c r="BC243">
+        <v>1.97</v>
+      </c>
+      <c r="BD243">
+        <v>2.5</v>
+      </c>
+      <c r="BE243">
+        <v>3.35</v>
+      </c>
+      <c r="BF243">
+        <v>4</v>
+      </c>
+      <c r="BG243">
+        <v>5</v>
+      </c>
+      <c r="BH243">
+        <v>9</v>
+      </c>
+      <c r="BI243">
+        <v>14</v>
+      </c>
+      <c r="BJ243">
+        <v>13</v>
+      </c>
+      <c r="BK243">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="244" spans="1:63">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>2638236</v>
+      </c>
+      <c r="C244" t="s">
+        <v>63</v>
+      </c>
+      <c r="D244" t="s">
+        <v>64</v>
+      </c>
+      <c r="E244" s="2">
+        <v>44989.58333333334</v>
+      </c>
+      <c r="F244">
+        <v>25</v>
+      </c>
+      <c r="G244" t="s">
+        <v>81</v>
+      </c>
+      <c r="H244" t="s">
+        <v>75</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244">
+        <v>0</v>
+      </c>
+      <c r="O244" t="s">
+        <v>86</v>
+      </c>
+      <c r="P244" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q244">
+        <v>12</v>
+      </c>
+      <c r="R244">
+        <v>3</v>
+      </c>
+      <c r="S244">
+        <v>15</v>
+      </c>
+      <c r="T244">
+        <v>2.2</v>
+      </c>
+      <c r="U244">
+        <v>2.3</v>
+      </c>
+      <c r="V244">
+        <v>5</v>
+      </c>
+      <c r="W244">
+        <v>1.33</v>
+      </c>
+      <c r="X244">
+        <v>3.25</v>
+      </c>
+      <c r="Y244">
+        <v>2.63</v>
+      </c>
+      <c r="Z244">
+        <v>1.44</v>
+      </c>
+      <c r="AA244">
+        <v>7</v>
+      </c>
+      <c r="AB244">
+        <v>1.1</v>
+      </c>
+      <c r="AC244">
+        <v>1.65</v>
+      </c>
+      <c r="AD244">
+        <v>4</v>
+      </c>
+      <c r="AE244">
+        <v>5</v>
+      </c>
+      <c r="AF244">
+        <v>1.03</v>
+      </c>
+      <c r="AG244">
+        <v>11</v>
+      </c>
+      <c r="AH244">
+        <v>1.22</v>
+      </c>
+      <c r="AI244">
+        <v>4</v>
+      </c>
+      <c r="AJ244">
+        <v>1.79</v>
+      </c>
+      <c r="AK244">
+        <v>1.88</v>
+      </c>
+      <c r="AL244">
+        <v>1.8</v>
+      </c>
+      <c r="AM244">
+        <v>1.95</v>
+      </c>
+      <c r="AN244">
+        <v>1.12</v>
+      </c>
+      <c r="AO244">
+        <v>1.25</v>
+      </c>
+      <c r="AP244">
+        <v>2.3</v>
+      </c>
+      <c r="AQ244">
+        <v>1.55</v>
+      </c>
+      <c r="AR244">
+        <v>1.25</v>
+      </c>
+      <c r="AS244">
+        <v>1.5</v>
+      </c>
+      <c r="AT244">
+        <v>1.23</v>
+      </c>
+      <c r="AU244">
+        <v>1.85</v>
+      </c>
+      <c r="AV244">
+        <v>1.54</v>
+      </c>
+      <c r="AW244">
+        <v>3.39</v>
+      </c>
+      <c r="AX244">
+        <v>1.47</v>
+      </c>
+      <c r="AY244">
+        <v>8.5</v>
+      </c>
+      <c r="AZ244">
+        <v>3.25</v>
+      </c>
+      <c r="BA244">
+        <v>1.35</v>
+      </c>
+      <c r="BB244">
+        <v>1.58</v>
+      </c>
+      <c r="BC244">
+        <v>1.93</v>
+      </c>
+      <c r="BD244">
+        <v>2.43</v>
+      </c>
+      <c r="BE244">
+        <v>3.25</v>
+      </c>
+      <c r="BF244">
+        <v>6</v>
+      </c>
+      <c r="BG244">
+        <v>2</v>
+      </c>
+      <c r="BH244">
+        <v>8</v>
+      </c>
+      <c r="BI244">
+        <v>3</v>
+      </c>
+      <c r="BJ244">
+        <v>14</v>
+      </c>
+      <c r="BK244">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:63">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>2638237</v>
+      </c>
+      <c r="C245" t="s">
+        <v>63</v>
+      </c>
+      <c r="D245" t="s">
+        <v>64</v>
+      </c>
+      <c r="E245" s="2">
+        <v>44989.69791666666</v>
+      </c>
+      <c r="F245">
+        <v>25</v>
+      </c>
+      <c r="G245" t="s">
+        <v>69</v>
+      </c>
+      <c r="H245" t="s">
+        <v>65</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>2</v>
+      </c>
+      <c r="M245">
+        <v>1</v>
+      </c>
+      <c r="N245">
+        <v>3</v>
+      </c>
+      <c r="O245" t="s">
+        <v>238</v>
+      </c>
+      <c r="P245" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q245">
+        <v>11</v>
+      </c>
+      <c r="R245">
+        <v>5</v>
+      </c>
+      <c r="S245">
+        <v>16</v>
+      </c>
+      <c r="T245">
+        <v>3.5</v>
+      </c>
+      <c r="U245">
+        <v>2.1</v>
+      </c>
+      <c r="V245">
+        <v>3.2</v>
+      </c>
+      <c r="W245">
+        <v>1.44</v>
+      </c>
+      <c r="X245">
+        <v>2.63</v>
+      </c>
+      <c r="Y245">
+        <v>3.25</v>
+      </c>
+      <c r="Z245">
+        <v>1.33</v>
+      </c>
+      <c r="AA245">
+        <v>9</v>
+      </c>
+      <c r="AB245">
+        <v>1.07</v>
+      </c>
+      <c r="AC245">
+        <v>2.85</v>
+      </c>
+      <c r="AD245">
+        <v>3.25</v>
+      </c>
+      <c r="AE245">
+        <v>2.55</v>
+      </c>
+      <c r="AF245">
+        <v>1.07</v>
+      </c>
+      <c r="AG245">
+        <v>9.5</v>
+      </c>
+      <c r="AH245">
+        <v>1.38</v>
+      </c>
+      <c r="AI245">
+        <v>3.1</v>
+      </c>
+      <c r="AJ245">
+        <v>1.86</v>
+      </c>
+      <c r="AK245">
+        <v>1.81</v>
+      </c>
+      <c r="AL245">
+        <v>1.8</v>
+      </c>
+      <c r="AM245">
+        <v>1.95</v>
+      </c>
+      <c r="AN245">
+        <v>1.5</v>
+      </c>
+      <c r="AO245">
+        <v>1.33</v>
+      </c>
+      <c r="AP245">
+        <v>1.42</v>
+      </c>
+      <c r="AQ245">
+        <v>1.33</v>
+      </c>
+      <c r="AR245">
+        <v>1.58</v>
+      </c>
+      <c r="AS245">
+        <v>1.46</v>
+      </c>
+      <c r="AT245">
+        <v>1.46</v>
+      </c>
+      <c r="AU245">
+        <v>2.07</v>
+      </c>
+      <c r="AV245">
+        <v>1.66</v>
+      </c>
+      <c r="AW245">
+        <v>3.73</v>
+      </c>
+      <c r="AX245">
+        <v>1.78</v>
+      </c>
+      <c r="AY245">
+        <v>7.5</v>
+      </c>
+      <c r="AZ245">
+        <v>2.35</v>
+      </c>
+      <c r="BA245">
+        <v>1.4</v>
+      </c>
+      <c r="BB245">
+        <v>1.67</v>
+      </c>
+      <c r="BC245">
+        <v>2.08</v>
+      </c>
+      <c r="BD245">
+        <v>2.7</v>
+      </c>
+      <c r="BE245">
+        <v>3.65</v>
+      </c>
+      <c r="BF245">
+        <v>9</v>
+      </c>
+      <c r="BG245">
+        <v>7</v>
+      </c>
+      <c r="BH245">
+        <v>9</v>
+      </c>
+      <c r="BI245">
+        <v>2</v>
+      </c>
+      <c r="BJ245">
+        <v>18</v>
+      </c>
+      <c r="BK245">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:63">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>2638244</v>
+      </c>
+      <c r="C246" t="s">
+        <v>63</v>
+      </c>
+      <c r="D246" t="s">
+        <v>64</v>
+      </c>
+      <c r="E246" s="2">
+        <v>44990.35416666666</v>
+      </c>
+      <c r="F246">
+        <v>25</v>
+      </c>
+      <c r="G246" t="s">
+        <v>72</v>
+      </c>
+      <c r="H246" t="s">
+        <v>73</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+      <c r="L246">
+        <v>0</v>
+      </c>
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <v>0</v>
+      </c>
+      <c r="O246" t="s">
+        <v>86</v>
+      </c>
+      <c r="P246" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q246">
+        <v>9</v>
+      </c>
+      <c r="R246">
+        <v>5</v>
+      </c>
+      <c r="S246">
+        <v>14</v>
+      </c>
+      <c r="T246">
+        <v>3.4</v>
+      </c>
+      <c r="U246">
+        <v>2</v>
+      </c>
+      <c r="V246">
+        <v>3.4</v>
+      </c>
+      <c r="W246">
+        <v>1.5</v>
+      </c>
+      <c r="X246">
+        <v>2.5</v>
+      </c>
+      <c r="Y246">
+        <v>3.4</v>
+      </c>
+      <c r="Z246">
+        <v>1.3</v>
+      </c>
+      <c r="AA246">
+        <v>10</v>
+      </c>
+      <c r="AB246">
+        <v>1.06</v>
+      </c>
+      <c r="AC246">
+        <v>2.69</v>
+      </c>
+      <c r="AD246">
+        <v>3.19</v>
+      </c>
+      <c r="AE246">
+        <v>2.62</v>
+      </c>
+      <c r="AF246">
+        <v>1.09</v>
+      </c>
+      <c r="AG246">
+        <v>8</v>
+      </c>
+      <c r="AH246">
+        <v>1.42</v>
+      </c>
+      <c r="AI246">
+        <v>2.9</v>
+      </c>
+      <c r="AJ246">
+        <v>2.07</v>
+      </c>
+      <c r="AK246">
+        <v>1.65</v>
+      </c>
+      <c r="AL246">
+        <v>1.95</v>
+      </c>
+      <c r="AM246">
+        <v>1.8</v>
+      </c>
+      <c r="AN246">
+        <v>1.4</v>
+      </c>
+      <c r="AO246">
+        <v>1.35</v>
+      </c>
+      <c r="AP246">
+        <v>1.42</v>
+      </c>
+      <c r="AQ246">
+        <v>1</v>
+      </c>
+      <c r="AR246">
+        <v>0.36</v>
+      </c>
+      <c r="AS246">
+        <v>1</v>
+      </c>
+      <c r="AT246">
+        <v>0.42</v>
+      </c>
+      <c r="AU246">
+        <v>1.47</v>
+      </c>
+      <c r="AV246">
+        <v>1.25</v>
+      </c>
+      <c r="AW246">
+        <v>2.72</v>
+      </c>
+      <c r="AX246">
+        <v>2</v>
+      </c>
+      <c r="AY246">
+        <v>7.5</v>
+      </c>
+      <c r="AZ246">
+        <v>2.2</v>
+      </c>
+      <c r="BA246">
+        <v>1.28</v>
+      </c>
+      <c r="BB246">
+        <v>1.62</v>
+      </c>
+      <c r="BC246">
+        <v>2.03</v>
+      </c>
+      <c r="BD246">
+        <v>2.54</v>
+      </c>
+      <c r="BE246">
+        <v>3.48</v>
+      </c>
+      <c r="BF246">
+        <v>5</v>
+      </c>
+      <c r="BG246">
+        <v>4</v>
+      </c>
+      <c r="BH246">
+        <v>11</v>
+      </c>
+      <c r="BI246">
+        <v>7</v>
+      </c>
+      <c r="BJ246">
+        <v>16</v>
+      </c>
+      <c r="BK246">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247" spans="1:63">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>2638242</v>
+      </c>
+      <c r="C247" t="s">
+        <v>63</v>
+      </c>
+      <c r="D247" t="s">
+        <v>64</v>
+      </c>
+      <c r="E247" s="2">
+        <v>44990.45833333334</v>
+      </c>
+      <c r="F247">
+        <v>25</v>
+      </c>
+      <c r="G247" t="s">
+        <v>66</v>
+      </c>
+      <c r="H247" t="s">
+        <v>71</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+      <c r="L247">
+        <v>0</v>
+      </c>
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247">
+        <v>0</v>
+      </c>
+      <c r="O247" t="s">
+        <v>86</v>
+      </c>
+      <c r="P247" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q247">
+        <v>2</v>
+      </c>
+      <c r="R247">
+        <v>6</v>
+      </c>
+      <c r="S247">
+        <v>8</v>
+      </c>
+      <c r="T247">
+        <v>3</v>
+      </c>
+      <c r="U247">
+        <v>2.05</v>
+      </c>
+      <c r="V247">
+        <v>3.75</v>
+      </c>
+      <c r="W247">
+        <v>1.44</v>
+      </c>
+      <c r="X247">
+        <v>2.63</v>
+      </c>
+      <c r="Y247">
+        <v>3.25</v>
+      </c>
+      <c r="Z247">
+        <v>1.33</v>
+      </c>
+      <c r="AA247">
+        <v>9</v>
+      </c>
+      <c r="AB247">
+        <v>1.07</v>
+      </c>
+      <c r="AC247">
+        <v>2.03</v>
+      </c>
+      <c r="AD247">
+        <v>3.37</v>
+      </c>
+      <c r="AE247">
+        <v>3.57</v>
+      </c>
+      <c r="AF247">
+        <v>1.06</v>
+      </c>
+      <c r="AG247">
+        <v>8</v>
+      </c>
+      <c r="AH247">
+        <v>1.33</v>
+      </c>
+      <c r="AI247">
+        <v>3.2</v>
+      </c>
+      <c r="AJ247">
+        <v>2.05</v>
+      </c>
+      <c r="AK247">
+        <v>1.83</v>
+      </c>
+      <c r="AL247">
+        <v>1.91</v>
+      </c>
+      <c r="AM247">
+        <v>1.91</v>
+      </c>
+      <c r="AN247">
+        <v>1.28</v>
+      </c>
+      <c r="AO247">
+        <v>1.35</v>
+      </c>
+      <c r="AP247">
+        <v>1.65</v>
+      </c>
+      <c r="AQ247">
+        <v>0.25</v>
+      </c>
+      <c r="AR247">
+        <v>0.82</v>
+      </c>
+      <c r="AS247">
+        <v>0.31</v>
+      </c>
+      <c r="AT247">
+        <v>0.83</v>
+      </c>
+      <c r="AU247">
+        <v>1.06</v>
+      </c>
+      <c r="AV247">
+        <v>1.22</v>
+      </c>
+      <c r="AW247">
+        <v>2.28</v>
+      </c>
+      <c r="AX247">
+        <v>1.88</v>
+      </c>
+      <c r="AY247">
+        <v>7.4</v>
+      </c>
+      <c r="AZ247">
+        <v>2.38</v>
+      </c>
+      <c r="BA247">
+        <v>1.33</v>
+      </c>
+      <c r="BB247">
+        <v>1.75</v>
+      </c>
+      <c r="BC247">
+        <v>2.18</v>
+      </c>
+      <c r="BD247">
+        <v>2.85</v>
+      </c>
+      <c r="BE247">
+        <v>3.96</v>
+      </c>
+      <c r="BF247">
+        <v>4</v>
+      </c>
+      <c r="BG247">
+        <v>5</v>
+      </c>
+      <c r="BH247">
+        <v>5</v>
+      </c>
+      <c r="BI247">
+        <v>4</v>
+      </c>
+      <c r="BJ247">
+        <v>9</v>
+      </c>
+      <c r="BK247">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:63">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>2638238</v>
+      </c>
+      <c r="C248" t="s">
+        <v>63</v>
+      </c>
+      <c r="D248" t="s">
+        <v>64</v>
+      </c>
+      <c r="E248" s="2">
+        <v>44990.58333333334</v>
+      </c>
+      <c r="F248">
+        <v>25</v>
+      </c>
+      <c r="G248" t="s">
+        <v>77</v>
+      </c>
+      <c r="H248" t="s">
+        <v>67</v>
+      </c>
+      <c r="I248">
+        <v>1</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>1</v>
+      </c>
+      <c r="L248">
+        <v>2</v>
+      </c>
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248">
+        <v>2</v>
+      </c>
+      <c r="O248" t="s">
+        <v>239</v>
+      </c>
+      <c r="P248" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q248">
+        <v>6</v>
+      </c>
+      <c r="R248">
+        <v>4</v>
+      </c>
+      <c r="S248">
+        <v>10</v>
+      </c>
+      <c r="T248">
+        <v>1.83</v>
+      </c>
+      <c r="U248">
+        <v>2.38</v>
+      </c>
+      <c r="V248">
+        <v>8</v>
+      </c>
+      <c r="W248">
+        <v>1.36</v>
+      </c>
+      <c r="X248">
+        <v>3</v>
+      </c>
+      <c r="Y248">
+        <v>2.75</v>
+      </c>
+      <c r="Z248">
+        <v>1.4</v>
+      </c>
+      <c r="AA248">
+        <v>7</v>
+      </c>
+      <c r="AB248">
+        <v>1.1</v>
+      </c>
+      <c r="AC248">
+        <v>1.29</v>
+      </c>
+      <c r="AD248">
+        <v>5.3</v>
+      </c>
+      <c r="AE248">
+        <v>11</v>
+      </c>
+      <c r="AF248">
+        <v>1.01</v>
+      </c>
+      <c r="AG248">
+        <v>13</v>
+      </c>
+      <c r="AH248">
+        <v>1.25</v>
+      </c>
+      <c r="AI248">
+        <v>3.8</v>
+      </c>
+      <c r="AJ248">
+        <v>1.75</v>
+      </c>
+      <c r="AK248">
+        <v>2.08</v>
+      </c>
+      <c r="AL248">
+        <v>2.2</v>
+      </c>
+      <c r="AM248">
+        <v>1.62</v>
+      </c>
+      <c r="AN248">
+        <v>1.02</v>
+      </c>
+      <c r="AO248">
+        <v>1.17</v>
+      </c>
+      <c r="AP248">
+        <v>3.4</v>
+      </c>
+      <c r="AQ248">
+        <v>2.5</v>
+      </c>
+      <c r="AR248">
+        <v>1.25</v>
+      </c>
+      <c r="AS248">
+        <v>2.54</v>
+      </c>
+      <c r="AT248">
+        <v>1.15</v>
+      </c>
+      <c r="AU248">
+        <v>1.74</v>
+      </c>
+      <c r="AV248">
+        <v>1.2</v>
+      </c>
+      <c r="AW248">
+        <v>2.94</v>
+      </c>
+      <c r="AX248">
+        <v>1.08</v>
+      </c>
+      <c r="AY248">
+        <v>14.5</v>
+      </c>
+      <c r="AZ248">
+        <v>10.5</v>
+      </c>
+      <c r="BA248">
+        <v>1.3</v>
+      </c>
+      <c r="BB248">
+        <v>1.5</v>
+      </c>
+      <c r="BC248">
+        <v>1.81</v>
+      </c>
+      <c r="BD248">
+        <v>2.25</v>
+      </c>
+      <c r="BE248">
+        <v>2.9</v>
+      </c>
+      <c r="BF248">
+        <v>6</v>
+      </c>
+      <c r="BG248">
+        <v>2</v>
+      </c>
+      <c r="BH248">
+        <v>11</v>
+      </c>
+      <c r="BI248">
+        <v>10</v>
+      </c>
+      <c r="BJ248">
+        <v>17</v>
+      </c>
+      <c r="BK248">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="249" spans="1:63">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>2638241</v>
+      </c>
+      <c r="C249" t="s">
+        <v>63</v>
+      </c>
+      <c r="D249" t="s">
+        <v>64</v>
+      </c>
+      <c r="E249" s="2">
+        <v>44990.69791666666</v>
+      </c>
+      <c r="F249">
+        <v>25</v>
+      </c>
+      <c r="G249" t="s">
+        <v>83</v>
+      </c>
+      <c r="H249" t="s">
+        <v>74</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <v>1</v>
+      </c>
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249">
+        <v>1</v>
+      </c>
+      <c r="O249" t="s">
+        <v>240</v>
+      </c>
+      <c r="P249" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q249">
+        <v>2</v>
+      </c>
+      <c r="R249">
+        <v>6</v>
+      </c>
+      <c r="S249">
+        <v>8</v>
+      </c>
+      <c r="T249">
+        <v>3.4</v>
+      </c>
+      <c r="U249">
+        <v>1.95</v>
+      </c>
+      <c r="V249">
+        <v>3.6</v>
+      </c>
+      <c r="W249">
+        <v>1.53</v>
+      </c>
+      <c r="X249">
+        <v>2.38</v>
+      </c>
+      <c r="Y249">
+        <v>3.5</v>
+      </c>
+      <c r="Z249">
+        <v>1.29</v>
+      </c>
+      <c r="AA249">
+        <v>11</v>
+      </c>
+      <c r="AB249">
+        <v>1.05</v>
+      </c>
+      <c r="AC249">
+        <v>2.43</v>
+      </c>
+      <c r="AD249">
+        <v>3.1</v>
+      </c>
+      <c r="AE249">
+        <v>3.15</v>
+      </c>
+      <c r="AF249">
+        <v>1.08</v>
+      </c>
+      <c r="AG249">
+        <v>7</v>
+      </c>
+      <c r="AH249">
+        <v>1.52</v>
+      </c>
+      <c r="AI249">
+        <v>2.55</v>
+      </c>
+      <c r="AJ249">
+        <v>2.55</v>
+      </c>
+      <c r="AK249">
+        <v>1.5</v>
+      </c>
+      <c r="AL249">
+        <v>2</v>
+      </c>
+      <c r="AM249">
+        <v>1.75</v>
+      </c>
+      <c r="AN249">
+        <v>1.42</v>
+      </c>
+      <c r="AO249">
+        <v>1.4</v>
+      </c>
+      <c r="AP249">
+        <v>1.42</v>
+      </c>
+      <c r="AQ249">
+        <v>2</v>
+      </c>
+      <c r="AR249">
+        <v>1.82</v>
+      </c>
+      <c r="AS249">
+        <v>2.08</v>
+      </c>
+      <c r="AT249">
+        <v>1.67</v>
+      </c>
+      <c r="AU249">
+        <v>1.67</v>
+      </c>
+      <c r="AV249">
+        <v>1.34</v>
+      </c>
+      <c r="AW249">
+        <v>3.01</v>
+      </c>
+      <c r="AX249">
+        <v>1.49</v>
+      </c>
+      <c r="AY249">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ249">
+        <v>3.4</v>
+      </c>
+      <c r="BA249">
+        <v>1.28</v>
+      </c>
+      <c r="BB249">
+        <v>1.65</v>
+      </c>
+      <c r="BC249">
+        <v>2.05</v>
+      </c>
+      <c r="BD249">
+        <v>2.59</v>
+      </c>
+      <c r="BE249">
+        <v>3.48</v>
+      </c>
+      <c r="BF249">
+        <v>3</v>
+      </c>
+      <c r="BG249">
+        <v>6</v>
+      </c>
+      <c r="BH249">
+        <v>5</v>
+      </c>
+      <c r="BI249">
+        <v>9</v>
+      </c>
+      <c r="BJ249">
+        <v>8</v>
+      </c>
+      <c r="BK249">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="353">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -739,6 +739,12 @@
     <t>['53']</t>
   </si>
   <si>
+    <t>['26', '41', '90+2']</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
     <t>['2', '45+4']</t>
   </si>
   <si>
@@ -770,9 +776,6 @@
   </si>
   <si>
     <t>['50']</t>
-  </si>
-  <si>
-    <t>['22']</t>
   </si>
   <si>
     <t>['88']</t>
@@ -1067,6 +1070,9 @@
   </si>
   <si>
     <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['62', '83']</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK249"/>
+  <dimension ref="A1:BK251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1672,7 +1678,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1863,7 +1869,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2054,7 +2060,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -2245,7 +2251,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2436,7 +2442,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q6">
         <v>11</v>
@@ -2526,7 +2532,7 @@
         <v>1.46</v>
       </c>
       <c r="AT6">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2627,7 +2633,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2717,7 +2723,7 @@
         <v>1.85</v>
       </c>
       <c r="AT7">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3200,7 +3206,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3860,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT13">
         <v>2</v>
@@ -4242,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT15">
         <v>1.15</v>
@@ -5200,7 +5206,7 @@
         <v>2.08</v>
       </c>
       <c r="AT20">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5492,7 +5498,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -6065,7 +6071,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6346,7 +6352,7 @@
         <v>2.33</v>
       </c>
       <c r="AT26">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU26">
         <v>1.74</v>
@@ -6447,7 +6453,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6638,7 +6644,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -7020,7 +7026,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7489,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT32">
         <v>1.46</v>
@@ -7683,7 +7689,7 @@
         <v>2.54</v>
       </c>
       <c r="AT33">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU33">
         <v>2.44</v>
@@ -8930,7 +8936,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -9121,7 +9127,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9312,7 +9318,7 @@
         <v>97</v>
       </c>
       <c r="P42" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -9503,7 +9509,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9694,7 +9700,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10076,7 +10082,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -10166,7 +10172,7 @@
         <v>1</v>
       </c>
       <c r="AT46">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU46">
         <v>1.12</v>
@@ -10649,7 +10655,7 @@
         <v>86</v>
       </c>
       <c r="P49" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10840,7 +10846,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -11118,7 +11124,7 @@
         <v>0.5</v>
       </c>
       <c r="AS51">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT51">
         <v>1.15</v>
@@ -11604,7 +11610,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -11795,7 +11801,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11885,7 +11891,7 @@
         <v>1.5</v>
       </c>
       <c r="AT55">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU55">
         <v>1.36</v>
@@ -11986,7 +11992,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12368,7 +12374,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12455,7 +12461,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT58">
         <v>1.23</v>
@@ -12750,7 +12756,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -12941,7 +12947,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13132,7 +13138,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13323,7 +13329,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13705,7 +13711,7 @@
         <v>86</v>
       </c>
       <c r="P65" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13792,7 +13798,7 @@
         <v>0.67</v>
       </c>
       <c r="AS65">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT65">
         <v>1</v>
@@ -13896,7 +13902,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -14469,7 +14475,7 @@
         <v>86</v>
       </c>
       <c r="P69" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14851,7 +14857,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -15042,7 +15048,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15233,7 +15239,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15424,7 +15430,7 @@
         <v>111</v>
       </c>
       <c r="P74" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15896,7 +15902,7 @@
         <v>1</v>
       </c>
       <c r="AT76">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU76">
         <v>1.45</v>
@@ -15997,7 +16003,7 @@
         <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -16275,7 +16281,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT78">
         <v>0.83</v>
@@ -16660,7 +16666,7 @@
         <v>2.31</v>
       </c>
       <c r="AT80">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU80">
         <v>1.82</v>
@@ -16761,7 +16767,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16952,7 +16958,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17039,7 +17045,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT82">
         <v>1.42</v>
@@ -17334,7 +17340,7 @@
         <v>100</v>
       </c>
       <c r="P84" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17612,7 +17618,7 @@
         <v>1.25</v>
       </c>
       <c r="AS85">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT85">
         <v>0.92</v>
@@ -17716,7 +17722,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -18289,7 +18295,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18671,7 +18677,7 @@
         <v>86</v>
       </c>
       <c r="P91" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -19140,7 +19146,7 @@
         <v>0.5</v>
       </c>
       <c r="AS93">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT93">
         <v>1.67</v>
@@ -19626,7 +19632,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19716,7 +19722,7 @@
         <v>1</v>
       </c>
       <c r="AT96">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU96">
         <v>1.39</v>
@@ -20008,7 +20014,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20098,7 +20104,7 @@
         <v>2.58</v>
       </c>
       <c r="AT98">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU98">
         <v>2.36</v>
@@ -20199,7 +20205,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q99">
         <v>9</v>
@@ -20390,7 +20396,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -21345,7 +21351,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21536,7 +21542,7 @@
         <v>112</v>
       </c>
       <c r="P106" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21918,7 +21924,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -22300,7 +22306,7 @@
         <v>86</v>
       </c>
       <c r="P110" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22578,7 +22584,7 @@
         <v>0.4</v>
       </c>
       <c r="AS111">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT111">
         <v>0.42</v>
@@ -22873,7 +22879,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q113">
         <v>7</v>
@@ -23255,7 +23261,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23446,7 +23452,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -23828,7 +23834,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -24019,7 +24025,7 @@
         <v>167</v>
       </c>
       <c r="P119" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24106,7 +24112,7 @@
         <v>2.2</v>
       </c>
       <c r="AS119">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT119">
         <v>1.46</v>
@@ -24210,7 +24216,7 @@
         <v>112</v>
       </c>
       <c r="P120" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24401,7 +24407,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24491,7 +24497,7 @@
         <v>1.38</v>
       </c>
       <c r="AT121">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU121">
         <v>1.47</v>
@@ -24783,7 +24789,7 @@
         <v>169</v>
       </c>
       <c r="P123" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q123">
         <v>2</v>
@@ -24873,7 +24879,7 @@
         <v>1.15</v>
       </c>
       <c r="AT123">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU123">
         <v>1.63</v>
@@ -25165,7 +25171,7 @@
         <v>157</v>
       </c>
       <c r="P125" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25738,7 +25744,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27162,7 +27168,7 @@
         <v>2.29</v>
       </c>
       <c r="AS135">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT135">
         <v>1.69</v>
@@ -27544,7 +27550,7 @@
         <v>0.67</v>
       </c>
       <c r="AS137">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT137">
         <v>0.67</v>
@@ -27648,7 +27654,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -27738,7 +27744,7 @@
         <v>2.54</v>
       </c>
       <c r="AT138">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU138">
         <v>1.94</v>
@@ -28502,7 +28508,7 @@
         <v>1.33</v>
       </c>
       <c r="AT142">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU142">
         <v>1.6</v>
@@ -28603,7 +28609,7 @@
         <v>182</v>
       </c>
       <c r="P143" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28794,7 +28800,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q144">
         <v>9</v>
@@ -29176,7 +29182,7 @@
         <v>184</v>
       </c>
       <c r="P146" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29367,7 +29373,7 @@
         <v>137</v>
       </c>
       <c r="P147" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29940,7 +29946,7 @@
         <v>186</v>
       </c>
       <c r="P150" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -30322,7 +30328,7 @@
         <v>188</v>
       </c>
       <c r="P152" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -30513,7 +30519,7 @@
         <v>170</v>
       </c>
       <c r="P153" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q153">
         <v>9</v>
@@ -30600,7 +30606,7 @@
         <v>0.57</v>
       </c>
       <c r="AS153">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT153">
         <v>0.67</v>
@@ -30704,7 +30710,7 @@
         <v>189</v>
       </c>
       <c r="P154" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30982,7 +30988,7 @@
         <v>0.29</v>
       </c>
       <c r="AS155">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT155">
         <v>0.42</v>
@@ -31086,7 +31092,7 @@
         <v>190</v>
       </c>
       <c r="P156" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -31367,7 +31373,7 @@
         <v>2.08</v>
       </c>
       <c r="AT157">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU157">
         <v>1.81</v>
@@ -31468,7 +31474,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31659,7 +31665,7 @@
         <v>157</v>
       </c>
       <c r="P159" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -32614,7 +32620,7 @@
         <v>196</v>
       </c>
       <c r="P164" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q164">
         <v>3</v>
@@ -33187,7 +33193,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q167">
         <v>10</v>
@@ -33378,7 +33384,7 @@
         <v>86</v>
       </c>
       <c r="P168" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33569,7 +33575,7 @@
         <v>199</v>
       </c>
       <c r="P169" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33850,7 +33856,7 @@
         <v>1</v>
       </c>
       <c r="AT170">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU170">
         <v>1.49</v>
@@ -33951,7 +33957,7 @@
         <v>191</v>
       </c>
       <c r="P171" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -34333,7 +34339,7 @@
         <v>202</v>
       </c>
       <c r="P173" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34524,7 +34530,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q174">
         <v>8</v>
@@ -34906,7 +34912,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q176">
         <v>7</v>
@@ -34993,7 +34999,7 @@
         <v>1.75</v>
       </c>
       <c r="AS176">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT176">
         <v>2</v>
@@ -35097,7 +35103,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q177">
         <v>7</v>
@@ -35184,7 +35190,7 @@
         <v>0.38</v>
       </c>
       <c r="AS177">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT177">
         <v>0.67</v>
@@ -35288,7 +35294,7 @@
         <v>205</v>
       </c>
       <c r="P178" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q178">
         <v>6</v>
@@ -35378,7 +35384,7 @@
         <v>1.33</v>
       </c>
       <c r="AT178">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU178">
         <v>1.74</v>
@@ -35479,7 +35485,7 @@
         <v>206</v>
       </c>
       <c r="P179" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q179">
         <v>5</v>
@@ -36243,7 +36249,7 @@
         <v>86</v>
       </c>
       <c r="P183" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -36625,7 +36631,7 @@
         <v>86</v>
       </c>
       <c r="P185" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q185">
         <v>6</v>
@@ -36816,7 +36822,7 @@
         <v>144</v>
       </c>
       <c r="P186" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q186">
         <v>10</v>
@@ -37007,7 +37013,7 @@
         <v>86</v>
       </c>
       <c r="P187" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -37198,7 +37204,7 @@
         <v>209</v>
       </c>
       <c r="P188" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -37389,7 +37395,7 @@
         <v>131</v>
       </c>
       <c r="P189" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37479,7 +37485,7 @@
         <v>1.69</v>
       </c>
       <c r="AT189">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU189">
         <v>1.37</v>
@@ -37580,7 +37586,7 @@
         <v>86</v>
       </c>
       <c r="P190" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q190">
         <v>2</v>
@@ -38153,7 +38159,7 @@
         <v>143</v>
       </c>
       <c r="P193" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38344,7 +38350,7 @@
         <v>212</v>
       </c>
       <c r="P194" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q194">
         <v>5</v>
@@ -38535,7 +38541,7 @@
         <v>152</v>
       </c>
       <c r="P195" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -38917,7 +38923,7 @@
         <v>214</v>
       </c>
       <c r="P197" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q197">
         <v>2</v>
@@ -39108,7 +39114,7 @@
         <v>86</v>
       </c>
       <c r="P198" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q198">
         <v>12</v>
@@ -39490,7 +39496,7 @@
         <v>216</v>
       </c>
       <c r="P200" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -39872,7 +39878,7 @@
         <v>86</v>
       </c>
       <c r="P202" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -40341,7 +40347,7 @@
         <v>2.1</v>
       </c>
       <c r="AS204">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT204">
         <v>1.85</v>
@@ -40445,7 +40451,7 @@
         <v>86</v>
       </c>
       <c r="P205" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q205">
         <v>3</v>
@@ -40723,7 +40729,7 @@
         <v>1.5</v>
       </c>
       <c r="AS206">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT206">
         <v>1.23</v>
@@ -40827,7 +40833,7 @@
         <v>157</v>
       </c>
       <c r="P207" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -40917,7 +40923,7 @@
         <v>1.46</v>
       </c>
       <c r="AT207">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU207">
         <v>2.14</v>
@@ -41400,7 +41406,7 @@
         <v>220</v>
       </c>
       <c r="P210" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q210">
         <v>9</v>
@@ -41591,7 +41597,7 @@
         <v>86</v>
       </c>
       <c r="P211" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -41973,7 +41979,7 @@
         <v>222</v>
       </c>
       <c r="P213" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42355,7 +42361,7 @@
         <v>86</v>
       </c>
       <c r="P215" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q215">
         <v>5</v>
@@ -42546,7 +42552,7 @@
         <v>224</v>
       </c>
       <c r="P216" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q216">
         <v>10</v>
@@ -42737,7 +42743,7 @@
         <v>86</v>
       </c>
       <c r="P217" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -43209,7 +43215,7 @@
         <v>2.58</v>
       </c>
       <c r="AT219">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU219">
         <v>2.21</v>
@@ -43692,7 +43698,7 @@
         <v>86</v>
       </c>
       <c r="P222" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q222">
         <v>1</v>
@@ -43779,7 +43785,7 @@
         <v>2.55</v>
       </c>
       <c r="AS222">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT222">
         <v>2.62</v>
@@ -43883,7 +43889,7 @@
         <v>168</v>
       </c>
       <c r="P223" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q223">
         <v>1</v>
@@ -43973,7 +43979,7 @@
         <v>0.31</v>
       </c>
       <c r="AT223">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU223">
         <v>1.05</v>
@@ -44456,7 +44462,7 @@
         <v>228</v>
       </c>
       <c r="P226" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q226">
         <v>6</v>
@@ -44647,7 +44653,7 @@
         <v>86</v>
       </c>
       <c r="P227" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q227">
         <v>2</v>
@@ -44838,7 +44844,7 @@
         <v>176</v>
       </c>
       <c r="P228" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q228">
         <v>13</v>
@@ -45029,7 +45035,7 @@
         <v>86</v>
       </c>
       <c r="P229" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45411,7 +45417,7 @@
         <v>230</v>
       </c>
       <c r="P231" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q231">
         <v>5</v>
@@ -45498,10 +45504,10 @@
         <v>0.45</v>
       </c>
       <c r="AS231">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT231">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU231">
         <v>1.49</v>
@@ -45602,7 +45608,7 @@
         <v>86</v>
       </c>
       <c r="P232" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q232">
         <v>4</v>
@@ -46366,7 +46372,7 @@
         <v>233</v>
       </c>
       <c r="P236" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q236">
         <v>5</v>
@@ -46748,7 +46754,7 @@
         <v>86</v>
       </c>
       <c r="P238" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q238">
         <v>4</v>
@@ -47130,7 +47136,7 @@
         <v>235</v>
       </c>
       <c r="P240" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -47321,7 +47327,7 @@
         <v>236</v>
       </c>
       <c r="P241" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -47512,7 +47518,7 @@
         <v>86</v>
       </c>
       <c r="P242" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q242">
         <v>8</v>
@@ -48085,7 +48091,7 @@
         <v>238</v>
       </c>
       <c r="P245" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q245">
         <v>11</v>
@@ -48991,6 +48997,388 @@
       </c>
       <c r="BK249">
         <v>15</v>
+      </c>
+    </row>
+    <row r="250" spans="1:63">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>2638243</v>
+      </c>
+      <c r="C250" t="s">
+        <v>63</v>
+      </c>
+      <c r="D250" t="s">
+        <v>64</v>
+      </c>
+      <c r="E250" s="2">
+        <v>44991.60416666666</v>
+      </c>
+      <c r="F250">
+        <v>25</v>
+      </c>
+      <c r="G250" t="s">
+        <v>78</v>
+      </c>
+      <c r="H250" t="s">
+        <v>84</v>
+      </c>
+      <c r="I250">
+        <v>2</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>2</v>
+      </c>
+      <c r="L250">
+        <v>3</v>
+      </c>
+      <c r="M250">
+        <v>2</v>
+      </c>
+      <c r="N250">
+        <v>5</v>
+      </c>
+      <c r="O250" t="s">
+        <v>241</v>
+      </c>
+      <c r="P250" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q250">
+        <v>4</v>
+      </c>
+      <c r="R250">
+        <v>3</v>
+      </c>
+      <c r="S250">
+        <v>7</v>
+      </c>
+      <c r="T250">
+        <v>2.5</v>
+      </c>
+      <c r="U250">
+        <v>2.2</v>
+      </c>
+      <c r="V250">
+        <v>4.75</v>
+      </c>
+      <c r="W250">
+        <v>1.4</v>
+      </c>
+      <c r="X250">
+        <v>2.75</v>
+      </c>
+      <c r="Y250">
+        <v>2.75</v>
+      </c>
+      <c r="Z250">
+        <v>1.4</v>
+      </c>
+      <c r="AA250">
+        <v>8</v>
+      </c>
+      <c r="AB250">
+        <v>1.08</v>
+      </c>
+      <c r="AC250">
+        <v>1.81</v>
+      </c>
+      <c r="AD250">
+        <v>3.9</v>
+      </c>
+      <c r="AE250">
+        <v>4.3</v>
+      </c>
+      <c r="AF250">
+        <v>1.05</v>
+      </c>
+      <c r="AG250">
+        <v>11</v>
+      </c>
+      <c r="AH250">
+        <v>1.32</v>
+      </c>
+      <c r="AI250">
+        <v>3.4</v>
+      </c>
+      <c r="AJ250">
+        <v>1.96</v>
+      </c>
+      <c r="AK250">
+        <v>1.92</v>
+      </c>
+      <c r="AL250">
+        <v>1.8</v>
+      </c>
+      <c r="AM250">
+        <v>1.95</v>
+      </c>
+      <c r="AN250">
+        <v>1.24</v>
+      </c>
+      <c r="AO250">
+        <v>1.3</v>
+      </c>
+      <c r="AP250">
+        <v>2.02</v>
+      </c>
+      <c r="AQ250">
+        <v>1.27</v>
+      </c>
+      <c r="AR250">
+        <v>0.5</v>
+      </c>
+      <c r="AS250">
+        <v>1.42</v>
+      </c>
+      <c r="AT250">
+        <v>0.46</v>
+      </c>
+      <c r="AU250">
+        <v>1.5</v>
+      </c>
+      <c r="AV250">
+        <v>1.54</v>
+      </c>
+      <c r="AW250">
+        <v>3.04</v>
+      </c>
+      <c r="AX250">
+        <v>1.43</v>
+      </c>
+      <c r="AY250">
+        <v>8.6</v>
+      </c>
+      <c r="AZ250">
+        <v>3.68</v>
+      </c>
+      <c r="BA250">
+        <v>1.23</v>
+      </c>
+      <c r="BB250">
+        <v>1.46</v>
+      </c>
+      <c r="BC250">
+        <v>1.83</v>
+      </c>
+      <c r="BD250">
+        <v>2.35</v>
+      </c>
+      <c r="BE250">
+        <v>3.14</v>
+      </c>
+      <c r="BF250">
+        <v>8</v>
+      </c>
+      <c r="BG250">
+        <v>7</v>
+      </c>
+      <c r="BH250">
+        <v>5</v>
+      </c>
+      <c r="BI250">
+        <v>6</v>
+      </c>
+      <c r="BJ250">
+        <v>13</v>
+      </c>
+      <c r="BK250">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251" spans="1:63">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>2638245</v>
+      </c>
+      <c r="C251" t="s">
+        <v>63</v>
+      </c>
+      <c r="D251" t="s">
+        <v>64</v>
+      </c>
+      <c r="E251" s="2">
+        <v>44991.69791666666</v>
+      </c>
+      <c r="F251">
+        <v>25</v>
+      </c>
+      <c r="G251" t="s">
+        <v>76</v>
+      </c>
+      <c r="H251" t="s">
+        <v>82</v>
+      </c>
+      <c r="I251">
+        <v>1</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>1</v>
+      </c>
+      <c r="L251">
+        <v>1</v>
+      </c>
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251">
+        <v>1</v>
+      </c>
+      <c r="O251" t="s">
+        <v>242</v>
+      </c>
+      <c r="P251" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q251">
+        <v>3</v>
+      </c>
+      <c r="R251">
+        <v>3</v>
+      </c>
+      <c r="S251">
+        <v>6</v>
+      </c>
+      <c r="T251">
+        <v>3.1</v>
+      </c>
+      <c r="U251">
+        <v>1.95</v>
+      </c>
+      <c r="V251">
+        <v>4</v>
+      </c>
+      <c r="W251">
+        <v>1.53</v>
+      </c>
+      <c r="X251">
+        <v>2.38</v>
+      </c>
+      <c r="Y251">
+        <v>3.5</v>
+      </c>
+      <c r="Z251">
+        <v>1.29</v>
+      </c>
+      <c r="AA251">
+        <v>11</v>
+      </c>
+      <c r="AB251">
+        <v>1.05</v>
+      </c>
+      <c r="AC251">
+        <v>2.27</v>
+      </c>
+      <c r="AD251">
+        <v>3.1</v>
+      </c>
+      <c r="AE251">
+        <v>3.55</v>
+      </c>
+      <c r="AF251">
+        <v>1.09</v>
+      </c>
+      <c r="AG251">
+        <v>7</v>
+      </c>
+      <c r="AH251">
+        <v>1.53</v>
+      </c>
+      <c r="AI251">
+        <v>2.55</v>
+      </c>
+      <c r="AJ251">
+        <v>2.35</v>
+      </c>
+      <c r="AK251">
+        <v>1.57</v>
+      </c>
+      <c r="AL251">
+        <v>2</v>
+      </c>
+      <c r="AM251">
+        <v>1.75</v>
+      </c>
+      <c r="AN251">
+        <v>1.32</v>
+      </c>
+      <c r="AO251">
+        <v>1.43</v>
+      </c>
+      <c r="AP251">
+        <v>1.63</v>
+      </c>
+      <c r="AQ251">
+        <v>1.45</v>
+      </c>
+      <c r="AR251">
+        <v>1.18</v>
+      </c>
+      <c r="AS251">
+        <v>1.58</v>
+      </c>
+      <c r="AT251">
+        <v>1.08</v>
+      </c>
+      <c r="AU251">
+        <v>1.52</v>
+      </c>
+      <c r="AV251">
+        <v>1.29</v>
+      </c>
+      <c r="AW251">
+        <v>2.81</v>
+      </c>
+      <c r="AX251">
+        <v>1.57</v>
+      </c>
+      <c r="AY251">
+        <v>7.7</v>
+      </c>
+      <c r="AZ251">
+        <v>3.13</v>
+      </c>
+      <c r="BA251">
+        <v>1.41</v>
+      </c>
+      <c r="BB251">
+        <v>1.75</v>
+      </c>
+      <c r="BC251">
+        <v>2.28</v>
+      </c>
+      <c r="BD251">
+        <v>3.04</v>
+      </c>
+      <c r="BE251">
+        <v>4.4</v>
+      </c>
+      <c r="BF251">
+        <v>4</v>
+      </c>
+      <c r="BG251">
+        <v>2</v>
+      </c>
+      <c r="BH251">
+        <v>9</v>
+      </c>
+      <c r="BI251">
+        <v>9</v>
+      </c>
+      <c r="BJ251">
+        <v>13</v>
+      </c>
+      <c r="BK251">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="354">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -745,6 +745,9 @@
     <t>['22']</t>
   </si>
   <si>
+    <t>['55', '87']</t>
+  </si>
+  <si>
     <t>['2', '45+4']</t>
   </si>
   <si>
@@ -1434,7 +1437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK251"/>
+  <dimension ref="A1:BK252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1678,7 +1681,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1869,7 +1872,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2060,7 +2063,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -2150,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="AT4">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2251,7 +2254,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2442,7 +2445,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q6">
         <v>11</v>
@@ -2633,7 +2636,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -3102,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT9">
         <v>0.92</v>
@@ -3206,7 +3209,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -5498,7 +5501,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5779,7 +5782,7 @@
         <v>1.85</v>
       </c>
       <c r="AT23">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU23">
         <v>1.73</v>
@@ -6071,7 +6074,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6453,7 +6456,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6540,7 +6543,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT27">
         <v>1</v>
@@ -6644,7 +6647,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -8936,7 +8939,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -9127,7 +9130,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9318,7 +9321,7 @@
         <v>97</v>
       </c>
       <c r="P42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -9509,7 +9512,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9599,7 +9602,7 @@
         <v>2.33</v>
       </c>
       <c r="AT43">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU43">
         <v>2.01</v>
@@ -9700,7 +9703,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10082,7 +10085,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -10169,7 +10172,7 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT46">
         <v>1.08</v>
@@ -10655,7 +10658,7 @@
         <v>86</v>
       </c>
       <c r="P49" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10846,7 +10849,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -11610,7 +11613,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -11801,7 +11804,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11992,7 +11995,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12374,7 +12377,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12756,7 +12759,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -12947,7 +12950,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13138,7 +13141,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13329,7 +13332,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13607,7 +13610,7 @@
         <v>0</v>
       </c>
       <c r="AS64">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT64">
         <v>0.67</v>
@@ -13711,7 +13714,7 @@
         <v>86</v>
       </c>
       <c r="P65" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13902,7 +13905,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13992,7 +13995,7 @@
         <v>1.33</v>
       </c>
       <c r="AT66">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU66">
         <v>1.45</v>
@@ -14475,7 +14478,7 @@
         <v>86</v>
       </c>
       <c r="P69" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14857,7 +14860,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -15048,7 +15051,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15239,7 +15242,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15430,7 +15433,7 @@
         <v>111</v>
       </c>
       <c r="P74" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16003,7 +16006,7 @@
         <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -16767,7 +16770,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16958,7 +16961,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17048,7 +17051,7 @@
         <v>1.42</v>
       </c>
       <c r="AT82">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU82">
         <v>1.31</v>
@@ -17340,7 +17343,7 @@
         <v>100</v>
       </c>
       <c r="P84" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17722,7 +17725,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -18295,7 +18298,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18677,7 +18680,7 @@
         <v>86</v>
       </c>
       <c r="P91" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -19632,7 +19635,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19719,7 +19722,7 @@
         <v>0.4</v>
       </c>
       <c r="AS96">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT96">
         <v>0.46</v>
@@ -20014,7 +20017,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20205,7 +20208,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q99">
         <v>9</v>
@@ -20396,7 +20399,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -21351,7 +21354,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21441,7 +21444,7 @@
         <v>1.46</v>
       </c>
       <c r="AT105">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU105">
         <v>2.27</v>
@@ -21542,7 +21545,7 @@
         <v>112</v>
       </c>
       <c r="P106" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21924,7 +21927,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -22306,7 +22309,7 @@
         <v>86</v>
       </c>
       <c r="P110" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22879,7 +22882,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q113">
         <v>7</v>
@@ -23261,7 +23264,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23452,7 +23455,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -23539,7 +23542,7 @@
         <v>0.4</v>
       </c>
       <c r="AS116">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT116">
         <v>1</v>
@@ -23834,7 +23837,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -24025,7 +24028,7 @@
         <v>167</v>
       </c>
       <c r="P119" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24216,7 +24219,7 @@
         <v>112</v>
       </c>
       <c r="P120" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24407,7 +24410,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24789,7 +24792,7 @@
         <v>169</v>
       </c>
       <c r="P123" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q123">
         <v>2</v>
@@ -25171,7 +25174,7 @@
         <v>157</v>
       </c>
       <c r="P125" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25744,7 +25747,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -26407,7 +26410,7 @@
         <v>2.31</v>
       </c>
       <c r="AT131">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU131">
         <v>1.98</v>
@@ -26595,7 +26598,7 @@
         <v>1.83</v>
       </c>
       <c r="AS132">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT132">
         <v>1.23</v>
@@ -28609,7 +28612,7 @@
         <v>182</v>
       </c>
       <c r="P143" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28800,7 +28803,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q144">
         <v>9</v>
@@ -29182,7 +29185,7 @@
         <v>184</v>
       </c>
       <c r="P146" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29272,7 +29275,7 @@
         <v>1.5</v>
       </c>
       <c r="AT146">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU146">
         <v>1.59</v>
@@ -29373,7 +29376,7 @@
         <v>137</v>
       </c>
       <c r="P147" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29946,7 +29949,7 @@
         <v>186</v>
       </c>
       <c r="P150" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -30328,7 +30331,7 @@
         <v>188</v>
       </c>
       <c r="P152" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -30519,7 +30522,7 @@
         <v>170</v>
       </c>
       <c r="P153" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q153">
         <v>9</v>
@@ -30710,7 +30713,7 @@
         <v>189</v>
       </c>
       <c r="P154" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30797,7 +30800,7 @@
         <v>2.29</v>
       </c>
       <c r="AS154">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT154">
         <v>1.85</v>
@@ -31092,7 +31095,7 @@
         <v>190</v>
       </c>
       <c r="P156" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -31474,7 +31477,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31665,7 +31668,7 @@
         <v>157</v>
       </c>
       <c r="P159" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -32620,7 +32623,7 @@
         <v>196</v>
       </c>
       <c r="P164" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q164">
         <v>3</v>
@@ -32710,7 +32713,7 @@
         <v>1.38</v>
       </c>
       <c r="AT164">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU164">
         <v>1.54</v>
@@ -33089,7 +33092,7 @@
         <v>1</v>
       </c>
       <c r="AS166">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT166">
         <v>1.15</v>
@@ -33193,7 +33196,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q167">
         <v>10</v>
@@ -33384,7 +33387,7 @@
         <v>86</v>
       </c>
       <c r="P168" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33575,7 +33578,7 @@
         <v>199</v>
       </c>
       <c r="P169" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33957,7 +33960,7 @@
         <v>191</v>
       </c>
       <c r="P171" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -34339,7 +34342,7 @@
         <v>202</v>
       </c>
       <c r="P173" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34530,7 +34533,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q174">
         <v>8</v>
@@ -34912,7 +34915,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q176">
         <v>7</v>
@@ -35103,7 +35106,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q177">
         <v>7</v>
@@ -35294,7 +35297,7 @@
         <v>205</v>
       </c>
       <c r="P178" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q178">
         <v>6</v>
@@ -35485,7 +35488,7 @@
         <v>206</v>
       </c>
       <c r="P179" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q179">
         <v>5</v>
@@ -36249,7 +36252,7 @@
         <v>86</v>
       </c>
       <c r="P183" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -36631,7 +36634,7 @@
         <v>86</v>
       </c>
       <c r="P185" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q185">
         <v>6</v>
@@ -36822,7 +36825,7 @@
         <v>144</v>
       </c>
       <c r="P186" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q186">
         <v>10</v>
@@ -37013,7 +37016,7 @@
         <v>86</v>
       </c>
       <c r="P187" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -37100,7 +37103,7 @@
         <v>2</v>
       </c>
       <c r="AS187">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT187">
         <v>1.69</v>
@@ -37204,7 +37207,7 @@
         <v>209</v>
       </c>
       <c r="P188" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -37395,7 +37398,7 @@
         <v>131</v>
       </c>
       <c r="P189" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37586,7 +37589,7 @@
         <v>86</v>
       </c>
       <c r="P190" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q190">
         <v>2</v>
@@ -38159,7 +38162,7 @@
         <v>143</v>
       </c>
       <c r="P193" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38350,7 +38353,7 @@
         <v>212</v>
       </c>
       <c r="P194" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q194">
         <v>5</v>
@@ -38541,7 +38544,7 @@
         <v>152</v>
       </c>
       <c r="P195" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -38631,7 +38634,7 @@
         <v>0.5</v>
       </c>
       <c r="AT195">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU195">
         <v>1.58</v>
@@ -38923,7 +38926,7 @@
         <v>214</v>
       </c>
       <c r="P197" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q197">
         <v>2</v>
@@ -39114,7 +39117,7 @@
         <v>86</v>
       </c>
       <c r="P198" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q198">
         <v>12</v>
@@ -39496,7 +39499,7 @@
         <v>216</v>
       </c>
       <c r="P200" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -39878,7 +39881,7 @@
         <v>86</v>
       </c>
       <c r="P202" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -40451,7 +40454,7 @@
         <v>86</v>
       </c>
       <c r="P205" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q205">
         <v>3</v>
@@ -40538,7 +40541,7 @@
         <v>2.5</v>
       </c>
       <c r="AS205">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT205">
         <v>2.62</v>
@@ -40833,7 +40836,7 @@
         <v>157</v>
       </c>
       <c r="P207" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -41406,7 +41409,7 @@
         <v>220</v>
       </c>
       <c r="P210" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q210">
         <v>9</v>
@@ -41597,7 +41600,7 @@
         <v>86</v>
       </c>
       <c r="P211" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -41979,7 +41982,7 @@
         <v>222</v>
       </c>
       <c r="P213" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42361,7 +42364,7 @@
         <v>86</v>
       </c>
       <c r="P215" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q215">
         <v>5</v>
@@ -42552,7 +42555,7 @@
         <v>224</v>
       </c>
       <c r="P216" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q216">
         <v>10</v>
@@ -42743,7 +42746,7 @@
         <v>86</v>
       </c>
       <c r="P217" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -43597,7 +43600,7 @@
         <v>0.31</v>
       </c>
       <c r="AT221">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU221">
         <v>1.12</v>
@@ -43698,7 +43701,7 @@
         <v>86</v>
       </c>
       <c r="P222" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q222">
         <v>1</v>
@@ -43889,7 +43892,7 @@
         <v>168</v>
       </c>
       <c r="P223" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q223">
         <v>1</v>
@@ -44462,7 +44465,7 @@
         <v>228</v>
       </c>
       <c r="P226" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q226">
         <v>6</v>
@@ -44653,7 +44656,7 @@
         <v>86</v>
       </c>
       <c r="P227" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q227">
         <v>2</v>
@@ -44844,7 +44847,7 @@
         <v>176</v>
       </c>
       <c r="P228" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q228">
         <v>13</v>
@@ -45035,7 +45038,7 @@
         <v>86</v>
       </c>
       <c r="P229" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45122,7 +45125,7 @@
         <v>1.7</v>
       </c>
       <c r="AS229">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT229">
         <v>1.67</v>
@@ -45417,7 +45420,7 @@
         <v>230</v>
       </c>
       <c r="P231" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q231">
         <v>5</v>
@@ -45608,7 +45611,7 @@
         <v>86</v>
       </c>
       <c r="P232" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q232">
         <v>4</v>
@@ -46080,7 +46083,7 @@
         <v>1.69</v>
       </c>
       <c r="AT234">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU234">
         <v>1.58</v>
@@ -46372,7 +46375,7 @@
         <v>233</v>
       </c>
       <c r="P236" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q236">
         <v>5</v>
@@ -46754,7 +46757,7 @@
         <v>86</v>
       </c>
       <c r="P238" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q238">
         <v>4</v>
@@ -47136,7 +47139,7 @@
         <v>235</v>
       </c>
       <c r="P240" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -47327,7 +47330,7 @@
         <v>236</v>
       </c>
       <c r="P241" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -47518,7 +47521,7 @@
         <v>86</v>
       </c>
       <c r="P242" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q242">
         <v>8</v>
@@ -48091,7 +48094,7 @@
         <v>238</v>
       </c>
       <c r="P245" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q245">
         <v>11</v>
@@ -48369,7 +48372,7 @@
         <v>0.36</v>
       </c>
       <c r="AS246">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT246">
         <v>0.42</v>
@@ -49046,7 +49049,7 @@
         <v>241</v>
       </c>
       <c r="P250" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q250">
         <v>4</v>
@@ -49379,6 +49382,197 @@
       </c>
       <c r="BK251">
         <v>11</v>
+      </c>
+    </row>
+    <row r="252" spans="1:63">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>2638255</v>
+      </c>
+      <c r="C252" t="s">
+        <v>63</v>
+      </c>
+      <c r="D252" t="s">
+        <v>64</v>
+      </c>
+      <c r="E252" s="2">
+        <v>44995.69791666666</v>
+      </c>
+      <c r="F252">
+        <v>26</v>
+      </c>
+      <c r="G252" t="s">
+        <v>72</v>
+      </c>
+      <c r="H252" t="s">
+        <v>77</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>2</v>
+      </c>
+      <c r="M252">
+        <v>1</v>
+      </c>
+      <c r="N252">
+        <v>3</v>
+      </c>
+      <c r="O252" t="s">
+        <v>243</v>
+      </c>
+      <c r="P252" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q252">
+        <v>1</v>
+      </c>
+      <c r="R252">
+        <v>13</v>
+      </c>
+      <c r="S252">
+        <v>14</v>
+      </c>
+      <c r="T252">
+        <v>7</v>
+      </c>
+      <c r="U252">
+        <v>2.4</v>
+      </c>
+      <c r="V252">
+        <v>1.95</v>
+      </c>
+      <c r="W252">
+        <v>1.33</v>
+      </c>
+      <c r="X252">
+        <v>3.25</v>
+      </c>
+      <c r="Y252">
+        <v>2.63</v>
+      </c>
+      <c r="Z252">
+        <v>1.44</v>
+      </c>
+      <c r="AA252">
+        <v>6.5</v>
+      </c>
+      <c r="AB252">
+        <v>1.11</v>
+      </c>
+      <c r="AC252">
+        <v>7</v>
+      </c>
+      <c r="AD252">
+        <v>4.2</v>
+      </c>
+      <c r="AE252">
+        <v>1.4</v>
+      </c>
+      <c r="AF252">
+        <v>1.03</v>
+      </c>
+      <c r="AG252">
+        <v>10</v>
+      </c>
+      <c r="AH252">
+        <v>1.25</v>
+      </c>
+      <c r="AI252">
+        <v>3.75</v>
+      </c>
+      <c r="AJ252">
+        <v>1.78</v>
+      </c>
+      <c r="AK252">
+        <v>2.05</v>
+      </c>
+      <c r="AL252">
+        <v>2</v>
+      </c>
+      <c r="AM252">
+        <v>1.75</v>
+      </c>
+      <c r="AN252">
+        <v>2.85</v>
+      </c>
+      <c r="AO252">
+        <v>1.18</v>
+      </c>
+      <c r="AP252">
+        <v>1.1</v>
+      </c>
+      <c r="AQ252">
+        <v>1</v>
+      </c>
+      <c r="AR252">
+        <v>1.42</v>
+      </c>
+      <c r="AS252">
+        <v>1.14</v>
+      </c>
+      <c r="AT252">
+        <v>1.31</v>
+      </c>
+      <c r="AU252">
+        <v>1.5</v>
+      </c>
+      <c r="AV252">
+        <v>1.82</v>
+      </c>
+      <c r="AW252">
+        <v>3.32</v>
+      </c>
+      <c r="AX252">
+        <v>3.8</v>
+      </c>
+      <c r="AY252">
+        <v>9</v>
+      </c>
+      <c r="AZ252">
+        <v>1.37</v>
+      </c>
+      <c r="BA252">
+        <v>1.36</v>
+      </c>
+      <c r="BB252">
+        <v>1.6</v>
+      </c>
+      <c r="BC252">
+        <v>1.97</v>
+      </c>
+      <c r="BD252">
+        <v>2.5</v>
+      </c>
+      <c r="BE252">
+        <v>3.3</v>
+      </c>
+      <c r="BF252">
+        <v>3</v>
+      </c>
+      <c r="BG252">
+        <v>9</v>
+      </c>
+      <c r="BH252">
+        <v>1</v>
+      </c>
+      <c r="BI252">
+        <v>20</v>
+      </c>
+      <c r="BJ252">
+        <v>4</v>
+      </c>
+      <c r="BK252">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="360">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -748,6 +748,15 @@
     <t>['55', '87']</t>
   </si>
   <si>
+    <t>['60', '77']</t>
+  </si>
+  <si>
+    <t>['26', '50', '90+4']</t>
+  </si>
+  <si>
+    <t>['11', '26', '64', '90+4']</t>
+  </si>
+  <si>
     <t>['2', '45+4']</t>
   </si>
   <si>
@@ -1076,6 +1085,15 @@
   </si>
   <si>
     <t>['62', '83']</t>
+  </si>
+  <si>
+    <t>['20', '23']</t>
+  </si>
+  <si>
+    <t>['13', '18', '45+4', '75']</t>
+  </si>
+  <si>
+    <t>['31', '32']</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK252"/>
+  <dimension ref="A1:BK260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1681,7 +1699,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1771,7 +1789,7 @@
         <v>2.33</v>
       </c>
       <c r="AT2">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1872,7 +1890,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1962,7 +1980,7 @@
         <v>0.31</v>
       </c>
       <c r="AT3">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2063,7 +2081,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -2150,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT4">
         <v>1.31</v>
@@ -2254,7 +2272,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2344,7 +2362,7 @@
         <v>1.38</v>
       </c>
       <c r="AT5">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2445,7 +2463,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q6">
         <v>11</v>
@@ -2636,7 +2654,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -3209,7 +3227,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3487,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3872,7 +3890,7 @@
         <v>1.58</v>
       </c>
       <c r="AT13">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4442,10 +4460,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT16">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4633,10 +4651,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT17">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -5015,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT19">
         <v>0.42</v>
@@ -5206,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT20">
         <v>0.46</v>
@@ -5501,7 +5519,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5591,7 +5609,7 @@
         <v>1.38</v>
       </c>
       <c r="AT22">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU22">
         <v>1.61</v>
@@ -5970,7 +5988,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT24">
         <v>1.69</v>
@@ -6074,7 +6092,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6161,10 +6179,10 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT25">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6456,7 +6474,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6546,7 +6564,7 @@
         <v>1.14</v>
       </c>
       <c r="AT27">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU27">
         <v>1.17</v>
@@ -6647,7 +6665,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6737,7 +6755,7 @@
         <v>1</v>
       </c>
       <c r="AT28">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU28">
         <v>0.91</v>
@@ -6928,7 +6946,7 @@
         <v>1.15</v>
       </c>
       <c r="AT29">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU29">
         <v>1.46</v>
@@ -7116,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT30">
         <v>0.92</v>
@@ -7880,10 +7898,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT34">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU34">
         <v>2.92</v>
@@ -8074,7 +8092,7 @@
         <v>1.33</v>
       </c>
       <c r="AT35">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU35">
         <v>1.64</v>
@@ -8265,7 +8283,7 @@
         <v>0.31</v>
       </c>
       <c r="AT36">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU36">
         <v>1.22</v>
@@ -8453,7 +8471,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT37">
         <v>0.42</v>
@@ -8644,7 +8662,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT38">
         <v>1.15</v>
@@ -8835,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT39">
         <v>0.67</v>
@@ -8939,7 +8957,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -9026,7 +9044,7 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT40">
         <v>0.83</v>
@@ -9130,7 +9148,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9220,7 +9238,7 @@
         <v>1.5</v>
       </c>
       <c r="AT41">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU41">
         <v>1.16</v>
@@ -9321,7 +9339,7 @@
         <v>97</v>
       </c>
       <c r="P42" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -9512,7 +9530,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9703,7 +9721,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9981,10 +9999,10 @@
         <v>0.5</v>
       </c>
       <c r="AS45">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT45">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU45">
         <v>2</v>
@@ -10085,7 +10103,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -10366,7 +10384,7 @@
         <v>1</v>
       </c>
       <c r="AT47">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU47">
         <v>1.14</v>
@@ -10658,7 +10676,7 @@
         <v>86</v>
       </c>
       <c r="P49" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10748,7 +10766,7 @@
         <v>1.38</v>
       </c>
       <c r="AT49">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU49">
         <v>1.56</v>
@@ -10849,7 +10867,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -11318,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT52">
         <v>0.67</v>
@@ -11512,7 +11530,7 @@
         <v>2.54</v>
       </c>
       <c r="AT53">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU53">
         <v>2.16</v>
@@ -11613,7 +11631,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -11804,7 +11822,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11995,7 +12013,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12082,10 +12100,10 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT56">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU56">
         <v>1.65</v>
@@ -12273,10 +12291,10 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT57">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU57">
         <v>1.54</v>
@@ -12377,7 +12395,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12467,7 +12485,7 @@
         <v>1.42</v>
       </c>
       <c r="AT58">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU58">
         <v>1.19</v>
@@ -12759,7 +12777,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -12846,7 +12864,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT60">
         <v>0.83</v>
@@ -12950,7 +12968,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13037,7 +13055,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT61">
         <v>1.69</v>
@@ -13141,7 +13159,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13332,7 +13350,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13419,7 +13437,7 @@
         <v>0.67</v>
       </c>
       <c r="AS63">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT63">
         <v>0.92</v>
@@ -13613,7 +13631,7 @@
         <v>1.14</v>
       </c>
       <c r="AT64">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU64">
         <v>1.4</v>
@@ -13714,7 +13732,7 @@
         <v>86</v>
       </c>
       <c r="P65" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13804,7 +13822,7 @@
         <v>1.58</v>
       </c>
       <c r="AT65">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU65">
         <v>1.18</v>
@@ -13905,7 +13923,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -14478,7 +14496,7 @@
         <v>86</v>
       </c>
       <c r="P69" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14565,10 +14583,10 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT69">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU69">
         <v>1.53</v>
@@ -14756,10 +14774,10 @@
         <v>3</v>
       </c>
       <c r="AS70">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT70">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU70">
         <v>2.3</v>
@@ -14860,7 +14878,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -15051,7 +15069,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15138,10 +15156,10 @@
         <v>1.5</v>
       </c>
       <c r="AS72">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT72">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU72">
         <v>2.53</v>
@@ -15242,7 +15260,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15433,7 +15451,7 @@
         <v>111</v>
       </c>
       <c r="P74" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15520,7 +15538,7 @@
         <v>1.67</v>
       </c>
       <c r="AS74">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT74">
         <v>1.46</v>
@@ -15902,7 +15920,7 @@
         <v>0.25</v>
       </c>
       <c r="AS76">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT76">
         <v>0.46</v>
@@ -16006,7 +16024,7 @@
         <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -16096,7 +16114,7 @@
         <v>0.31</v>
       </c>
       <c r="AT77">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU77">
         <v>1.29</v>
@@ -16478,7 +16496,7 @@
         <v>1.5</v>
       </c>
       <c r="AT79">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU79">
         <v>1.56</v>
@@ -16666,7 +16684,7 @@
         <v>0.33</v>
       </c>
       <c r="AS80">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT80">
         <v>1.08</v>
@@ -16770,7 +16788,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16860,7 +16878,7 @@
         <v>1</v>
       </c>
       <c r="AT81">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU81">
         <v>1.47</v>
@@ -16961,7 +16979,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17343,7 +17361,7 @@
         <v>100</v>
       </c>
       <c r="P84" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17430,10 +17448,10 @@
         <v>0</v>
       </c>
       <c r="AS84">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT84">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU84">
         <v>1.67</v>
@@ -17725,7 +17743,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17815,7 +17833,7 @@
         <v>1.33</v>
       </c>
       <c r="AT86">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU86">
         <v>1.64</v>
@@ -18298,7 +18316,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18385,7 +18403,7 @@
         <v>2.5</v>
       </c>
       <c r="AS89">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT89">
         <v>2.62</v>
@@ -18576,7 +18594,7 @@
         <v>1</v>
       </c>
       <c r="AS90">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT90">
         <v>1.15</v>
@@ -18680,7 +18698,7 @@
         <v>86</v>
       </c>
       <c r="P91" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18770,7 +18788,7 @@
         <v>1.46</v>
       </c>
       <c r="AT91">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU91">
         <v>2.24</v>
@@ -18958,10 +18976,10 @@
         <v>1</v>
       </c>
       <c r="AS92">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT92">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU92">
         <v>1.56</v>
@@ -19343,7 +19361,7 @@
         <v>1.5</v>
       </c>
       <c r="AT94">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU94">
         <v>1.55</v>
@@ -19635,7 +19653,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19916,7 +19934,7 @@
         <v>1.85</v>
       </c>
       <c r="AT97">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU97">
         <v>1.53</v>
@@ -20017,7 +20035,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20104,7 +20122,7 @@
         <v>0.25</v>
       </c>
       <c r="AS98">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT98">
         <v>1.08</v>
@@ -20208,7 +20226,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q99">
         <v>9</v>
@@ -20399,7 +20417,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20677,10 +20695,10 @@
         <v>0.25</v>
       </c>
       <c r="AS101">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT101">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU101">
         <v>1.33</v>
@@ -20868,7 +20886,7 @@
         <v>1.2</v>
       </c>
       <c r="AS102">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT102">
         <v>0.92</v>
@@ -21253,7 +21271,7 @@
         <v>2.33</v>
       </c>
       <c r="AT104">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU104">
         <v>2.04</v>
@@ -21354,7 +21372,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21545,7 +21563,7 @@
         <v>112</v>
       </c>
       <c r="P106" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21635,7 +21653,7 @@
         <v>1.33</v>
       </c>
       <c r="AT106">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU106">
         <v>1.57</v>
@@ -21823,7 +21841,7 @@
         <v>0.8</v>
       </c>
       <c r="AS107">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT107">
         <v>1.15</v>
@@ -21927,7 +21945,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -22017,7 +22035,7 @@
         <v>1.5</v>
       </c>
       <c r="AT108">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU108">
         <v>1.62</v>
@@ -22205,7 +22223,7 @@
         <v>2.6</v>
       </c>
       <c r="AS109">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT109">
         <v>2.62</v>
@@ -22309,7 +22327,7 @@
         <v>86</v>
       </c>
       <c r="P110" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22396,10 +22414,10 @@
         <v>0.25</v>
       </c>
       <c r="AS110">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT110">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU110">
         <v>1.57</v>
@@ -22778,10 +22796,10 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT112">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU112">
         <v>2.54</v>
@@ -22882,7 +22900,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q113">
         <v>7</v>
@@ -22969,7 +22987,7 @@
         <v>1</v>
       </c>
       <c r="AS113">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT113">
         <v>1.67</v>
@@ -23163,7 +23181,7 @@
         <v>2.54</v>
       </c>
       <c r="AT114">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU114">
         <v>1.95</v>
@@ -23264,7 +23282,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23351,10 +23369,10 @@
         <v>2.6</v>
       </c>
       <c r="AS115">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT115">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU115">
         <v>1.57</v>
@@ -23455,7 +23473,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -23545,7 +23563,7 @@
         <v>1.14</v>
       </c>
       <c r="AT116">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU116">
         <v>1.56</v>
@@ -23733,10 +23751,10 @@
         <v>2</v>
       </c>
       <c r="AS117">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT117">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU117">
         <v>1.68</v>
@@ -23837,7 +23855,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -24028,7 +24046,7 @@
         <v>167</v>
       </c>
       <c r="P119" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24219,7 +24237,7 @@
         <v>112</v>
       </c>
       <c r="P120" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24410,7 +24428,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24792,7 +24810,7 @@
         <v>169</v>
       </c>
       <c r="P123" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q123">
         <v>2</v>
@@ -25070,10 +25088,10 @@
         <v>0.83</v>
       </c>
       <c r="AS124">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT124">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU124">
         <v>1.58</v>
@@ -25174,7 +25192,7 @@
         <v>157</v>
       </c>
       <c r="P125" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25643,10 +25661,10 @@
         <v>1.5</v>
       </c>
       <c r="AS127">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT127">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU127">
         <v>1.55</v>
@@ -25747,7 +25765,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25837,7 +25855,7 @@
         <v>0.31</v>
       </c>
       <c r="AT128">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU128">
         <v>1.14</v>
@@ -26216,10 +26234,10 @@
         <v>2.2</v>
       </c>
       <c r="AS130">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT130">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU130">
         <v>1.97</v>
@@ -26407,7 +26425,7 @@
         <v>1.5</v>
       </c>
       <c r="AS131">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT131">
         <v>1.31</v>
@@ -26601,7 +26619,7 @@
         <v>1.14</v>
       </c>
       <c r="AT132">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU132">
         <v>1.55</v>
@@ -26789,7 +26807,7 @@
         <v>1</v>
       </c>
       <c r="AS133">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT133">
         <v>0.92</v>
@@ -26980,7 +26998,7 @@
         <v>1.83</v>
       </c>
       <c r="AS134">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT134">
         <v>1.46</v>
@@ -27362,10 +27380,10 @@
         <v>2.67</v>
       </c>
       <c r="AS136">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT136">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU136">
         <v>1.16</v>
@@ -27556,7 +27574,7 @@
         <v>1.58</v>
       </c>
       <c r="AT137">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU137">
         <v>1.46</v>
@@ -28320,7 +28338,7 @@
         <v>1.85</v>
       </c>
       <c r="AT141">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU141">
         <v>1.51</v>
@@ -28508,7 +28526,7 @@
         <v>0.57</v>
       </c>
       <c r="AS142">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT142">
         <v>0.46</v>
@@ -28612,7 +28630,7 @@
         <v>182</v>
       </c>
       <c r="P143" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28699,10 +28717,10 @@
         <v>1.71</v>
       </c>
       <c r="AS143">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT143">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU143">
         <v>2.45</v>
@@ -28803,7 +28821,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q144">
         <v>9</v>
@@ -29081,10 +29099,10 @@
         <v>0.71</v>
       </c>
       <c r="AS145">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT145">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU145">
         <v>1.45</v>
@@ -29185,7 +29203,7 @@
         <v>184</v>
       </c>
       <c r="P146" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29376,7 +29394,7 @@
         <v>137</v>
       </c>
       <c r="P147" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29845,10 +29863,10 @@
         <v>1.29</v>
       </c>
       <c r="AS149">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT149">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU149">
         <v>1.86</v>
@@ -29949,7 +29967,7 @@
         <v>186</v>
       </c>
       <c r="P150" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -30039,7 +30057,7 @@
         <v>2.33</v>
       </c>
       <c r="AT150">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU150">
         <v>2.09</v>
@@ -30227,10 +30245,10 @@
         <v>2.33</v>
       </c>
       <c r="AS151">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT151">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU151">
         <v>1.89</v>
@@ -30331,7 +30349,7 @@
         <v>188</v>
       </c>
       <c r="P152" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -30522,7 +30540,7 @@
         <v>170</v>
       </c>
       <c r="P153" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q153">
         <v>9</v>
@@ -30612,7 +30630,7 @@
         <v>1.42</v>
       </c>
       <c r="AT153">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU153">
         <v>1.46</v>
@@ -30713,7 +30731,7 @@
         <v>189</v>
       </c>
       <c r="P154" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30803,7 +30821,7 @@
         <v>1.14</v>
       </c>
       <c r="AT154">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU154">
         <v>1.64</v>
@@ -31095,7 +31113,7 @@
         <v>190</v>
       </c>
       <c r="P156" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -31182,10 +31200,10 @@
         <v>2</v>
       </c>
       <c r="AS156">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT156">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU156">
         <v>1.24</v>
@@ -31373,7 +31391,7 @@
         <v>0.57</v>
       </c>
       <c r="AS157">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT157">
         <v>1.08</v>
@@ -31477,7 +31495,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31564,7 +31582,7 @@
         <v>1.57</v>
       </c>
       <c r="AS158">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT158">
         <v>1.67</v>
@@ -31668,7 +31686,7 @@
         <v>157</v>
       </c>
       <c r="P159" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -31758,7 +31776,7 @@
         <v>1.46</v>
       </c>
       <c r="AT159">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU159">
         <v>2.17</v>
@@ -32331,7 +32349,7 @@
         <v>1.46</v>
       </c>
       <c r="AT162">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU162">
         <v>2.2</v>
@@ -32519,10 +32537,10 @@
         <v>1.5</v>
       </c>
       <c r="AS163">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT163">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU163">
         <v>1.89</v>
@@ -32623,7 +32641,7 @@
         <v>196</v>
       </c>
       <c r="P164" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q164">
         <v>3</v>
@@ -32904,7 +32922,7 @@
         <v>1.15</v>
       </c>
       <c r="AT165">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU165">
         <v>1.5</v>
@@ -33196,7 +33214,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q167">
         <v>10</v>
@@ -33387,7 +33405,7 @@
         <v>86</v>
       </c>
       <c r="P168" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33578,7 +33596,7 @@
         <v>199</v>
       </c>
       <c r="P169" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33960,7 +33978,7 @@
         <v>191</v>
       </c>
       <c r="P171" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -34047,10 +34065,10 @@
         <v>2.13</v>
       </c>
       <c r="AS171">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT171">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU171">
         <v>1.4</v>
@@ -34238,7 +34256,7 @@
         <v>1.75</v>
       </c>
       <c r="AS172">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT172">
         <v>1.67</v>
@@ -34342,7 +34360,7 @@
         <v>202</v>
       </c>
       <c r="P173" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34429,10 +34447,10 @@
         <v>0.63</v>
       </c>
       <c r="AS173">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT173">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU173">
         <v>1.56</v>
@@ -34533,7 +34551,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q174">
         <v>8</v>
@@ -34620,7 +34638,7 @@
         <v>1.88</v>
       </c>
       <c r="AS174">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT174">
         <v>1.46</v>
@@ -34915,7 +34933,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q176">
         <v>7</v>
@@ -35005,7 +35023,7 @@
         <v>1.42</v>
       </c>
       <c r="AT176">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU176">
         <v>1.5</v>
@@ -35106,7 +35124,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q177">
         <v>7</v>
@@ -35297,7 +35315,7 @@
         <v>205</v>
       </c>
       <c r="P178" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q178">
         <v>6</v>
@@ -35488,7 +35506,7 @@
         <v>206</v>
       </c>
       <c r="P179" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q179">
         <v>5</v>
@@ -35766,10 +35784,10 @@
         <v>1</v>
       </c>
       <c r="AS180">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT180">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU180">
         <v>1.77</v>
@@ -35957,10 +35975,10 @@
         <v>0.88</v>
       </c>
       <c r="AS181">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT181">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU181">
         <v>1.6</v>
@@ -36252,7 +36270,7 @@
         <v>86</v>
       </c>
       <c r="P183" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -36533,7 +36551,7 @@
         <v>1.46</v>
       </c>
       <c r="AT184">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU184">
         <v>2.15</v>
@@ -36634,7 +36652,7 @@
         <v>86</v>
       </c>
       <c r="P185" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q185">
         <v>6</v>
@@ -36724,7 +36742,7 @@
         <v>0.31</v>
       </c>
       <c r="AT185">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU185">
         <v>1.13</v>
@@ -36825,7 +36843,7 @@
         <v>144</v>
       </c>
       <c r="P186" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q186">
         <v>10</v>
@@ -36915,7 +36933,7 @@
         <v>1.38</v>
       </c>
       <c r="AT186">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU186">
         <v>1.55</v>
@@ -37016,7 +37034,7 @@
         <v>86</v>
       </c>
       <c r="P187" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -37207,7 +37225,7 @@
         <v>209</v>
       </c>
       <c r="P188" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -37294,10 +37312,10 @@
         <v>2.22</v>
       </c>
       <c r="AS188">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT188">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU188">
         <v>1.87</v>
@@ -37398,7 +37416,7 @@
         <v>131</v>
       </c>
       <c r="P189" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37485,7 +37503,7 @@
         <v>0.44</v>
       </c>
       <c r="AS189">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT189">
         <v>0.46</v>
@@ -37589,7 +37607,7 @@
         <v>86</v>
       </c>
       <c r="P190" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q190">
         <v>2</v>
@@ -38058,7 +38076,7 @@
         <v>0.67</v>
       </c>
       <c r="AS192">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT192">
         <v>0.67</v>
@@ -38162,7 +38180,7 @@
         <v>143</v>
       </c>
       <c r="P193" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38249,7 +38267,7 @@
         <v>0.67</v>
       </c>
       <c r="AS193">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT193">
         <v>0.83</v>
@@ -38353,7 +38371,7 @@
         <v>212</v>
       </c>
       <c r="P194" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q194">
         <v>5</v>
@@ -38440,10 +38458,10 @@
         <v>1.4</v>
       </c>
       <c r="AS194">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT194">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU194">
         <v>1.6</v>
@@ -38544,7 +38562,7 @@
         <v>152</v>
       </c>
       <c r="P195" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -38631,7 +38649,7 @@
         <v>1.44</v>
       </c>
       <c r="AS195">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT195">
         <v>1.31</v>
@@ -38825,7 +38843,7 @@
         <v>1.5</v>
       </c>
       <c r="AT196">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU196">
         <v>1.72</v>
@@ -38926,7 +38944,7 @@
         <v>214</v>
       </c>
       <c r="P197" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q197">
         <v>2</v>
@@ -39016,7 +39034,7 @@
         <v>2.33</v>
       </c>
       <c r="AT197">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU197">
         <v>1.96</v>
@@ -39117,7 +39135,7 @@
         <v>86</v>
       </c>
       <c r="P198" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q198">
         <v>12</v>
@@ -39204,10 +39222,10 @@
         <v>0.89</v>
       </c>
       <c r="AS198">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT198">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU198">
         <v>1.89</v>
@@ -39398,7 +39416,7 @@
         <v>1.85</v>
       </c>
       <c r="AT199">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU199">
         <v>1.53</v>
@@ -39499,7 +39517,7 @@
         <v>216</v>
       </c>
       <c r="P200" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -39586,7 +39604,7 @@
         <v>2.1</v>
       </c>
       <c r="AS200">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT200">
         <v>1.69</v>
@@ -39881,7 +39899,7 @@
         <v>86</v>
       </c>
       <c r="P202" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -39968,7 +39986,7 @@
         <v>0.9</v>
       </c>
       <c r="AS202">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT202">
         <v>1.15</v>
@@ -40159,7 +40177,7 @@
         <v>1.1</v>
       </c>
       <c r="AS203">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT203">
         <v>0.92</v>
@@ -40353,7 +40371,7 @@
         <v>1.42</v>
       </c>
       <c r="AT204">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU204">
         <v>1.47</v>
@@ -40454,7 +40472,7 @@
         <v>86</v>
       </c>
       <c r="P205" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q205">
         <v>3</v>
@@ -40735,7 +40753,7 @@
         <v>1.58</v>
       </c>
       <c r="AT206">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU206">
         <v>1.46</v>
@@ -40836,7 +40854,7 @@
         <v>157</v>
       </c>
       <c r="P207" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -41308,7 +41326,7 @@
         <v>1</v>
       </c>
       <c r="AT209">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU209">
         <v>1.46</v>
@@ -41409,7 +41427,7 @@
         <v>220</v>
       </c>
       <c r="P210" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q210">
         <v>9</v>
@@ -41499,7 +41517,7 @@
         <v>1.38</v>
       </c>
       <c r="AT210">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU210">
         <v>1.58</v>
@@ -41600,7 +41618,7 @@
         <v>86</v>
       </c>
       <c r="P211" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -41881,7 +41899,7 @@
         <v>2.33</v>
       </c>
       <c r="AT212">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU212">
         <v>1.94</v>
@@ -41982,7 +42000,7 @@
         <v>222</v>
       </c>
       <c r="P213" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42069,7 +42087,7 @@
         <v>0.6</v>
       </c>
       <c r="AS213">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT213">
         <v>0.67</v>
@@ -42260,7 +42278,7 @@
         <v>1.91</v>
       </c>
       <c r="AS214">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT214">
         <v>1.69</v>
@@ -42364,7 +42382,7 @@
         <v>86</v>
       </c>
       <c r="P215" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q215">
         <v>5</v>
@@ -42454,7 +42472,7 @@
         <v>1.85</v>
       </c>
       <c r="AT215">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU215">
         <v>1.5</v>
@@ -42555,7 +42573,7 @@
         <v>224</v>
       </c>
       <c r="P216" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q216">
         <v>10</v>
@@ -42645,7 +42663,7 @@
         <v>1.33</v>
       </c>
       <c r="AT216">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU216">
         <v>1.88</v>
@@ -42746,7 +42764,7 @@
         <v>86</v>
       </c>
       <c r="P217" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -42833,10 +42851,10 @@
         <v>1.1</v>
       </c>
       <c r="AS217">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT217">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU217">
         <v>1.54</v>
@@ -43024,10 +43042,10 @@
         <v>0.9</v>
       </c>
       <c r="AS218">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT218">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU218">
         <v>1.96</v>
@@ -43215,7 +43233,7 @@
         <v>0.5</v>
       </c>
       <c r="AS219">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT219">
         <v>0.46</v>
@@ -43701,7 +43719,7 @@
         <v>86</v>
       </c>
       <c r="P222" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q222">
         <v>1</v>
@@ -43892,7 +43910,7 @@
         <v>168</v>
       </c>
       <c r="P223" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q223">
         <v>1</v>
@@ -44364,7 +44382,7 @@
         <v>2.54</v>
       </c>
       <c r="AT225">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU225">
         <v>1.73</v>
@@ -44465,7 +44483,7 @@
         <v>228</v>
       </c>
       <c r="P226" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q226">
         <v>6</v>
@@ -44656,7 +44674,7 @@
         <v>86</v>
       </c>
       <c r="P227" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q227">
         <v>2</v>
@@ -44746,7 +44764,7 @@
         <v>1.15</v>
       </c>
       <c r="AT227">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU227">
         <v>1.32</v>
@@ -44847,7 +44865,7 @@
         <v>176</v>
       </c>
       <c r="P228" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q228">
         <v>13</v>
@@ -45038,7 +45056,7 @@
         <v>86</v>
       </c>
       <c r="P229" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45316,7 +45334,7 @@
         <v>0.4</v>
       </c>
       <c r="AS230">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT230">
         <v>0.42</v>
@@ -45420,7 +45438,7 @@
         <v>230</v>
       </c>
       <c r="P231" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q231">
         <v>5</v>
@@ -45611,7 +45629,7 @@
         <v>86</v>
       </c>
       <c r="P232" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q232">
         <v>4</v>
@@ -45698,7 +45716,7 @@
         <v>2.58</v>
       </c>
       <c r="AS232">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT232">
         <v>2.62</v>
@@ -45889,10 +45907,10 @@
         <v>0.83</v>
       </c>
       <c r="AS233">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT233">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU233">
         <v>1.38</v>
@@ -46080,7 +46098,7 @@
         <v>1.55</v>
       </c>
       <c r="AS234">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT234">
         <v>1.31</v>
@@ -46274,7 +46292,7 @@
         <v>1.15</v>
       </c>
       <c r="AT235">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU235">
         <v>1.28</v>
@@ -46375,7 +46393,7 @@
         <v>233</v>
       </c>
       <c r="P236" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q236">
         <v>5</v>
@@ -46656,7 +46674,7 @@
         <v>2.33</v>
       </c>
       <c r="AT237">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU237">
         <v>1.86</v>
@@ -46757,7 +46775,7 @@
         <v>86</v>
       </c>
       <c r="P238" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q238">
         <v>4</v>
@@ -46847,7 +46865,7 @@
         <v>1</v>
       </c>
       <c r="AT238">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU238">
         <v>1.52</v>
@@ -47038,7 +47056,7 @@
         <v>1.85</v>
       </c>
       <c r="AT239">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU239">
         <v>1.52</v>
@@ -47139,7 +47157,7 @@
         <v>235</v>
       </c>
       <c r="P240" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -47226,7 +47244,7 @@
         <v>1.83</v>
       </c>
       <c r="AS240">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT240">
         <v>1.69</v>
@@ -47330,7 +47348,7 @@
         <v>236</v>
       </c>
       <c r="P241" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -47417,10 +47435,10 @@
         <v>1.25</v>
       </c>
       <c r="AS241">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT241">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU241">
         <v>1.9</v>
@@ -47521,7 +47539,7 @@
         <v>86</v>
       </c>
       <c r="P242" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q242">
         <v>8</v>
@@ -47608,10 +47626,10 @@
         <v>1.91</v>
       </c>
       <c r="AS242">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT242">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU242">
         <v>2.2</v>
@@ -47993,7 +48011,7 @@
         <v>1.5</v>
       </c>
       <c r="AT244">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU244">
         <v>1.85</v>
@@ -48094,7 +48112,7 @@
         <v>238</v>
       </c>
       <c r="P245" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q245">
         <v>11</v>
@@ -48945,7 +48963,7 @@
         <v>1.82</v>
       </c>
       <c r="AS249">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT249">
         <v>1.67</v>
@@ -49049,7 +49067,7 @@
         <v>241</v>
       </c>
       <c r="P250" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q250">
         <v>4</v>
@@ -49573,6 +49591,1534 @@
       </c>
       <c r="BK252">
         <v>29</v>
+      </c>
+    </row>
+    <row r="253" spans="1:63">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>2638248</v>
+      </c>
+      <c r="C253" t="s">
+        <v>63</v>
+      </c>
+      <c r="D253" t="s">
+        <v>64</v>
+      </c>
+      <c r="E253" s="2">
+        <v>44996.45833333334</v>
+      </c>
+      <c r="F253">
+        <v>26</v>
+      </c>
+      <c r="G253" t="s">
+        <v>79</v>
+      </c>
+      <c r="H253" t="s">
+        <v>75</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>0</v>
+      </c>
+      <c r="M253">
+        <v>1</v>
+      </c>
+      <c r="N253">
+        <v>1</v>
+      </c>
+      <c r="O253" t="s">
+        <v>86</v>
+      </c>
+      <c r="P253" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q253">
+        <v>11</v>
+      </c>
+      <c r="R253">
+        <v>5</v>
+      </c>
+      <c r="S253">
+        <v>16</v>
+      </c>
+      <c r="T253">
+        <v>3.5</v>
+      </c>
+      <c r="U253">
+        <v>2.2</v>
+      </c>
+      <c r="V253">
+        <v>3.1</v>
+      </c>
+      <c r="W253">
+        <v>1.4</v>
+      </c>
+      <c r="X253">
+        <v>2.75</v>
+      </c>
+      <c r="Y253">
+        <v>2.75</v>
+      </c>
+      <c r="Z253">
+        <v>1.4</v>
+      </c>
+      <c r="AA253">
+        <v>8</v>
+      </c>
+      <c r="AB253">
+        <v>1.08</v>
+      </c>
+      <c r="AC253">
+        <v>2.95</v>
+      </c>
+      <c r="AD253">
+        <v>3.3</v>
+      </c>
+      <c r="AE253">
+        <v>2.45</v>
+      </c>
+      <c r="AF253">
+        <v>1.06</v>
+      </c>
+      <c r="AG253">
+        <v>11</v>
+      </c>
+      <c r="AH253">
+        <v>1.32</v>
+      </c>
+      <c r="AI253">
+        <v>3.4</v>
+      </c>
+      <c r="AJ253">
+        <v>1.95</v>
+      </c>
+      <c r="AK253">
+        <v>1.75</v>
+      </c>
+      <c r="AL253">
+        <v>1.7</v>
+      </c>
+      <c r="AM253">
+        <v>2.05</v>
+      </c>
+      <c r="AN253">
+        <v>1.55</v>
+      </c>
+      <c r="AO253">
+        <v>1.32</v>
+      </c>
+      <c r="AP253">
+        <v>1.39</v>
+      </c>
+      <c r="AQ253">
+        <v>1.33</v>
+      </c>
+      <c r="AR253">
+        <v>1.23</v>
+      </c>
+      <c r="AS253">
+        <v>1.23</v>
+      </c>
+      <c r="AT253">
+        <v>1.36</v>
+      </c>
+      <c r="AU253">
+        <v>1.62</v>
+      </c>
+      <c r="AV253">
+        <v>1.48</v>
+      </c>
+      <c r="AW253">
+        <v>3.1</v>
+      </c>
+      <c r="AX253">
+        <v>2.16</v>
+      </c>
+      <c r="AY253">
+        <v>7.7</v>
+      </c>
+      <c r="AZ253">
+        <v>2.02</v>
+      </c>
+      <c r="BA253">
+        <v>1.2</v>
+      </c>
+      <c r="BB253">
+        <v>1.41</v>
+      </c>
+      <c r="BC253">
+        <v>1.74</v>
+      </c>
+      <c r="BD253">
+        <v>2.19</v>
+      </c>
+      <c r="BE253">
+        <v>2.88</v>
+      </c>
+      <c r="BF253">
+        <v>4</v>
+      </c>
+      <c r="BG253">
+        <v>5</v>
+      </c>
+      <c r="BH253">
+        <v>8</v>
+      </c>
+      <c r="BI253">
+        <v>6</v>
+      </c>
+      <c r="BJ253">
+        <v>12</v>
+      </c>
+      <c r="BK253">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="254" spans="1:63">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>2638254</v>
+      </c>
+      <c r="C254" t="s">
+        <v>63</v>
+      </c>
+      <c r="D254" t="s">
+        <v>64</v>
+      </c>
+      <c r="E254" s="2">
+        <v>44996.58333333334</v>
+      </c>
+      <c r="F254">
+        <v>26</v>
+      </c>
+      <c r="G254" t="s">
+        <v>80</v>
+      </c>
+      <c r="H254" t="s">
+        <v>81</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+      <c r="L254">
+        <v>2</v>
+      </c>
+      <c r="M254">
+        <v>0</v>
+      </c>
+      <c r="N254">
+        <v>2</v>
+      </c>
+      <c r="O254" t="s">
+        <v>244</v>
+      </c>
+      <c r="P254" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q254">
+        <v>10</v>
+      </c>
+      <c r="R254">
+        <v>4</v>
+      </c>
+      <c r="S254">
+        <v>14</v>
+      </c>
+      <c r="T254">
+        <v>2.2</v>
+      </c>
+      <c r="U254">
+        <v>2.3</v>
+      </c>
+      <c r="V254">
+        <v>5</v>
+      </c>
+      <c r="W254">
+        <v>1.33</v>
+      </c>
+      <c r="X254">
+        <v>3.25</v>
+      </c>
+      <c r="Y254">
+        <v>2.63</v>
+      </c>
+      <c r="Z254">
+        <v>1.44</v>
+      </c>
+      <c r="AA254">
+        <v>6.5</v>
+      </c>
+      <c r="AB254">
+        <v>1.11</v>
+      </c>
+      <c r="AC254">
+        <v>1.68</v>
+      </c>
+      <c r="AD254">
+        <v>4</v>
+      </c>
+      <c r="AE254">
+        <v>4.8</v>
+      </c>
+      <c r="AF254">
+        <v>1.03</v>
+      </c>
+      <c r="AG254">
+        <v>13</v>
+      </c>
+      <c r="AH254">
+        <v>1.25</v>
+      </c>
+      <c r="AI254">
+        <v>4</v>
+      </c>
+      <c r="AJ254">
+        <v>1.67</v>
+      </c>
+      <c r="AK254">
+        <v>2.1</v>
+      </c>
+      <c r="AL254">
+        <v>1.8</v>
+      </c>
+      <c r="AM254">
+        <v>1.95</v>
+      </c>
+      <c r="AN254">
+        <v>1.18</v>
+      </c>
+      <c r="AO254">
+        <v>1.24</v>
+      </c>
+      <c r="AP254">
+        <v>2.15</v>
+      </c>
+      <c r="AQ254">
+        <v>2.58</v>
+      </c>
+      <c r="AR254">
+        <v>1.85</v>
+      </c>
+      <c r="AS254">
+        <v>2.62</v>
+      </c>
+      <c r="AT254">
+        <v>1.71</v>
+      </c>
+      <c r="AU254">
+        <v>2.11</v>
+      </c>
+      <c r="AV254">
+        <v>1.56</v>
+      </c>
+      <c r="AW254">
+        <v>3.67</v>
+      </c>
+      <c r="AX254">
+        <v>1.47</v>
+      </c>
+      <c r="AY254">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ254">
+        <v>3.48</v>
+      </c>
+      <c r="BA254">
+        <v>1.26</v>
+      </c>
+      <c r="BB254">
+        <v>1.51</v>
+      </c>
+      <c r="BC254">
+        <v>1.91</v>
+      </c>
+      <c r="BD254">
+        <v>2.47</v>
+      </c>
+      <c r="BE254">
+        <v>3.34</v>
+      </c>
+      <c r="BF254">
+        <v>7</v>
+      </c>
+      <c r="BG254">
+        <v>4</v>
+      </c>
+      <c r="BH254">
+        <v>11</v>
+      </c>
+      <c r="BI254">
+        <v>3</v>
+      </c>
+      <c r="BJ254">
+        <v>18</v>
+      </c>
+      <c r="BK254">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:63">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>2638246</v>
+      </c>
+      <c r="C255" t="s">
+        <v>63</v>
+      </c>
+      <c r="D255" t="s">
+        <v>64</v>
+      </c>
+      <c r="E255" s="2">
+        <v>44996.69791666666</v>
+      </c>
+      <c r="F255">
+        <v>26</v>
+      </c>
+      <c r="G255" t="s">
+        <v>82</v>
+      </c>
+      <c r="H255" t="s">
+        <v>70</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>0</v>
+      </c>
+      <c r="M255">
+        <v>0</v>
+      </c>
+      <c r="N255">
+        <v>0</v>
+      </c>
+      <c r="O255" t="s">
+        <v>86</v>
+      </c>
+      <c r="P255" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q255">
+        <v>5</v>
+      </c>
+      <c r="R255">
+        <v>2</v>
+      </c>
+      <c r="S255">
+        <v>7</v>
+      </c>
+      <c r="T255">
+        <v>3.75</v>
+      </c>
+      <c r="U255">
+        <v>2</v>
+      </c>
+      <c r="V255">
+        <v>3.2</v>
+      </c>
+      <c r="W255">
+        <v>1.5</v>
+      </c>
+      <c r="X255">
+        <v>2.5</v>
+      </c>
+      <c r="Y255">
+        <v>3.4</v>
+      </c>
+      <c r="Z255">
+        <v>1.3</v>
+      </c>
+      <c r="AA255">
+        <v>10</v>
+      </c>
+      <c r="AB255">
+        <v>1.06</v>
+      </c>
+      <c r="AC255">
+        <v>3.1</v>
+      </c>
+      <c r="AD255">
+        <v>3.25</v>
+      </c>
+      <c r="AE255">
+        <v>2.25</v>
+      </c>
+      <c r="AF255">
+        <v>1.08</v>
+      </c>
+      <c r="AG255">
+        <v>8.5</v>
+      </c>
+      <c r="AH255">
+        <v>1.42</v>
+      </c>
+      <c r="AI255">
+        <v>2.9</v>
+      </c>
+      <c r="AJ255">
+        <v>1.95</v>
+      </c>
+      <c r="AK255">
+        <v>1.8</v>
+      </c>
+      <c r="AL255">
+        <v>1.95</v>
+      </c>
+      <c r="AM255">
+        <v>1.8</v>
+      </c>
+      <c r="AN255">
+        <v>1.55</v>
+      </c>
+      <c r="AO255">
+        <v>1.33</v>
+      </c>
+      <c r="AP255">
+        <v>1.38</v>
+      </c>
+      <c r="AQ255">
+        <v>1.69</v>
+      </c>
+      <c r="AR255">
+        <v>2</v>
+      </c>
+      <c r="AS255">
+        <v>1.64</v>
+      </c>
+      <c r="AT255">
+        <v>1.92</v>
+      </c>
+      <c r="AU255">
+        <v>1.58</v>
+      </c>
+      <c r="AV255">
+        <v>1.3</v>
+      </c>
+      <c r="AW255">
+        <v>2.88</v>
+      </c>
+      <c r="AX255">
+        <v>2.18</v>
+      </c>
+      <c r="AY255">
+        <v>7.4</v>
+      </c>
+      <c r="AZ255">
+        <v>2.03</v>
+      </c>
+      <c r="BA255">
+        <v>1.33</v>
+      </c>
+      <c r="BB255">
+        <v>1.64</v>
+      </c>
+      <c r="BC255">
+        <v>2.13</v>
+      </c>
+      <c r="BD255">
+        <v>2.85</v>
+      </c>
+      <c r="BE255">
+        <v>3.98</v>
+      </c>
+      <c r="BF255">
+        <v>3</v>
+      </c>
+      <c r="BG255">
+        <v>3</v>
+      </c>
+      <c r="BH255">
+        <v>13</v>
+      </c>
+      <c r="BI255">
+        <v>4</v>
+      </c>
+      <c r="BJ255">
+        <v>16</v>
+      </c>
+      <c r="BK255">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:63">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>2638251</v>
+      </c>
+      <c r="C256" t="s">
+        <v>63</v>
+      </c>
+      <c r="D256" t="s">
+        <v>64</v>
+      </c>
+      <c r="E256" s="2">
+        <v>44997.35416666666</v>
+      </c>
+      <c r="F256">
+        <v>26</v>
+      </c>
+      <c r="G256" t="s">
+        <v>67</v>
+      </c>
+      <c r="H256" t="s">
+        <v>76</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>2</v>
+      </c>
+      <c r="K256">
+        <v>2</v>
+      </c>
+      <c r="L256">
+        <v>0</v>
+      </c>
+      <c r="M256">
+        <v>2</v>
+      </c>
+      <c r="N256">
+        <v>2</v>
+      </c>
+      <c r="O256" t="s">
+        <v>86</v>
+      </c>
+      <c r="P256" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q256">
+        <v>9</v>
+      </c>
+      <c r="R256">
+        <v>1</v>
+      </c>
+      <c r="S256">
+        <v>10</v>
+      </c>
+      <c r="T256">
+        <v>3.75</v>
+      </c>
+      <c r="U256">
+        <v>1.91</v>
+      </c>
+      <c r="V256">
+        <v>3.5</v>
+      </c>
+      <c r="W256">
+        <v>1.62</v>
+      </c>
+      <c r="X256">
+        <v>2.2</v>
+      </c>
+      <c r="Y256">
+        <v>4</v>
+      </c>
+      <c r="Z256">
+        <v>1.22</v>
+      </c>
+      <c r="AA256">
+        <v>13</v>
+      </c>
+      <c r="AB256">
+        <v>1.04</v>
+      </c>
+      <c r="AC256">
+        <v>2.93</v>
+      </c>
+      <c r="AD256">
+        <v>2.7</v>
+      </c>
+      <c r="AE256">
+        <v>2.4</v>
+      </c>
+      <c r="AF256">
+        <v>1.11</v>
+      </c>
+      <c r="AG256">
+        <v>6</v>
+      </c>
+      <c r="AH256">
+        <v>1.57</v>
+      </c>
+      <c r="AI256">
+        <v>2.25</v>
+      </c>
+      <c r="AJ256">
+        <v>2.55</v>
+      </c>
+      <c r="AK256">
+        <v>1.52</v>
+      </c>
+      <c r="AL256">
+        <v>2.2</v>
+      </c>
+      <c r="AM256">
+        <v>1.62</v>
+      </c>
+      <c r="AN256">
+        <v>1.47</v>
+      </c>
+      <c r="AO256">
+        <v>1.38</v>
+      </c>
+      <c r="AP256">
+        <v>1.38</v>
+      </c>
+      <c r="AQ256">
+        <v>1</v>
+      </c>
+      <c r="AR256">
+        <v>1.15</v>
+      </c>
+      <c r="AS256">
+        <v>0.92</v>
+      </c>
+      <c r="AT256">
+        <v>1.29</v>
+      </c>
+      <c r="AU256">
+        <v>1.41</v>
+      </c>
+      <c r="AV256">
+        <v>1.51</v>
+      </c>
+      <c r="AW256">
+        <v>2.92</v>
+      </c>
+      <c r="AX256">
+        <v>2.36</v>
+      </c>
+      <c r="AY256">
+        <v>7.6</v>
+      </c>
+      <c r="AZ256">
+        <v>1.88</v>
+      </c>
+      <c r="BA256">
+        <v>1.3</v>
+      </c>
+      <c r="BB256">
+        <v>1.55</v>
+      </c>
+      <c r="BC256">
+        <v>1.85</v>
+      </c>
+      <c r="BD256">
+        <v>2.3</v>
+      </c>
+      <c r="BE256">
+        <v>3</v>
+      </c>
+      <c r="BF256">
+        <v>2</v>
+      </c>
+      <c r="BG256">
+        <v>3</v>
+      </c>
+      <c r="BH256">
+        <v>5</v>
+      </c>
+      <c r="BI256">
+        <v>2</v>
+      </c>
+      <c r="BJ256">
+        <v>7</v>
+      </c>
+      <c r="BK256">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:63">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>2638247</v>
+      </c>
+      <c r="C257" t="s">
+        <v>63</v>
+      </c>
+      <c r="D257" t="s">
+        <v>64</v>
+      </c>
+      <c r="E257" s="2">
+        <v>44997.45833333334</v>
+      </c>
+      <c r="F257">
+        <v>26</v>
+      </c>
+      <c r="G257" t="s">
+        <v>84</v>
+      </c>
+      <c r="H257" t="s">
+        <v>69</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>1</v>
+      </c>
+      <c r="K257">
+        <v>1</v>
+      </c>
+      <c r="L257">
+        <v>0</v>
+      </c>
+      <c r="M257">
+        <v>2</v>
+      </c>
+      <c r="N257">
+        <v>2</v>
+      </c>
+      <c r="O257" t="s">
+        <v>86</v>
+      </c>
+      <c r="P257" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q257">
+        <v>1</v>
+      </c>
+      <c r="R257">
+        <v>6</v>
+      </c>
+      <c r="S257">
+        <v>7</v>
+      </c>
+      <c r="T257">
+        <v>4.75</v>
+      </c>
+      <c r="U257">
+        <v>2.2</v>
+      </c>
+      <c r="V257">
+        <v>2.5</v>
+      </c>
+      <c r="W257">
+        <v>1.4</v>
+      </c>
+      <c r="X257">
+        <v>2.75</v>
+      </c>
+      <c r="Y257">
+        <v>3</v>
+      </c>
+      <c r="Z257">
+        <v>1.36</v>
+      </c>
+      <c r="AA257">
+        <v>8</v>
+      </c>
+      <c r="AB257">
+        <v>1.08</v>
+      </c>
+      <c r="AC257">
+        <v>4</v>
+      </c>
+      <c r="AD257">
+        <v>3.25</v>
+      </c>
+      <c r="AE257">
+        <v>1.75</v>
+      </c>
+      <c r="AF257">
+        <v>1.06</v>
+      </c>
+      <c r="AG257">
+        <v>8.75</v>
+      </c>
+      <c r="AH257">
+        <v>1.32</v>
+      </c>
+      <c r="AI257">
+        <v>3.2</v>
+      </c>
+      <c r="AJ257">
+        <v>2.02</v>
+      </c>
+      <c r="AK257">
+        <v>1.7</v>
+      </c>
+      <c r="AL257">
+        <v>1.91</v>
+      </c>
+      <c r="AM257">
+        <v>1.91</v>
+      </c>
+      <c r="AN257">
+        <v>1.95</v>
+      </c>
+      <c r="AO257">
+        <v>1.28</v>
+      </c>
+      <c r="AP257">
+        <v>1.21</v>
+      </c>
+      <c r="AQ257">
+        <v>0.5</v>
+      </c>
+      <c r="AR257">
+        <v>1</v>
+      </c>
+      <c r="AS257">
+        <v>0.46</v>
+      </c>
+      <c r="AT257">
+        <v>1.15</v>
+      </c>
+      <c r="AU257">
+        <v>1.49</v>
+      </c>
+      <c r="AV257">
+        <v>1.65</v>
+      </c>
+      <c r="AW257">
+        <v>3.14</v>
+      </c>
+      <c r="AX257">
+        <v>3.26</v>
+      </c>
+      <c r="AY257">
+        <v>8.1</v>
+      </c>
+      <c r="AZ257">
+        <v>1.52</v>
+      </c>
+      <c r="BA257">
+        <v>1.36</v>
+      </c>
+      <c r="BB257">
+        <v>1.62</v>
+      </c>
+      <c r="BC257">
+        <v>2</v>
+      </c>
+      <c r="BD257">
+        <v>2.5</v>
+      </c>
+      <c r="BE257">
+        <v>3.3</v>
+      </c>
+      <c r="BF257">
+        <v>5</v>
+      </c>
+      <c r="BG257">
+        <v>6</v>
+      </c>
+      <c r="BH257">
+        <v>11</v>
+      </c>
+      <c r="BI257">
+        <v>5</v>
+      </c>
+      <c r="BJ257">
+        <v>16</v>
+      </c>
+      <c r="BK257">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="258" spans="1:63">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>2638249</v>
+      </c>
+      <c r="C258" t="s">
+        <v>63</v>
+      </c>
+      <c r="D258" t="s">
+        <v>64</v>
+      </c>
+      <c r="E258" s="2">
+        <v>44997.45833333334</v>
+      </c>
+      <c r="F258">
+        <v>26</v>
+      </c>
+      <c r="G258" t="s">
+        <v>73</v>
+      </c>
+      <c r="H258" t="s">
+        <v>68</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
+      <c r="L258">
+        <v>1</v>
+      </c>
+      <c r="M258">
+        <v>1</v>
+      </c>
+      <c r="N258">
+        <v>2</v>
+      </c>
+      <c r="O258" t="s">
+        <v>219</v>
+      </c>
+      <c r="P258" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q258">
+        <v>7</v>
+      </c>
+      <c r="R258">
+        <v>2</v>
+      </c>
+      <c r="S258">
+        <v>9</v>
+      </c>
+      <c r="T258">
+        <v>3.25</v>
+      </c>
+      <c r="U258">
+        <v>2.05</v>
+      </c>
+      <c r="V258">
+        <v>3.6</v>
+      </c>
+      <c r="W258">
+        <v>1.5</v>
+      </c>
+      <c r="X258">
+        <v>2.5</v>
+      </c>
+      <c r="Y258">
+        <v>3.4</v>
+      </c>
+      <c r="Z258">
+        <v>1.3</v>
+      </c>
+      <c r="AA258">
+        <v>10</v>
+      </c>
+      <c r="AB258">
+        <v>1.06</v>
+      </c>
+      <c r="AC258">
+        <v>2.41</v>
+      </c>
+      <c r="AD258">
+        <v>2.94</v>
+      </c>
+      <c r="AE258">
+        <v>2.68</v>
+      </c>
+      <c r="AF258">
+        <v>1.08</v>
+      </c>
+      <c r="AG258">
+        <v>7.25</v>
+      </c>
+      <c r="AH258">
+        <v>1.41</v>
+      </c>
+      <c r="AI258">
+        <v>2.7</v>
+      </c>
+      <c r="AJ258">
+        <v>2.2</v>
+      </c>
+      <c r="AK258">
+        <v>1.59</v>
+      </c>
+      <c r="AL258">
+        <v>1.95</v>
+      </c>
+      <c r="AM258">
+        <v>1.8</v>
+      </c>
+      <c r="AN258">
+        <v>1.37</v>
+      </c>
+      <c r="AO258">
+        <v>1.34</v>
+      </c>
+      <c r="AP258">
+        <v>1.53</v>
+      </c>
+      <c r="AQ258">
+        <v>1</v>
+      </c>
+      <c r="AR258">
+        <v>1.17</v>
+      </c>
+      <c r="AS258">
+        <v>1</v>
+      </c>
+      <c r="AT258">
+        <v>1.15</v>
+      </c>
+      <c r="AU258">
+        <v>1.52</v>
+      </c>
+      <c r="AV258">
+        <v>1.28</v>
+      </c>
+      <c r="AW258">
+        <v>2.8</v>
+      </c>
+      <c r="AX258">
+        <v>1.83</v>
+      </c>
+      <c r="AY258">
+        <v>7.7</v>
+      </c>
+      <c r="AZ258">
+        <v>2.43</v>
+      </c>
+      <c r="BA258">
+        <v>1.33</v>
+      </c>
+      <c r="BB258">
+        <v>1.57</v>
+      </c>
+      <c r="BC258">
+        <v>1.91</v>
+      </c>
+      <c r="BD258">
+        <v>2.4</v>
+      </c>
+      <c r="BE258">
+        <v>3.2</v>
+      </c>
+      <c r="BF258">
+        <v>3</v>
+      </c>
+      <c r="BG258">
+        <v>4</v>
+      </c>
+      <c r="BH258">
+        <v>1</v>
+      </c>
+      <c r="BI258">
+        <v>6</v>
+      </c>
+      <c r="BJ258">
+        <v>4</v>
+      </c>
+      <c r="BK258">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:63">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>2638253</v>
+      </c>
+      <c r="C259" t="s">
+        <v>63</v>
+      </c>
+      <c r="D259" t="s">
+        <v>64</v>
+      </c>
+      <c r="E259" s="2">
+        <v>44997.58333333334</v>
+      </c>
+      <c r="F259">
+        <v>26</v>
+      </c>
+      <c r="G259" t="s">
+        <v>83</v>
+      </c>
+      <c r="H259" t="s">
+        <v>78</v>
+      </c>
+      <c r="I259">
+        <v>1</v>
+      </c>
+      <c r="J259">
+        <v>3</v>
+      </c>
+      <c r="K259">
+        <v>4</v>
+      </c>
+      <c r="L259">
+        <v>3</v>
+      </c>
+      <c r="M259">
+        <v>4</v>
+      </c>
+      <c r="N259">
+        <v>7</v>
+      </c>
+      <c r="O259" t="s">
+        <v>245</v>
+      </c>
+      <c r="P259" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q259">
+        <v>7</v>
+      </c>
+      <c r="R259">
+        <v>2</v>
+      </c>
+      <c r="S259">
+        <v>9</v>
+      </c>
+      <c r="T259">
+        <v>2.3</v>
+      </c>
+      <c r="U259">
+        <v>2.2</v>
+      </c>
+      <c r="V259">
+        <v>5.5</v>
+      </c>
+      <c r="W259">
+        <v>1.44</v>
+      </c>
+      <c r="X259">
+        <v>2.63</v>
+      </c>
+      <c r="Y259">
+        <v>3</v>
+      </c>
+      <c r="Z259">
+        <v>1.36</v>
+      </c>
+      <c r="AA259">
+        <v>9</v>
+      </c>
+      <c r="AB259">
+        <v>1.07</v>
+      </c>
+      <c r="AC259">
+        <v>1.61</v>
+      </c>
+      <c r="AD259">
+        <v>3.72</v>
+      </c>
+      <c r="AE259">
+        <v>4.65</v>
+      </c>
+      <c r="AF259">
+        <v>1.06</v>
+      </c>
+      <c r="AG259">
+        <v>8.5</v>
+      </c>
+      <c r="AH259">
+        <v>1.33</v>
+      </c>
+      <c r="AI259">
+        <v>3.1</v>
+      </c>
+      <c r="AJ259">
+        <v>2.02</v>
+      </c>
+      <c r="AK259">
+        <v>1.78</v>
+      </c>
+      <c r="AL259">
+        <v>2</v>
+      </c>
+      <c r="AM259">
+        <v>1.75</v>
+      </c>
+      <c r="AN259">
+        <v>1.17</v>
+      </c>
+      <c r="AO259">
+        <v>1.27</v>
+      </c>
+      <c r="AP259">
+        <v>2.1</v>
+      </c>
+      <c r="AQ259">
+        <v>2.08</v>
+      </c>
+      <c r="AR259">
+        <v>1</v>
+      </c>
+      <c r="AS259">
+        <v>1.92</v>
+      </c>
+      <c r="AT259">
+        <v>1.14</v>
+      </c>
+      <c r="AU259">
+        <v>1.62</v>
+      </c>
+      <c r="AV259">
+        <v>1.5</v>
+      </c>
+      <c r="AW259">
+        <v>3.12</v>
+      </c>
+      <c r="AX259">
+        <v>1.37</v>
+      </c>
+      <c r="AY259">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ259">
+        <v>4.1</v>
+      </c>
+      <c r="BA259">
+        <v>1.3</v>
+      </c>
+      <c r="BB259">
+        <v>1.55</v>
+      </c>
+      <c r="BC259">
+        <v>1.85</v>
+      </c>
+      <c r="BD259">
+        <v>2.3</v>
+      </c>
+      <c r="BE259">
+        <v>3</v>
+      </c>
+      <c r="BF259">
+        <v>8</v>
+      </c>
+      <c r="BG259">
+        <v>11</v>
+      </c>
+      <c r="BH259">
+        <v>5</v>
+      </c>
+      <c r="BI259">
+        <v>6</v>
+      </c>
+      <c r="BJ259">
+        <v>13</v>
+      </c>
+      <c r="BK259">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="260" spans="1:63">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>2638250</v>
+      </c>
+      <c r="C260" t="s">
+        <v>63</v>
+      </c>
+      <c r="D260" t="s">
+        <v>64</v>
+      </c>
+      <c r="E260" s="2">
+        <v>44997.69791666666</v>
+      </c>
+      <c r="F260">
+        <v>26</v>
+      </c>
+      <c r="G260" t="s">
+        <v>74</v>
+      </c>
+      <c r="H260" t="s">
+        <v>66</v>
+      </c>
+      <c r="I260">
+        <v>2</v>
+      </c>
+      <c r="J260">
+        <v>2</v>
+      </c>
+      <c r="K260">
+        <v>4</v>
+      </c>
+      <c r="L260">
+        <v>4</v>
+      </c>
+      <c r="M260">
+        <v>2</v>
+      </c>
+      <c r="N260">
+        <v>6</v>
+      </c>
+      <c r="O260" t="s">
+        <v>246</v>
+      </c>
+      <c r="P260" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q260">
+        <v>11</v>
+      </c>
+      <c r="R260">
+        <v>3</v>
+      </c>
+      <c r="S260">
+        <v>14</v>
+      </c>
+      <c r="T260">
+        <v>1.91</v>
+      </c>
+      <c r="U260">
+        <v>2.3</v>
+      </c>
+      <c r="V260">
+        <v>8.5</v>
+      </c>
+      <c r="W260">
+        <v>1.4</v>
+      </c>
+      <c r="X260">
+        <v>2.75</v>
+      </c>
+      <c r="Y260">
+        <v>2.75</v>
+      </c>
+      <c r="Z260">
+        <v>1.4</v>
+      </c>
+      <c r="AA260">
+        <v>8</v>
+      </c>
+      <c r="AB260">
+        <v>1.08</v>
+      </c>
+      <c r="AC260">
+        <v>1.28</v>
+      </c>
+      <c r="AD260">
+        <v>4.7</v>
+      </c>
+      <c r="AE260">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AF260">
+        <v>1.05</v>
+      </c>
+      <c r="AG260">
+        <v>10</v>
+      </c>
+      <c r="AH260">
+        <v>1.28</v>
+      </c>
+      <c r="AI260">
+        <v>3.4</v>
+      </c>
+      <c r="AJ260">
+        <v>1.89</v>
+      </c>
+      <c r="AK260">
+        <v>1.91</v>
+      </c>
+      <c r="AL260">
+        <v>2.38</v>
+      </c>
+      <c r="AM260">
+        <v>1.53</v>
+      </c>
+      <c r="AN260">
+        <v>1.07</v>
+      </c>
+      <c r="AO260">
+        <v>1.2</v>
+      </c>
+      <c r="AP260">
+        <v>3.45</v>
+      </c>
+      <c r="AQ260">
+        <v>2.31</v>
+      </c>
+      <c r="AR260">
+        <v>0.67</v>
+      </c>
+      <c r="AS260">
+        <v>2.36</v>
+      </c>
+      <c r="AT260">
+        <v>0.62</v>
+      </c>
+      <c r="AU260">
+        <v>1.87</v>
+      </c>
+      <c r="AV260">
+        <v>1.46</v>
+      </c>
+      <c r="AW260">
+        <v>3.33</v>
+      </c>
+      <c r="AX260">
+        <v>1.17</v>
+      </c>
+      <c r="AY260">
+        <v>11.5</v>
+      </c>
+      <c r="AZ260">
+        <v>6.9</v>
+      </c>
+      <c r="BA260">
+        <v>1.36</v>
+      </c>
+      <c r="BB260">
+        <v>1.62</v>
+      </c>
+      <c r="BC260">
+        <v>2</v>
+      </c>
+      <c r="BD260">
+        <v>2.5</v>
+      </c>
+      <c r="BE260">
+        <v>3.3</v>
+      </c>
+      <c r="BF260">
+        <v>7</v>
+      </c>
+      <c r="BG260">
+        <v>5</v>
+      </c>
+      <c r="BH260">
+        <v>17</v>
+      </c>
+      <c r="BI260">
+        <v>5</v>
+      </c>
+      <c r="BJ260">
+        <v>24</v>
+      </c>
+      <c r="BK260">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="361">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -757,6 +757,9 @@
     <t>['11', '26', '64', '90+4']</t>
   </si>
   <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
     <t>['2', '45+4']</t>
   </si>
   <si>
@@ -1455,7 +1458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK260"/>
+  <dimension ref="A1:BK261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1699,7 +1702,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1786,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT2">
         <v>1.36</v>
@@ -1890,7 +1893,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2081,7 +2084,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -2272,7 +2275,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2463,7 +2466,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q6">
         <v>11</v>
@@ -2654,7 +2657,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -3227,7 +3230,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3699,7 +3702,7 @@
         <v>1.33</v>
       </c>
       <c r="AT12">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -5519,7 +5522,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -6092,7 +6095,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6370,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT26">
         <v>1.08</v>
@@ -6474,7 +6477,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6665,7 +6668,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -8957,7 +8960,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -9047,7 +9050,7 @@
         <v>1.64</v>
       </c>
       <c r="AT40">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU40">
         <v>1.94</v>
@@ -9148,7 +9151,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9339,7 +9342,7 @@
         <v>97</v>
       </c>
       <c r="P42" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -9530,7 +9533,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9617,7 +9620,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT43">
         <v>1.31</v>
@@ -9721,7 +9724,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10103,7 +10106,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -10676,7 +10679,7 @@
         <v>86</v>
       </c>
       <c r="P49" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10867,7 +10870,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -11631,7 +11634,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -11822,7 +11825,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12013,7 +12016,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12395,7 +12398,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12777,7 +12780,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -12867,7 +12870,7 @@
         <v>2.36</v>
       </c>
       <c r="AT60">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU60">
         <v>1.64</v>
@@ -12968,7 +12971,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13159,7 +13162,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13350,7 +13353,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13732,7 +13735,7 @@
         <v>86</v>
       </c>
       <c r="P65" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13923,7 +13926,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -14496,7 +14499,7 @@
         <v>86</v>
       </c>
       <c r="P69" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14878,7 +14881,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -14965,7 +14968,7 @@
         <v>2.33</v>
       </c>
       <c r="AS71">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT71">
         <v>2.62</v>
@@ -15069,7 +15072,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15260,7 +15263,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15451,7 +15454,7 @@
         <v>111</v>
       </c>
       <c r="P74" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16024,7 +16027,7 @@
         <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -16305,7 +16308,7 @@
         <v>1.42</v>
       </c>
       <c r="AT78">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU78">
         <v>1.04</v>
@@ -16788,7 +16791,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16979,7 +16982,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17257,7 +17260,7 @@
         <v>0.67</v>
       </c>
       <c r="AS83">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT83">
         <v>1.67</v>
@@ -17361,7 +17364,7 @@
         <v>100</v>
       </c>
       <c r="P84" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17743,7 +17746,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -18316,7 +18319,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18698,7 +18701,7 @@
         <v>86</v>
       </c>
       <c r="P91" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -19552,7 +19555,7 @@
         <v>2.54</v>
       </c>
       <c r="AT95">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU95">
         <v>1.95</v>
@@ -19653,7 +19656,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -20035,7 +20038,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20226,7 +20229,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q99">
         <v>9</v>
@@ -20417,7 +20420,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -21268,7 +21271,7 @@
         <v>0.8</v>
       </c>
       <c r="AS104">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT104">
         <v>1.15</v>
@@ -21372,7 +21375,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21563,7 +21566,7 @@
         <v>112</v>
       </c>
       <c r="P106" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21945,7 +21948,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -22327,7 +22330,7 @@
         <v>86</v>
       </c>
       <c r="P110" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22900,7 +22903,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q113">
         <v>7</v>
@@ -23282,7 +23285,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23473,7 +23476,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -23855,7 +23858,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23945,7 +23948,7 @@
         <v>1.85</v>
       </c>
       <c r="AT118">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU118">
         <v>1.46</v>
@@ -24046,7 +24049,7 @@
         <v>167</v>
       </c>
       <c r="P119" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24237,7 +24240,7 @@
         <v>112</v>
       </c>
       <c r="P120" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24428,7 +24431,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24810,7 +24813,7 @@
         <v>169</v>
       </c>
       <c r="P123" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q123">
         <v>2</v>
@@ -25192,7 +25195,7 @@
         <v>157</v>
       </c>
       <c r="P125" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25470,7 +25473,7 @@
         <v>0</v>
       </c>
       <c r="AS126">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT126">
         <v>0.67</v>
@@ -25765,7 +25768,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27956,7 +27959,7 @@
         <v>1.46</v>
       </c>
       <c r="AT139">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU139">
         <v>2.15</v>
@@ -28630,7 +28633,7 @@
         <v>182</v>
       </c>
       <c r="P143" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28821,7 +28824,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q144">
         <v>9</v>
@@ -29203,7 +29206,7 @@
         <v>184</v>
       </c>
       <c r="P146" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29394,7 +29397,7 @@
         <v>137</v>
       </c>
       <c r="P147" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29675,7 +29678,7 @@
         <v>1.38</v>
       </c>
       <c r="AT148">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU148">
         <v>1.43</v>
@@ -29967,7 +29970,7 @@
         <v>186</v>
       </c>
       <c r="P150" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -30054,7 +30057,7 @@
         <v>1.14</v>
       </c>
       <c r="AS150">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT150">
         <v>1.15</v>
@@ -30349,7 +30352,7 @@
         <v>188</v>
       </c>
       <c r="P152" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -30540,7 +30543,7 @@
         <v>170</v>
       </c>
       <c r="P153" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q153">
         <v>9</v>
@@ -30731,7 +30734,7 @@
         <v>189</v>
       </c>
       <c r="P154" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -31113,7 +31116,7 @@
         <v>190</v>
       </c>
       <c r="P156" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -31495,7 +31498,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31686,7 +31689,7 @@
         <v>157</v>
       </c>
       <c r="P159" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -32641,7 +32644,7 @@
         <v>196</v>
       </c>
       <c r="P164" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q164">
         <v>3</v>
@@ -33214,7 +33217,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q167">
         <v>10</v>
@@ -33405,7 +33408,7 @@
         <v>86</v>
       </c>
       <c r="P168" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33596,7 +33599,7 @@
         <v>199</v>
       </c>
       <c r="P169" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33683,7 +33686,7 @@
         <v>2.13</v>
       </c>
       <c r="AS169">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT169">
         <v>1.69</v>
@@ -33978,7 +33981,7 @@
         <v>191</v>
       </c>
       <c r="P171" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -34360,7 +34363,7 @@
         <v>202</v>
       </c>
       <c r="P173" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34551,7 +34554,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q174">
         <v>8</v>
@@ -34933,7 +34936,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q176">
         <v>7</v>
@@ -35124,7 +35127,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q177">
         <v>7</v>
@@ -35315,7 +35318,7 @@
         <v>205</v>
       </c>
       <c r="P178" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q178">
         <v>6</v>
@@ -35506,7 +35509,7 @@
         <v>206</v>
       </c>
       <c r="P179" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q179">
         <v>5</v>
@@ -35596,7 +35599,7 @@
         <v>1.5</v>
       </c>
       <c r="AT179">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU179">
         <v>1.64</v>
@@ -36270,7 +36273,7 @@
         <v>86</v>
       </c>
       <c r="P183" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -36652,7 +36655,7 @@
         <v>86</v>
       </c>
       <c r="P185" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q185">
         <v>6</v>
@@ -36843,7 +36846,7 @@
         <v>144</v>
       </c>
       <c r="P186" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q186">
         <v>10</v>
@@ -37034,7 +37037,7 @@
         <v>86</v>
       </c>
       <c r="P187" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -37225,7 +37228,7 @@
         <v>209</v>
       </c>
       <c r="P188" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -37416,7 +37419,7 @@
         <v>131</v>
       </c>
       <c r="P189" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37607,7 +37610,7 @@
         <v>86</v>
       </c>
       <c r="P190" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q190">
         <v>2</v>
@@ -38180,7 +38183,7 @@
         <v>143</v>
       </c>
       <c r="P193" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38270,7 +38273,7 @@
         <v>0.92</v>
       </c>
       <c r="AT193">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU193">
         <v>1.34</v>
@@ -38371,7 +38374,7 @@
         <v>212</v>
       </c>
       <c r="P194" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q194">
         <v>5</v>
@@ -38562,7 +38565,7 @@
         <v>152</v>
       </c>
       <c r="P195" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -38944,7 +38947,7 @@
         <v>214</v>
       </c>
       <c r="P197" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q197">
         <v>2</v>
@@ -39031,7 +39034,7 @@
         <v>0.6</v>
       </c>
       <c r="AS197">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT197">
         <v>1.14</v>
@@ -39135,7 +39138,7 @@
         <v>86</v>
       </c>
       <c r="P198" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q198">
         <v>12</v>
@@ -39517,7 +39520,7 @@
         <v>216</v>
       </c>
       <c r="P200" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -39899,7 +39902,7 @@
         <v>86</v>
       </c>
       <c r="P202" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -40472,7 +40475,7 @@
         <v>86</v>
       </c>
       <c r="P205" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q205">
         <v>3</v>
@@ -40854,7 +40857,7 @@
         <v>157</v>
       </c>
       <c r="P207" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -41427,7 +41430,7 @@
         <v>220</v>
       </c>
       <c r="P210" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q210">
         <v>9</v>
@@ -41618,7 +41621,7 @@
         <v>86</v>
       </c>
       <c r="P211" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -41896,7 +41899,7 @@
         <v>1.36</v>
       </c>
       <c r="AS212">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT212">
         <v>1.29</v>
@@ -42000,7 +42003,7 @@
         <v>222</v>
       </c>
       <c r="P213" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42382,7 +42385,7 @@
         <v>86</v>
       </c>
       <c r="P215" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q215">
         <v>5</v>
@@ -42573,7 +42576,7 @@
         <v>224</v>
       </c>
       <c r="P216" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q216">
         <v>10</v>
@@ -42764,7 +42767,7 @@
         <v>86</v>
       </c>
       <c r="P217" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -43427,7 +43430,7 @@
         <v>1</v>
       </c>
       <c r="AT220">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU220">
         <v>1.49</v>
@@ -43719,7 +43722,7 @@
         <v>86</v>
       </c>
       <c r="P222" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q222">
         <v>1</v>
@@ -43910,7 +43913,7 @@
         <v>168</v>
       </c>
       <c r="P223" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q223">
         <v>1</v>
@@ -44483,7 +44486,7 @@
         <v>228</v>
       </c>
       <c r="P226" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q226">
         <v>6</v>
@@ -44674,7 +44677,7 @@
         <v>86</v>
       </c>
       <c r="P227" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q227">
         <v>2</v>
@@ -44865,7 +44868,7 @@
         <v>176</v>
       </c>
       <c r="P228" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q228">
         <v>13</v>
@@ -45056,7 +45059,7 @@
         <v>86</v>
       </c>
       <c r="P229" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45438,7 +45441,7 @@
         <v>230</v>
       </c>
       <c r="P231" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q231">
         <v>5</v>
@@ -45629,7 +45632,7 @@
         <v>86</v>
       </c>
       <c r="P232" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q232">
         <v>4</v>
@@ -46393,7 +46396,7 @@
         <v>233</v>
       </c>
       <c r="P236" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q236">
         <v>5</v>
@@ -46671,7 +46674,7 @@
         <v>2</v>
       </c>
       <c r="AS237">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT237">
         <v>1.71</v>
@@ -46775,7 +46778,7 @@
         <v>86</v>
       </c>
       <c r="P238" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q238">
         <v>4</v>
@@ -47157,7 +47160,7 @@
         <v>235</v>
       </c>
       <c r="P240" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -47348,7 +47351,7 @@
         <v>236</v>
       </c>
       <c r="P241" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -47539,7 +47542,7 @@
         <v>86</v>
       </c>
       <c r="P242" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q242">
         <v>8</v>
@@ -48112,7 +48115,7 @@
         <v>238</v>
       </c>
       <c r="P245" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q245">
         <v>11</v>
@@ -48584,7 +48587,7 @@
         <v>0.31</v>
       </c>
       <c r="AT247">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU247">
         <v>1.06</v>
@@ -49067,7 +49070,7 @@
         <v>241</v>
       </c>
       <c r="P250" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q250">
         <v>4</v>
@@ -49640,7 +49643,7 @@
         <v>86</v>
       </c>
       <c r="P253" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q253">
         <v>11</v>
@@ -50213,7 +50216,7 @@
         <v>86</v>
       </c>
       <c r="P256" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q256">
         <v>9</v>
@@ -50404,7 +50407,7 @@
         <v>86</v>
       </c>
       <c r="P257" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q257">
         <v>1</v>
@@ -50786,7 +50789,7 @@
         <v>245</v>
       </c>
       <c r="P259" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q259">
         <v>7</v>
@@ -50977,7 +50980,7 @@
         <v>246</v>
       </c>
       <c r="P260" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q260">
         <v>11</v>
@@ -51119,6 +51122,197 @@
       </c>
       <c r="BK260">
         <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:63">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>2638252</v>
+      </c>
+      <c r="C261" t="s">
+        <v>63</v>
+      </c>
+      <c r="D261" t="s">
+        <v>64</v>
+      </c>
+      <c r="E261" s="2">
+        <v>44998.69791666666</v>
+      </c>
+      <c r="F261">
+        <v>26</v>
+      </c>
+      <c r="G261" t="s">
+        <v>65</v>
+      </c>
+      <c r="H261" t="s">
+        <v>71</v>
+      </c>
+      <c r="I261">
+        <v>1</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>1</v>
+      </c>
+      <c r="L261">
+        <v>1</v>
+      </c>
+      <c r="M261">
+        <v>1</v>
+      </c>
+      <c r="N261">
+        <v>2</v>
+      </c>
+      <c r="O261" t="s">
+        <v>247</v>
+      </c>
+      <c r="P261" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q261">
+        <v>6</v>
+      </c>
+      <c r="R261">
+        <v>4</v>
+      </c>
+      <c r="S261">
+        <v>10</v>
+      </c>
+      <c r="T261">
+        <v>1.73</v>
+      </c>
+      <c r="U261">
+        <v>2.6</v>
+      </c>
+      <c r="V261">
+        <v>9.5</v>
+      </c>
+      <c r="W261">
+        <v>1.3</v>
+      </c>
+      <c r="X261">
+        <v>3.4</v>
+      </c>
+      <c r="Y261">
+        <v>2.38</v>
+      </c>
+      <c r="Z261">
+        <v>1.53</v>
+      </c>
+      <c r="AA261">
+        <v>6</v>
+      </c>
+      <c r="AB261">
+        <v>1.13</v>
+      </c>
+      <c r="AC261">
+        <v>1.21</v>
+      </c>
+      <c r="AD261">
+        <v>5.95</v>
+      </c>
+      <c r="AE261">
+        <v>16.5</v>
+      </c>
+      <c r="AF261">
+        <v>1.03</v>
+      </c>
+      <c r="AG261">
+        <v>17</v>
+      </c>
+      <c r="AH261">
+        <v>1.2</v>
+      </c>
+      <c r="AI261">
+        <v>4.5</v>
+      </c>
+      <c r="AJ261">
+        <v>1.88</v>
+      </c>
+      <c r="AK261">
+        <v>1.92</v>
+      </c>
+      <c r="AL261">
+        <v>2.2</v>
+      </c>
+      <c r="AM261">
+        <v>1.62</v>
+      </c>
+      <c r="AN261">
+        <v>1.01</v>
+      </c>
+      <c r="AO261">
+        <v>1.1</v>
+      </c>
+      <c r="AP261">
+        <v>4</v>
+      </c>
+      <c r="AQ261">
+        <v>2.33</v>
+      </c>
+      <c r="AR261">
+        <v>0.83</v>
+      </c>
+      <c r="AS261">
+        <v>2.23</v>
+      </c>
+      <c r="AT261">
+        <v>0.85</v>
+      </c>
+      <c r="AU261">
+        <v>1.83</v>
+      </c>
+      <c r="AV261">
+        <v>1.21</v>
+      </c>
+      <c r="AW261">
+        <v>3.04</v>
+      </c>
+      <c r="AX261">
+        <v>1.28</v>
+      </c>
+      <c r="AY261">
+        <v>11.5</v>
+      </c>
+      <c r="AZ261">
+        <v>4.55</v>
+      </c>
+      <c r="BA261">
+        <v>1.29</v>
+      </c>
+      <c r="BB261">
+        <v>1.57</v>
+      </c>
+      <c r="BC261">
+        <v>2.01</v>
+      </c>
+      <c r="BD261">
+        <v>2.62</v>
+      </c>
+      <c r="BE261">
+        <v>3.56</v>
+      </c>
+      <c r="BF261">
+        <v>4</v>
+      </c>
+      <c r="BG261">
+        <v>5</v>
+      </c>
+      <c r="BH261">
+        <v>21</v>
+      </c>
+      <c r="BI261">
+        <v>3</v>
+      </c>
+      <c r="BJ261">
+        <v>25</v>
+      </c>
+      <c r="BK261">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -50386,7 +50386,7 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>2638247</v>
+        <v>2638249</v>
       </c>
       <c r="C257" t="s">
         <v>63</v>
@@ -50401,175 +50401,175 @@
         <v>26</v>
       </c>
       <c r="G257" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H257" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I257">
         <v>0</v>
       </c>
       <c r="J257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N257">
         <v>2</v>
       </c>
       <c r="O257" t="s">
-        <v>86</v>
+        <v>219</v>
       </c>
       <c r="P257" t="s">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="Q257">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R257">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S257">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T257">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="U257">
+        <v>2.05</v>
+      </c>
+      <c r="V257">
+        <v>3.6</v>
+      </c>
+      <c r="W257">
+        <v>1.5</v>
+      </c>
+      <c r="X257">
+        <v>2.5</v>
+      </c>
+      <c r="Y257">
+        <v>3.4</v>
+      </c>
+      <c r="Z257">
+        <v>1.3</v>
+      </c>
+      <c r="AA257">
+        <v>10</v>
+      </c>
+      <c r="AB257">
+        <v>1.06</v>
+      </c>
+      <c r="AC257">
+        <v>2.41</v>
+      </c>
+      <c r="AD257">
+        <v>2.94</v>
+      </c>
+      <c r="AE257">
+        <v>2.68</v>
+      </c>
+      <c r="AF257">
+        <v>1.08</v>
+      </c>
+      <c r="AG257">
+        <v>7.25</v>
+      </c>
+      <c r="AH257">
+        <v>1.41</v>
+      </c>
+      <c r="AI257">
+        <v>2.7</v>
+      </c>
+      <c r="AJ257">
         <v>2.2</v>
       </c>
-      <c r="V257">
-        <v>2.5</v>
-      </c>
-      <c r="W257">
-        <v>1.4</v>
-      </c>
-      <c r="X257">
-        <v>2.75</v>
-      </c>
-      <c r="Y257">
-        <v>3</v>
-      </c>
-      <c r="Z257">
-        <v>1.36</v>
-      </c>
-      <c r="AA257">
-        <v>8</v>
-      </c>
-      <c r="AB257">
-        <v>1.08</v>
-      </c>
-      <c r="AC257">
-        <v>4</v>
-      </c>
-      <c r="AD257">
-        <v>3.25</v>
-      </c>
-      <c r="AE257">
-        <v>1.75</v>
-      </c>
-      <c r="AF257">
-        <v>1.06</v>
-      </c>
-      <c r="AG257">
-        <v>8.75</v>
-      </c>
-      <c r="AH257">
-        <v>1.32</v>
-      </c>
-      <c r="AI257">
-        <v>3.2</v>
-      </c>
-      <c r="AJ257">
-        <v>2.02</v>
-      </c>
       <c r="AK257">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="AL257">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AM257">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AN257">
-        <v>1.95</v>
+        <v>1.37</v>
       </c>
       <c r="AO257">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="AP257">
-        <v>1.21</v>
+        <v>1.53</v>
       </c>
       <c r="AQ257">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR257">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AS257">
-        <v>0.46</v>
+        <v>1</v>
       </c>
       <c r="AT257">
         <v>1.15</v>
       </c>
       <c r="AU257">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="AV257">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AW257">
-        <v>3.14</v>
+        <v>2.8</v>
       </c>
       <c r="AX257">
-        <v>3.26</v>
+        <v>1.83</v>
       </c>
       <c r="AY257">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="AZ257">
-        <v>1.52</v>
+        <v>2.43</v>
       </c>
       <c r="BA257">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="BB257">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="BC257">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="BD257">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="BE257">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="BF257">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG257">
+        <v>4</v>
+      </c>
+      <c r="BH257">
+        <v>1</v>
+      </c>
+      <c r="BI257">
         <v>6</v>
       </c>
-      <c r="BH257">
-        <v>11</v>
-      </c>
-      <c r="BI257">
-        <v>5</v>
-      </c>
       <c r="BJ257">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="BK257">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" spans="1:63">
@@ -50577,7 +50577,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>2638249</v>
+        <v>2638247</v>
       </c>
       <c r="C258" t="s">
         <v>63</v>
@@ -50592,175 +50592,175 @@
         <v>26</v>
       </c>
       <c r="G258" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H258" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I258">
         <v>0</v>
       </c>
       <c r="J258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N258">
         <v>2</v>
       </c>
       <c r="O258" t="s">
-        <v>219</v>
+        <v>86</v>
       </c>
       <c r="P258" t="s">
-        <v>131</v>
+        <v>262</v>
       </c>
       <c r="Q258">
+        <v>1</v>
+      </c>
+      <c r="R258">
+        <v>6</v>
+      </c>
+      <c r="S258">
         <v>7</v>
       </c>
-      <c r="R258">
-        <v>2</v>
-      </c>
-      <c r="S258">
-        <v>9</v>
-      </c>
       <c r="T258">
+        <v>4.75</v>
+      </c>
+      <c r="U258">
+        <v>2.2</v>
+      </c>
+      <c r="V258">
+        <v>2.5</v>
+      </c>
+      <c r="W258">
+        <v>1.4</v>
+      </c>
+      <c r="X258">
+        <v>2.75</v>
+      </c>
+      <c r="Y258">
+        <v>3</v>
+      </c>
+      <c r="Z258">
+        <v>1.36</v>
+      </c>
+      <c r="AA258">
+        <v>8</v>
+      </c>
+      <c r="AB258">
+        <v>1.08</v>
+      </c>
+      <c r="AC258">
+        <v>4</v>
+      </c>
+      <c r="AD258">
         <v>3.25</v>
       </c>
-      <c r="U258">
-        <v>2.05</v>
-      </c>
-      <c r="V258">
-        <v>3.6</v>
-      </c>
-      <c r="W258">
-        <v>1.5</v>
-      </c>
-      <c r="X258">
-        <v>2.5</v>
-      </c>
-      <c r="Y258">
-        <v>3.4</v>
-      </c>
-      <c r="Z258">
-        <v>1.3</v>
-      </c>
-      <c r="AA258">
-        <v>10</v>
-      </c>
-      <c r="AB258">
+      <c r="AE258">
+        <v>1.75</v>
+      </c>
+      <c r="AF258">
         <v>1.06</v>
       </c>
-      <c r="AC258">
-        <v>2.41</v>
-      </c>
-      <c r="AD258">
-        <v>2.94</v>
-      </c>
-      <c r="AE258">
-        <v>2.68</v>
-      </c>
-      <c r="AF258">
-        <v>1.08</v>
-      </c>
       <c r="AG258">
-        <v>7.25</v>
+        <v>8.75</v>
       </c>
       <c r="AH258">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="AI258">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="AJ258">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="AK258">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="AL258">
+        <v>1.91</v>
+      </c>
+      <c r="AM258">
+        <v>1.91</v>
+      </c>
+      <c r="AN258">
         <v>1.95</v>
       </c>
-      <c r="AM258">
-        <v>1.8</v>
-      </c>
-      <c r="AN258">
-        <v>1.37</v>
-      </c>
       <c r="AO258">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AP258">
-        <v>1.53</v>
+        <v>1.21</v>
       </c>
       <c r="AQ258">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR258">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AS258">
-        <v>1</v>
+        <v>0.46</v>
       </c>
       <c r="AT258">
         <v>1.15</v>
       </c>
       <c r="AU258">
+        <v>1.49</v>
+      </c>
+      <c r="AV258">
+        <v>1.65</v>
+      </c>
+      <c r="AW258">
+        <v>3.14</v>
+      </c>
+      <c r="AX258">
+        <v>3.26</v>
+      </c>
+      <c r="AY258">
+        <v>8.1</v>
+      </c>
+      <c r="AZ258">
         <v>1.52</v>
       </c>
-      <c r="AV258">
-        <v>1.28</v>
-      </c>
-      <c r="AW258">
-        <v>2.8</v>
-      </c>
-      <c r="AX258">
-        <v>1.83</v>
-      </c>
-      <c r="AY258">
-        <v>7.7</v>
-      </c>
-      <c r="AZ258">
-        <v>2.43</v>
-      </c>
       <c r="BA258">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="BB258">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="BC258">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="BD258">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="BE258">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="BF258">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG258">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH258">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="BI258">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ258">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="BK258">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="259" spans="1:63">

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK271"/>
+  <dimension ref="A1:BK281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.23</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0.5</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT9" t="n">
         <v>0.86</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT11" t="n">
         <v>1.14</v>
@@ -2933,7 +2933,7 @@
         <v>1.46</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.46</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT14" t="n">
         <v>0.62</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AT17" t="n">
         <v>1.15</v>
@@ -4151,7 +4151,7 @@
         <v>1.62</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT20" t="n">
         <v>0.5</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU22" t="n">
         <v>1.61</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT24" t="n">
         <v>1.57</v>
@@ -5569,10 +5569,10 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT27" t="n">
         <v>1.14</v>
@@ -6181,7 +6181,7 @@
         <v>1</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU28" t="n">
         <v>0.91</v>
@@ -6384,7 +6384,7 @@
         <v>1.14</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU29" t="n">
         <v>1.46</v>
@@ -6990,10 +6990,10 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU32" t="n">
         <v>1.42</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT33" t="n">
         <v>0.5</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT34" t="n">
         <v>1.15</v>
@@ -7602,7 +7602,7 @@
         <v>1.46</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU35" t="n">
         <v>1.64</v>
@@ -7805,7 +7805,7 @@
         <v>0.5</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU36" t="n">
         <v>1.22</v>
@@ -8005,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU37" t="n">
         <v>0.67</v>
@@ -8208,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU38" t="n">
         <v>2.3</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT39" t="n">
         <v>0.62</v>
@@ -8614,10 +8614,10 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU40" t="n">
         <v>1.94</v>
@@ -8820,7 +8820,7 @@
         <v>1.62</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU41" t="n">
         <v>1.16</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT45" t="n">
         <v>1.14</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT46" t="n">
         <v>1.08</v>
@@ -10038,7 +10038,7 @@
         <v>1</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU47" t="n">
         <v>1.14</v>
@@ -10441,10 +10441,10 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU49" t="n">
         <v>1.56</v>
@@ -10850,7 +10850,7 @@
         <v>1.46</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU51" t="n">
         <v>1.16</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AT52" t="n">
         <v>0.62</v>
@@ -11253,10 +11253,10 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU53" t="n">
         <v>2.16</v>
@@ -11459,7 +11459,7 @@
         <v>0.5</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU54" t="n">
         <v>1.28</v>
@@ -11862,10 +11862,10 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU56" t="n">
         <v>1.65</v>
@@ -12268,10 +12268,10 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU58" t="n">
         <v>1.19</v>
@@ -12474,7 +12474,7 @@
         <v>1.93</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU59" t="n">
         <v>1.41</v>
@@ -12674,10 +12674,10 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU60" t="n">
         <v>1.64</v>
@@ -12877,7 +12877,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT61" t="n">
         <v>1.57</v>
@@ -13083,7 +13083,7 @@
         <v>1.14</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU62" t="n">
         <v>1.66</v>
@@ -13283,7 +13283,7 @@
         <v>0.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT63" t="n">
         <v>0.86</v>
@@ -13486,10 +13486,10 @@
         <v>0</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU64" t="n">
         <v>1.4</v>
@@ -14098,7 +14098,7 @@
         <v>1.57</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU67" t="n">
         <v>2.32</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT68" t="n">
         <v>1.77</v>
@@ -14501,10 +14501,10 @@
         <v>1</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU69" t="n">
         <v>1.53</v>
@@ -14704,10 +14704,10 @@
         <v>3</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU70" t="n">
         <v>2.3</v>
@@ -15110,10 +15110,10 @@
         <v>1.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU72" t="n">
         <v>2.53</v>
@@ -15313,7 +15313,7 @@
         <v>1.75</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT73" t="n">
         <v>1.57</v>
@@ -15516,10 +15516,10 @@
         <v>1.67</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU74" t="n">
         <v>1.52</v>
@@ -16328,10 +16328,10 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU78" t="n">
         <v>1.04</v>
@@ -16534,7 +16534,7 @@
         <v>1.62</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU79" t="n">
         <v>1.56</v>
@@ -16734,7 +16734,7 @@
         <v>0.33</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT80" t="n">
         <v>1.08</v>
@@ -16940,7 +16940,7 @@
         <v>1</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU81" t="n">
         <v>1.47</v>
@@ -17140,7 +17140,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT82" t="n">
         <v>1.31</v>
@@ -17546,10 +17546,10 @@
         <v>0</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU84" t="n">
         <v>1.67</v>
@@ -17955,7 +17955,7 @@
         <v>1.46</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU86" t="n">
         <v>1.64</v>
@@ -18158,7 +18158,7 @@
         <v>1.14</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU87" t="n">
         <v>1.68</v>
@@ -18358,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT88" t="n">
         <v>0.62</v>
@@ -18561,7 +18561,7 @@
         <v>2.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT89" t="n">
         <v>2.64</v>
@@ -18764,10 +18764,10 @@
         <v>1</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU90" t="n">
         <v>2.23</v>
@@ -18970,7 +18970,7 @@
         <v>1.57</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU91" t="n">
         <v>2.24</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT92" t="n">
         <v>1.15</v>
@@ -19779,10 +19779,10 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU95" t="n">
         <v>1.95</v>
@@ -19982,7 +19982,7 @@
         <v>0.4</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT96" t="n">
         <v>0.5</v>
@@ -20188,7 +20188,7 @@
         <v>1.93</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU97" t="n">
         <v>1.53</v>
@@ -20388,7 +20388,7 @@
         <v>0.25</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AT98" t="n">
         <v>1.08</v>
@@ -20594,7 +20594,7 @@
         <v>1</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU99" t="n">
         <v>1.33</v>
@@ -21000,7 +21000,7 @@
         <v>0.92</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU101" t="n">
         <v>1.33</v>
@@ -21200,7 +21200,7 @@
         <v>1.2</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT102" t="n">
         <v>0.86</v>
@@ -22015,7 +22015,7 @@
         <v>1.46</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU106" t="n">
         <v>1.57</v>
@@ -22215,10 +22215,10 @@
         <v>0.8</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU107" t="n">
         <v>1.57</v>
@@ -22421,7 +22421,7 @@
         <v>1.62</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU108" t="n">
         <v>1.62</v>
@@ -22621,7 +22621,7 @@
         <v>2.6</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT109" t="n">
         <v>2.64</v>
@@ -22824,10 +22824,10 @@
         <v>0.25</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU110" t="n">
         <v>1.57</v>
@@ -23027,10 +23027,10 @@
         <v>0.4</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU111" t="n">
         <v>1.38</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AT112" t="n">
         <v>1.14</v>
@@ -23636,10 +23636,10 @@
         <v>0.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU114" t="n">
         <v>1.95</v>
@@ -23839,10 +23839,10 @@
         <v>2.6</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU115" t="n">
         <v>1.57</v>
@@ -24042,10 +24042,10 @@
         <v>0.4</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU116" t="n">
         <v>1.56</v>
@@ -24245,10 +24245,10 @@
         <v>2</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU117" t="n">
         <v>1.68</v>
@@ -24451,7 +24451,7 @@
         <v>1.93</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU118" t="n">
         <v>1.46</v>
@@ -24654,7 +24654,7 @@
         <v>1.46</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU119" t="n">
         <v>1.52</v>
@@ -25057,7 +25057,7 @@
         <v>0.2</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT121" t="n">
         <v>1.08</v>
@@ -25263,7 +25263,7 @@
         <v>1.46</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU122" t="n">
         <v>1.61</v>
@@ -25666,7 +25666,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT124" t="n">
         <v>1.14</v>
@@ -26275,10 +26275,10 @@
         <v>1.5</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU127" t="n">
         <v>1.55</v>
@@ -26481,7 +26481,7 @@
         <v>0.5</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU128" t="n">
         <v>1.14</v>
@@ -26681,10 +26681,10 @@
         <v>0.33</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU129" t="n">
         <v>1.43</v>
@@ -26884,10 +26884,10 @@
         <v>2.2</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU130" t="n">
         <v>1.97</v>
@@ -27087,7 +27087,7 @@
         <v>1.5</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT131" t="n">
         <v>1.31</v>
@@ -27290,10 +27290,10 @@
         <v>1.83</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU132" t="n">
         <v>1.55</v>
@@ -27493,7 +27493,7 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AT133" t="n">
         <v>0.86</v>
@@ -27696,10 +27696,10 @@
         <v>1.83</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU134" t="n">
         <v>1.66</v>
@@ -27899,7 +27899,7 @@
         <v>2.29</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT135" t="n">
         <v>1.57</v>
@@ -28105,7 +28105,7 @@
         <v>0.92</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU136" t="n">
         <v>1.16</v>
@@ -28308,7 +28308,7 @@
         <v>1.46</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU137" t="n">
         <v>1.46</v>
@@ -28508,7 +28508,7 @@
         <v>0.67</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT138" t="n">
         <v>1.08</v>
@@ -28714,7 +28714,7 @@
         <v>1.57</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU139" t="n">
         <v>2.15</v>
@@ -29320,7 +29320,7 @@
         <v>0.57</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT142" t="n">
         <v>0.5</v>
@@ -29523,10 +29523,10 @@
         <v>1.71</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU143" t="n">
         <v>2.45</v>
@@ -29729,7 +29729,7 @@
         <v>0.5</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU144" t="n">
         <v>1.17</v>
@@ -29929,7 +29929,7 @@
         <v>0.71</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT145" t="n">
         <v>1.14</v>
@@ -30538,10 +30538,10 @@
         <v>0.86</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU148" t="n">
         <v>1.43</v>
@@ -30741,10 +30741,10 @@
         <v>1.29</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU149" t="n">
         <v>1.86</v>
@@ -30947,7 +30947,7 @@
         <v>2.23</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU150" t="n">
         <v>2.09</v>
@@ -31147,10 +31147,10 @@
         <v>2.33</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU151" t="n">
         <v>1.89</v>
@@ -31353,7 +31353,7 @@
         <v>1.14</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU152" t="n">
         <v>1.58</v>
@@ -31553,10 +31553,10 @@
         <v>0.57</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU153" t="n">
         <v>1.46</v>
@@ -31756,10 +31756,10 @@
         <v>2.29</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU154" t="n">
         <v>1.64</v>
@@ -31962,7 +31962,7 @@
         <v>1.46</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU155" t="n">
         <v>1.43</v>
@@ -32165,7 +32165,7 @@
         <v>0.92</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU156" t="n">
         <v>1.24</v>
@@ -32365,7 +32365,7 @@
         <v>0.57</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT157" t="n">
         <v>1.08</v>
@@ -32568,7 +32568,7 @@
         <v>1.57</v>
       </c>
       <c r="AS158" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT158" t="n">
         <v>1.77</v>
@@ -32974,7 +32974,7 @@
         <v>2.71</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT160" t="n">
         <v>2.64</v>
@@ -33583,10 +33583,10 @@
         <v>1.5</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU163" t="n">
         <v>1.89</v>
@@ -33786,7 +33786,7 @@
         <v>1.5</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT164" t="n">
         <v>1.31</v>
@@ -33992,7 +33992,7 @@
         <v>1.14</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU165" t="n">
         <v>1.5</v>
@@ -34192,10 +34192,10 @@
         <v>1</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU166" t="n">
         <v>1.58</v>
@@ -35207,10 +35207,10 @@
         <v>2.13</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU171" t="n">
         <v>1.4</v>
@@ -35410,7 +35410,7 @@
         <v>1.75</v>
       </c>
       <c r="AS172" t="n">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AT172" t="n">
         <v>1.77</v>
@@ -35613,7 +35613,7 @@
         <v>0.63</v>
       </c>
       <c r="AS173" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT173" t="n">
         <v>1.15</v>
@@ -35819,7 +35819,7 @@
         <v>0.92</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU174" t="n">
         <v>1.28</v>
@@ -36019,10 +36019,10 @@
         <v>0.38</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU175" t="n">
         <v>1.82</v>
@@ -36222,10 +36222,10 @@
         <v>1.75</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU176" t="n">
         <v>1.5</v>
@@ -36834,7 +36834,7 @@
         <v>1.62</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU179" t="n">
         <v>1.64</v>
@@ -37034,10 +37034,10 @@
         <v>1</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU180" t="n">
         <v>1.77</v>
@@ -37237,10 +37237,10 @@
         <v>0.88</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU181" t="n">
         <v>1.6</v>
@@ -37443,7 +37443,7 @@
         <v>1</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU182" t="n">
         <v>1.47</v>
@@ -37849,7 +37849,7 @@
         <v>1.57</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU184" t="n">
         <v>2.15</v>
@@ -38052,7 +38052,7 @@
         <v>0.5</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU185" t="n">
         <v>1.13</v>
@@ -38252,7 +38252,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT186" t="n">
         <v>1.14</v>
@@ -38455,7 +38455,7 @@
         <v>2</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT187" t="n">
         <v>1.57</v>
@@ -38658,10 +38658,10 @@
         <v>2.22</v>
       </c>
       <c r="AS188" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU188" t="n">
         <v>1.87</v>
@@ -38861,7 +38861,7 @@
         <v>0.44</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT189" t="n">
         <v>0.5</v>
@@ -39064,7 +39064,7 @@
         <v>0.89</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT190" t="n">
         <v>0.86</v>
@@ -39270,7 +39270,7 @@
         <v>1.93</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU191" t="n">
         <v>1.54</v>
@@ -39470,7 +39470,7 @@
         <v>0.67</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT192" t="n">
         <v>0.62</v>
@@ -39676,7 +39676,7 @@
         <v>0.92</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU193" t="n">
         <v>1.34</v>
@@ -39876,10 +39876,10 @@
         <v>1.4</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU194" t="n">
         <v>1.6</v>
@@ -40079,7 +40079,7 @@
         <v>1.44</v>
       </c>
       <c r="AS195" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT195" t="n">
         <v>1.31</v>
@@ -40285,7 +40285,7 @@
         <v>1.62</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU196" t="n">
         <v>1.72</v>
@@ -40688,7 +40688,7 @@
         <v>0.89</v>
       </c>
       <c r="AS198" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT198" t="n">
         <v>1.15</v>
@@ -40894,7 +40894,7 @@
         <v>1.93</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU199" t="n">
         <v>1.53</v>
@@ -41094,7 +41094,7 @@
         <v>2.1</v>
       </c>
       <c r="AS200" t="n">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AT200" t="n">
         <v>1.57</v>
@@ -41300,7 +41300,7 @@
         <v>1.46</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU201" t="n">
         <v>1.79</v>
@@ -41500,10 +41500,10 @@
         <v>0.9</v>
       </c>
       <c r="AS202" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU202" t="n">
         <v>1.57</v>
@@ -41703,7 +41703,7 @@
         <v>1.1</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT203" t="n">
         <v>0.86</v>
@@ -41906,10 +41906,10 @@
         <v>2.1</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU204" t="n">
         <v>1.47</v>
@@ -42109,7 +42109,7 @@
         <v>2.5</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT205" t="n">
         <v>2.64</v>
@@ -42315,7 +42315,7 @@
         <v>1.46</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU206" t="n">
         <v>1.46</v>
@@ -42718,10 +42718,10 @@
         <v>1.6</v>
       </c>
       <c r="AS208" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU208" t="n">
         <v>1.68</v>
@@ -42924,7 +42924,7 @@
         <v>1</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU209" t="n">
         <v>1.46</v>
@@ -43124,10 +43124,10 @@
         <v>0.7</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU210" t="n">
         <v>1.58</v>
@@ -43533,7 +43533,7 @@
         <v>2.23</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU212" t="n">
         <v>1.94</v>
@@ -43733,7 +43733,7 @@
         <v>0.6</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT213" t="n">
         <v>0.62</v>
@@ -44142,7 +44142,7 @@
         <v>1.93</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU215" t="n">
         <v>1.5</v>
@@ -44545,7 +44545,7 @@
         <v>1.1</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT217" t="n">
         <v>1.15</v>
@@ -44748,10 +44748,10 @@
         <v>0.9</v>
       </c>
       <c r="AS218" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU218" t="n">
         <v>1.96</v>
@@ -44951,7 +44951,7 @@
         <v>0.5</v>
       </c>
       <c r="AS219" t="n">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AT219" t="n">
         <v>0.5</v>
@@ -45157,7 +45157,7 @@
         <v>1</v>
       </c>
       <c r="AT220" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU220" t="n">
         <v>1.49</v>
@@ -45560,7 +45560,7 @@
         <v>2.55</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT222" t="n">
         <v>2.64</v>
@@ -45966,10 +45966,10 @@
         <v>1.45</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU224" t="n">
         <v>1.64</v>
@@ -46169,10 +46169,10 @@
         <v>1.36</v>
       </c>
       <c r="AS225" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU225" t="n">
         <v>1.73</v>
@@ -46375,7 +46375,7 @@
         <v>1.62</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU226" t="n">
         <v>1.78</v>
@@ -46578,7 +46578,7 @@
         <v>1.14</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU227" t="n">
         <v>1.32</v>
@@ -46981,7 +46981,7 @@
         <v>1.7</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT229" t="n">
         <v>1.77</v>
@@ -47184,10 +47184,10 @@
         <v>0.4</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT230" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU230" t="n">
         <v>1.72</v>
@@ -47590,7 +47590,7 @@
         <v>2.58</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT232" t="n">
         <v>2.64</v>
@@ -47996,7 +47996,7 @@
         <v>1.55</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT234" t="n">
         <v>1.31</v>
@@ -48608,7 +48608,7 @@
         <v>2.23</v>
       </c>
       <c r="AT237" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU237" t="n">
         <v>1.86</v>
@@ -48811,7 +48811,7 @@
         <v>1</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU238" t="n">
         <v>1.52</v>
@@ -49014,7 +49014,7 @@
         <v>1.93</v>
       </c>
       <c r="AT239" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU239" t="n">
         <v>1.52</v>
@@ -49214,7 +49214,7 @@
         <v>1.83</v>
       </c>
       <c r="AS240" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT240" t="n">
         <v>1.57</v>
@@ -49417,10 +49417,10 @@
         <v>1.25</v>
       </c>
       <c r="AS241" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU241" t="n">
         <v>1.9</v>
@@ -49620,10 +49620,10 @@
         <v>1.91</v>
       </c>
       <c r="AS242" t="n">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AT242" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU242" t="n">
         <v>2.2</v>
@@ -49823,7 +49823,7 @@
         <v>1</v>
       </c>
       <c r="AS243" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT243" t="n">
         <v>0.86</v>
@@ -50029,7 +50029,7 @@
         <v>1.62</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU244" t="n">
         <v>1.85</v>
@@ -50232,7 +50232,7 @@
         <v>1.57</v>
       </c>
       <c r="AT245" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU245" t="n">
         <v>2.07</v>
@@ -50432,10 +50432,10 @@
         <v>0.36</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT246" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU246" t="n">
         <v>1.47</v>
@@ -50638,7 +50638,7 @@
         <v>0.5</v>
       </c>
       <c r="AT247" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU247" t="n">
         <v>1.06</v>
@@ -50838,10 +50838,10 @@
         <v>1.25</v>
       </c>
       <c r="AS248" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT248" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU248" t="n">
         <v>1.74</v>
@@ -51041,7 +51041,7 @@
         <v>1.82</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT249" t="n">
         <v>1.77</v>
@@ -51244,7 +51244,7 @@
         <v>0.5</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT250" t="n">
         <v>0.5</v>
@@ -51650,7 +51650,7 @@
         <v>1.42</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT252" t="n">
         <v>1.31</v>
@@ -51853,10 +51853,10 @@
         <v>1.23</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT253" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU253" t="n">
         <v>1.62</v>
@@ -52056,10 +52056,10 @@
         <v>1.85</v>
       </c>
       <c r="AS254" t="n">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AT254" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU254" t="n">
         <v>2.11</v>
@@ -52259,10 +52259,10 @@
         <v>2</v>
       </c>
       <c r="AS255" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT255" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU255" t="n">
         <v>1.58</v>
@@ -52465,7 +52465,7 @@
         <v>0.92</v>
       </c>
       <c r="AT256" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU256" t="n">
         <v>1.41</v>
@@ -52868,10 +52868,10 @@
         <v>1</v>
       </c>
       <c r="AS258" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT258" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU258" t="n">
         <v>1.49</v>
@@ -53071,7 +53071,7 @@
         <v>1</v>
       </c>
       <c r="AS259" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT259" t="n">
         <v>1.14</v>
@@ -53274,10 +53274,10 @@
         <v>0.67</v>
       </c>
       <c r="AS260" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT260" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU260" t="n">
         <v>1.87</v>
@@ -53480,7 +53480,7 @@
         <v>2.23</v>
       </c>
       <c r="AT261" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU261" t="n">
         <v>1.83</v>
@@ -53680,7 +53680,7 @@
         <v>0.67</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT262" t="n">
         <v>0.62</v>
@@ -54086,7 +54086,7 @@
         <v>0.46</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT264" t="n">
         <v>0.5</v>
@@ -54495,7 +54495,7 @@
         <v>1.46</v>
       </c>
       <c r="AT266" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU266" t="n">
         <v>1.91</v>
@@ -54698,7 +54698,7 @@
         <v>0.5</v>
       </c>
       <c r="AT267" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU267" t="n">
         <v>1.06</v>
@@ -55104,7 +55104,7 @@
         <v>1.57</v>
       </c>
       <c r="AT269" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU269" t="n">
         <v>2.08</v>
@@ -55507,7 +55507,7 @@
         <v>1.67</v>
       </c>
       <c r="AS271" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT271" t="n">
         <v>1.77</v>
@@ -55562,6 +55562,2036 @@
       </c>
       <c r="BK271" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>2638270</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="n">
+        <v>45017.41666666666</v>
+      </c>
+      <c r="F272" t="n">
+        <v>28</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="n">
+        <v>1</v>
+      </c>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="n">
+        <v>3</v>
+      </c>
+      <c r="N272" t="n">
+        <v>4</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>['44', '72', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q272" t="n">
+        <v>0</v>
+      </c>
+      <c r="R272" t="n">
+        <v>6</v>
+      </c>
+      <c r="S272" t="n">
+        <v>6</v>
+      </c>
+      <c r="T272" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U272" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V272" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W272" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X272" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE272" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH272" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ272" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AL272" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM272" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN272" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AO272" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP272" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ272" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AR272" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS272" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AT272" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU272" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV272" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW272" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX272" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AY272" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ272" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BA272" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB272" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC272" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD272" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE272" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF272" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG272" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH272" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI272" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ272" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK272" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="n">
+        <v>2638271</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="n">
+        <v>45017.54166666666</v>
+      </c>
+      <c r="F273" t="n">
+        <v>28</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M273" t="n">
+        <v>1</v>
+      </c>
+      <c r="N273" t="n">
+        <v>1</v>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="Q273" t="n">
+        <v>10</v>
+      </c>
+      <c r="R273" t="n">
+        <v>8</v>
+      </c>
+      <c r="S273" t="n">
+        <v>18</v>
+      </c>
+      <c r="T273" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U273" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V273" t="n">
+        <v>5</v>
+      </c>
+      <c r="W273" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X273" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC273" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD273" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE273" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF273" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG273" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH273" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI273" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ273" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK273" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL273" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM273" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN273" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO273" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP273" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ273" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AR273" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS273" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT273" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU273" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV273" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW273" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX273" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY273" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ273" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BA273" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB273" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC273" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD273" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE273" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF273" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG273" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH273" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI273" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ273" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK273" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="n">
+        <v>2638272</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E274" s="2" t="n">
+        <v>45017.65625</v>
+      </c>
+      <c r="F274" t="n">
+        <v>28</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0</v>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N274" t="n">
+        <v>1</v>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q274" t="n">
+        <v>3</v>
+      </c>
+      <c r="R274" t="n">
+        <v>5</v>
+      </c>
+      <c r="S274" t="n">
+        <v>8</v>
+      </c>
+      <c r="T274" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U274" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V274" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W274" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X274" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC274" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD274" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE274" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF274" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG274" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH274" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI274" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ274" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK274" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL274" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM274" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN274" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO274" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP274" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ274" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AR274" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS274" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT274" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AU274" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV274" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW274" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX274" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY274" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ274" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BA274" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB274" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC274" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD274" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE274" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF274" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG274" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH274" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI274" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ274" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK274" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="n">
+        <v>2638266</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E275" s="2" t="n">
+        <v>45018.3125</v>
+      </c>
+      <c r="F275" t="n">
+        <v>28</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="I275" t="n">
+        <v>2</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="n">
+        <v>2</v>
+      </c>
+      <c r="L275" t="n">
+        <v>3</v>
+      </c>
+      <c r="M275" t="n">
+        <v>0</v>
+      </c>
+      <c r="N275" t="n">
+        <v>3</v>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>['3', '12', '49']</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q275" t="n">
+        <v>2</v>
+      </c>
+      <c r="R275" t="n">
+        <v>7</v>
+      </c>
+      <c r="S275" t="n">
+        <v>9</v>
+      </c>
+      <c r="T275" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U275" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V275" t="n">
+        <v>4</v>
+      </c>
+      <c r="W275" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X275" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB275" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC275" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD275" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE275" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF275" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG275" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH275" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI275" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ275" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK275" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL275" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM275" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN275" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO275" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP275" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ275" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR275" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS275" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT275" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU275" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV275" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW275" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX275" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AY275" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ275" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BA275" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB275" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC275" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD275" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE275" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BF275" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG275" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH275" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI275" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ275" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK275" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="n">
+        <v>2638273</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E276" s="2" t="n">
+        <v>45018.41666666666</v>
+      </c>
+      <c r="F276" t="n">
+        <v>28</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="n">
+        <v>1</v>
+      </c>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="n">
+        <v>0</v>
+      </c>
+      <c r="M276" t="n">
+        <v>2</v>
+      </c>
+      <c r="N276" t="n">
+        <v>2</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>['13', '56']</t>
+        </is>
+      </c>
+      <c r="Q276" t="n">
+        <v>8</v>
+      </c>
+      <c r="R276" t="n">
+        <v>3</v>
+      </c>
+      <c r="S276" t="n">
+        <v>11</v>
+      </c>
+      <c r="T276" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U276" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V276" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W276" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X276" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z276" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD276" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE276" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF276" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG276" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH276" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI276" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ276" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK276" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL276" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM276" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN276" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AO276" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP276" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ276" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR276" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AS276" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT276" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU276" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV276" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW276" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX276" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AY276" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ276" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BA276" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB276" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC276" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BD276" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE276" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BF276" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG276" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH276" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI276" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ276" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK276" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="n">
+        <v>2638275</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E277" s="2" t="n">
+        <v>45018.41666666666</v>
+      </c>
+      <c r="F277" t="n">
+        <v>28</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="n">
+        <v>1</v>
+      </c>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="n">
+        <v>1</v>
+      </c>
+      <c r="N277" t="n">
+        <v>2</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="Q277" t="n">
+        <v>9</v>
+      </c>
+      <c r="R277" t="n">
+        <v>5</v>
+      </c>
+      <c r="S277" t="n">
+        <v>14</v>
+      </c>
+      <c r="T277" t="n">
+        <v>3</v>
+      </c>
+      <c r="U277" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V277" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W277" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X277" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC277" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD277" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE277" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF277" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG277" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH277" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI277" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ277" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK277" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL277" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM277" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN277" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO277" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP277" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ277" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR277" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS277" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT277" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU277" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV277" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW277" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX277" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY277" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ277" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BA277" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB277" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC277" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD277" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE277" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF277" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG277" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH277" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI277" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ277" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK277" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="n">
+        <v>2638268</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E278" s="2" t="n">
+        <v>45018.54166666666</v>
+      </c>
+      <c r="F278" t="n">
+        <v>28</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0</v>
+      </c>
+      <c r="L278" t="n">
+        <v>3</v>
+      </c>
+      <c r="M278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N278" t="n">
+        <v>3</v>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>['57', '88', '90+4']</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q278" t="n">
+        <v>10</v>
+      </c>
+      <c r="R278" t="n">
+        <v>3</v>
+      </c>
+      <c r="S278" t="n">
+        <v>13</v>
+      </c>
+      <c r="T278" t="n">
+        <v>2</v>
+      </c>
+      <c r="U278" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V278" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W278" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X278" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC278" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD278" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE278" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF278" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG278" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH278" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI278" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ278" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK278" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL278" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM278" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN278" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO278" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP278" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ278" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR278" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AS278" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT278" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU278" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV278" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW278" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX278" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AY278" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ278" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BA278" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB278" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC278" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD278" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BE278" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF278" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG278" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH278" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI278" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ278" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK278" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="n">
+        <v>2638274</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E279" s="2" t="n">
+        <v>45018.65625</v>
+      </c>
+      <c r="F279" t="n">
+        <v>28</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="n">
+        <v>2</v>
+      </c>
+      <c r="K279" t="n">
+        <v>2</v>
+      </c>
+      <c r="L279" t="n">
+        <v>0</v>
+      </c>
+      <c r="M279" t="n">
+        <v>4</v>
+      </c>
+      <c r="N279" t="n">
+        <v>4</v>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>['17', '25', '59', '67']</t>
+        </is>
+      </c>
+      <c r="Q279" t="n">
+        <v>10</v>
+      </c>
+      <c r="R279" t="n">
+        <v>4</v>
+      </c>
+      <c r="S279" t="n">
+        <v>14</v>
+      </c>
+      <c r="T279" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U279" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V279" t="n">
+        <v>5</v>
+      </c>
+      <c r="W279" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X279" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB279" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC279" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AD279" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE279" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AF279" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG279" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH279" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI279" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ279" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK279" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL279" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM279" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN279" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO279" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP279" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ279" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AR279" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS279" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AT279" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AU279" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AV279" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW279" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AX279" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY279" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ279" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BA279" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB279" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC279" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD279" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE279" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF279" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG279" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH279" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI279" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ279" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK279" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="n">
+        <v>2638267</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E280" s="2" t="n">
+        <v>45019.60416666666</v>
+      </c>
+      <c r="F280" t="n">
+        <v>28</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N280" t="n">
+        <v>1</v>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q280" t="n">
+        <v>3</v>
+      </c>
+      <c r="R280" t="n">
+        <v>4</v>
+      </c>
+      <c r="S280" t="n">
+        <v>7</v>
+      </c>
+      <c r="T280" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U280" t="n">
+        <v>2</v>
+      </c>
+      <c r="V280" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W280" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X280" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB280" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC280" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD280" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE280" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF280" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG280" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH280" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI280" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ280" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK280" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL280" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM280" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN280" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO280" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP280" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ280" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR280" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS280" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT280" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU280" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV280" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW280" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX280" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AY280" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ280" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BA280" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB280" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC280" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD280" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE280" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF280" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG280" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH280" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI280" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ280" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK280" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="n">
+        <v>2638269</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E281" s="2" t="n">
+        <v>45019.65625</v>
+      </c>
+      <c r="F281" t="n">
+        <v>28</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="I281" t="n">
+        <v>1</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="n">
+        <v>1</v>
+      </c>
+      <c r="N281" t="n">
+        <v>2</v>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q281" t="n">
+        <v>6</v>
+      </c>
+      <c r="R281" t="n">
+        <v>7</v>
+      </c>
+      <c r="S281" t="n">
+        <v>13</v>
+      </c>
+      <c r="T281" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U281" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V281" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W281" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X281" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y281" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z281" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA281" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB281" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC281" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD281" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE281" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF281" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG281" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH281" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI281" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ281" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK281" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL281" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM281" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN281" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO281" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP281" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ281" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR281" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS281" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT281" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU281" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV281" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW281" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX281" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY281" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ281" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BA281" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB281" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC281" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD281" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BE281" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF281" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG281" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH281" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI281" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ281" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK281" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK290"/>
+  <dimension ref="A1:BK291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>1.21</v>
@@ -4760,7 +4760,7 @@
         <v>0.47</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU21" t="n">
         <v>1.41</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT23" t="n">
         <v>1.29</v>
@@ -9023,7 +9023,7 @@
         <v>1.53</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU42" t="n">
         <v>2.22</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT44" t="n">
         <v>2.67</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT59" t="n">
         <v>0.36</v>
@@ -14301,7 +14301,7 @@
         <v>1.27</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU68" t="n">
         <v>1.45</v>
@@ -15719,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT75" t="n">
         <v>0.64</v>
@@ -17346,7 +17346,7 @@
         <v>2.14</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU83" t="n">
         <v>2.05</v>
@@ -19376,7 +19376,7 @@
         <v>1.36</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU93" t="n">
         <v>1.49</v>
@@ -20185,7 +20185,7 @@
         <v>2.25</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT97" t="n">
         <v>1.27</v>
@@ -23436,7 +23436,7 @@
         <v>0.86</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU113" t="n">
         <v>1.25</v>
@@ -24448,7 +24448,7 @@
         <v>0.6</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT118" t="n">
         <v>0.86</v>
@@ -28917,7 +28917,7 @@
         <v>1.13</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU140" t="n">
         <v>1.37</v>
@@ -29117,7 +29117,7 @@
         <v>0.67</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT141" t="n">
         <v>1.14</v>
@@ -32571,7 +32571,7 @@
         <v>0.43</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU158" t="n">
         <v>1.54</v>
@@ -34395,7 +34395,7 @@
         <v>0.88</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT167" t="n">
         <v>0.87</v>
@@ -35413,7 +35413,7 @@
         <v>2.43</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU172" t="n">
         <v>2.35</v>
@@ -39267,7 +39267,7 @@
         <v>1.78</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT191" t="n">
         <v>1.47</v>
@@ -40891,7 +40891,7 @@
         <v>0.89</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT199" t="n">
         <v>1.29</v>
@@ -43330,7 +43330,7 @@
         <v>1.13</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU211" t="n">
         <v>1.42</v>
@@ -44139,7 +44139,7 @@
         <v>1.91</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT215" t="n">
         <v>1.8</v>
@@ -46984,7 +46984,7 @@
         <v>1.13</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU229" t="n">
         <v>1.45</v>
@@ -49011,7 +49011,7 @@
         <v>0.73</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT239" t="n">
         <v>0.57</v>
@@ -51044,7 +51044,7 @@
         <v>2</v>
       </c>
       <c r="AT249" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU249" t="n">
         <v>1.67</v>
@@ -55304,7 +55304,7 @@
         <v>1.69</v>
       </c>
       <c r="AS270" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT270" t="n">
         <v>1.67</v>
@@ -55510,7 +55510,7 @@
         <v>2.2</v>
       </c>
       <c r="AT271" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU271" t="n">
         <v>1.75</v>
@@ -59203,16 +59203,16 @@
         <v>2</v>
       </c>
       <c r="BG289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BI289" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BJ289" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BK289" t="n">
         <v>6</v>
@@ -59403,22 +59403,225 @@
         <v>3.28</v>
       </c>
       <c r="BF290" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG290" t="n">
         <v>6</v>
       </c>
       <c r="BH290" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI290" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ290" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK290" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="n">
+        <v>2638283</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E291" s="2" t="n">
+        <v>45024.65625</v>
+      </c>
+      <c r="F291" t="n">
+        <v>29</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I291" t="n">
+        <v>1</v>
+      </c>
+      <c r="J291" t="n">
+        <v>1</v>
+      </c>
+      <c r="K291" t="n">
+        <v>2</v>
+      </c>
+      <c r="L291" t="n">
+        <v>2</v>
+      </c>
+      <c r="M291" t="n">
+        <v>1</v>
+      </c>
+      <c r="N291" t="n">
         <v>3</v>
       </c>
-      <c r="BI290" t="n">
-        <v>7</v>
-      </c>
-      <c r="BJ290" t="n">
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>['38', '53']</t>
+        </is>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q291" t="n">
+        <v>6</v>
+      </c>
+      <c r="R291" t="n">
+        <v>6</v>
+      </c>
+      <c r="S291" t="n">
+        <v>12</v>
+      </c>
+      <c r="T291" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U291" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V291" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W291" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X291" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y291" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z291" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA291" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB291" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC291" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD291" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE291" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF291" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG291" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AH291" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI291" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ291" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK291" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL291" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM291" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN291" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AO291" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP291" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ291" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AR291" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS291" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT291" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU291" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV291" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW291" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX291" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AY291" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ291" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA291" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB291" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC291" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BD291" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BE291" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="BF291" t="n">
         <v>5</v>
       </c>
-      <c r="BK290" t="n">
-        <v>13</v>
+      <c r="BG291" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH291" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI291" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ291" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK291" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK291"/>
+  <dimension ref="A1:BK293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.36</v>
       </c>
       <c r="AT13" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AT25" t="n">
         <v>1.27</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT27" t="n">
         <v>1.07</v>
@@ -6587,7 +6587,7 @@
         <v>0.86</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU30" t="n">
         <v>1.21</v>
@@ -7805,7 +7805,7 @@
         <v>0.47</v>
       </c>
       <c r="AT36" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU36" t="n">
         <v>1.22</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AT45" t="n">
         <v>1.07</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT46" t="n">
         <v>1.21</v>
@@ -10647,7 +10647,7 @@
         <v>1.13</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU50" t="n">
         <v>1.55</v>
@@ -13286,7 +13286,7 @@
         <v>1.73</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU63" t="n">
         <v>1.55</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT64" t="n">
         <v>0.57</v>
@@ -14501,10 +14501,10 @@
         <v>1</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AT69" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU69" t="n">
         <v>1.53</v>
@@ -17752,7 +17752,7 @@
         <v>1.36</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU85" t="n">
         <v>1.05</v>
@@ -18561,7 +18561,7 @@
         <v>2.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AT89" t="n">
         <v>2.67</v>
@@ -18970,7 +18970,7 @@
         <v>1.53</v>
       </c>
       <c r="AT91" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU91" t="n">
         <v>2.24</v>
@@ -19982,7 +19982,7 @@
         <v>0.4</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT96" t="n">
         <v>0.67</v>
@@ -21203,7 +21203,7 @@
         <v>2.4</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU102" t="n">
         <v>1.87</v>
@@ -22421,7 +22421,7 @@
         <v>1.5</v>
       </c>
       <c r="AT108" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU108" t="n">
         <v>1.62</v>
@@ -22824,7 +22824,7 @@
         <v>0.25</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AT110" t="n">
         <v>0.57</v>
@@ -24042,7 +24042,7 @@
         <v>0.4</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT116" t="n">
         <v>1.29</v>
@@ -24245,7 +24245,7 @@
         <v>2</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AT117" t="n">
         <v>1.27</v>
@@ -26887,7 +26887,7 @@
         <v>2</v>
       </c>
       <c r="AT130" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU130" t="n">
         <v>1.97</v>
@@ -27290,7 +27290,7 @@
         <v>1.83</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT132" t="n">
         <v>1.27</v>
@@ -27496,7 +27496,7 @@
         <v>2.43</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU133" t="n">
         <v>2.45</v>
@@ -27696,7 +27696,7 @@
         <v>1.83</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AT134" t="n">
         <v>1.47</v>
@@ -31150,7 +31150,7 @@
         <v>2.4</v>
       </c>
       <c r="AT151" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU151" t="n">
         <v>1.89</v>
@@ -31756,7 +31756,7 @@
         <v>2.29</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT154" t="n">
         <v>1.8</v>
@@ -32165,7 +32165,7 @@
         <v>0.86</v>
       </c>
       <c r="AT156" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU156" t="n">
         <v>1.24</v>
@@ -32568,7 +32568,7 @@
         <v>1.57</v>
       </c>
       <c r="AS158" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AT158" t="n">
         <v>1.64</v>
@@ -33180,7 +33180,7 @@
         <v>1.43</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU161" t="n">
         <v>1.67</v>
@@ -34192,7 +34192,7 @@
         <v>1</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT166" t="n">
         <v>1</v>
@@ -34398,7 +34398,7 @@
         <v>2</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU167" t="n">
         <v>1.49</v>
@@ -35613,7 +35613,7 @@
         <v>0.63</v>
       </c>
       <c r="AS173" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AT173" t="n">
         <v>1.14</v>
@@ -36225,7 +36225,7 @@
         <v>1.5</v>
       </c>
       <c r="AT176" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU176" t="n">
         <v>1.5</v>
@@ -38455,7 +38455,7 @@
         <v>2</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT187" t="n">
         <v>1.67</v>
@@ -39067,7 +39067,7 @@
         <v>2.2</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU190" t="n">
         <v>1.76</v>
@@ -40079,7 +40079,7 @@
         <v>1.44</v>
       </c>
       <c r="AS195" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AT195" t="n">
         <v>1.29</v>
@@ -41500,7 +41500,7 @@
         <v>0.9</v>
       </c>
       <c r="AS202" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AT202" t="n">
         <v>1</v>
@@ -41706,7 +41706,7 @@
         <v>2</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU203" t="n">
         <v>1.75</v>
@@ -42109,7 +42109,7 @@
         <v>2.5</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT205" t="n">
         <v>2.67</v>
@@ -42924,7 +42924,7 @@
         <v>1.13</v>
       </c>
       <c r="AT209" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU209" t="n">
         <v>1.46</v>
@@ -46578,7 +46578,7 @@
         <v>1.13</v>
       </c>
       <c r="AT227" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU227" t="n">
         <v>1.32</v>
@@ -46781,7 +46781,7 @@
         <v>1.53</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU228" t="n">
         <v>2.14</v>
@@ -46981,7 +46981,7 @@
         <v>1.7</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT229" t="n">
         <v>1.64</v>
@@ -49214,7 +49214,7 @@
         <v>1.83</v>
       </c>
       <c r="AS240" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AT240" t="n">
         <v>1.67</v>
@@ -49623,7 +49623,7 @@
         <v>2.43</v>
       </c>
       <c r="AT242" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU242" t="n">
         <v>2.2</v>
@@ -49826,7 +49826,7 @@
         <v>1.27</v>
       </c>
       <c r="AT243" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU243" t="n">
         <v>1.62</v>
@@ -50432,7 +50432,7 @@
         <v>0.36</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT246" t="n">
         <v>0.36</v>
@@ -51650,7 +51650,7 @@
         <v>1.42</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT252" t="n">
         <v>1.29</v>
@@ -52262,7 +52262,7 @@
         <v>1.73</v>
       </c>
       <c r="AT255" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU255" t="n">
         <v>1.58</v>
@@ -52868,7 +52868,7 @@
         <v>1</v>
       </c>
       <c r="AS258" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AT258" t="n">
         <v>1.29</v>
@@ -53886,7 +53886,7 @@
         <v>1.5</v>
       </c>
       <c r="AT263" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU263" t="n">
         <v>1.88</v>
@@ -55710,7 +55710,7 @@
         <v>1.71</v>
       </c>
       <c r="AS272" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AT272" t="n">
         <v>1.8</v>
@@ -56525,7 +56525,7 @@
         <v>1.27</v>
       </c>
       <c r="AT276" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU276" t="n">
         <v>1.6</v>
@@ -56725,7 +56725,7 @@
         <v>0.85</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT277" t="n">
         <v>0.86</v>
@@ -58149,7 +58149,7 @@
         <v>2.14</v>
       </c>
       <c r="AT284" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU284" t="n">
         <v>1.87</v>
@@ -59622,6 +59622,412 @@
       </c>
       <c r="BK291" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="n">
+        <v>2638287</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E292" s="2" t="n">
+        <v>45030.5625</v>
+      </c>
+      <c r="F292" t="n">
+        <v>30</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="I292" t="n">
+        <v>1</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="n">
+        <v>0</v>
+      </c>
+      <c r="N292" t="n">
+        <v>1</v>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q292" t="n">
+        <v>3</v>
+      </c>
+      <c r="R292" t="n">
+        <v>8</v>
+      </c>
+      <c r="S292" t="n">
+        <v>11</v>
+      </c>
+      <c r="T292" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U292" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V292" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W292" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X292" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y292" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z292" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA292" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB292" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC292" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AD292" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AE292" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AF292" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG292" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH292" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI292" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ292" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK292" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL292" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM292" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN292" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO292" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP292" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ292" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR292" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AS292" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AT292" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AU292" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV292" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW292" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX292" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY292" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ292" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BA292" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB292" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC292" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BD292" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE292" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF292" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG292" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH292" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI292" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ292" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK292" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" t="n">
+        <v>2638294</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E293" s="2" t="n">
+        <v>45030.65625</v>
+      </c>
+      <c r="F293" t="n">
+        <v>30</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="I293" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" t="n">
+        <v>1</v>
+      </c>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="n">
+        <v>0</v>
+      </c>
+      <c r="M293" t="n">
+        <v>3</v>
+      </c>
+      <c r="N293" t="n">
+        <v>3</v>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>['36', '52', '89']</t>
+        </is>
+      </c>
+      <c r="Q293" t="n">
+        <v>1</v>
+      </c>
+      <c r="R293" t="n">
+        <v>1</v>
+      </c>
+      <c r="S293" t="n">
+        <v>2</v>
+      </c>
+      <c r="T293" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U293" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V293" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W293" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X293" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y293" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z293" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA293" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB293" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC293" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AD293" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AE293" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AF293" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG293" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH293" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI293" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ293" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK293" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL293" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM293" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN293" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO293" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP293" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ293" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR293" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS293" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT293" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AU293" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV293" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW293" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX293" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AY293" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ293" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BA293" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB293" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC293" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD293" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE293" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF293" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG293" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH293" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI293" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ293" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK293" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK293"/>
+  <dimension ref="A1:BK300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.14</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT4" t="n">
         <v>1.29</v>
@@ -2933,7 +2933,7 @@
         <v>1.43</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT13" t="n">
         <v>2.07</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT14" t="n">
         <v>0.64</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT15" t="n">
         <v>1</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.5</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT20" t="n">
         <v>0.67</v>
@@ -4760,7 +4760,7 @@
         <v>0.47</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU21" t="n">
         <v>1.41</v>
@@ -4963,7 +4963,7 @@
         <v>1.27</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU22" t="n">
         <v>1.61</v>
@@ -6384,7 +6384,7 @@
         <v>1.13</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AU29" t="n">
         <v>1.46</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT30" t="n">
         <v>0.8100000000000001</v>
@@ -6990,10 +6990,10 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU32" t="n">
         <v>1.42</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT33" t="n">
         <v>0.67</v>
@@ -7396,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU34" t="n">
         <v>2.92</v>
@@ -8008,7 +8008,7 @@
         <v>1.36</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU37" t="n">
         <v>0.67</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AT38" t="n">
         <v>1</v>
@@ -8614,10 +8614,10 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU40" t="n">
         <v>1.94</v>
@@ -9023,7 +9023,7 @@
         <v>1.53</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU42" t="n">
         <v>2.22</v>
@@ -10038,7 +10038,7 @@
         <v>1.13</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AU47" t="n">
         <v>1.14</v>
@@ -10847,7 +10847,7 @@
         <v>0.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT51" t="n">
         <v>1</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AT52" t="n">
         <v>0.64</v>
@@ -11253,7 +11253,7 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT53" t="n">
         <v>1.27</v>
@@ -11459,7 +11459,7 @@
         <v>0.47</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU54" t="n">
         <v>1.28</v>
@@ -11862,7 +11862,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT56" t="n">
         <v>1.29</v>
@@ -12065,10 +12065,10 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU57" t="n">
         <v>1.54</v>
@@ -12268,10 +12268,10 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU58" t="n">
         <v>1.19</v>
@@ -12474,7 +12474,7 @@
         <v>2</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU59" t="n">
         <v>1.41</v>
@@ -12677,7 +12677,7 @@
         <v>2.4</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU60" t="n">
         <v>1.64</v>
@@ -13283,7 +13283,7 @@
         <v>0.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT63" t="n">
         <v>0.8100000000000001</v>
@@ -13489,7 +13489,7 @@
         <v>1.06</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AU64" t="n">
         <v>1.4</v>
@@ -13689,7 +13689,7 @@
         <v>0.67</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT65" t="n">
         <v>1.07</v>
@@ -14098,7 +14098,7 @@
         <v>1.53</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU67" t="n">
         <v>2.32</v>
@@ -14301,7 +14301,7 @@
         <v>1.27</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU68" t="n">
         <v>1.45</v>
@@ -14704,7 +14704,7 @@
         <v>3</v>
       </c>
       <c r="AS70" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT70" t="n">
         <v>1.8</v>
@@ -15110,7 +15110,7 @@
         <v>1.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AT72" t="n">
         <v>1.27</v>
@@ -15313,7 +15313,7 @@
         <v>1.75</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT73" t="n">
         <v>1.67</v>
@@ -15519,7 +15519,7 @@
         <v>1.36</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU74" t="n">
         <v>1.52</v>
@@ -15922,7 +15922,7 @@
         <v>0.25</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT76" t="n">
         <v>0.67</v>
@@ -16128,7 +16128,7 @@
         <v>0.47</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU77" t="n">
         <v>1.29</v>
@@ -16328,10 +16328,10 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU78" t="n">
         <v>1.04</v>
@@ -16940,7 +16940,7 @@
         <v>1.13</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU81" t="n">
         <v>1.47</v>
@@ -17140,7 +17140,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT82" t="n">
         <v>1.29</v>
@@ -17346,7 +17346,7 @@
         <v>2.14</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU83" t="n">
         <v>2.05</v>
@@ -17546,10 +17546,10 @@
         <v>0</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AU84" t="n">
         <v>1.67</v>
@@ -17749,7 +17749,7 @@
         <v>1.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT85" t="n">
         <v>0.8100000000000001</v>
@@ -18158,7 +18158,7 @@
         <v>1.13</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU87" t="n">
         <v>1.68</v>
@@ -18764,7 +18764,7 @@
         <v>1</v>
       </c>
       <c r="AS90" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT90" t="n">
         <v>1</v>
@@ -19173,7 +19173,7 @@
         <v>1.36</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU92" t="n">
         <v>1.56</v>
@@ -19373,10 +19373,10 @@
         <v>0.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU93" t="n">
         <v>1.49</v>
@@ -19779,10 +19779,10 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU95" t="n">
         <v>1.95</v>
@@ -20188,7 +20188,7 @@
         <v>2</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU97" t="n">
         <v>1.53</v>
@@ -20388,7 +20388,7 @@
         <v>0.25</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AT98" t="n">
         <v>1.21</v>
@@ -20594,7 +20594,7 @@
         <v>1.13</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU99" t="n">
         <v>1.33</v>
@@ -20997,7 +20997,7 @@
         <v>0.25</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT101" t="n">
         <v>1.29</v>
@@ -21609,7 +21609,7 @@
         <v>2.14</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU104" t="n">
         <v>2.04</v>
@@ -22215,7 +22215,7 @@
         <v>0.8</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT107" t="n">
         <v>1</v>
@@ -22621,7 +22621,7 @@
         <v>2.6</v>
       </c>
       <c r="AS109" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT109" t="n">
         <v>2.67</v>
@@ -22827,7 +22827,7 @@
         <v>0.6</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AU110" t="n">
         <v>1.57</v>
@@ -23027,10 +23027,10 @@
         <v>0.4</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU111" t="n">
         <v>1.38</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AT112" t="n">
         <v>1.07</v>
@@ -23433,10 +23433,10 @@
         <v>1</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU113" t="n">
         <v>1.25</v>
@@ -23636,10 +23636,10 @@
         <v>0.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AU114" t="n">
         <v>1.95</v>
@@ -24248,7 +24248,7 @@
         <v>0.6</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU117" t="n">
         <v>1.68</v>
@@ -24451,7 +24451,7 @@
         <v>2</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU118" t="n">
         <v>1.46</v>
@@ -24651,10 +24651,10 @@
         <v>2.2</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU119" t="n">
         <v>1.52</v>
@@ -26275,7 +26275,7 @@
         <v>1.5</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT127" t="n">
         <v>1.27</v>
@@ -26684,7 +26684,7 @@
         <v>1.27</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU129" t="n">
         <v>1.43</v>
@@ -26884,7 +26884,7 @@
         <v>2.2</v>
       </c>
       <c r="AS130" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT130" t="n">
         <v>2.07</v>
@@ -27293,7 +27293,7 @@
         <v>1.06</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU132" t="n">
         <v>1.55</v>
@@ -27493,7 +27493,7 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AT133" t="n">
         <v>0.8100000000000001</v>
@@ -27699,7 +27699,7 @@
         <v>0.6</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU134" t="n">
         <v>1.66</v>
@@ -27899,7 +27899,7 @@
         <v>2.29</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT135" t="n">
         <v>1.67</v>
@@ -28102,7 +28102,7 @@
         <v>2.67</v>
       </c>
       <c r="AS136" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT136" t="n">
         <v>1.8</v>
@@ -28305,10 +28305,10 @@
         <v>0.67</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AU137" t="n">
         <v>1.46</v>
@@ -28508,7 +28508,7 @@
         <v>0.67</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT138" t="n">
         <v>1.21</v>
@@ -28714,7 +28714,7 @@
         <v>1.53</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU139" t="n">
         <v>2.15</v>
@@ -28917,7 +28917,7 @@
         <v>1.13</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU140" t="n">
         <v>1.37</v>
@@ -29120,7 +29120,7 @@
         <v>2</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU141" t="n">
         <v>1.51</v>
@@ -29523,10 +29523,10 @@
         <v>1.71</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU143" t="n">
         <v>2.45</v>
@@ -29929,7 +29929,7 @@
         <v>0.71</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT145" t="n">
         <v>1.07</v>
@@ -30541,7 +30541,7 @@
         <v>1.27</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU148" t="n">
         <v>1.43</v>
@@ -30741,7 +30741,7 @@
         <v>1.29</v>
       </c>
       <c r="AS149" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT149" t="n">
         <v>1.27</v>
@@ -31353,7 +31353,7 @@
         <v>1.13</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU152" t="n">
         <v>1.58</v>
@@ -31553,10 +31553,10 @@
         <v>0.57</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AU153" t="n">
         <v>1.46</v>
@@ -31959,10 +31959,10 @@
         <v>0.29</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU155" t="n">
         <v>1.43</v>
@@ -32162,7 +32162,7 @@
         <v>2</v>
       </c>
       <c r="AS156" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT156" t="n">
         <v>2.07</v>
@@ -32365,7 +32365,7 @@
         <v>0.57</v>
       </c>
       <c r="AS157" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT157" t="n">
         <v>1.21</v>
@@ -32571,7 +32571,7 @@
         <v>0.6</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU158" t="n">
         <v>1.54</v>
@@ -32774,7 +32774,7 @@
         <v>1.53</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU159" t="n">
         <v>2.17</v>
@@ -32974,7 +32974,7 @@
         <v>2.71</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT160" t="n">
         <v>2.67</v>
@@ -33586,7 +33586,7 @@
         <v>2.4</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU163" t="n">
         <v>1.89</v>
@@ -35207,7 +35207,7 @@
         <v>2.13</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT171" t="n">
         <v>1.8</v>
@@ -35410,10 +35410,10 @@
         <v>1.75</v>
       </c>
       <c r="AS172" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU172" t="n">
         <v>2.35</v>
@@ -35616,7 +35616,7 @@
         <v>0.6</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU173" t="n">
         <v>1.56</v>
@@ -35816,10 +35816,10 @@
         <v>1.88</v>
       </c>
       <c r="AS174" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU174" t="n">
         <v>1.28</v>
@@ -36019,10 +36019,10 @@
         <v>0.38</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU175" t="n">
         <v>1.82</v>
@@ -36222,7 +36222,7 @@
         <v>1.75</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT176" t="n">
         <v>2.07</v>
@@ -36425,7 +36425,7 @@
         <v>0.38</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT177" t="n">
         <v>0.64</v>
@@ -36834,7 +36834,7 @@
         <v>1.5</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU179" t="n">
         <v>1.64</v>
@@ -37034,7 +37034,7 @@
         <v>1</v>
       </c>
       <c r="AS180" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT180" t="n">
         <v>1.29</v>
@@ -37240,7 +37240,7 @@
         <v>1.36</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AU181" t="n">
         <v>1.6</v>
@@ -38052,7 +38052,7 @@
         <v>0.47</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU185" t="n">
         <v>1.13</v>
@@ -38861,7 +38861,7 @@
         <v>0.44</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT189" t="n">
         <v>0.67</v>
@@ -39064,7 +39064,7 @@
         <v>0.89</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT190" t="n">
         <v>0.8100000000000001</v>
@@ -39270,7 +39270,7 @@
         <v>2</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU191" t="n">
         <v>1.54</v>
@@ -39470,7 +39470,7 @@
         <v>0.67</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT192" t="n">
         <v>0.64</v>
@@ -39673,10 +39673,10 @@
         <v>0.67</v>
       </c>
       <c r="AS193" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU193" t="n">
         <v>1.34</v>
@@ -40285,7 +40285,7 @@
         <v>1.5</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AU196" t="n">
         <v>1.72</v>
@@ -40691,7 +40691,7 @@
         <v>2.4</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU198" t="n">
         <v>1.89</v>
@@ -41094,7 +41094,7 @@
         <v>2.1</v>
       </c>
       <c r="AS200" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AT200" t="n">
         <v>1.67</v>
@@ -41300,7 +41300,7 @@
         <v>1.43</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU201" t="n">
         <v>1.79</v>
@@ -41703,7 +41703,7 @@
         <v>1.1</v>
       </c>
       <c r="AS203" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT203" t="n">
         <v>0.8100000000000001</v>
@@ -41906,7 +41906,7 @@
         <v>2.1</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT204" t="n">
         <v>1.8</v>
@@ -42312,10 +42312,10 @@
         <v>1.5</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU206" t="n">
         <v>1.46</v>
@@ -42718,10 +42718,10 @@
         <v>1.6</v>
       </c>
       <c r="AS208" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU208" t="n">
         <v>1.68</v>
@@ -43127,7 +43127,7 @@
         <v>1.27</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AU210" t="n">
         <v>1.58</v>
@@ -43330,7 +43330,7 @@
         <v>1.13</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU211" t="n">
         <v>1.42</v>
@@ -43936,7 +43936,7 @@
         <v>1.91</v>
       </c>
       <c r="AS214" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT214" t="n">
         <v>1.67</v>
@@ -44545,10 +44545,10 @@
         <v>1.1</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU217" t="n">
         <v>1.54</v>
@@ -44951,7 +44951,7 @@
         <v>0.5</v>
       </c>
       <c r="AS219" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AT219" t="n">
         <v>0.67</v>
@@ -45157,7 +45157,7 @@
         <v>1.13</v>
       </c>
       <c r="AT220" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU220" t="n">
         <v>1.49</v>
@@ -45560,7 +45560,7 @@
         <v>2.55</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT222" t="n">
         <v>2.67</v>
@@ -45969,7 +45969,7 @@
         <v>1.27</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU224" t="n">
         <v>1.64</v>
@@ -46169,10 +46169,10 @@
         <v>1.36</v>
       </c>
       <c r="AS225" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU225" t="n">
         <v>1.73</v>
@@ -46984,7 +46984,7 @@
         <v>1.06</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU229" t="n">
         <v>1.45</v>
@@ -47184,10 +47184,10 @@
         <v>0.4</v>
       </c>
       <c r="AS230" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT230" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU230" t="n">
         <v>1.72</v>
@@ -47387,7 +47387,7 @@
         <v>0.45</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT231" t="n">
         <v>0.67</v>
@@ -47793,7 +47793,7 @@
         <v>0.83</v>
       </c>
       <c r="AS233" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT233" t="n">
         <v>1.07</v>
@@ -47996,7 +47996,7 @@
         <v>1.55</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT234" t="n">
         <v>1.29</v>
@@ -48202,7 +48202,7 @@
         <v>1.13</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU235" t="n">
         <v>1.28</v>
@@ -49014,7 +49014,7 @@
         <v>2</v>
       </c>
       <c r="AT239" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AU239" t="n">
         <v>1.52</v>
@@ -49620,7 +49620,7 @@
         <v>1.91</v>
       </c>
       <c r="AS242" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AT242" t="n">
         <v>2.07</v>
@@ -50029,7 +50029,7 @@
         <v>1.5</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU244" t="n">
         <v>1.85</v>
@@ -50232,7 +50232,7 @@
         <v>1.53</v>
       </c>
       <c r="AT245" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU245" t="n">
         <v>2.07</v>
@@ -50435,7 +50435,7 @@
         <v>1.06</v>
       </c>
       <c r="AT246" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU246" t="n">
         <v>1.47</v>
@@ -50638,7 +50638,7 @@
         <v>0.47</v>
       </c>
       <c r="AT247" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU247" t="n">
         <v>1.06</v>
@@ -50838,7 +50838,7 @@
         <v>1.25</v>
       </c>
       <c r="AS248" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT248" t="n">
         <v>1</v>
@@ -51041,10 +51041,10 @@
         <v>1.82</v>
       </c>
       <c r="AS249" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT249" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU249" t="n">
         <v>1.67</v>
@@ -51244,7 +51244,7 @@
         <v>0.5</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT250" t="n">
         <v>0.67</v>
@@ -51447,7 +51447,7 @@
         <v>1.18</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT251" t="n">
         <v>1.21</v>
@@ -51856,7 +51856,7 @@
         <v>1.36</v>
       </c>
       <c r="AT253" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU253" t="n">
         <v>1.62</v>
@@ -52056,7 +52056,7 @@
         <v>1.85</v>
       </c>
       <c r="AS254" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AT254" t="n">
         <v>1.8</v>
@@ -52259,7 +52259,7 @@
         <v>2</v>
       </c>
       <c r="AS255" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT255" t="n">
         <v>2.07</v>
@@ -52462,7 +52462,7 @@
         <v>1.15</v>
       </c>
       <c r="AS256" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT256" t="n">
         <v>1.27</v>
@@ -52668,7 +52668,7 @@
         <v>1.13</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU257" t="n">
         <v>1.52</v>
@@ -53071,7 +53071,7 @@
         <v>1</v>
       </c>
       <c r="AS259" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT259" t="n">
         <v>1.07</v>
@@ -53277,7 +53277,7 @@
         <v>2.4</v>
       </c>
       <c r="AT260" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AU260" t="n">
         <v>1.87</v>
@@ -53480,7 +53480,7 @@
         <v>2.14</v>
       </c>
       <c r="AT261" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU261" t="n">
         <v>1.83</v>
@@ -53680,7 +53680,7 @@
         <v>0.67</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT262" t="n">
         <v>0.64</v>
@@ -54495,7 +54495,7 @@
         <v>1.43</v>
       </c>
       <c r="AT266" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU266" t="n">
         <v>1.91</v>
@@ -54698,7 +54698,7 @@
         <v>0.47</v>
       </c>
       <c r="AT267" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU267" t="n">
         <v>1.06</v>
@@ -54898,7 +54898,7 @@
         <v>2.62</v>
       </c>
       <c r="AS268" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT268" t="n">
         <v>2.67</v>
@@ -55507,10 +55507,10 @@
         <v>1.67</v>
       </c>
       <c r="AS271" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT271" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU271" t="n">
         <v>1.75</v>
@@ -55913,7 +55913,7 @@
         <v>1.15</v>
       </c>
       <c r="AS273" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT273" t="n">
         <v>1.29</v>
@@ -56119,7 +56119,7 @@
         <v>2.4</v>
       </c>
       <c r="AT274" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU274" t="n">
         <v>1.91</v>
@@ -56319,10 +56319,10 @@
         <v>1.36</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT275" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU275" t="n">
         <v>1.57</v>
@@ -56728,7 +56728,7 @@
         <v>1.06</v>
       </c>
       <c r="AT277" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU277" t="n">
         <v>1.45</v>
@@ -56928,10 +56928,10 @@
         <v>0.62</v>
       </c>
       <c r="AS278" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT278" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AU278" t="n">
         <v>1.62</v>
@@ -57131,10 +57131,10 @@
         <v>1.36</v>
       </c>
       <c r="AS279" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AT279" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU279" t="n">
         <v>2.1</v>
@@ -57537,7 +57537,7 @@
         <v>1.29</v>
       </c>
       <c r="AS281" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT281" t="n">
         <v>1.27</v>
@@ -57943,7 +57943,7 @@
         <v>2.64</v>
       </c>
       <c r="AS283" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT283" t="n">
         <v>2.67</v>
@@ -58352,7 +58352,7 @@
         <v>1.43</v>
       </c>
       <c r="AT285" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU285" t="n">
         <v>1.87</v>
@@ -59161,7 +59161,7 @@
         <v>1.57</v>
       </c>
       <c r="AS289" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT289" t="n">
         <v>1.67</v>
@@ -59570,7 +59570,7 @@
         <v>2</v>
       </c>
       <c r="AT291" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU291" t="n">
         <v>1.53</v>
@@ -59889,13 +59889,13 @@
         </is>
       </c>
       <c r="Q293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R293" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S293" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T293" t="n">
         <v>5.5</v>
@@ -60015,19 +60015,1440 @@
         <v>3</v>
       </c>
       <c r="BG293" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH293" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI293" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ293" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK293" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" t="n">
+        <v>2638286</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E294" s="2" t="n">
+        <v>45031.41666666666</v>
+      </c>
+      <c r="F294" t="n">
+        <v>30</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="I294" t="n">
+        <v>1</v>
+      </c>
+      <c r="J294" t="n">
+        <v>1</v>
+      </c>
+      <c r="K294" t="n">
+        <v>2</v>
+      </c>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="n">
+        <v>1</v>
+      </c>
+      <c r="N294" t="n">
+        <v>2</v>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q294" t="n">
+        <v>2</v>
+      </c>
+      <c r="R294" t="n">
+        <v>6</v>
+      </c>
+      <c r="S294" t="n">
+        <v>8</v>
+      </c>
+      <c r="T294" t="n">
+        <v>4</v>
+      </c>
+      <c r="U294" t="n">
+        <v>2</v>
+      </c>
+      <c r="V294" t="n">
         <v>3</v>
       </c>
-      <c r="BH293" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI293" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ293" t="n">
+      <c r="W294" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X294" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y294" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z294" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA294" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB294" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC294" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AD294" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE294" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF294" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG294" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH294" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI294" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ294" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK294" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL294" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM294" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN294" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO294" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP294" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ294" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR294" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS294" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT294" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU294" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV294" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW294" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX294" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AY294" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ294" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BA294" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB294" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC294" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BD294" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE294" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF294" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG294" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH294" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI294" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ294" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK294" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" t="n">
+        <v>2638292</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E295" s="2" t="n">
+        <v>45031.54166666666</v>
+      </c>
+      <c r="F295" t="n">
+        <v>30</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0</v>
+      </c>
+      <c r="L295" t="n">
+        <v>0</v>
+      </c>
+      <c r="M295" t="n">
+        <v>0</v>
+      </c>
+      <c r="N295" t="n">
+        <v>0</v>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q295" t="n">
         <v>4</v>
       </c>
-      <c r="BK293" t="n">
+      <c r="R295" t="n">
+        <v>0</v>
+      </c>
+      <c r="S295" t="n">
         <v>4</v>
+      </c>
+      <c r="T295" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U295" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V295" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W295" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X295" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y295" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z295" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA295" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB295" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC295" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD295" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AE295" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="AF295" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG295" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH295" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI295" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ295" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK295" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL295" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM295" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN295" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO295" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP295" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AQ295" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AR295" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AS295" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT295" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU295" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AV295" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW295" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX295" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY295" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ295" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BA295" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB295" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC295" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD295" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE295" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF295" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG295" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH295" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI295" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ295" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK295" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" t="n">
+        <v>2638288</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E296" s="2" t="n">
+        <v>45031.65625</v>
+      </c>
+      <c r="F296" t="n">
+        <v>30</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L296" t="n">
+        <v>0</v>
+      </c>
+      <c r="M296" t="n">
+        <v>1</v>
+      </c>
+      <c r="N296" t="n">
+        <v>1</v>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q296" t="n">
+        <v>5</v>
+      </c>
+      <c r="R296" t="n">
+        <v>2</v>
+      </c>
+      <c r="S296" t="n">
+        <v>7</v>
+      </c>
+      <c r="T296" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U296" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V296" t="n">
+        <v>7</v>
+      </c>
+      <c r="W296" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X296" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z296" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB296" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC296" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD296" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AE296" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AF296" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG296" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH296" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI296" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ296" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK296" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL296" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM296" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN296" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO296" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP296" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AQ296" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR296" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS296" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AT296" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU296" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV296" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW296" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX296" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AY296" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AZ296" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BA296" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB296" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC296" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD296" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE296" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF296" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG296" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH296" t="n">
+        <v>20</v>
+      </c>
+      <c r="BI296" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ296" t="n">
+        <v>27</v>
+      </c>
+      <c r="BK296" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" t="n">
+        <v>2638289</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E297" s="2" t="n">
+        <v>45032.3125</v>
+      </c>
+      <c r="F297" t="n">
+        <v>30</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="I297" t="n">
+        <v>1</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="n">
+        <v>1</v>
+      </c>
+      <c r="N297" t="n">
+        <v>2</v>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q297" t="n">
+        <v>11</v>
+      </c>
+      <c r="R297" t="n">
+        <v>8</v>
+      </c>
+      <c r="S297" t="n">
+        <v>19</v>
+      </c>
+      <c r="T297" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U297" t="n">
+        <v>2</v>
+      </c>
+      <c r="V297" t="n">
+        <v>5</v>
+      </c>
+      <c r="W297" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X297" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB297" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC297" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AD297" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE297" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AF297" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG297" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH297" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI297" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ297" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK297" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL297" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM297" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN297" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO297" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP297" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ297" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR297" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS297" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AT297" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU297" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV297" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW297" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX297" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AY297" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ297" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA297" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB297" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC297" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD297" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE297" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF297" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG297" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH297" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI297" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ297" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK297" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" t="n">
+        <v>2638295</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E298" s="2" t="n">
+        <v>45032.41666666666</v>
+      </c>
+      <c r="F298" t="n">
+        <v>30</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="I298" t="n">
+        <v>0</v>
+      </c>
+      <c r="J298" t="n">
+        <v>1</v>
+      </c>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="n">
+        <v>1</v>
+      </c>
+      <c r="N298" t="n">
+        <v>2</v>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="Q298" t="n">
+        <v>4</v>
+      </c>
+      <c r="R298" t="n">
+        <v>2</v>
+      </c>
+      <c r="S298" t="n">
+        <v>6</v>
+      </c>
+      <c r="T298" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U298" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V298" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W298" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X298" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y298" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z298" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA298" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB298" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC298" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD298" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE298" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AF298" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG298" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH298" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI298" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ298" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK298" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL298" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM298" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN298" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO298" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP298" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ298" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR298" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS298" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT298" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AU298" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV298" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW298" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX298" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY298" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AZ298" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="BA298" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB298" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC298" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BD298" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BE298" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF298" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG298" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH298" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI298" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ298" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK298" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" t="n">
+        <v>2638293</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E299" s="2" t="n">
+        <v>45032.54166666666</v>
+      </c>
+      <c r="F299" t="n">
+        <v>30</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="n">
+        <v>0</v>
+      </c>
+      <c r="N299" t="n">
+        <v>1</v>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q299" t="n">
+        <v>10</v>
+      </c>
+      <c r="R299" t="n">
+        <v>13</v>
+      </c>
+      <c r="S299" t="n">
+        <v>23</v>
+      </c>
+      <c r="T299" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U299" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V299" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W299" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X299" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y299" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z299" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA299" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB299" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC299" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD299" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE299" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF299" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG299" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH299" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI299" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ299" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK299" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL299" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM299" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN299" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AO299" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP299" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ299" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR299" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS299" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT299" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AU299" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV299" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW299" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX299" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AY299" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ299" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BA299" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB299" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC299" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD299" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE299" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF299" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG299" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH299" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI299" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ299" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK299" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" t="n">
+        <v>2638290</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E300" s="2" t="n">
+        <v>45032.65625</v>
+      </c>
+      <c r="F300" t="n">
+        <v>30</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="I300" t="n">
+        <v>1</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="n">
+        <v>3</v>
+      </c>
+      <c r="M300" t="n">
+        <v>0</v>
+      </c>
+      <c r="N300" t="n">
+        <v>3</v>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>['37', '55', '90+1']</t>
+        </is>
+      </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q300" t="n">
+        <v>6</v>
+      </c>
+      <c r="R300" t="n">
+        <v>2</v>
+      </c>
+      <c r="S300" t="n">
+        <v>8</v>
+      </c>
+      <c r="T300" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U300" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V300" t="n">
+        <v>5</v>
+      </c>
+      <c r="W300" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X300" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y300" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z300" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA300" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB300" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC300" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD300" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE300" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF300" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG300" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH300" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI300" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AJ300" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK300" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL300" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM300" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN300" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO300" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP300" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ300" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR300" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS300" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT300" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AU300" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV300" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW300" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX300" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY300" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ300" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BA300" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB300" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC300" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD300" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE300" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BF300" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG300" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH300" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI300" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ300" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK300" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK300"/>
+  <dimension ref="A1:BK301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>0.47</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT6" t="n">
         <v>0.67</v>
@@ -6181,7 +6181,7 @@
         <v>1.13</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU28" t="n">
         <v>0.91</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT31" t="n">
         <v>2.67</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT42" t="n">
         <v>1.53</v>
@@ -10444,7 +10444,7 @@
         <v>1.27</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU49" t="n">
         <v>1.56</v>
@@ -14095,7 +14095,7 @@
         <v>0.67</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT67" t="n">
         <v>0.4</v>
@@ -14707,7 +14707,7 @@
         <v>2.07</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU70" t="n">
         <v>2.3</v>
@@ -17955,7 +17955,7 @@
         <v>1.43</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU86" t="n">
         <v>1.64</v>
@@ -18967,7 +18967,7 @@
         <v>1.67</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT91" t="n">
         <v>2.07</v>
@@ -21809,7 +21809,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT105" t="n">
         <v>1.29</v>
@@ -23842,7 +23842,7 @@
         <v>1.36</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU115" t="n">
         <v>1.57</v>
@@ -28105,7 +28105,7 @@
         <v>0.87</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU136" t="n">
         <v>1.16</v>
@@ -28711,7 +28711,7 @@
         <v>1</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT139" t="n">
         <v>0.87</v>
@@ -31759,7 +31759,7 @@
         <v>1.06</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU154" t="n">
         <v>1.64</v>
@@ -32771,7 +32771,7 @@
         <v>0.57</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT159" t="n">
         <v>1.27</v>
@@ -33380,7 +33380,7 @@
         <v>0.63</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT162" t="n">
         <v>1.07</v>
@@ -35210,7 +35210,7 @@
         <v>1.69</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU171" t="n">
         <v>1.4</v>
@@ -37846,7 +37846,7 @@
         <v>1.22</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT184" t="n">
         <v>1.27</v>
@@ -38661,7 +38661,7 @@
         <v>2.4</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU188" t="n">
         <v>1.87</v>
@@ -41909,7 +41909,7 @@
         <v>1.6</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU204" t="n">
         <v>1.47</v>
@@ -42515,7 +42515,7 @@
         <v>0.78</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT207" t="n">
         <v>1.21</v>
@@ -44142,7 +44142,7 @@
         <v>2</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU215" t="n">
         <v>1.5</v>
@@ -46778,7 +46778,7 @@
         <v>1</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT228" t="n">
         <v>0.8100000000000001</v>
@@ -48608,7 +48608,7 @@
         <v>2.14</v>
       </c>
       <c r="AT237" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU237" t="n">
         <v>1.86</v>
@@ -50229,7 +50229,7 @@
         <v>1.58</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT245" t="n">
         <v>1.44</v>
@@ -52059,7 +52059,7 @@
         <v>2.33</v>
       </c>
       <c r="AT254" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU254" t="n">
         <v>2.11</v>
@@ -55101,7 +55101,7 @@
         <v>1.15</v>
       </c>
       <c r="AS269" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT269" t="n">
         <v>1</v>
@@ -55713,7 +55713,7 @@
         <v>0.6</v>
       </c>
       <c r="AT272" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU272" t="n">
         <v>1.51</v>
@@ -58552,7 +58552,7 @@
         <v>0.62</v>
       </c>
       <c r="AS286" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT286" t="n">
         <v>0.64</v>
@@ -61449,6 +61449,209 @@
       </c>
       <c r="BK300" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B301" t="n">
+        <v>2638291</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E301" s="2" t="n">
+        <v>45033.65625</v>
+      </c>
+      <c r="F301" t="n">
+        <v>30</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" t="n">
+        <v>1</v>
+      </c>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="n">
+        <v>1</v>
+      </c>
+      <c r="N301" t="n">
+        <v>2</v>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q301" t="n">
+        <v>5</v>
+      </c>
+      <c r="R301" t="n">
+        <v>1</v>
+      </c>
+      <c r="S301" t="n">
+        <v>6</v>
+      </c>
+      <c r="T301" t="n">
+        <v>3</v>
+      </c>
+      <c r="U301" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V301" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W301" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X301" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y301" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z301" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA301" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB301" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC301" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD301" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE301" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF301" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG301" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH301" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI301" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ301" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK301" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL301" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM301" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN301" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO301" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP301" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ301" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR301" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS301" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT301" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU301" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AV301" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW301" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AX301" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY301" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ301" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA301" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB301" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC301" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD301" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE301" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF301" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG301" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH301" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI301" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ301" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK301" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
